--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b92275a9bf72c170/Documents/SWGoH/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janwa\OneDrive\Documents\SWGoH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16500" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16500" windowHeight="8790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,180 +25,258 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="90">
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>TZ</t>
+  </si>
+  <si>
+    <t>UTC</t>
+  </si>
+  <si>
+    <t>PDT</t>
+  </si>
+  <si>
+    <t>CDT</t>
+  </si>
+  <si>
+    <t>EDT</t>
+  </si>
+  <si>
+    <t>TRT</t>
+  </si>
+  <si>
+    <t>MSK</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>SWGOH.GG</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>1-10</t>
+  </si>
+  <si>
+    <t>zhara</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo</t>
+  </si>
+  <si>
+    <t>21-50</t>
+  </si>
+  <si>
+    <t>cristiano</t>
+  </si>
+  <si>
+    <t>AbrekV</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>abrekv</t>
+  </si>
+  <si>
+    <t>Risen</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>11-20</t>
+  </si>
+  <si>
+    <t>eugene</t>
+  </si>
+  <si>
+    <t>zizoun</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Stirzla</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>stirzla</t>
+  </si>
+  <si>
+    <t>Ceberus Ironhart</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Hawthorne</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>hawthorne33</t>
+  </si>
+  <si>
+    <t>Noe</t>
+  </si>
+  <si>
+    <t>USA, South Carolina</t>
+  </si>
+  <si>
+    <t>noe</t>
+  </si>
+  <si>
+    <t>USA, Pennsylvania</t>
+  </si>
+  <si>
+    <t>kahhns</t>
+  </si>
+  <si>
+    <t>USA, Illinois</t>
+  </si>
+  <si>
+    <t>RΔsρberry</t>
+  </si>
+  <si>
+    <t>raspywalker</t>
+  </si>
+  <si>
+    <t>USA, Oregon</t>
+  </si>
+  <si>
+    <t>DST</t>
+  </si>
+  <si>
+    <t>No DST</t>
+  </si>
+  <si>
+    <t>5/11</t>
+  </si>
+  <si>
+    <t>29/10</t>
+  </si>
+  <si>
+    <t>CEST</t>
+  </si>
+  <si>
+    <t>EEST</t>
+  </si>
+  <si>
+    <t>ceberus</t>
+  </si>
+  <si>
+    <t>nika</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>CST</t>
+  </si>
+  <si>
+    <t>vk1559</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>Joined</t>
+  </si>
   <si>
     <t>Continent</t>
   </si>
   <si>
+    <t>Luca</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>ioz86</t>
+  </si>
+  <si>
+    <t>USA, Colorado</t>
+  </si>
+  <si>
+    <t>bernie</t>
+  </si>
+  <si>
+    <t>MDT</t>
+  </si>
+  <si>
+    <t>Bernie</t>
+  </si>
+  <si>
+    <t>☀</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>USA, Ohio</t>
+  </si>
+  <si>
+    <t>fireguy</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Joined</t>
+    <t>VK1559 (Leslie)</t>
+  </si>
+  <si>
+    <t>жараl4PDAl (Zhara)</t>
+  </si>
+  <si>
+    <t>Ника (Nika)</t>
+  </si>
+  <si>
+    <t>Jayzi</t>
+  </si>
+  <si>
+    <t>jayzi</t>
   </si>
   <si>
     <t>Sort</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>SWGOH.GG</t>
-  </si>
-  <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>TZ</t>
-  </si>
-  <si>
-    <t>UTC</t>
-  </si>
-  <si>
-    <t>DST</t>
-  </si>
-  <si>
-    <t>CST</t>
-  </si>
-  <si>
-    <t>MSK</t>
-  </si>
-  <si>
-    <t>TRT</t>
-  </si>
-  <si>
-    <t>EEST</t>
-  </si>
-  <si>
-    <t>CEST</t>
+    <t>TM MaX</t>
+  </si>
+  <si>
+    <t>tmmax</t>
+  </si>
+  <si>
+    <t>lordvader</t>
+  </si>
+  <si>
+    <t>LordVader</t>
   </si>
   <si>
     <t>BST</t>
   </si>
   <si>
-    <t>EDT</t>
-  </si>
-  <si>
-    <t>CDT</t>
-  </si>
-  <si>
-    <t>MDT</t>
-  </si>
-  <si>
-    <t>PDT</t>
-  </si>
-  <si>
-    <t>Asia</t>
-  </si>
-  <si>
-    <t>VK1559 (Leslie)</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>vk1559</t>
-  </si>
-  <si>
-    <t>11-20</t>
-  </si>
-  <si>
-    <t>☀</t>
-  </si>
-  <si>
-    <t>Europe</t>
-  </si>
-  <si>
-    <t>жараl4PDAl (Zhara)</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>zhara</t>
-  </si>
-  <si>
-    <t>1-10</t>
-  </si>
-  <si>
-    <t>Cristiano Ronaldo</t>
-  </si>
-  <si>
-    <t>cristiano</t>
-  </si>
-  <si>
-    <t>Ника (Nika)</t>
-  </si>
-  <si>
-    <t>nika</t>
-  </si>
-  <si>
-    <t>21-50</t>
-  </si>
-  <si>
-    <t>TM MaX</t>
-  </si>
-  <si>
-    <t>tmmax</t>
-  </si>
-  <si>
-    <t>AbrekV</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>abrekv</t>
-  </si>
-  <si>
-    <t>Risen</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>eugene</t>
-  </si>
-  <si>
-    <t>zizoun</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Stirzla</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>stirzla</t>
-  </si>
-  <si>
-    <t>Ceberus Ironhart</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>ceberus</t>
-  </si>
-  <si>
-    <t>Jonny</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>jonny</t>
-  </si>
-  <si>
-    <t>Luca</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>ioz86</t>
+    <t>UK, England</t>
+  </si>
+  <si>
+    <t>Elnino</t>
+  </si>
+  <si>
+    <t>elnino_79</t>
   </si>
   <si>
     <t>Tarnadas</t>
@@ -210,119 +288,23 @@
     <t>tarnadas</t>
   </si>
   <si>
-    <t>Jayzi</t>
-  </si>
-  <si>
-    <t>jayzi</t>
-  </si>
-  <si>
-    <t>Elnino</t>
-  </si>
-  <si>
-    <t>UK, England</t>
-  </si>
-  <si>
-    <t>elnino_79</t>
-  </si>
-  <si>
-    <t>America</t>
-  </si>
-  <si>
-    <t>Hawthorne</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>hawthorne33</t>
-  </si>
-  <si>
-    <t>Char Parr Liesh</t>
-  </si>
-  <si>
-    <t>USA, Virginia</t>
-  </si>
-  <si>
-    <t>charparrliesh</t>
-  </si>
-  <si>
-    <t>Noe</t>
-  </si>
-  <si>
-    <t>USA, South Carolina</t>
-  </si>
-  <si>
-    <t>noe</t>
-  </si>
-  <si>
-    <t>Fire</t>
-  </si>
-  <si>
-    <t>USA, Ohio</t>
-  </si>
-  <si>
-    <t>fireguy</t>
-  </si>
-  <si>
-    <t>LordVader</t>
-  </si>
-  <si>
-    <t>USA, Pennsylvania</t>
-  </si>
-  <si>
-    <t>lordvader</t>
-  </si>
-  <si>
-    <t>kahhns</t>
-  </si>
-  <si>
-    <t>USA, Illinois</t>
-  </si>
-  <si>
     <t>Phalanx</t>
   </si>
   <si>
+    <t>phalanx7452</t>
+  </si>
+  <si>
     <t>USA, Minnesota</t>
-  </si>
-  <si>
-    <t>phalanx7452</t>
-  </si>
-  <si>
-    <t>Bernie</t>
-  </si>
-  <si>
-    <t>USA, Colorado</t>
-  </si>
-  <si>
-    <t>bernie</t>
-  </si>
-  <si>
-    <t>RΔsρberry</t>
-  </si>
-  <si>
-    <t>USA, Oregon</t>
-  </si>
-  <si>
-    <t>raspywalker</t>
-  </si>
-  <si>
-    <t>No DST</t>
-  </si>
-  <si>
-    <t>29/10</t>
-  </si>
-  <si>
-    <t>5/11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -657,7 +639,23 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="hh:mm;@"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -998,54 +996,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1066,8 +1016,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B1:T25">
-  <autoFilter ref="B1:T25" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B1:T23">
+  <autoFilter ref="B1:T23">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1089,43 +1039,43 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" totalsRowLabel="Total" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Joined" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Sort" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Country" dataDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="SWGOH.GG" totalsRowFunction="count" dataDxfId="14" dataCellStyle="Hyperlink"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Rank" dataDxfId="13" dataCellStyle="Hyperlink"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="TZ" dataDxfId="12" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="UTC" dataDxfId="11"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="DST" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CST" dataDxfId="9">
+    <tableColumn id="1" name="Name" totalsRowLabel="Total" dataDxfId="20"/>
+    <tableColumn id="3" name="Joined" dataDxfId="19"/>
+    <tableColumn id="6" name="Sort" dataDxfId="18"/>
+    <tableColumn id="2" name="Country" dataDxfId="17"/>
+    <tableColumn id="14" name="SWGOH.GG" totalsRowFunction="count" dataDxfId="16" dataCellStyle="Hyperlink"/>
+    <tableColumn id="15" name="Rank" dataDxfId="15" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" name="TZ" dataDxfId="14" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" name="UTC" dataDxfId="13"/>
+    <tableColumn id="19" name="DST" dataDxfId="12"/>
+    <tableColumn id="5" name="CST" dataDxfId="11">
       <calculatedColumnFormula>$I2+Sheet2!B$1/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="MSK" dataDxfId="8">
+    <tableColumn id="13" name="MSK" dataDxfId="10">
       <calculatedColumnFormula>$I2+Sheet2!B$2/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="TRT" dataDxfId="7">
+    <tableColumn id="12" name="TRT" dataDxfId="9">
       <calculatedColumnFormula>$I2+Sheet2!B$3/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="EEST" dataDxfId="6">
+    <tableColumn id="11" name="EEST" dataDxfId="8">
       <calculatedColumnFormula>$I2+Sheet2!B$4/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="CEST" dataDxfId="5">
+    <tableColumn id="10" name="CEST" dataDxfId="7">
       <calculatedColumnFormula>$I2+Sheet2!B$5/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="BST" dataDxfId="4">
+    <tableColumn id="17" name="BST" dataDxfId="6">
       <calculatedColumnFormula>$I2+Sheet2!B$6/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="EDT" dataDxfId="3">
+    <tableColumn id="9" name="EDT" dataDxfId="5">
       <calculatedColumnFormula>$I2+Sheet2!B$7/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CDT" dataDxfId="2">
+    <tableColumn id="8" name="CDT" dataDxfId="4">
       <calculatedColumnFormula>$I2+Sheet2!B$8/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="MDT" dataDxfId="1">
+    <tableColumn id="18" name="MDT" dataDxfId="3">
       <calculatedColumnFormula>$I2+Sheet2!B$9/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="PDT" dataDxfId="0">
+    <tableColumn id="16" name="PDT" dataDxfId="2">
       <calculatedColumnFormula>$I2+Sheet2!B$10/24</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1429,12 +1379,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -1450,74 +1400,74 @@
     <col min="21" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+    </row>
+    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="C2" s="5">
         <v>16</v>
@@ -1526,13 +1476,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H2" s="7" t="str">
         <f>Sheet2!$A$1</f>
@@ -1542,7 +1492,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K2" s="9">
         <f>$I2+Sheet2!B$1/24</f>
@@ -1585,12 +1535,12 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C3" s="11">
         <v>12</v>
@@ -1599,13 +1549,13 @@
         <v>2</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H3" s="13" t="str">
         <f>Sheet2!$A$2</f>
@@ -1615,7 +1565,7 @@
         <v>0.625</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K3" s="15">
         <f>$I3+Sheet2!B$1/24</f>
@@ -1658,10 +1608,10 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="16.5">
+    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="45"/>
       <c r="B4" s="5" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5">
         <v>13</v>
@@ -1670,13 +1620,13 @@
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H4" s="7" t="str">
         <f>Sheet2!$A$2</f>
@@ -1686,7 +1636,7 @@
         <v>0.625</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K4" s="9">
         <f>$I4+Sheet2!B$1/24</f>
@@ -1729,10 +1679,10 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="16.5">
+    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
       <c r="B5" s="5" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C5" s="5">
         <v>15</v>
@@ -1741,13 +1691,13 @@
         <v>4</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="H5" s="18" t="str">
         <f>Sheet2!$A$2</f>
@@ -1757,7 +1707,7 @@
         <v>0.625</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K5" s="9">
         <f>$I5+Sheet2!B$1/24</f>
@@ -1800,10 +1750,10 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="16.5">
+    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="45"/>
       <c r="B6" s="5" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C6" s="5">
         <v>15</v>
@@ -1812,13 +1762,13 @@
         <v>4</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H6" s="18" t="str">
         <f>Sheet2!$A$2</f>
@@ -1828,7 +1778,7 @@
         <v>0.625</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K6" s="9">
         <f>$I6+Sheet2!B$1/24</f>
@@ -1871,10 +1821,10 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.5">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="20" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C7" s="21">
         <v>4</v>
@@ -1883,13 +1833,13 @@
         <v>5</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>Sheet2!$A$3</f>
@@ -1899,7 +1849,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K7" s="24">
         <f>$I7+Sheet2!B$1/24</f>
@@ -1942,10 +1892,10 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
@@ -1954,13 +1904,13 @@
         <v>6</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H8" s="18" t="str">
         <f>Sheet2!$A$4</f>
@@ -1970,7 +1920,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K8" s="9">
         <f>$I8+Sheet2!B$1/24</f>
@@ -2013,10 +1963,10 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="16.5">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="45"/>
       <c r="B9" s="20" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C9" s="21">
         <v>1</v>
@@ -2025,13 +1975,13 @@
         <v>7</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H9" s="27" t="str">
         <f>Sheet2!$A$5</f>
@@ -2041,7 +1991,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K9" s="24">
         <f>$I9+Sheet2!B$1/24</f>
@@ -2084,10 +2034,10 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16.5">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="45"/>
       <c r="B10" s="5" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5">
         <v>2</v>
@@ -2096,13 +2046,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H10" s="30" t="str">
         <f>Sheet2!$A$5</f>
@@ -2112,7 +2062,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K10" s="9">
         <f>$I10+Sheet2!B$1/24</f>
@@ -2155,10 +2105,10 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="16.5">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="45"/>
       <c r="B11" s="5" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C11" s="5">
         <v>5</v>
@@ -2167,13 +2117,13 @@
         <v>9</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="H11" s="30" t="str">
         <f>Sheet2!$A$5</f>
@@ -2183,7 +2133,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K11" s="9">
         <f>$I11+Sheet2!B$1/24</f>
@@ -2226,25 +2176,25 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16.5" hidden="1">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
-      <c r="B12" s="6" t="s">
-        <v>52</v>
+      <c r="B12" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="C12" s="5">
+        <v>17</v>
+      </c>
+      <c r="D12" s="5">
         <v>11</v>
       </c>
-      <c r="D12" s="5">
-        <v>10</v>
-      </c>
       <c r="E12" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H12" s="30" t="str">
         <f>Sheet2!$A$5</f>
@@ -2253,8 +2203,8 @@
       <c r="I12" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J12" s="26" t="s">
-        <v>25</v>
+      <c r="J12" s="32" t="s">
+        <v>65</v>
       </c>
       <c r="K12" s="9">
         <f>$I12+Sheet2!B$1/24</f>
@@ -2297,25 +2247,21 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="45"/>
       <c r="B13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="5">
-        <v>17</v>
-      </c>
-      <c r="D13" s="5">
-        <v>11</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H13" s="30" t="str">
         <f>Sheet2!$A$5</f>
@@ -2325,7 +2271,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K13" s="9">
         <f>$I13+Sheet2!B$1/24</f>
@@ -2368,21 +2314,25 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="45"/>
-      <c r="B14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="B14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="5">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5">
+        <v>12</v>
+      </c>
       <c r="E14" s="6" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H14" s="30" t="str">
         <f>Sheet2!$A$5</f>
@@ -2392,7 +2342,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="J14" s="32" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K14" s="9">
         <f>$I14+Sheet2!B$1/24</f>
@@ -2435,168 +2385,168 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="45"/>
-      <c r="B15" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="5">
-        <v>20</v>
-      </c>
-      <c r="D15" s="5">
-        <v>12</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="31" t="s">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="46"/>
+      <c r="B15" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="34">
+        <v>21</v>
+      </c>
+      <c r="D15" s="35">
+        <v>13</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" s="38">
+        <f>$I15+Sheet2!B$1/24</f>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="L15" s="38">
+        <f>$I15+Sheet2!B$2/24</f>
+        <v>0.875</v>
+      </c>
+      <c r="M15" s="38">
+        <f>$I15+Sheet2!B$3/24</f>
+        <v>0.875</v>
+      </c>
+      <c r="N15" s="38">
+        <f>$I15+Sheet2!B$4/24</f>
+        <v>0.875</v>
+      </c>
+      <c r="O15" s="38">
+        <f>$I15+Sheet2!B$5/24</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="P15" s="38">
+        <f>$I15+Sheet2!B$6/24</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="Q15" s="38">
+        <f>$I15+Sheet2!B$7/24</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="R15" s="38">
+        <f>$I15+Sheet2!B$8/24</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="S15" s="38">
+        <f>$I15+Sheet2!B$9/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="T15" s="38">
+        <f>$I15+Sheet2!B$10/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5">
+        <v>14</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="30" t="str">
+        <f>Sheet2!$A$7</f>
+        <v>EDT</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="9">
+        <f>$I16+Sheet2!B$1/24</f>
+        <v>1.2500000000000002</v>
+      </c>
+      <c r="L16" s="9">
+        <f>$I16+Sheet2!B$2/24</f>
+        <v>1.041666666666667</v>
+      </c>
+      <c r="M16" s="9">
+        <f>$I16+Sheet2!B$3/24</f>
+        <v>1.041666666666667</v>
+      </c>
+      <c r="N16" s="9">
+        <f>$I16+Sheet2!B$4/24</f>
+        <v>1.041666666666667</v>
+      </c>
+      <c r="O16" s="9">
+        <f>$I16+Sheet2!B$5/24</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="P16" s="9">
+        <f>$I16+Sheet2!B$6/24</f>
+        <v>0.95833333333333359</v>
+      </c>
+      <c r="Q16" s="9">
+        <f>$I16+Sheet2!B$7/24</f>
+        <v>0.75000000000000033</v>
+      </c>
+      <c r="R16" s="9">
+        <f>$I16+Sheet2!B$8/24</f>
+        <v>0.70833333333333359</v>
+      </c>
+      <c r="S16" s="9">
+        <f>$I16+Sheet2!B$9/24</f>
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="T16" s="9">
+        <f>$I16+Sheet2!B$10/24</f>
+        <v>0.62500000000000022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="43"/>
+      <c r="B17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="5">
+        <v>14</v>
+      </c>
+      <c r="D17" s="5">
+        <v>16</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="30" t="str">
-        <f>Sheet2!$A$5</f>
-        <v>CEST</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="J15" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="9">
-        <f>$I15+Sheet2!B$1/24</f>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="L15" s="9">
-        <f>$I15+Sheet2!B$2/24</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="M15" s="9">
-        <f>$I15+Sheet2!B$3/24</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="N15" s="9">
-        <f>$I15+Sheet2!B$4/24</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="O15" s="9">
-        <f>$I15+Sheet2!B$5/24</f>
-        <v>0.79166666666666674</v>
-      </c>
-      <c r="P15" s="9">
-        <f>$I15+Sheet2!B$6/24</f>
-        <v>0.75</v>
-      </c>
-      <c r="Q15" s="9">
-        <f>$I15+Sheet2!B$7/24</f>
-        <v>0.54166666666666674</v>
-      </c>
-      <c r="R15" s="9">
-        <f>$I15+Sheet2!B$8/24</f>
-        <v>0.5</v>
-      </c>
-      <c r="S15" s="9">
-        <f>$I15+Sheet2!B$9/24</f>
-        <v>0.45833333333333337</v>
-      </c>
-      <c r="T15" s="9">
-        <f>$I15+Sheet2!B$10/24</f>
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="16.5">
-      <c r="A16" s="46"/>
-      <c r="B16" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="34">
-        <v>21</v>
-      </c>
-      <c r="D16" s="35">
-        <v>13</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="38">
-        <v>0.75</v>
-      </c>
-      <c r="J16" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="38">
-        <f>$I16+Sheet2!B$1/24</f>
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="L16" s="38">
-        <f>$I16+Sheet2!B$2/24</f>
-        <v>0.875</v>
-      </c>
-      <c r="M16" s="38">
-        <f>$I16+Sheet2!B$3/24</f>
-        <v>0.875</v>
-      </c>
-      <c r="N16" s="38">
-        <f>$I16+Sheet2!B$4/24</f>
-        <v>0.875</v>
-      </c>
-      <c r="O16" s="38">
-        <f>$I16+Sheet2!B$5/24</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="P16" s="38">
-        <f>$I16+Sheet2!B$6/24</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="Q16" s="38">
-        <f>$I16+Sheet2!B$7/24</f>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="R16" s="38">
-        <f>$I16+Sheet2!B$8/24</f>
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="S16" s="38">
-        <f>$I16+Sheet2!B$9/24</f>
-        <v>0.5</v>
-      </c>
-      <c r="T16" s="38">
-        <f>$I16+Sheet2!B$10/24</f>
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="16.5">
-      <c r="A17" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="5">
-        <v>3</v>
-      </c>
-      <c r="D17" s="5">
-        <v>14</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>69</v>
-      </c>
       <c r="G17" s="31" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H17" s="30" t="str">
         <f>Sheet2!$A$7</f>
@@ -2606,7 +2556,7 @@
         <v>0.91666666666666696</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K17" s="9">
         <f>$I17+Sheet2!B$1/24</f>
@@ -2649,25 +2599,25 @@
         <v>0.62500000000000022</v>
       </c>
     </row>
-    <row r="18" spans="1:20" hidden="1">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
       <c r="B18" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C18" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D18" s="35">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H18" s="30" t="str">
         <f>Sheet2!$A$7</f>
@@ -2677,7 +2627,7 @@
         <v>0.91666666666666696</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K18" s="9">
         <f>$I18+Sheet2!B$1/24</f>
@@ -2720,643 +2670,478 @@
         <v>0.62500000000000022</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="16.5">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
-      <c r="B19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="5">
-        <v>14</v>
+      <c r="B19" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="21">
+        <v>6</v>
       </c>
       <c r="D19" s="5">
-        <v>16</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="30" t="str">
+        <v>18</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="27" t="str">
         <f>Sheet2!$A$7</f>
         <v>EDT</v>
       </c>
-      <c r="I19" s="9">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="J19" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="9">
+      <c r="I19" s="24">
+        <v>0.95833333333333359</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="24">
         <f>$I19+Sheet2!B$1/24</f>
-        <v>1.2500000000000002</v>
-      </c>
-      <c r="L19" s="9">
+        <v>1.291666666666667</v>
+      </c>
+      <c r="L19" s="24">
         <f>$I19+Sheet2!B$2/24</f>
+        <v>1.0833333333333335</v>
+      </c>
+      <c r="M19" s="24">
+        <f>$I19+Sheet2!B$3/24</f>
+        <v>1.0833333333333335</v>
+      </c>
+      <c r="N19" s="24">
+        <f>$I19+Sheet2!B$4/24</f>
+        <v>1.0833333333333335</v>
+      </c>
+      <c r="O19" s="24">
+        <f>$I19+Sheet2!B$5/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="M19" s="9">
-        <f>$I19+Sheet2!B$3/24</f>
-        <v>1.041666666666667</v>
-      </c>
-      <c r="N19" s="9">
-        <f>$I19+Sheet2!B$4/24</f>
-        <v>1.041666666666667</v>
-      </c>
-      <c r="O19" s="9">
-        <f>$I19+Sheet2!B$5/24</f>
+      <c r="P19" s="24">
+        <f>$I19+Sheet2!B$6/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="P19" s="9">
-        <f>$I19+Sheet2!B$6/24</f>
-        <v>0.95833333333333359</v>
-      </c>
-      <c r="Q19" s="9">
+      <c r="Q19" s="24">
         <f>$I19+Sheet2!B$7/24</f>
-        <v>0.75000000000000033</v>
-      </c>
-      <c r="R19" s="9">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="R19" s="24">
         <f>$I19+Sheet2!B$8/24</f>
+        <v>0.75000000000000022</v>
+      </c>
+      <c r="S19" s="24">
+        <f>$I19+Sheet2!B$9/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="S19" s="9">
-        <f>$I19+Sheet2!B$9/24</f>
+      <c r="T19" s="24">
+        <f>$I19+Sheet2!B$10/24</f>
         <v>0.66666666666666696</v>
       </c>
-      <c r="T19" s="9">
-        <f>$I19+Sheet2!B$10/24</f>
-        <v>0.62500000000000022</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="16.5">
+    </row>
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
       <c r="B20" s="5" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="C20" s="5">
+        <v>8</v>
+      </c>
+      <c r="D20" s="35">
         <v>19</v>
       </c>
-      <c r="D20" s="35">
-        <v>17</v>
-      </c>
       <c r="E20" s="6" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H20" s="30" t="str">
-        <f>Sheet2!$A$7</f>
-        <v>EDT</v>
+        <f>Sheet2!$A$8</f>
+        <v>CDT</v>
       </c>
       <c r="I20" s="9">
-        <v>0.91666666666666696</v>
+        <v>0.95833333333333304</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K20" s="9">
         <f>$I20+Sheet2!B$1/24</f>
-        <v>1.2500000000000002</v>
+        <v>1.2916666666666663</v>
       </c>
       <c r="L20" s="9">
         <f>$I20+Sheet2!B$2/24</f>
-        <v>1.041666666666667</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="M20" s="9">
         <f>$I20+Sheet2!B$3/24</f>
-        <v>1.041666666666667</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="N20" s="9">
         <f>$I20+Sheet2!B$4/24</f>
-        <v>1.041666666666667</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="O20" s="9">
         <f>$I20+Sheet2!B$5/24</f>
-        <v>1.0000000000000002</v>
+        <v>1.0416666666666663</v>
       </c>
       <c r="P20" s="9">
         <f>$I20+Sheet2!B$6/24</f>
-        <v>0.95833333333333359</v>
+        <v>0.99999999999999967</v>
       </c>
       <c r="Q20" s="9">
         <f>$I20+Sheet2!B$7/24</f>
-        <v>0.75000000000000033</v>
+        <v>0.79166666666666641</v>
       </c>
       <c r="R20" s="9">
         <f>$I20+Sheet2!B$8/24</f>
-        <v>0.70833333333333359</v>
+        <v>0.74999999999999967</v>
       </c>
       <c r="S20" s="9">
         <f>$I20+Sheet2!B$9/24</f>
-        <v>0.66666666666666696</v>
+        <v>0.70833333333333304</v>
       </c>
       <c r="T20" s="9">
         <f>$I20+Sheet2!B$10/24</f>
-        <v>0.62500000000000022</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="16.5">
+        <v>0.6666666666666663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="43"/>
-      <c r="B21" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="21">
-        <v>6</v>
-      </c>
-      <c r="D21" s="5">
-        <v>18</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="27" t="str">
-        <f>Sheet2!$A$7</f>
-        <v>EDT</v>
-      </c>
-      <c r="I21" s="24">
-        <v>0.95833333333333359</v>
-      </c>
-      <c r="J21" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="24">
-        <f>$I21+Sheet2!B$1/24</f>
-        <v>1.291666666666667</v>
-      </c>
-      <c r="L21" s="24">
-        <f>$I21+Sheet2!B$2/24</f>
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="M21" s="24">
-        <f>$I21+Sheet2!B$3/24</f>
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="N21" s="24">
-        <f>$I21+Sheet2!B$4/24</f>
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="O21" s="24">
-        <f>$I21+Sheet2!B$5/24</f>
-        <v>1.041666666666667</v>
-      </c>
-      <c r="P21" s="24">
-        <f>$I21+Sheet2!B$6/24</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="Q21" s="24">
-        <f>$I21+Sheet2!B$7/24</f>
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="R21" s="24">
-        <f>$I21+Sheet2!B$8/24</f>
-        <v>0.75000000000000022</v>
-      </c>
-      <c r="S21" s="24">
-        <f>$I21+Sheet2!B$9/24</f>
-        <v>0.70833333333333359</v>
-      </c>
-      <c r="T21" s="24">
-        <f>$I21+Sheet2!B$10/24</f>
-        <v>0.66666666666666696</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="16.5">
-      <c r="A22" s="43"/>
-      <c r="B22" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="5">
-        <v>8</v>
-      </c>
-      <c r="D22" s="35">
-        <v>19</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="30" t="str">
+      <c r="B21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="30" t="str">
         <f>Sheet2!$A$8</f>
         <v>CDT</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I21" s="9">
         <v>0.95833333333333304</v>
       </c>
-      <c r="J22" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="9">
+      <c r="J21" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" s="9">
+        <f>$I21+Sheet2!B$1/24</f>
+        <v>1.2916666666666663</v>
+      </c>
+      <c r="L21" s="9">
+        <f>$I21+Sheet2!B$2/24</f>
+        <v>1.083333333333333</v>
+      </c>
+      <c r="M21" s="9">
+        <f>$I21+Sheet2!B$3/24</f>
+        <v>1.083333333333333</v>
+      </c>
+      <c r="N21" s="9">
+        <f>$I21+Sheet2!B$4/24</f>
+        <v>1.083333333333333</v>
+      </c>
+      <c r="O21" s="9">
+        <f>$I21+Sheet2!B$5/24</f>
+        <v>1.0416666666666663</v>
+      </c>
+      <c r="P21" s="9">
+        <f>$I21+Sheet2!B$6/24</f>
+        <v>0.99999999999999967</v>
+      </c>
+      <c r="Q21" s="9">
+        <f>$I21+Sheet2!B$7/24</f>
+        <v>0.79166666666666641</v>
+      </c>
+      <c r="R21" s="9">
+        <f>$I21+Sheet2!B$8/24</f>
+        <v>0.74999999999999967</v>
+      </c>
+      <c r="S21" s="9">
+        <f>$I21+Sheet2!B$9/24</f>
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="T21" s="9">
+        <f>$I21+Sheet2!B$10/24</f>
+        <v>0.6666666666666663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="43"/>
+      <c r="B22" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="21">
+        <v>18</v>
+      </c>
+      <c r="D22" s="5">
+        <v>20</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="24">
+        <v>1</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" s="24">
         <f>$I22+Sheet2!B$1/24</f>
-        <v>1.2916666666666663</v>
-      </c>
-      <c r="L22" s="9">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="L22" s="24">
         <f>$I22+Sheet2!B$2/24</f>
-        <v>1.083333333333333</v>
-      </c>
-      <c r="M22" s="9">
+        <v>1.125</v>
+      </c>
+      <c r="M22" s="24">
         <f>$I22+Sheet2!B$3/24</f>
-        <v>1.083333333333333</v>
-      </c>
-      <c r="N22" s="9">
+        <v>1.125</v>
+      </c>
+      <c r="N22" s="24">
         <f>$I22+Sheet2!B$4/24</f>
-        <v>1.083333333333333</v>
-      </c>
-      <c r="O22" s="9">
+        <v>1.125</v>
+      </c>
+      <c r="O22" s="24">
         <f>$I22+Sheet2!B$5/24</f>
-        <v>1.0416666666666663</v>
-      </c>
-      <c r="P22" s="9">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="P22" s="24">
         <f>$I22+Sheet2!B$6/24</f>
-        <v>0.99999999999999967</v>
-      </c>
-      <c r="Q22" s="9">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="Q22" s="24">
         <f>$I22+Sheet2!B$7/24</f>
-        <v>0.79166666666666641</v>
-      </c>
-      <c r="R22" s="9">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="R22" s="24">
         <f>$I22+Sheet2!B$8/24</f>
-        <v>0.74999999999999967</v>
-      </c>
-      <c r="S22" s="9">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="S22" s="24">
         <f>$I22+Sheet2!B$9/24</f>
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="T22" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="T22" s="24">
         <f>$I22+Sheet2!B$10/24</f>
-        <v>0.6666666666666663</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="16.5">
+        <v>0.70833333333333326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="43"/>
-      <c r="B23" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="30" t="str">
-        <f>Sheet2!$A$8</f>
-        <v>CDT</v>
-      </c>
-      <c r="I23" s="9">
-        <v>0.95833333333333304</v>
-      </c>
-      <c r="J23" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="9">
-        <f>$I23+Sheet2!B$1/24</f>
-        <v>1.2916666666666663</v>
-      </c>
-      <c r="L23" s="9">
-        <f>$I23+Sheet2!B$2/24</f>
-        <v>1.083333333333333</v>
-      </c>
-      <c r="M23" s="9">
-        <f>$I23+Sheet2!B$3/24</f>
-        <v>1.083333333333333</v>
-      </c>
-      <c r="N23" s="9">
-        <f>$I23+Sheet2!B$4/24</f>
-        <v>1.083333333333333</v>
-      </c>
-      <c r="O23" s="9">
-        <f>$I23+Sheet2!B$5/24</f>
-        <v>1.0416666666666663</v>
-      </c>
-      <c r="P23" s="9">
-        <f>$I23+Sheet2!B$6/24</f>
-        <v>0.99999999999999967</v>
-      </c>
-      <c r="Q23" s="9">
-        <f>$I23+Sheet2!B$7/24</f>
-        <v>0.79166666666666641</v>
-      </c>
-      <c r="R23" s="9">
-        <f>$I23+Sheet2!B$8/24</f>
-        <v>0.74999999999999967</v>
-      </c>
-      <c r="S23" s="9">
-        <f>$I23+Sheet2!B$9/24</f>
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="T23" s="9">
-        <f>$I23+Sheet2!B$10/24</f>
-        <v>0.6666666666666663</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="16.5">
-      <c r="A24" s="43"/>
-      <c r="B24" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="21">
-        <v>18</v>
-      </c>
-      <c r="D24" s="5">
-        <v>20</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="24">
-        <v>1</v>
-      </c>
-      <c r="J24" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="24">
-        <f>$I24+Sheet2!B$1/24</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="L24" s="24">
-        <f>$I24+Sheet2!B$2/24</f>
-        <v>1.125</v>
-      </c>
-      <c r="M24" s="24">
-        <f>$I24+Sheet2!B$3/24</f>
-        <v>1.125</v>
-      </c>
-      <c r="N24" s="24">
-        <f>$I24+Sheet2!B$4/24</f>
-        <v>1.125</v>
-      </c>
-      <c r="O24" s="24">
-        <f>$I24+Sheet2!B$5/24</f>
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="P24" s="24">
-        <f>$I24+Sheet2!B$6/24</f>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="Q24" s="24">
-        <f>$I24+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="R24" s="24">
-        <f>$I24+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="S24" s="24">
-        <f>$I24+Sheet2!B$9/24</f>
-        <v>0.75</v>
-      </c>
-      <c r="T24" s="24">
-        <f>$I24+Sheet2!B$10/24</f>
-        <v>0.70833333333333326</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="16.5">
-      <c r="A25" s="43"/>
-      <c r="B25" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="21">
+      <c r="B23" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="21">
         <v>9</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D23" s="35">
         <v>21</v>
       </c>
-      <c r="E25" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="27" t="str">
+      <c r="E23" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="27" t="str">
         <f>Sheet2!$A$10</f>
         <v>PDT</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I23" s="24">
         <v>1.041666666666667</v>
       </c>
-      <c r="J25" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="24">
-        <f>$I25+Sheet2!B$1/24</f>
+      <c r="J23" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" s="24">
+        <f>$I23+Sheet2!B$1/24</f>
         <v>1.3750000000000002</v>
       </c>
-      <c r="L25" s="24">
-        <f>$I25+Sheet2!B$2/24</f>
+      <c r="L23" s="24">
+        <f>$I23+Sheet2!B$2/24</f>
         <v>1.166666666666667</v>
       </c>
-      <c r="M25" s="24">
-        <f>$I25+Sheet2!B$3/24</f>
+      <c r="M23" s="24">
+        <f>$I23+Sheet2!B$3/24</f>
         <v>1.166666666666667</v>
       </c>
-      <c r="N25" s="24">
-        <f>$I25+Sheet2!B$4/24</f>
+      <c r="N23" s="24">
+        <f>$I23+Sheet2!B$4/24</f>
         <v>1.166666666666667</v>
       </c>
-      <c r="O25" s="24">
-        <f>$I25+Sheet2!B$5/24</f>
+      <c r="O23" s="24">
+        <f>$I23+Sheet2!B$5/24</f>
         <v>1.1250000000000002</v>
       </c>
-      <c r="P25" s="24">
-        <f>$I25+Sheet2!B$6/24</f>
+      <c r="P23" s="24">
+        <f>$I23+Sheet2!B$6/24</f>
         <v>1.0833333333333337</v>
       </c>
-      <c r="Q25" s="24">
-        <f>$I25+Sheet2!B$7/24</f>
+      <c r="Q23" s="24">
+        <f>$I23+Sheet2!B$7/24</f>
         <v>0.87500000000000033</v>
       </c>
-      <c r="R25" s="24">
-        <f>$I25+Sheet2!B$8/24</f>
+      <c r="R23" s="24">
+        <f>$I23+Sheet2!B$8/24</f>
         <v>0.83333333333333359</v>
       </c>
-      <c r="S25" s="24">
-        <f>$I25+Sheet2!B$9/24</f>
+      <c r="S23" s="24">
+        <f>$I23+Sheet2!B$9/24</f>
         <v>0.79166666666666696</v>
       </c>
-      <c r="T25" s="24">
-        <f>$I25+Sheet2!B$10/24</f>
+      <c r="T23" s="24">
+        <f>$I23+Sheet2!B$10/24</f>
         <v>0.75000000000000022</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H25" s="40"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
       <c r="H27" s="40"/>
     </row>
-    <row r="28" spans="1:20">
-      <c r="G28" s="40"/>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
       <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-    </row>
-    <row r="29" spans="1:20">
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
       <c r="H29" s="40"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E30" s="41"/>
       <c r="F30" s="41"/>
       <c r="H30" s="40"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E31" s="41"/>
       <c r="F31" s="41"/>
-      <c r="H31" s="40"/>
-    </row>
-    <row r="32" spans="1:20">
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E32" s="41"/>
       <c r="F32" s="41"/>
-      <c r="H32" s="40"/>
-    </row>
-    <row r="33" spans="5:6">
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
     </row>
-    <row r="34" spans="5:6">
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E34" s="41"/>
       <c r="F34" s="41"/>
     </row>
-    <row r="35" spans="5:6">
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E35" s="41"/>
       <c r="F35" s="41"/>
     </row>
-    <row r="36" spans="5:6">
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-    </row>
-    <row r="37" spans="5:6">
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A17:A25"/>
-    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A3:A15"/>
   </mergeCells>
-  <conditionalFormatting sqref="K17:T22 K7:T13 K2:T5 K24:T25">
-    <cfRule type="expression" dxfId="24" priority="16">
+  <conditionalFormatting sqref="K2:T5 K7:T23">
+    <cfRule type="expression" dxfId="1" priority="16">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:T6">
-    <cfRule type="expression" dxfId="23" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>K$1=$H6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:T15">
-    <cfRule type="expression" dxfId="22" priority="4">
-      <formula>K$1=$H15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16:T16">
-    <cfRule type="expression" dxfId="21" priority="3">
-      <formula>K$1=$H16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14:T14">
-    <cfRule type="expression" dxfId="20" priority="2">
-      <formula>K$1=$H14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23:T23">
-    <cfRule type="expression" dxfId="19" priority="1">
-      <formula>K$1=$H23</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId1" display="https://swgoh.gg/u/zizoun/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F10" r:id="rId2" display="https://swgoh.gg/u/stirzla/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F17" r:id="rId3" display="https://swgoh.gg/u/hawthorne33/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F7" r:id="rId4" display="https://swgoh.gg/u/AbrekV/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F22" r:id="rId5" display="https://swgoh.gg/u/kahhns/" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F18" r:id="rId6" display="https://swgoh.gg/u/charparrliesh/" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F8" r:id="rId7" display="https://swgoh.gg/u/eugene/" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F19" r:id="rId8" display="https://swgoh.gg/u/noe/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F3" r:id="rId9" display="https://swgoh.gg/u/zhara/" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F4" r:id="rId10" display="https://swgoh.gg/u/cristiano/" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F25" r:id="rId11" display="https://swgoh.gg/u/raspywalker/" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F11" r:id="rId12" display="https://swgoh.gg/u/ceberus/" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F5" r:id="rId13" display="https://swgoh.gg/u/nika/" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F2" r:id="rId14" display="https://swgoh.gg/u/vk1559/" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="H2" r:id="rId15" display="https://www.timeanddate.com/time/zones/cst-china" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="H3" r:id="rId16" display="https://www.timeanddate.com/time/zones/msk" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="H4:H5" r:id="rId17" display="https://www.timeanddate.com/time/zones/msk" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="H7" r:id="rId18" display="https://www.timeanddate.com/time/zones/trt" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="H8" r:id="rId19" display="https://www.timeanddate.com/time/zones/eest" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="H9" r:id="rId20" display="https://www.timeanddate.com/time/zones/cest" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="H10:H13" r:id="rId21" display="https://www.timeanddate.com/time/zones/cest" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="H17" r:id="rId22" display="https://www.timeanddate.com/time/zones/edt" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="H18:H21" r:id="rId23" display="https://www.timeanddate.com/time/zones/edt" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="H22" r:id="rId24" display="https://www.timeanddate.com/time/zones/cdt" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="H25" r:id="rId25" display="https://www.timeanddate.com/time/zones/pdt" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="F12" r:id="rId26" display="https://swgoh.gg/u/jonny/" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="H12" r:id="rId27" display="https://www.timeanddate.com/time/zones/cest" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="F13" r:id="rId28" display="https://swgoh.gg/u/ioz86/" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="H24" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="F24" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="F20" r:id="rId31" display="https://swgoh.gg/u/fireguy/" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="H20" r:id="rId32" display="https://www.timeanddate.com/time/zones/edt" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="H16" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="H6" r:id="rId34" display="https://www.timeanddate.com/time/zones/msk" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="F6" r:id="rId35" display="https://swgoh.gg/u/tmmax/" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="F21" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="H15" r:id="rId37" display="https://www.timeanddate.com/time/zones/cest" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="F15" r:id="rId38" display="https://swgoh.gg/u/jayzi/" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="F16" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="F14" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="H14" r:id="rId41" display="https://www.timeanddate.com/time/zones/cest" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="F23" r:id="rId42" tooltip="https://swgoh.gg/u/phalanx7452/" display="https://swgoh.gg/u/phalanx7452/" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="H23" r:id="rId43" display="https://www.timeanddate.com/time/zones/cdt" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F9" r:id="rId1" display="https://swgoh.gg/u/zizoun/"/>
+    <hyperlink ref="F10" r:id="rId2" display="https://swgoh.gg/u/stirzla/"/>
+    <hyperlink ref="F16" r:id="rId3" display="https://swgoh.gg/u/hawthorne33/"/>
+    <hyperlink ref="F7" r:id="rId4" display="https://swgoh.gg/u/AbrekV/"/>
+    <hyperlink ref="F20" r:id="rId5" display="https://swgoh.gg/u/kahhns/"/>
+    <hyperlink ref="F8" r:id="rId6" display="https://swgoh.gg/u/eugene/"/>
+    <hyperlink ref="F17" r:id="rId7" display="https://swgoh.gg/u/noe/"/>
+    <hyperlink ref="F3" r:id="rId8" display="https://swgoh.gg/u/zhara/"/>
+    <hyperlink ref="F4" r:id="rId9" display="https://swgoh.gg/u/cristiano/"/>
+    <hyperlink ref="F23" r:id="rId10" display="https://swgoh.gg/u/raspywalker/"/>
+    <hyperlink ref="F11" r:id="rId11" display="https://swgoh.gg/u/ceberus/"/>
+    <hyperlink ref="F5" r:id="rId12" display="https://swgoh.gg/u/nika/"/>
+    <hyperlink ref="F2" r:id="rId13" display="https://swgoh.gg/u/vk1559/"/>
+    <hyperlink ref="H2" r:id="rId14" display="https://www.timeanddate.com/time/zones/cst-china"/>
+    <hyperlink ref="H3" r:id="rId15" display="https://www.timeanddate.com/time/zones/msk"/>
+    <hyperlink ref="H4:H5" r:id="rId16" display="https://www.timeanddate.com/time/zones/msk"/>
+    <hyperlink ref="H7" r:id="rId17" display="https://www.timeanddate.com/time/zones/trt"/>
+    <hyperlink ref="H8" r:id="rId18" display="https://www.timeanddate.com/time/zones/eest"/>
+    <hyperlink ref="H9" r:id="rId19" display="https://www.timeanddate.com/time/zones/cest"/>
+    <hyperlink ref="H10:H12" r:id="rId20" display="https://www.timeanddate.com/time/zones/cest"/>
+    <hyperlink ref="H16" r:id="rId21" display="https://www.timeanddate.com/time/zones/edt"/>
+    <hyperlink ref="H17:H19" r:id="rId22" display="https://www.timeanddate.com/time/zones/edt"/>
+    <hyperlink ref="H20" r:id="rId23" display="https://www.timeanddate.com/time/zones/cdt"/>
+    <hyperlink ref="H23" r:id="rId24" display="https://www.timeanddate.com/time/zones/pdt"/>
+    <hyperlink ref="F12" r:id="rId25" display="https://swgoh.gg/u/ioz86/"/>
+    <hyperlink ref="H22" r:id="rId26"/>
+    <hyperlink ref="F22" r:id="rId27"/>
+    <hyperlink ref="F18" r:id="rId28" display="https://swgoh.gg/u/fireguy/"/>
+    <hyperlink ref="H18" r:id="rId29" display="https://www.timeanddate.com/time/zones/edt"/>
+    <hyperlink ref="H15" r:id="rId30"/>
+    <hyperlink ref="H6" r:id="rId31" display="https://www.timeanddate.com/time/zones/msk"/>
+    <hyperlink ref="F6" r:id="rId32" display="https://swgoh.gg/u/tmmax/"/>
+    <hyperlink ref="F19" r:id="rId33"/>
+    <hyperlink ref="H14" r:id="rId34" display="https://www.timeanddate.com/time/zones/cest"/>
+    <hyperlink ref="F14" r:id="rId35" display="https://swgoh.gg/u/jayzi/"/>
+    <hyperlink ref="F15" r:id="rId36"/>
+    <hyperlink ref="F13" r:id="rId37"/>
+    <hyperlink ref="H13" r:id="rId38" display="https://www.timeanddate.com/time/zones/cest"/>
+    <hyperlink ref="F21" r:id="rId39" tooltip="https://swgoh.gg/u/phalanx7452/" display="https://swgoh.gg/u/phalanx7452/"/>
+    <hyperlink ref="H21" r:id="rId40" display="https://www.timeanddate.com/time/zones/cdt"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
   <tableParts count="1">
-    <tablePart r:id="rId45"/>
+    <tablePart r:id="rId42"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" bestFit="1" customWidth="1"/>
@@ -3364,42 +3149,42 @@
     <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B1">
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>IF(B4=2,"EET",IF(B4=3,"EEST"))</f>
         <v>EEST</v>
@@ -3409,13 +3194,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>IF(B5=1,"CET",IF(B5=2,"CEST"))</f>
         <v>CEST</v>
@@ -3425,13 +3210,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>IF(B6=1,"BST",IF(B6=0,"GMT"))</f>
         <v>BST</v>
@@ -3441,13 +3226,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>IF(B7=-5,"EST",IF(B7=-4,"EDT"))</f>
         <v>EDT</v>
@@ -3457,13 +3242,13 @@
         <v>-4</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>IF(B8=-6,"CST",IF(B8=-5,"CDT"))</f>
         <v>CDT</v>
@@ -3473,13 +3258,13 @@
         <v>-5</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>IF(B9=-7,"MST",IF(B9=-6,"MDT"))</f>
         <v>MDT</v>
@@ -3489,13 +3274,13 @@
         <v>-6</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>IF(B10=-8,"PST",IF(B10=-7,"PDT"))</f>
         <v>PDT</v>
@@ -3505,10 +3290,10 @@
         <v>-7</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="155">
   <si>
     <t>Country</t>
   </si>
@@ -295,6 +295,201 @@
   </si>
   <si>
     <t>USA, Minnesota</t>
+  </si>
+  <si>
+    <t>&lt;@313692586978312192&gt;</t>
+  </si>
+  <si>
+    <t>&lt;@293265960670986240&gt;</t>
+  </si>
+  <si>
+    <t>&lt;@313721101693878272&gt;</t>
+  </si>
+  <si>
+    <t>&lt;@313726780152348674&gt;</t>
+  </si>
+  <si>
+    <t>&lt;@320932292140859392&gt;</t>
+  </si>
+  <si>
+    <t>&lt;@211188995336568832&gt;</t>
+  </si>
+  <si>
+    <t>&lt;@313737724031008768&gt;</t>
+  </si>
+  <si>
+    <t>&lt;@262565967282831370&gt;</t>
+  </si>
+  <si>
+    <t>&lt;@299252665878052865&gt;</t>
+  </si>
+  <si>
+    <t>&lt;@294241275149025280&gt;</t>
+  </si>
+  <si>
+    <t>&lt;@313769175892099092&gt;</t>
+  </si>
+  <si>
+    <t>&lt;@213747408230809600&gt;</t>
+  </si>
+  <si>
+    <t>&lt;@316326121002106880&gt;</t>
+  </si>
+  <si>
+    <t>&lt;@317286698629332993&gt;</t>
+  </si>
+  <si>
+    <t>&lt;@235786687727271937&gt;</t>
+  </si>
+  <si>
+    <t>&lt;@210523202303164417&gt;</t>
+  </si>
+  <si>
+    <t>&lt;@246084907158208525&gt;</t>
+  </si>
+  <si>
+    <t>&lt;@240117327482322945&gt;</t>
+  </si>
+  <si>
+    <t>&lt;@181953824997507072&gt;</t>
+  </si>
+  <si>
+    <t>&lt;@297555581961502720&gt;</t>
+  </si>
+  <si>
+    <t>&lt;@243526388739473411&gt;</t>
+  </si>
+  <si>
+    <t>&lt;@175770729130754049&gt;</t>
+  </si>
+  <si>
+    <t>LeTempsRetrouve</t>
+  </si>
+  <si>
+    <t>&lt;@148203612928081921&gt;</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>solos100</t>
+  </si>
+  <si>
+    <t>:flag_tw:</t>
+  </si>
+  <si>
+    <t>:flag_ru:</t>
+  </si>
+  <si>
+    <t>:flag_tr:</t>
+  </si>
+  <si>
+    <t>:flag_ua:</t>
+  </si>
+  <si>
+    <t>:flag_at:</t>
+  </si>
+  <si>
+    <t>:flag_it:</t>
+  </si>
+  <si>
+    <t>:flag_cz:</t>
+  </si>
+  <si>
+    <t>:flag_fr:</t>
+  </si>
+  <si>
+    <t>:flag_ca:</t>
+  </si>
+  <si>
+    <t>:flag_us:</t>
+  </si>
+  <si>
+    <t>:flag_ch:</t>
+  </si>
+  <si>
+    <t>:flag_de:</t>
+  </si>
+  <si>
+    <t>:flag_gb:</t>
+  </si>
+  <si>
+    <t>Flag</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>&lt;https://swgoh.gg/u/vk1559/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://swgoh.gg/u/zhara/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://swgoh.gg/u/cristiano/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://swgoh.gg/u/nika/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://swgoh.gg/u/tmmax/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://swgoh.gg/u/AbrekV/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://swgoh.gg/u/eugene/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://swgoh.gg/u/zizoun/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://swgoh.gg/u/stirzla/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://swgoh.gg/u/ceberus/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://swgoh.gg/u/ioz86/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://swgoh.gg/u/tarnadas/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://swgoh.gg/u/jayzi/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://swgoh.gg/u/solos100/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://swgoh.gg/u/elnino_79/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://swgoh.gg/u/hawthorne33/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://swgoh.gg/u/noe/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://swgoh.gg/u/fireguy/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://swgoh.gg/u/lordvader%20reborn%2066/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://swgoh.gg/u/kahhns/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://swgoh.gg/u/phalanx7452/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://swgoh.gg/u/berniewankensanders/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://swgoh.gg/u/raspywalker/&gt;</t>
+  </si>
+  <si>
+    <t>SWGOH</t>
   </si>
 </sst>
 </file>
@@ -304,7 +499,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,6 +554,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -546,7 +749,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -634,12 +837,64 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="dashDot">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -655,6 +910,104 @@
           <bgColor rgb="FF920000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="dashDot">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="hh:mm;@"/>
@@ -908,51 +1261,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1016,16 +1324,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B1:T23">
-  <autoFilter ref="B1:T23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B1:W24">
+  <autoFilter ref="B1:W24">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
     <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
     <filterColumn colId="8" hiddenButton="1"/>
     <filterColumn colId="9" hiddenButton="1"/>
     <filterColumn colId="10" hiddenButton="1"/>
@@ -1037,46 +1342,52 @@
     <filterColumn colId="16" hiddenButton="1"/>
     <filterColumn colId="17" hiddenButton="1"/>
     <filterColumn colId="18" hiddenButton="1"/>
+    <filterColumn colId="19" hiddenButton="1"/>
+    <filterColumn colId="20" hiddenButton="1"/>
+    <filterColumn colId="21" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="19">
-    <tableColumn id="1" name="Name" totalsRowLabel="Total" dataDxfId="20"/>
-    <tableColumn id="3" name="Joined" dataDxfId="19"/>
-    <tableColumn id="6" name="Sort" dataDxfId="18"/>
-    <tableColumn id="2" name="Country" dataDxfId="17"/>
-    <tableColumn id="14" name="SWGOH.GG" totalsRowFunction="count" dataDxfId="16" dataCellStyle="Hyperlink"/>
-    <tableColumn id="15" name="Rank" dataDxfId="15" dataCellStyle="Hyperlink"/>
-    <tableColumn id="4" name="TZ" dataDxfId="14" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" name="UTC" dataDxfId="13"/>
-    <tableColumn id="19" name="DST" dataDxfId="12"/>
-    <tableColumn id="5" name="CST" dataDxfId="11">
-      <calculatedColumnFormula>$I2+Sheet2!B$1/24</calculatedColumnFormula>
+  <tableColumns count="22">
+    <tableColumn id="1" name="Name" totalsRowLabel="Total" dataDxfId="24"/>
+    <tableColumn id="3" name="Joined" dataDxfId="23"/>
+    <tableColumn id="6" name="Sort" dataDxfId="7"/>
+    <tableColumn id="20" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" name="Country" dataDxfId="6"/>
+    <tableColumn id="21" name="Flag" dataDxfId="4"/>
+    <tableColumn id="14" name="SWGOH.GG" totalsRowFunction="count" dataDxfId="22" dataCellStyle="Hyperlink"/>
+    <tableColumn id="22" name="SWGOH" dataDxfId="0" dataCellStyle="Hyperlink"/>
+    <tableColumn id="15" name="Rank" dataDxfId="21" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" name="TZ" dataDxfId="20" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" name="UTC" dataDxfId="19"/>
+    <tableColumn id="19" name="DST" dataDxfId="18"/>
+    <tableColumn id="5" name="CST" dataDxfId="17">
+      <calculatedColumnFormula>$L2+Sheet2!B$1/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="MSK" dataDxfId="10">
-      <calculatedColumnFormula>$I2+Sheet2!B$2/24</calculatedColumnFormula>
+    <tableColumn id="13" name="MSK" dataDxfId="16">
+      <calculatedColumnFormula>$L2+Sheet2!B$2/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="TRT" dataDxfId="9">
-      <calculatedColumnFormula>$I2+Sheet2!B$3/24</calculatedColumnFormula>
+    <tableColumn id="12" name="TRT" dataDxfId="15">
+      <calculatedColumnFormula>$L2+Sheet2!B$3/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EEST" dataDxfId="8">
-      <calculatedColumnFormula>$I2+Sheet2!B$4/24</calculatedColumnFormula>
+    <tableColumn id="11" name="EEST" dataDxfId="14">
+      <calculatedColumnFormula>$L2+Sheet2!B$4/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="CEST" dataDxfId="7">
-      <calculatedColumnFormula>$I2+Sheet2!B$5/24</calculatedColumnFormula>
+    <tableColumn id="10" name="CEST" dataDxfId="13">
+      <calculatedColumnFormula>$L2+Sheet2!B$5/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="BST" dataDxfId="6">
-      <calculatedColumnFormula>$I2+Sheet2!B$6/24</calculatedColumnFormula>
+    <tableColumn id="17" name="BST" dataDxfId="12">
+      <calculatedColumnFormula>$L2+Sheet2!B$6/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="EDT" dataDxfId="5">
-      <calculatedColumnFormula>$I2+Sheet2!B$7/24</calculatedColumnFormula>
+    <tableColumn id="9" name="EDT" dataDxfId="11">
+      <calculatedColumnFormula>$L2+Sheet2!B$7/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="CDT" dataDxfId="4">
-      <calculatedColumnFormula>$I2+Sheet2!B$8/24</calculatedColumnFormula>
+    <tableColumn id="8" name="CDT" dataDxfId="10">
+      <calculatedColumnFormula>$L2+Sheet2!B$8/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="MDT" dataDxfId="3">
-      <calculatedColumnFormula>$I2+Sheet2!B$9/24</calculatedColumnFormula>
+    <tableColumn id="18" name="MDT" dataDxfId="9">
+      <calculatedColumnFormula>$L2+Sheet2!B$9/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="PDT" dataDxfId="2">
-      <calculatedColumnFormula>$I2+Sheet2!B$10/24</calculatedColumnFormula>
+    <tableColumn id="16" name="PDT" dataDxfId="8">
+      <calculatedColumnFormula>$L2+Sheet2!B$10/24</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1380,9 +1691,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1390,17 +1703,20 @@
     <col min="2" max="2" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="4.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="20" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="3"/>
+    <col min="5" max="5" width="24" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="23" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -1413,56 +1729,65 @@
       <c r="D1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>53</v>
       </c>
@@ -1475,67 +1800,76 @@
       <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="I2" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="7" t="str">
+      <c r="K2" s="7" t="str">
         <f>Sheet2!$A$1</f>
         <v>CST</v>
       </c>
-      <c r="I2" s="9">
+      <c r="L2" s="9">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="9">
-        <f>$I2+Sheet2!B$1/24</f>
+      <c r="N2" s="9">
+        <f>$L2+Sheet2!B$1/24</f>
         <v>0.75</v>
       </c>
-      <c r="L2" s="9">
-        <f>$I2+Sheet2!B$2/24</f>
+      <c r="O2" s="9">
+        <f>$L2+Sheet2!B$2/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="M2" s="9">
-        <f>$I2+Sheet2!B$3/24</f>
+      <c r="P2" s="9">
+        <f>$L2+Sheet2!B$3/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="N2" s="9">
-        <f>$I2+Sheet2!B$4/24</f>
+      <c r="Q2" s="9">
+        <f>$L2+Sheet2!B$4/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="O2" s="9">
-        <f>$I2+Sheet2!B$5/24</f>
+      <c r="R2" s="9">
+        <f>$L2+Sheet2!B$5/24</f>
         <v>0.5</v>
       </c>
-      <c r="P2" s="9">
-        <f>$I2+Sheet2!B$6/24</f>
+      <c r="S2" s="9">
+        <f>$L2+Sheet2!B$6/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="Q2" s="9">
-        <f>$I2+Sheet2!B$7/24</f>
+      <c r="T2" s="9">
+        <f>$L2+Sheet2!B$7/24</f>
         <v>0.25</v>
       </c>
-      <c r="R2" s="9">
-        <f>$I2+Sheet2!B$8/24</f>
+      <c r="U2" s="9">
+        <f>$L2+Sheet2!B$8/24</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="S2" s="9">
-        <f>$I2+Sheet2!B$9/24</f>
+      <c r="V2" s="9">
+        <f>$L2+Sheet2!B$9/24</f>
         <v>0.16666666666666669</v>
       </c>
-      <c r="T2" s="9">
-        <f>$I2+Sheet2!B$10/24</f>
+      <c r="W2" s="9">
+        <f>$L2+Sheet2!B$10/24</f>
         <v>0.125</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
         <v>54</v>
       </c>
@@ -1548,67 +1882,76 @@
       <c r="D3" s="11">
         <v>2</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="I3" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="13" t="str">
+      <c r="K3" s="13" t="str">
         <f>Sheet2!$A$2</f>
         <v>MSK</v>
       </c>
-      <c r="I3" s="15">
+      <c r="L3" s="15">
         <v>0.625</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="M3" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="15">
-        <f>$I3+Sheet2!B$1/24</f>
+      <c r="N3" s="15">
+        <f>$L3+Sheet2!B$1/24</f>
         <v>0.95833333333333326</v>
       </c>
-      <c r="L3" s="15">
-        <f>$I3+Sheet2!B$2/24</f>
+      <c r="O3" s="15">
+        <f>$L3+Sheet2!B$2/24</f>
         <v>0.75</v>
       </c>
-      <c r="M3" s="15">
-        <f>$I3+Sheet2!B$3/24</f>
+      <c r="P3" s="15">
+        <f>$L3+Sheet2!B$3/24</f>
         <v>0.75</v>
       </c>
-      <c r="N3" s="15">
-        <f>$I3+Sheet2!B$4/24</f>
+      <c r="Q3" s="15">
+        <f>$L3+Sheet2!B$4/24</f>
         <v>0.75</v>
       </c>
-      <c r="O3" s="15">
-        <f>$I3+Sheet2!B$5/24</f>
+      <c r="R3" s="15">
+        <f>$L3+Sheet2!B$5/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="P3" s="15">
-        <f>$I3+Sheet2!B$6/24</f>
+      <c r="S3" s="15">
+        <f>$L3+Sheet2!B$6/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="Q3" s="15">
-        <f>$I3+Sheet2!B$7/24</f>
+      <c r="T3" s="15">
+        <f>$L3+Sheet2!B$7/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="R3" s="15">
-        <f>$I3+Sheet2!B$8/24</f>
+      <c r="U3" s="15">
+        <f>$L3+Sheet2!B$8/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="S3" s="15">
-        <f>$I3+Sheet2!B$9/24</f>
+      <c r="V3" s="15">
+        <f>$L3+Sheet2!B$9/24</f>
         <v>0.375</v>
       </c>
-      <c r="T3" s="15">
-        <f>$I3+Sheet2!B$10/24</f>
+      <c r="W3" s="15">
+        <f>$L3+Sheet2!B$10/24</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="45"/>
       <c r="B4" s="5" t="s">
         <v>13</v>
@@ -1619,67 +1962,76 @@
       <c r="D4" s="5">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="I4" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="7" t="str">
+      <c r="K4" s="7" t="str">
         <f>Sheet2!$A$2</f>
         <v>MSK</v>
       </c>
-      <c r="I4" s="9">
+      <c r="L4" s="9">
         <v>0.625</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="M4" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="9">
-        <f>$I4+Sheet2!B$1/24</f>
+      <c r="N4" s="9">
+        <f>$L4+Sheet2!B$1/24</f>
         <v>0.95833333333333326</v>
       </c>
-      <c r="L4" s="9">
-        <f>$I4+Sheet2!B$2/24</f>
+      <c r="O4" s="9">
+        <f>$L4+Sheet2!B$2/24</f>
         <v>0.75</v>
       </c>
-      <c r="M4" s="9">
-        <f>$I4+Sheet2!B$3/24</f>
+      <c r="P4" s="9">
+        <f>$L4+Sheet2!B$3/24</f>
         <v>0.75</v>
       </c>
-      <c r="N4" s="9">
-        <f>$I4+Sheet2!B$4/24</f>
+      <c r="Q4" s="9">
+        <f>$L4+Sheet2!B$4/24</f>
         <v>0.75</v>
       </c>
-      <c r="O4" s="9">
-        <f>$I4+Sheet2!B$5/24</f>
+      <c r="R4" s="9">
+        <f>$L4+Sheet2!B$5/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="P4" s="9">
-        <f>$I4+Sheet2!B$6/24</f>
+      <c r="S4" s="9">
+        <f>$L4+Sheet2!B$6/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="Q4" s="9">
-        <f>$I4+Sheet2!B$7/24</f>
+      <c r="T4" s="9">
+        <f>$L4+Sheet2!B$7/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="R4" s="9">
-        <f>$I4+Sheet2!B$8/24</f>
+      <c r="U4" s="9">
+        <f>$L4+Sheet2!B$8/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="S4" s="9">
-        <f>$I4+Sheet2!B$9/24</f>
+      <c r="V4" s="9">
+        <f>$L4+Sheet2!B$9/24</f>
         <v>0.375</v>
       </c>
-      <c r="T4" s="9">
-        <f>$I4+Sheet2!B$10/24</f>
+      <c r="W4" s="9">
+        <f>$L4+Sheet2!B$10/24</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
       <c r="B5" s="5" t="s">
         <v>72</v>
@@ -1690,67 +2042,76 @@
       <c r="D5" s="5">
         <v>4</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="G5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="I5" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="18" t="str">
+      <c r="K5" s="18" t="str">
         <f>Sheet2!$A$2</f>
         <v>MSK</v>
       </c>
-      <c r="I5" s="9">
+      <c r="L5" s="9">
         <v>0.625</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="M5" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="9">
-        <f>$I5+Sheet2!B$1/24</f>
+      <c r="N5" s="9">
+        <f>$L5+Sheet2!B$1/24</f>
         <v>0.95833333333333326</v>
       </c>
-      <c r="L5" s="9">
-        <f>$I5+Sheet2!B$2/24</f>
+      <c r="O5" s="9">
+        <f>$L5+Sheet2!B$2/24</f>
         <v>0.75</v>
       </c>
-      <c r="M5" s="9">
-        <f>$I5+Sheet2!B$3/24</f>
+      <c r="P5" s="9">
+        <f>$L5+Sheet2!B$3/24</f>
         <v>0.75</v>
       </c>
-      <c r="N5" s="9">
-        <f>$I5+Sheet2!B$4/24</f>
+      <c r="Q5" s="9">
+        <f>$L5+Sheet2!B$4/24</f>
         <v>0.75</v>
       </c>
-      <c r="O5" s="9">
-        <f>$I5+Sheet2!B$5/24</f>
+      <c r="R5" s="9">
+        <f>$L5+Sheet2!B$5/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="P5" s="9">
-        <f>$I5+Sheet2!B$6/24</f>
+      <c r="S5" s="9">
+        <f>$L5+Sheet2!B$6/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="Q5" s="9">
-        <f>$I5+Sheet2!B$7/24</f>
+      <c r="T5" s="9">
+        <f>$L5+Sheet2!B$7/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="R5" s="9">
-        <f>$I5+Sheet2!B$8/24</f>
+      <c r="U5" s="9">
+        <f>$L5+Sheet2!B$8/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="S5" s="9">
-        <f>$I5+Sheet2!B$9/24</f>
+      <c r="V5" s="9">
+        <f>$L5+Sheet2!B$9/24</f>
         <v>0.375</v>
       </c>
-      <c r="T5" s="9">
-        <f>$I5+Sheet2!B$10/24</f>
+      <c r="W5" s="9">
+        <f>$L5+Sheet2!B$10/24</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="45"/>
       <c r="B6" s="5" t="s">
         <v>76</v>
@@ -1761,67 +2122,76 @@
       <c r="D6" s="5">
         <v>4</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="G6" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="I6" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="18" t="str">
+      <c r="K6" s="18" t="str">
         <f>Sheet2!$A$2</f>
         <v>MSK</v>
       </c>
-      <c r="I6" s="9">
+      <c r="L6" s="9">
         <v>0.625</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="M6" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="9">
-        <f>$I6+Sheet2!B$1/24</f>
+      <c r="N6" s="9">
+        <f>$L6+Sheet2!B$1/24</f>
         <v>0.95833333333333326</v>
       </c>
-      <c r="L6" s="9">
-        <f>$I6+Sheet2!B$2/24</f>
+      <c r="O6" s="9">
+        <f>$L6+Sheet2!B$2/24</f>
         <v>0.75</v>
       </c>
-      <c r="M6" s="9">
-        <f>$I6+Sheet2!B$3/24</f>
+      <c r="P6" s="9">
+        <f>$L6+Sheet2!B$3/24</f>
         <v>0.75</v>
       </c>
-      <c r="N6" s="9">
-        <f>$I6+Sheet2!B$4/24</f>
+      <c r="Q6" s="9">
+        <f>$L6+Sheet2!B$4/24</f>
         <v>0.75</v>
       </c>
-      <c r="O6" s="9">
-        <f>$I6+Sheet2!B$5/24</f>
+      <c r="R6" s="9">
+        <f>$L6+Sheet2!B$5/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="P6" s="9">
-        <f>$I6+Sheet2!B$6/24</f>
+      <c r="S6" s="9">
+        <f>$L6+Sheet2!B$6/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="Q6" s="9">
-        <f>$I6+Sheet2!B$7/24</f>
+      <c r="T6" s="9">
+        <f>$L6+Sheet2!B$7/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="R6" s="9">
-        <f>$I6+Sheet2!B$8/24</f>
+      <c r="U6" s="9">
+        <f>$L6+Sheet2!B$8/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="S6" s="9">
-        <f>$I6+Sheet2!B$9/24</f>
+      <c r="V6" s="9">
+        <f>$L6+Sheet2!B$9/24</f>
         <v>0.375</v>
       </c>
-      <c r="T6" s="9">
-        <f>$I6+Sheet2!B$10/24</f>
+      <c r="W6" s="9">
+        <f>$L6+Sheet2!B$10/24</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="20" t="s">
         <v>16</v>
@@ -1832,67 +2202,76 @@
       <c r="D7" s="21">
         <v>5</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="G7" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="I7" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="22" t="str">
+      <c r="K7" s="22" t="str">
         <f>Sheet2!$A$3</f>
         <v>TRT</v>
       </c>
-      <c r="I7" s="24">
+      <c r="L7" s="24">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="M7" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="24">
-        <f>$I7+Sheet2!B$1/24</f>
+      <c r="N7" s="24">
+        <f>$L7+Sheet2!B$1/24</f>
         <v>1</v>
       </c>
-      <c r="L7" s="24">
-        <f>$I7+Sheet2!B$2/24</f>
+      <c r="O7" s="24">
+        <f>$L7+Sheet2!B$2/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="M7" s="24">
-        <f>$I7+Sheet2!B$3/24</f>
+      <c r="P7" s="24">
+        <f>$L7+Sheet2!B$3/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="N7" s="24">
-        <f>$I7+Sheet2!B$4/24</f>
+      <c r="Q7" s="24">
+        <f>$L7+Sheet2!B$4/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="O7" s="24">
-        <f>$I7+Sheet2!B$5/24</f>
+      <c r="R7" s="24">
+        <f>$L7+Sheet2!B$5/24</f>
         <v>0.75</v>
       </c>
-      <c r="P7" s="24">
-        <f>$I7+Sheet2!B$6/24</f>
+      <c r="S7" s="24">
+        <f>$L7+Sheet2!B$6/24</f>
         <v>0.70833333333333326</v>
       </c>
-      <c r="Q7" s="24">
-        <f>$I7+Sheet2!B$7/24</f>
+      <c r="T7" s="24">
+        <f>$L7+Sheet2!B$7/24</f>
         <v>0.5</v>
       </c>
-      <c r="R7" s="24">
-        <f>$I7+Sheet2!B$8/24</f>
+      <c r="U7" s="24">
+        <f>$L7+Sheet2!B$8/24</f>
         <v>0.45833333333333326</v>
       </c>
-      <c r="S7" s="24">
-        <f>$I7+Sheet2!B$9/24</f>
+      <c r="V7" s="24">
+        <f>$L7+Sheet2!B$9/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="T7" s="24">
-        <f>$I7+Sheet2!B$10/24</f>
+      <c r="W7" s="24">
+        <f>$L7+Sheet2!B$10/24</f>
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
       <c r="B8" s="5" t="s">
         <v>19</v>
@@ -1903,67 +2282,76 @@
       <c r="D8" s="5">
         <v>6</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="G8" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="I8" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="18" t="str">
+      <c r="K8" s="18" t="str">
         <f>Sheet2!$A$4</f>
         <v>EEST</v>
       </c>
-      <c r="I8" s="9">
+      <c r="L8" s="9">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="M8" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="9">
-        <f>$I8+Sheet2!B$1/24</f>
+      <c r="N8" s="9">
+        <f>$L8+Sheet2!B$1/24</f>
         <v>1</v>
       </c>
-      <c r="L8" s="9">
-        <f>$I8+Sheet2!B$2/24</f>
+      <c r="O8" s="9">
+        <f>$L8+Sheet2!B$2/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="M8" s="9">
-        <f>$I8+Sheet2!B$3/24</f>
+      <c r="P8" s="9">
+        <f>$L8+Sheet2!B$3/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="N8" s="9">
-        <f>$I8+Sheet2!B$4/24</f>
+      <c r="Q8" s="9">
+        <f>$L8+Sheet2!B$4/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="O8" s="9">
-        <f>$I8+Sheet2!B$5/24</f>
+      <c r="R8" s="9">
+        <f>$L8+Sheet2!B$5/24</f>
         <v>0.75</v>
       </c>
-      <c r="P8" s="9">
-        <f>$I8+Sheet2!B$6/24</f>
+      <c r="S8" s="9">
+        <f>$L8+Sheet2!B$6/24</f>
         <v>0.70833333333333326</v>
       </c>
-      <c r="Q8" s="9">
-        <f>$I8+Sheet2!B$7/24</f>
+      <c r="T8" s="9">
+        <f>$L8+Sheet2!B$7/24</f>
         <v>0.5</v>
       </c>
-      <c r="R8" s="9">
-        <f>$I8+Sheet2!B$8/24</f>
+      <c r="U8" s="9">
+        <f>$L8+Sheet2!B$8/24</f>
         <v>0.45833333333333326</v>
       </c>
-      <c r="S8" s="9">
-        <f>$I8+Sheet2!B$9/24</f>
+      <c r="V8" s="9">
+        <f>$L8+Sheet2!B$9/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="T8" s="9">
-        <f>$I8+Sheet2!B$10/24</f>
+      <c r="W8" s="9">
+        <f>$L8+Sheet2!B$10/24</f>
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="45"/>
       <c r="B9" s="20" t="s">
         <v>23</v>
@@ -1974,67 +2362,76 @@
       <c r="D9" s="21">
         <v>7</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="G9" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="I9" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="27" t="str">
+      <c r="K9" s="27" t="str">
         <f>Sheet2!$A$5</f>
         <v>CEST</v>
       </c>
-      <c r="I9" s="24">
+      <c r="L9" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="M9" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="K9" s="24">
-        <f>$I9+Sheet2!B$1/24</f>
+      <c r="N9" s="24">
+        <f>$L9+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="L9" s="24">
-        <f>$I9+Sheet2!B$2/24</f>
+      <c r="O9" s="24">
+        <f>$L9+Sheet2!B$2/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="M9" s="24">
-        <f>$I9+Sheet2!B$3/24</f>
+      <c r="P9" s="24">
+        <f>$L9+Sheet2!B$3/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="N9" s="24">
-        <f>$I9+Sheet2!B$4/24</f>
+      <c r="Q9" s="24">
+        <f>$L9+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O9" s="24">
-        <f>$I9+Sheet2!B$5/24</f>
+      <c r="R9" s="24">
+        <f>$L9+Sheet2!B$5/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="P9" s="24">
-        <f>$I9+Sheet2!B$6/24</f>
+      <c r="S9" s="24">
+        <f>$L9+Sheet2!B$6/24</f>
         <v>0.75</v>
       </c>
-      <c r="Q9" s="24">
-        <f>$I9+Sheet2!B$7/24</f>
+      <c r="T9" s="24">
+        <f>$L9+Sheet2!B$7/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="R9" s="24">
-        <f>$I9+Sheet2!B$8/24</f>
+      <c r="U9" s="24">
+        <f>$L9+Sheet2!B$8/24</f>
         <v>0.5</v>
       </c>
-      <c r="S9" s="24">
-        <f>$I9+Sheet2!B$9/24</f>
+      <c r="V9" s="24">
+        <f>$L9+Sheet2!B$9/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="T9" s="24">
-        <f>$I9+Sheet2!B$10/24</f>
+      <c r="W9" s="24">
+        <f>$L9+Sheet2!B$10/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="45"/>
       <c r="B10" s="5" t="s">
         <v>25</v>
@@ -2045,67 +2442,76 @@
       <c r="D10" s="5">
         <v>8</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="G10" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="I10" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="J10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="30" t="str">
+      <c r="K10" s="30" t="str">
         <f>Sheet2!$A$5</f>
         <v>CEST</v>
       </c>
-      <c r="I10" s="9">
+      <c r="L10" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="M10" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="9">
-        <f>$I10+Sheet2!B$1/24</f>
+      <c r="N10" s="9">
+        <f>$L10+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="L10" s="9">
-        <f>$I10+Sheet2!B$2/24</f>
+      <c r="O10" s="9">
+        <f>$L10+Sheet2!B$2/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="M10" s="9">
-        <f>$I10+Sheet2!B$3/24</f>
+      <c r="P10" s="9">
+        <f>$L10+Sheet2!B$3/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="N10" s="9">
-        <f>$I10+Sheet2!B$4/24</f>
+      <c r="Q10" s="9">
+        <f>$L10+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O10" s="9">
-        <f>$I10+Sheet2!B$5/24</f>
+      <c r="R10" s="9">
+        <f>$L10+Sheet2!B$5/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="P10" s="9">
-        <f>$I10+Sheet2!B$6/24</f>
+      <c r="S10" s="9">
+        <f>$L10+Sheet2!B$6/24</f>
         <v>0.75</v>
       </c>
-      <c r="Q10" s="9">
-        <f>$I10+Sheet2!B$7/24</f>
+      <c r="T10" s="9">
+        <f>$L10+Sheet2!B$7/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="R10" s="9">
-        <f>$I10+Sheet2!B$8/24</f>
+      <c r="U10" s="9">
+        <f>$L10+Sheet2!B$8/24</f>
         <v>0.5</v>
       </c>
-      <c r="S10" s="9">
-        <f>$I10+Sheet2!B$9/24</f>
+      <c r="V10" s="9">
+        <f>$L10+Sheet2!B$9/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="T10" s="9">
-        <f>$I10+Sheet2!B$10/24</f>
+      <c r="W10" s="9">
+        <f>$L10+Sheet2!B$10/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="45"/>
       <c r="B11" s="5" t="s">
         <v>28</v>
@@ -2116,67 +2522,76 @@
       <c r="D11" s="5">
         <v>9</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="G11" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="I11" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="J11" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="30" t="str">
+      <c r="K11" s="30" t="str">
         <f>Sheet2!$A$5</f>
         <v>CEST</v>
       </c>
-      <c r="I11" s="9">
+      <c r="L11" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="M11" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="9">
-        <f>$I11+Sheet2!B$1/24</f>
+      <c r="N11" s="9">
+        <f>$L11+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="L11" s="9">
-        <f>$I11+Sheet2!B$2/24</f>
+      <c r="O11" s="9">
+        <f>$L11+Sheet2!B$2/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="M11" s="9">
-        <f>$I11+Sheet2!B$3/24</f>
+      <c r="P11" s="9">
+        <f>$L11+Sheet2!B$3/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="N11" s="9">
-        <f>$I11+Sheet2!B$4/24</f>
+      <c r="Q11" s="9">
+        <f>$L11+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O11" s="9">
-        <f>$I11+Sheet2!B$5/24</f>
+      <c r="R11" s="9">
+        <f>$L11+Sheet2!B$5/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="P11" s="9">
-        <f>$I11+Sheet2!B$6/24</f>
+      <c r="S11" s="9">
+        <f>$L11+Sheet2!B$6/24</f>
         <v>0.75</v>
       </c>
-      <c r="Q11" s="9">
-        <f>$I11+Sheet2!B$7/24</f>
+      <c r="T11" s="9">
+        <f>$L11+Sheet2!B$7/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="R11" s="9">
-        <f>$I11+Sheet2!B$8/24</f>
+      <c r="U11" s="9">
+        <f>$L11+Sheet2!B$8/24</f>
         <v>0.5</v>
       </c>
-      <c r="S11" s="9">
-        <f>$I11+Sheet2!B$9/24</f>
+      <c r="V11" s="9">
+        <f>$L11+Sheet2!B$9/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="T11" s="9">
-        <f>$I11+Sheet2!B$10/24</f>
+      <c r="W11" s="9">
+        <f>$L11+Sheet2!B$10/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
       <c r="B12" s="5" t="s">
         <v>58</v>
@@ -2187,134 +2602,152 @@
       <c r="D12" s="5">
         <v>11</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="G12" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="I12" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="30" t="str">
+      <c r="K12" s="30" t="str">
         <f>Sheet2!$A$5</f>
         <v>CEST</v>
       </c>
-      <c r="I12" s="9">
+      <c r="L12" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="M12" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="9">
-        <f>$I12+Sheet2!B$1/24</f>
+      <c r="N12" s="9">
+        <f>$L12+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="L12" s="9">
-        <f>$I12+Sheet2!B$2/24</f>
+      <c r="O12" s="9">
+        <f>$L12+Sheet2!B$2/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="M12" s="9">
-        <f>$I12+Sheet2!B$3/24</f>
+      <c r="P12" s="9">
+        <f>$L12+Sheet2!B$3/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="N12" s="9">
-        <f>$I12+Sheet2!B$4/24</f>
+      <c r="Q12" s="9">
+        <f>$L12+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O12" s="9">
-        <f>$I12+Sheet2!B$5/24</f>
+      <c r="R12" s="9">
+        <f>$L12+Sheet2!B$5/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="P12" s="9">
-        <f>$I12+Sheet2!B$6/24</f>
+      <c r="S12" s="9">
+        <f>$L12+Sheet2!B$6/24</f>
         <v>0.75</v>
       </c>
-      <c r="Q12" s="9">
-        <f>$I12+Sheet2!B$7/24</f>
+      <c r="T12" s="9">
+        <f>$L12+Sheet2!B$7/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="R12" s="9">
-        <f>$I12+Sheet2!B$8/24</f>
+      <c r="U12" s="9">
+        <f>$L12+Sheet2!B$8/24</f>
         <v>0.5</v>
       </c>
-      <c r="S12" s="9">
-        <f>$I12+Sheet2!B$9/24</f>
+      <c r="V12" s="9">
+        <f>$L12+Sheet2!B$9/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="T12" s="9">
-        <f>$I12+Sheet2!B$10/24</f>
+      <c r="W12" s="9">
+        <f>$L12+Sheet2!B$10/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="45"/>
       <c r="B13" s="5" t="s">
         <v>84</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="G13" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="I13" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="30" t="str">
+      <c r="K13" s="30" t="str">
         <f>Sheet2!$A$5</f>
         <v>CEST</v>
       </c>
-      <c r="I13" s="9">
+      <c r="L13" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J13" s="32" t="s">
+      <c r="M13" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="9">
-        <f>$I13+Sheet2!B$1/24</f>
+      <c r="N13" s="9">
+        <f>$L13+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="L13" s="9">
-        <f>$I13+Sheet2!B$2/24</f>
+      <c r="O13" s="9">
+        <f>$L13+Sheet2!B$2/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="M13" s="9">
-        <f>$I13+Sheet2!B$3/24</f>
+      <c r="P13" s="9">
+        <f>$L13+Sheet2!B$3/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="N13" s="9">
-        <f>$I13+Sheet2!B$4/24</f>
+      <c r="Q13" s="9">
+        <f>$L13+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O13" s="9">
-        <f>$I13+Sheet2!B$5/24</f>
+      <c r="R13" s="9">
+        <f>$L13+Sheet2!B$5/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="P13" s="9">
-        <f>$I13+Sheet2!B$6/24</f>
+      <c r="S13" s="9">
+        <f>$L13+Sheet2!B$6/24</f>
         <v>0.75</v>
       </c>
-      <c r="Q13" s="9">
-        <f>$I13+Sheet2!B$7/24</f>
+      <c r="T13" s="9">
+        <f>$L13+Sheet2!B$7/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="R13" s="9">
-        <f>$I13+Sheet2!B$8/24</f>
+      <c r="U13" s="9">
+        <f>$L13+Sheet2!B$8/24</f>
         <v>0.5</v>
       </c>
-      <c r="S13" s="9">
-        <f>$I13+Sheet2!B$9/24</f>
+      <c r="V13" s="9">
+        <f>$L13+Sheet2!B$9/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="T13" s="9">
-        <f>$I13+Sheet2!B$10/24</f>
+      <c r="W13" s="9">
+        <f>$L13+Sheet2!B$10/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="45"/>
       <c r="B14" s="6" t="s">
         <v>73</v>
@@ -2325,812 +2758,1003 @@
       <c r="D14" s="5">
         <v>12</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="G14" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="I14" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="30" t="str">
+      <c r="K14" s="30" t="str">
         <f>Sheet2!$A$5</f>
         <v>CEST</v>
       </c>
-      <c r="I14" s="9">
+      <c r="L14" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="M14" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="K14" s="9">
-        <f>$I14+Sheet2!B$1/24</f>
+      <c r="N14" s="9">
+        <f>$L14+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="L14" s="9">
-        <f>$I14+Sheet2!B$2/24</f>
+      <c r="O14" s="9">
+        <f>$L14+Sheet2!B$2/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="M14" s="9">
-        <f>$I14+Sheet2!B$3/24</f>
+      <c r="P14" s="9">
+        <f>$L14+Sheet2!B$3/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="N14" s="9">
-        <f>$I14+Sheet2!B$4/24</f>
+      <c r="Q14" s="9">
+        <f>$L14+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O14" s="9">
-        <f>$I14+Sheet2!B$5/24</f>
+      <c r="R14" s="9">
+        <f>$L14+Sheet2!B$5/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="P14" s="9">
-        <f>$I14+Sheet2!B$6/24</f>
+      <c r="S14" s="9">
+        <f>$L14+Sheet2!B$6/24</f>
         <v>0.75</v>
       </c>
-      <c r="Q14" s="9">
-        <f>$I14+Sheet2!B$7/24</f>
+      <c r="T14" s="9">
+        <f>$L14+Sheet2!B$7/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="R14" s="9">
-        <f>$I14+Sheet2!B$8/24</f>
+      <c r="U14" s="9">
+        <f>$L14+Sheet2!B$8/24</f>
         <v>0.5</v>
       </c>
-      <c r="S14" s="9">
-        <f>$I14+Sheet2!B$9/24</f>
+      <c r="V14" s="9">
+        <f>$L14+Sheet2!B$9/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="T14" s="9">
-        <f>$I14+Sheet2!B$10/24</f>
+      <c r="W14" s="9">
+        <f>$L14+Sheet2!B$10/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
-      <c r="B15" s="33" t="s">
+    <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="45"/>
+      <c r="B15" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="30" t="str">
+        <f>Sheet2!$A$5</f>
+        <v>CEST</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="M15" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="N15" s="9">
+        <f>$L15+Sheet2!B$1/24</f>
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="O15" s="9">
+        <f>$L15+Sheet2!B$2/24</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="P15" s="9">
+        <f>$L15+Sheet2!B$3/24</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q15" s="9">
+        <f>$L15+Sheet2!B$4/24</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="R15" s="9">
+        <f>$L15+Sheet2!B$5/24</f>
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="S15" s="9">
+        <f>$L15+Sheet2!B$6/24</f>
+        <v>0.75</v>
+      </c>
+      <c r="T15" s="9">
+        <f>$L15+Sheet2!B$7/24</f>
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="U15" s="9">
+        <f>$L15+Sheet2!B$8/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="V15" s="9">
+        <f>$L15+Sheet2!B$9/24</f>
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="W15" s="9">
+        <f>$L15+Sheet2!B$10/24</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
+      <c r="B16" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C16" s="34">
         <v>21</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D16" s="35">
         <v>13</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E16" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="G16" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="I16" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="K16" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="38">
+      <c r="L16" s="38">
         <v>0.75</v>
       </c>
-      <c r="J15" s="39" t="s">
+      <c r="M16" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="K15" s="38">
-        <f>$I15+Sheet2!B$1/24</f>
+      <c r="N16" s="38">
+        <f>$L16+Sheet2!B$1/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="L15" s="38">
-        <f>$I15+Sheet2!B$2/24</f>
+      <c r="O16" s="38">
+        <f>$L16+Sheet2!B$2/24</f>
         <v>0.875</v>
       </c>
-      <c r="M15" s="38">
-        <f>$I15+Sheet2!B$3/24</f>
+      <c r="P16" s="38">
+        <f>$L16+Sheet2!B$3/24</f>
         <v>0.875</v>
       </c>
-      <c r="N15" s="38">
-        <f>$I15+Sheet2!B$4/24</f>
+      <c r="Q16" s="38">
+        <f>$L16+Sheet2!B$4/24</f>
         <v>0.875</v>
       </c>
-      <c r="O15" s="38">
-        <f>$I15+Sheet2!B$5/24</f>
+      <c r="R16" s="38">
+        <f>$L16+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P15" s="38">
-        <f>$I15+Sheet2!B$6/24</f>
+      <c r="S16" s="38">
+        <f>$L16+Sheet2!B$6/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="Q15" s="38">
-        <f>$I15+Sheet2!B$7/24</f>
+      <c r="T16" s="38">
+        <f>$L16+Sheet2!B$7/24</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="R15" s="38">
-        <f>$I15+Sheet2!B$8/24</f>
+      <c r="U16" s="38">
+        <f>$L16+Sheet2!B$8/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="S15" s="38">
-        <f>$I15+Sheet2!B$9/24</f>
+      <c r="V16" s="38">
+        <f>$L16+Sheet2!B$9/24</f>
         <v>0.5</v>
       </c>
-      <c r="T15" s="38">
-        <f>$I15+Sheet2!B$10/24</f>
+      <c r="W16" s="38">
+        <f>$L16+Sheet2!B$10/24</f>
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+    <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C17" s="5">
         <v>3</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D17" s="5">
         <v>14</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E17" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="G17" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="I17" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="30" t="str">
+      <c r="K17" s="30" t="str">
         <f>Sheet2!$A$7</f>
         <v>EDT</v>
       </c>
-      <c r="I16" s="9">
+      <c r="L17" s="9">
         <v>0.91666666666666696</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="M17" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="K16" s="9">
-        <f>$I16+Sheet2!B$1/24</f>
+      <c r="N17" s="9">
+        <f>$L17+Sheet2!B$1/24</f>
         <v>1.2500000000000002</v>
       </c>
-      <c r="L16" s="9">
-        <f>$I16+Sheet2!B$2/24</f>
+      <c r="O17" s="9">
+        <f>$L17+Sheet2!B$2/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="M16" s="9">
-        <f>$I16+Sheet2!B$3/24</f>
+      <c r="P17" s="9">
+        <f>$L17+Sheet2!B$3/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="N16" s="9">
-        <f>$I16+Sheet2!B$4/24</f>
+      <c r="Q17" s="9">
+        <f>$L17+Sheet2!B$4/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="O16" s="9">
-        <f>$I16+Sheet2!B$5/24</f>
+      <c r="R17" s="9">
+        <f>$L17+Sheet2!B$5/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="P16" s="9">
-        <f>$I16+Sheet2!B$6/24</f>
+      <c r="S17" s="9">
+        <f>$L17+Sheet2!B$6/24</f>
         <v>0.95833333333333359</v>
       </c>
-      <c r="Q16" s="9">
-        <f>$I16+Sheet2!B$7/24</f>
+      <c r="T17" s="9">
+        <f>$L17+Sheet2!B$7/24</f>
         <v>0.75000000000000033</v>
       </c>
-      <c r="R16" s="9">
-        <f>$I16+Sheet2!B$8/24</f>
+      <c r="U17" s="9">
+        <f>$L17+Sheet2!B$8/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="S16" s="9">
-        <f>$I16+Sheet2!B$9/24</f>
+      <c r="V17" s="9">
+        <f>$L17+Sheet2!B$9/24</f>
         <v>0.66666666666666696</v>
       </c>
-      <c r="T16" s="9">
-        <f>$I16+Sheet2!B$10/24</f>
+      <c r="W17" s="9">
+        <f>$L17+Sheet2!B$10/24</f>
         <v>0.62500000000000022</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="5" t="s">
+    <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="43"/>
+      <c r="B18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C18" s="5">
         <v>14</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D18" s="5">
         <v>16</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E18" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="G18" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="I18" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="30" t="str">
+      <c r="K18" s="30" t="str">
         <f>Sheet2!$A$7</f>
         <v>EDT</v>
       </c>
-      <c r="I17" s="9">
+      <c r="L18" s="9">
         <v>0.91666666666666696</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="M18" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="K17" s="9">
-        <f>$I17+Sheet2!B$1/24</f>
+      <c r="N18" s="9">
+        <f>$L18+Sheet2!B$1/24</f>
         <v>1.2500000000000002</v>
       </c>
-      <c r="L17" s="9">
-        <f>$I17+Sheet2!B$2/24</f>
+      <c r="O18" s="9">
+        <f>$L18+Sheet2!B$2/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="M17" s="9">
-        <f>$I17+Sheet2!B$3/24</f>
+      <c r="P18" s="9">
+        <f>$L18+Sheet2!B$3/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="N17" s="9">
-        <f>$I17+Sheet2!B$4/24</f>
+      <c r="Q18" s="9">
+        <f>$L18+Sheet2!B$4/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="O17" s="9">
-        <f>$I17+Sheet2!B$5/24</f>
+      <c r="R18" s="9">
+        <f>$L18+Sheet2!B$5/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="P17" s="9">
-        <f>$I17+Sheet2!B$6/24</f>
+      <c r="S18" s="9">
+        <f>$L18+Sheet2!B$6/24</f>
         <v>0.95833333333333359</v>
       </c>
-      <c r="Q17" s="9">
-        <f>$I17+Sheet2!B$7/24</f>
+      <c r="T18" s="9">
+        <f>$L18+Sheet2!B$7/24</f>
         <v>0.75000000000000033</v>
       </c>
-      <c r="R17" s="9">
-        <f>$I17+Sheet2!B$8/24</f>
+      <c r="U18" s="9">
+        <f>$L18+Sheet2!B$8/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="S17" s="9">
-        <f>$I17+Sheet2!B$9/24</f>
+      <c r="V18" s="9">
+        <f>$L18+Sheet2!B$9/24</f>
         <v>0.66666666666666696</v>
       </c>
-      <c r="T17" s="9">
-        <f>$I17+Sheet2!B$10/24</f>
+      <c r="W18" s="9">
+        <f>$L18+Sheet2!B$10/24</f>
         <v>0.62500000000000022</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="5" t="s">
+    <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="43"/>
+      <c r="B19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C19" s="5">
         <v>19</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D19" s="35">
         <v>17</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E19" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="G19" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="I19" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="J19" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="30" t="str">
+      <c r="K19" s="30" t="str">
         <f>Sheet2!$A$7</f>
         <v>EDT</v>
       </c>
-      <c r="I18" s="9">
+      <c r="L19" s="9">
         <v>0.91666666666666696</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="M19" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="K18" s="9">
-        <f>$I18+Sheet2!B$1/24</f>
+      <c r="N19" s="9">
+        <f>$L19+Sheet2!B$1/24</f>
         <v>1.2500000000000002</v>
       </c>
-      <c r="L18" s="9">
-        <f>$I18+Sheet2!B$2/24</f>
+      <c r="O19" s="9">
+        <f>$L19+Sheet2!B$2/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="M18" s="9">
-        <f>$I18+Sheet2!B$3/24</f>
+      <c r="P19" s="9">
+        <f>$L19+Sheet2!B$3/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="N18" s="9">
-        <f>$I18+Sheet2!B$4/24</f>
+      <c r="Q19" s="9">
+        <f>$L19+Sheet2!B$4/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="O18" s="9">
-        <f>$I18+Sheet2!B$5/24</f>
+      <c r="R19" s="9">
+        <f>$L19+Sheet2!B$5/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="P18" s="9">
-        <f>$I18+Sheet2!B$6/24</f>
+      <c r="S19" s="9">
+        <f>$L19+Sheet2!B$6/24</f>
         <v>0.95833333333333359</v>
       </c>
-      <c r="Q18" s="9">
-        <f>$I18+Sheet2!B$7/24</f>
+      <c r="T19" s="9">
+        <f>$L19+Sheet2!B$7/24</f>
         <v>0.75000000000000033</v>
       </c>
-      <c r="R18" s="9">
-        <f>$I18+Sheet2!B$8/24</f>
+      <c r="U19" s="9">
+        <f>$L19+Sheet2!B$8/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="S18" s="9">
-        <f>$I18+Sheet2!B$9/24</f>
+      <c r="V19" s="9">
+        <f>$L19+Sheet2!B$9/24</f>
         <v>0.66666666666666696</v>
       </c>
-      <c r="T18" s="9">
-        <f>$I18+Sheet2!B$10/24</f>
+      <c r="W19" s="9">
+        <f>$L19+Sheet2!B$10/24</f>
         <v>0.62500000000000022</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="20" t="s">
+    <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="43"/>
+      <c r="B20" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C20" s="21">
         <v>6</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D20" s="5">
         <v>18</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E20" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="G20" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="I20" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="J20" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="27" t="str">
+      <c r="K20" s="27" t="str">
         <f>Sheet2!$A$7</f>
         <v>EDT</v>
       </c>
-      <c r="I19" s="24">
+      <c r="L20" s="24">
         <v>0.95833333333333359</v>
       </c>
-      <c r="J19" s="29" t="s">
+      <c r="M20" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="24">
-        <f>$I19+Sheet2!B$1/24</f>
+      <c r="N20" s="24">
+        <f>$L20+Sheet2!B$1/24</f>
         <v>1.291666666666667</v>
       </c>
-      <c r="L19" s="24">
-        <f>$I19+Sheet2!B$2/24</f>
+      <c r="O20" s="24">
+        <f>$L20+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M19" s="24">
-        <f>$I19+Sheet2!B$3/24</f>
+      <c r="P20" s="24">
+        <f>$L20+Sheet2!B$3/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="N19" s="24">
-        <f>$I19+Sheet2!B$4/24</f>
+      <c r="Q20" s="24">
+        <f>$L20+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="O19" s="24">
-        <f>$I19+Sheet2!B$5/24</f>
+      <c r="R20" s="24">
+        <f>$L20+Sheet2!B$5/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="P19" s="24">
-        <f>$I19+Sheet2!B$6/24</f>
+      <c r="S20" s="24">
+        <f>$L20+Sheet2!B$6/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="Q19" s="24">
-        <f>$I19+Sheet2!B$7/24</f>
+      <c r="T20" s="24">
+        <f>$L20+Sheet2!B$7/24</f>
         <v>0.79166666666666696</v>
       </c>
-      <c r="R19" s="24">
-        <f>$I19+Sheet2!B$8/24</f>
+      <c r="U20" s="24">
+        <f>$L20+Sheet2!B$8/24</f>
         <v>0.75000000000000022</v>
       </c>
-      <c r="S19" s="24">
-        <f>$I19+Sheet2!B$9/24</f>
+      <c r="V20" s="24">
+        <f>$L20+Sheet2!B$9/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="T19" s="24">
-        <f>$I19+Sheet2!B$10/24</f>
+      <c r="W20" s="24">
+        <f>$L20+Sheet2!B$10/24</f>
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="5" t="s">
+    <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="43"/>
+      <c r="B21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C21" s="5">
         <v>8</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D21" s="35">
         <v>19</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E21" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="G21" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="I21" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="30" t="str">
+      <c r="K21" s="30" t="str">
         <f>Sheet2!$A$8</f>
         <v>CDT</v>
       </c>
-      <c r="I20" s="9">
+      <c r="L21" s="9">
         <v>0.95833333333333304</v>
       </c>
-      <c r="J20" s="26" t="s">
+      <c r="M21" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="K20" s="9">
-        <f>$I20+Sheet2!B$1/24</f>
+      <c r="N21" s="9">
+        <f>$L21+Sheet2!B$1/24</f>
         <v>1.2916666666666663</v>
       </c>
-      <c r="L20" s="9">
-        <f>$I20+Sheet2!B$2/24</f>
+      <c r="O21" s="9">
+        <f>$L21+Sheet2!B$2/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="M20" s="9">
-        <f>$I20+Sheet2!B$3/24</f>
+      <c r="P21" s="9">
+        <f>$L21+Sheet2!B$3/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="N20" s="9">
-        <f>$I20+Sheet2!B$4/24</f>
+      <c r="Q21" s="9">
+        <f>$L21+Sheet2!B$4/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="O20" s="9">
-        <f>$I20+Sheet2!B$5/24</f>
+      <c r="R21" s="9">
+        <f>$L21+Sheet2!B$5/24</f>
         <v>1.0416666666666663</v>
       </c>
-      <c r="P20" s="9">
-        <f>$I20+Sheet2!B$6/24</f>
+      <c r="S21" s="9">
+        <f>$L21+Sheet2!B$6/24</f>
         <v>0.99999999999999967</v>
       </c>
-      <c r="Q20" s="9">
-        <f>$I20+Sheet2!B$7/24</f>
+      <c r="T21" s="9">
+        <f>$L21+Sheet2!B$7/24</f>
         <v>0.79166666666666641</v>
       </c>
-      <c r="R20" s="9">
-        <f>$I20+Sheet2!B$8/24</f>
+      <c r="U21" s="9">
+        <f>$L21+Sheet2!B$8/24</f>
         <v>0.74999999999999967</v>
       </c>
-      <c r="S20" s="9">
-        <f>$I20+Sheet2!B$9/24</f>
+      <c r="V21" s="9">
+        <f>$L21+Sheet2!B$9/24</f>
         <v>0.70833333333333304</v>
       </c>
-      <c r="T20" s="9">
-        <f>$I20+Sheet2!B$10/24</f>
+      <c r="W21" s="9">
+        <f>$L21+Sheet2!B$10/24</f>
         <v>0.6666666666666663</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="5" t="s">
+    <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="43"/>
+      <c r="B22" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="G22" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="I22" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="30" t="str">
+      <c r="K22" s="30" t="str">
         <f>Sheet2!$A$8</f>
         <v>CDT</v>
       </c>
-      <c r="I21" s="9">
+      <c r="L22" s="9">
         <v>0.95833333333333304</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="M22" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="K21" s="9">
-        <f>$I21+Sheet2!B$1/24</f>
+      <c r="N22" s="9">
+        <f>$L22+Sheet2!B$1/24</f>
         <v>1.2916666666666663</v>
       </c>
-      <c r="L21" s="9">
-        <f>$I21+Sheet2!B$2/24</f>
+      <c r="O22" s="9">
+        <f>$L22+Sheet2!B$2/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="M21" s="9">
-        <f>$I21+Sheet2!B$3/24</f>
+      <c r="P22" s="9">
+        <f>$L22+Sheet2!B$3/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="N21" s="9">
-        <f>$I21+Sheet2!B$4/24</f>
+      <c r="Q22" s="9">
+        <f>$L22+Sheet2!B$4/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="O21" s="9">
-        <f>$I21+Sheet2!B$5/24</f>
+      <c r="R22" s="9">
+        <f>$L22+Sheet2!B$5/24</f>
         <v>1.0416666666666663</v>
       </c>
-      <c r="P21" s="9">
-        <f>$I21+Sheet2!B$6/24</f>
+      <c r="S22" s="9">
+        <f>$L22+Sheet2!B$6/24</f>
         <v>0.99999999999999967</v>
       </c>
-      <c r="Q21" s="9">
-        <f>$I21+Sheet2!B$7/24</f>
+      <c r="T22" s="9">
+        <f>$L22+Sheet2!B$7/24</f>
         <v>0.79166666666666641</v>
       </c>
-      <c r="R21" s="9">
-        <f>$I21+Sheet2!B$8/24</f>
+      <c r="U22" s="9">
+        <f>$L22+Sheet2!B$8/24</f>
         <v>0.74999999999999967</v>
       </c>
-      <c r="S21" s="9">
-        <f>$I21+Sheet2!B$9/24</f>
+      <c r="V22" s="9">
+        <f>$L22+Sheet2!B$9/24</f>
         <v>0.70833333333333304</v>
       </c>
-      <c r="T21" s="9">
-        <f>$I21+Sheet2!B$10/24</f>
+      <c r="W22" s="9">
+        <f>$L22+Sheet2!B$10/24</f>
         <v>0.6666666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="21">
-        <v>18</v>
-      </c>
-      <c r="D22" s="5">
-        <v>20</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="I22" s="24">
-        <v>1</v>
-      </c>
-      <c r="J22" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="K22" s="24">
-        <f>$I22+Sheet2!B$1/24</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="L22" s="24">
-        <f>$I22+Sheet2!B$2/24</f>
-        <v>1.125</v>
-      </c>
-      <c r="M22" s="24">
-        <f>$I22+Sheet2!B$3/24</f>
-        <v>1.125</v>
-      </c>
-      <c r="N22" s="24">
-        <f>$I22+Sheet2!B$4/24</f>
-        <v>1.125</v>
-      </c>
-      <c r="O22" s="24">
-        <f>$I22+Sheet2!B$5/24</f>
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="P22" s="24">
-        <f>$I22+Sheet2!B$6/24</f>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="Q22" s="24">
-        <f>$I22+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="R22" s="24">
-        <f>$I22+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="S22" s="24">
-        <f>$I22+Sheet2!B$9/24</f>
-        <v>0.75</v>
-      </c>
-      <c r="T22" s="24">
-        <f>$I22+Sheet2!B$10/24</f>
-        <v>0.70833333333333326</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="43"/>
       <c r="B23" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="21">
+        <v>18</v>
+      </c>
+      <c r="D23" s="5">
+        <v>20</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" s="24">
+        <v>1</v>
+      </c>
+      <c r="M23" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="N23" s="24">
+        <f>$L23+Sheet2!B$1/24</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="O23" s="24">
+        <f>$L23+Sheet2!B$2/24</f>
+        <v>1.125</v>
+      </c>
+      <c r="P23" s="24">
+        <f>$L23+Sheet2!B$3/24</f>
+        <v>1.125</v>
+      </c>
+      <c r="Q23" s="24">
+        <f>$L23+Sheet2!B$4/24</f>
+        <v>1.125</v>
+      </c>
+      <c r="R23" s="24">
+        <f>$L23+Sheet2!B$5/24</f>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="S23" s="24">
+        <f>$L23+Sheet2!B$6/24</f>
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="T23" s="24">
+        <f>$L23+Sheet2!B$7/24</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="U23" s="24">
+        <f>$L23+Sheet2!B$8/24</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="V23" s="24">
+        <f>$L23+Sheet2!B$9/24</f>
+        <v>0.75</v>
+      </c>
+      <c r="W23" s="24">
+        <f>$L23+Sheet2!B$10/24</f>
+        <v>0.70833333333333326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="43"/>
+      <c r="B24" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C24" s="21">
         <v>9</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D24" s="35">
         <v>21</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E24" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="G24" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="28" t="s">
+      <c r="I24" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="J24" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="27" t="str">
+      <c r="K24" s="27" t="str">
         <f>Sheet2!$A$10</f>
         <v>PDT</v>
       </c>
-      <c r="I23" s="24">
+      <c r="L24" s="24">
         <v>1.041666666666667</v>
       </c>
-      <c r="J23" s="29" t="s">
+      <c r="M24" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="K23" s="24">
-        <f>$I23+Sheet2!B$1/24</f>
+      <c r="N24" s="24">
+        <f>$L24+Sheet2!B$1/24</f>
         <v>1.3750000000000002</v>
       </c>
-      <c r="L23" s="24">
-        <f>$I23+Sheet2!B$2/24</f>
+      <c r="O24" s="24">
+        <f>$L24+Sheet2!B$2/24</f>
         <v>1.166666666666667</v>
       </c>
-      <c r="M23" s="24">
-        <f>$I23+Sheet2!B$3/24</f>
+      <c r="P24" s="24">
+        <f>$L24+Sheet2!B$3/24</f>
         <v>1.166666666666667</v>
       </c>
-      <c r="N23" s="24">
-        <f>$I23+Sheet2!B$4/24</f>
+      <c r="Q24" s="24">
+        <f>$L24+Sheet2!B$4/24</f>
         <v>1.166666666666667</v>
       </c>
-      <c r="O23" s="24">
-        <f>$I23+Sheet2!B$5/24</f>
+      <c r="R24" s="24">
+        <f>$L24+Sheet2!B$5/24</f>
         <v>1.1250000000000002</v>
       </c>
-      <c r="P23" s="24">
-        <f>$I23+Sheet2!B$6/24</f>
+      <c r="S24" s="24">
+        <f>$L24+Sheet2!B$6/24</f>
         <v>1.0833333333333337</v>
       </c>
-      <c r="Q23" s="24">
-        <f>$I23+Sheet2!B$7/24</f>
+      <c r="T24" s="24">
+        <f>$L24+Sheet2!B$7/24</f>
         <v>0.87500000000000033</v>
       </c>
-      <c r="R23" s="24">
-        <f>$I23+Sheet2!B$8/24</f>
+      <c r="U24" s="24">
+        <f>$L24+Sheet2!B$8/24</f>
         <v>0.83333333333333359</v>
       </c>
-      <c r="S23" s="24">
-        <f>$I23+Sheet2!B$9/24</f>
+      <c r="V24" s="24">
+        <f>$L24+Sheet2!B$9/24</f>
         <v>0.79166666666666696</v>
       </c>
-      <c r="T23" s="24">
-        <f>$I23+Sheet2!B$10/24</f>
+      <c r="W24" s="24">
+        <f>$L24+Sheet2!B$10/24</f>
         <v>0.75000000000000022</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H25" s="40"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="K26" s="40"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="H27" s="40"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E28" s="41"/>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F28" s="41"/>
-      <c r="H28" s="40"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E29" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="K28" s="40"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F29" s="41"/>
-      <c r="H29" s="40"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E30" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="K29" s="40"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F30" s="41"/>
-      <c r="H30" s="40"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E31" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="K30" s="40"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F31" s="41"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E32" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="K31" s="40"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F32" s="41"/>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E33" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F33" s="41"/>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E34" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F34" s="41"/>
-    </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E35" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A3:A16"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:T5 K7:T23">
-    <cfRule type="expression" dxfId="1" priority="16">
-      <formula>K$1=$H2</formula>
+  <conditionalFormatting sqref="N2:W5 N7:W14 N16:W24">
+    <cfRule type="expression" dxfId="3" priority="17">
+      <formula>N$1=$K2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:T6">
-    <cfRule type="expression" dxfId="0" priority="5">
-      <formula>K$1=$H6</formula>
+  <conditionalFormatting sqref="N6:W6">
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>N$1=$K6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15:W15">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>N$1=$K15</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId1" display="https://swgoh.gg/u/zizoun/"/>
-    <hyperlink ref="F10" r:id="rId2" display="https://swgoh.gg/u/stirzla/"/>
-    <hyperlink ref="F16" r:id="rId3" display="https://swgoh.gg/u/hawthorne33/"/>
-    <hyperlink ref="F7" r:id="rId4" display="https://swgoh.gg/u/AbrekV/"/>
-    <hyperlink ref="F20" r:id="rId5" display="https://swgoh.gg/u/kahhns/"/>
-    <hyperlink ref="F8" r:id="rId6" display="https://swgoh.gg/u/eugene/"/>
-    <hyperlink ref="F17" r:id="rId7" display="https://swgoh.gg/u/noe/"/>
-    <hyperlink ref="F3" r:id="rId8" display="https://swgoh.gg/u/zhara/"/>
-    <hyperlink ref="F4" r:id="rId9" display="https://swgoh.gg/u/cristiano/"/>
-    <hyperlink ref="F23" r:id="rId10" display="https://swgoh.gg/u/raspywalker/"/>
-    <hyperlink ref="F11" r:id="rId11" display="https://swgoh.gg/u/ceberus/"/>
-    <hyperlink ref="F5" r:id="rId12" display="https://swgoh.gg/u/nika/"/>
-    <hyperlink ref="F2" r:id="rId13" display="https://swgoh.gg/u/vk1559/"/>
-    <hyperlink ref="H2" r:id="rId14" display="https://www.timeanddate.com/time/zones/cst-china"/>
-    <hyperlink ref="H3" r:id="rId15" display="https://www.timeanddate.com/time/zones/msk"/>
-    <hyperlink ref="H4:H5" r:id="rId16" display="https://www.timeanddate.com/time/zones/msk"/>
-    <hyperlink ref="H7" r:id="rId17" display="https://www.timeanddate.com/time/zones/trt"/>
-    <hyperlink ref="H8" r:id="rId18" display="https://www.timeanddate.com/time/zones/eest"/>
-    <hyperlink ref="H9" r:id="rId19" display="https://www.timeanddate.com/time/zones/cest"/>
-    <hyperlink ref="H10:H12" r:id="rId20" display="https://www.timeanddate.com/time/zones/cest"/>
-    <hyperlink ref="H16" r:id="rId21" display="https://www.timeanddate.com/time/zones/edt"/>
-    <hyperlink ref="H17:H19" r:id="rId22" display="https://www.timeanddate.com/time/zones/edt"/>
-    <hyperlink ref="H20" r:id="rId23" display="https://www.timeanddate.com/time/zones/cdt"/>
-    <hyperlink ref="H23" r:id="rId24" display="https://www.timeanddate.com/time/zones/pdt"/>
-    <hyperlink ref="F12" r:id="rId25" display="https://swgoh.gg/u/ioz86/"/>
-    <hyperlink ref="H22" r:id="rId26"/>
-    <hyperlink ref="F22" r:id="rId27"/>
-    <hyperlink ref="F18" r:id="rId28" display="https://swgoh.gg/u/fireguy/"/>
-    <hyperlink ref="H18" r:id="rId29" display="https://www.timeanddate.com/time/zones/edt"/>
-    <hyperlink ref="H15" r:id="rId30"/>
-    <hyperlink ref="H6" r:id="rId31" display="https://www.timeanddate.com/time/zones/msk"/>
-    <hyperlink ref="F6" r:id="rId32" display="https://swgoh.gg/u/tmmax/"/>
-    <hyperlink ref="F19" r:id="rId33"/>
-    <hyperlink ref="H14" r:id="rId34" display="https://www.timeanddate.com/time/zones/cest"/>
-    <hyperlink ref="F14" r:id="rId35" display="https://swgoh.gg/u/jayzi/"/>
-    <hyperlink ref="F15" r:id="rId36"/>
-    <hyperlink ref="F13" r:id="rId37"/>
-    <hyperlink ref="H13" r:id="rId38" display="https://www.timeanddate.com/time/zones/cest"/>
-    <hyperlink ref="F21" r:id="rId39" tooltip="https://swgoh.gg/u/phalanx7452/" display="https://swgoh.gg/u/phalanx7452/"/>
-    <hyperlink ref="H21" r:id="rId40" display="https://www.timeanddate.com/time/zones/cdt"/>
+    <hyperlink ref="H9" r:id="rId1" display="https://swgoh.gg/u/zizoun/"/>
+    <hyperlink ref="H10" r:id="rId2" display="https://swgoh.gg/u/stirzla/"/>
+    <hyperlink ref="H17" r:id="rId3" display="https://swgoh.gg/u/hawthorne33/"/>
+    <hyperlink ref="H7" r:id="rId4" display="https://swgoh.gg/u/AbrekV/"/>
+    <hyperlink ref="H21" r:id="rId5" display="https://swgoh.gg/u/kahhns/"/>
+    <hyperlink ref="H8" r:id="rId6" display="https://swgoh.gg/u/eugene/"/>
+    <hyperlink ref="H18" r:id="rId7" display="https://swgoh.gg/u/noe/"/>
+    <hyperlink ref="H3" r:id="rId8" display="https://swgoh.gg/u/zhara/"/>
+    <hyperlink ref="H4" r:id="rId9" display="https://swgoh.gg/u/cristiano/"/>
+    <hyperlink ref="H24" r:id="rId10" display="https://swgoh.gg/u/raspywalker/"/>
+    <hyperlink ref="H11" r:id="rId11" display="https://swgoh.gg/u/ceberus/"/>
+    <hyperlink ref="H5" r:id="rId12" display="https://swgoh.gg/u/nika/"/>
+    <hyperlink ref="H2" r:id="rId13" display="https://swgoh.gg/u/vk1559/"/>
+    <hyperlink ref="K2" r:id="rId14" display="https://www.timeanddate.com/time/zones/cst-china"/>
+    <hyperlink ref="K3" r:id="rId15" display="https://www.timeanddate.com/time/zones/msk"/>
+    <hyperlink ref="K4:K5" r:id="rId16" display="https://www.timeanddate.com/time/zones/msk"/>
+    <hyperlink ref="K7" r:id="rId17" display="https://www.timeanddate.com/time/zones/trt"/>
+    <hyperlink ref="K8" r:id="rId18" display="https://www.timeanddate.com/time/zones/eest"/>
+    <hyperlink ref="K9" r:id="rId19" display="https://www.timeanddate.com/time/zones/cest"/>
+    <hyperlink ref="K10:K12" r:id="rId20" display="https://www.timeanddate.com/time/zones/cest"/>
+    <hyperlink ref="K17" r:id="rId21" display="https://www.timeanddate.com/time/zones/edt"/>
+    <hyperlink ref="K18:K20" r:id="rId22" display="https://www.timeanddate.com/time/zones/edt"/>
+    <hyperlink ref="K21" r:id="rId23" display="https://www.timeanddate.com/time/zones/cdt"/>
+    <hyperlink ref="K24" r:id="rId24" display="https://www.timeanddate.com/time/zones/pdt"/>
+    <hyperlink ref="H12" r:id="rId25" display="https://swgoh.gg/u/ioz86/"/>
+    <hyperlink ref="K23" r:id="rId26"/>
+    <hyperlink ref="H23" r:id="rId27"/>
+    <hyperlink ref="H19" r:id="rId28" display="https://swgoh.gg/u/fireguy/"/>
+    <hyperlink ref="K19" r:id="rId29" display="https://www.timeanddate.com/time/zones/edt"/>
+    <hyperlink ref="K16" r:id="rId30"/>
+    <hyperlink ref="K6" r:id="rId31" display="https://www.timeanddate.com/time/zones/msk"/>
+    <hyperlink ref="H6" r:id="rId32" display="https://swgoh.gg/u/tmmax/"/>
+    <hyperlink ref="H20" r:id="rId33"/>
+    <hyperlink ref="K14" r:id="rId34" display="https://www.timeanddate.com/time/zones/cest"/>
+    <hyperlink ref="H14" r:id="rId35" display="https://swgoh.gg/u/jayzi/"/>
+    <hyperlink ref="H16" r:id="rId36"/>
+    <hyperlink ref="H13" r:id="rId37"/>
+    <hyperlink ref="K13" r:id="rId38" display="https://www.timeanddate.com/time/zones/cest"/>
+    <hyperlink ref="H22" r:id="rId39" tooltip="https://swgoh.gg/u/phalanx7452/" display="https://swgoh.gg/u/phalanx7452/"/>
+    <hyperlink ref="K22" r:id="rId40" display="https://www.timeanddate.com/time/zones/cdt"/>
+    <hyperlink ref="H15" r:id="rId41" display="https://swgoh.gg/u/solos100/"/>
+    <hyperlink ref="K15" r:id="rId42" display="https://www.timeanddate.com/time/zones/cest"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId43"/>
   <tableParts count="1">
-    <tablePart r:id="rId42"/>
+    <tablePart r:id="rId44"/>
   </tableParts>
 </worksheet>
 </file>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janwa\OneDrive\Documents\SWGoH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b92275a9bf72c170/Documents/SWGoH/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -369,9 +369,6 @@
     <t>&lt;@148203612928081921&gt;</t>
   </si>
   <si>
-    <t>France</t>
-  </si>
-  <si>
     <t>solos100</t>
   </si>
   <si>
@@ -396,9 +393,6 @@
     <t>:flag_cz:</t>
   </si>
   <si>
-    <t>:flag_fr:</t>
-  </si>
-  <si>
     <t>:flag_ca:</t>
   </si>
   <si>
@@ -490,6 +484,12 @@
   </si>
   <si>
     <t>SWGOH</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>:flag_pl:</t>
   </si>
 </sst>
 </file>
@@ -544,6 +544,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -554,14 +562,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -749,7 +749,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -758,257 +758,104 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="dashDot">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="dashDot">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="hh:mm;@"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1246,6 +1093,35 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="dashDot">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <u/>
         <color theme="0"/>
       </font>
@@ -1259,6 +1135,96 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="dashDot">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1304,6 +1270,30 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1347,46 +1337,46 @@
     <filterColumn colId="21" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="22">
-    <tableColumn id="1" name="Name" totalsRowLabel="Total" dataDxfId="24"/>
-    <tableColumn id="3" name="Joined" dataDxfId="23"/>
-    <tableColumn id="6" name="Sort" dataDxfId="7"/>
-    <tableColumn id="20" name="ID" dataDxfId="5"/>
-    <tableColumn id="2" name="Country" dataDxfId="6"/>
-    <tableColumn id="21" name="Flag" dataDxfId="4"/>
-    <tableColumn id="14" name="SWGOH.GG" totalsRowFunction="count" dataDxfId="22" dataCellStyle="Hyperlink"/>
-    <tableColumn id="22" name="SWGOH" dataDxfId="0" dataCellStyle="Hyperlink"/>
-    <tableColumn id="15" name="Rank" dataDxfId="21" dataCellStyle="Hyperlink"/>
-    <tableColumn id="4" name="TZ" dataDxfId="20" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" name="UTC" dataDxfId="19"/>
-    <tableColumn id="19" name="DST" dataDxfId="18"/>
-    <tableColumn id="5" name="CST" dataDxfId="17">
+    <tableColumn id="1" name="Name" totalsRowLabel="Total" dataDxfId="21"/>
+    <tableColumn id="3" name="Joined" dataDxfId="20"/>
+    <tableColumn id="6" name="Sort" dataDxfId="19"/>
+    <tableColumn id="20" name="ID" dataDxfId="18"/>
+    <tableColumn id="2" name="Country" dataDxfId="17"/>
+    <tableColumn id="21" name="Flag" dataDxfId="16"/>
+    <tableColumn id="14" name="SWGOH.GG" totalsRowFunction="count" dataDxfId="15" dataCellStyle="Hyperlink"/>
+    <tableColumn id="22" name="SWGOH" dataDxfId="14" dataCellStyle="Hyperlink"/>
+    <tableColumn id="15" name="Rank" dataDxfId="13" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" name="TZ" dataDxfId="12" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" name="UTC" dataDxfId="11"/>
+    <tableColumn id="19" name="DST" dataDxfId="10"/>
+    <tableColumn id="5" name="CST" dataDxfId="9">
       <calculatedColumnFormula>$L2+Sheet2!B$1/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="MSK" dataDxfId="16">
+    <tableColumn id="13" name="MSK" dataDxfId="8">
       <calculatedColumnFormula>$L2+Sheet2!B$2/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="TRT" dataDxfId="15">
+    <tableColumn id="12" name="TRT" dataDxfId="7">
       <calculatedColumnFormula>$L2+Sheet2!B$3/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EEST" dataDxfId="14">
+    <tableColumn id="11" name="EEST" dataDxfId="6">
       <calculatedColumnFormula>$L2+Sheet2!B$4/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="CEST" dataDxfId="13">
+    <tableColumn id="10" name="CEST" dataDxfId="5">
       <calculatedColumnFormula>$L2+Sheet2!B$5/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="BST" dataDxfId="12">
+    <tableColumn id="17" name="BST" dataDxfId="4">
       <calculatedColumnFormula>$L2+Sheet2!B$6/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="EDT" dataDxfId="11">
+    <tableColumn id="9" name="EDT" dataDxfId="3">
       <calculatedColumnFormula>$L2+Sheet2!B$7/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="CDT" dataDxfId="10">
+    <tableColumn id="8" name="CDT" dataDxfId="2">
       <calculatedColumnFormula>$L2+Sheet2!B$8/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="MDT" dataDxfId="9">
+    <tableColumn id="18" name="MDT" dataDxfId="1">
       <calculatedColumnFormula>$L2+Sheet2!B$9/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="PDT" dataDxfId="8">
+    <tableColumn id="16" name="PDT" dataDxfId="0">
       <calculatedColumnFormula>$L2+Sheet2!B$10/24</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1693,9 +1683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1703,11 +1691,11 @@
     <col min="2" max="2" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="4.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="24" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" style="3" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -1729,20 +1717,20 @@
       <c r="D1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="59" t="s">
-        <v>130</v>
+      <c r="E1" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="59" t="s">
-        <v>129</v>
+      <c r="G1" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="59" t="s">
-        <v>154</v>
+      <c r="I1" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>8</v>
@@ -1800,159 +1788,159 @@
       <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="7" t="str">
+      <c r="K2" s="8" t="str">
         <f>Sheet2!$A$1</f>
         <v>CST</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="11">
         <f>$L2+Sheet2!B$1/24</f>
         <v>0.75</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="11">
         <f>$L2+Sheet2!B$2/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="11">
         <f>$L2+Sheet2!B$3/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="11">
         <f>$L2+Sheet2!B$4/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="R2" s="9">
+      <c r="R2" s="11">
         <f>$L2+Sheet2!B$5/24</f>
         <v>0.5</v>
       </c>
-      <c r="S2" s="9">
+      <c r="S2" s="11">
         <f>$L2+Sheet2!B$6/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="T2" s="9">
+      <c r="T2" s="11">
         <f>$L2+Sheet2!B$7/24</f>
         <v>0.25</v>
       </c>
-      <c r="U2" s="9">
+      <c r="U2" s="11">
         <f>$L2+Sheet2!B$8/24</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="V2" s="9">
+      <c r="V2" s="11">
         <f>$L2+Sheet2!B$9/24</f>
         <v>0.16666666666666669</v>
       </c>
-      <c r="W2" s="9">
+      <c r="W2" s="11">
         <f>$L2+Sheet2!B$10/24</f>
         <v>0.125</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="14">
         <v>12</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="14">
         <v>2</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="G3" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="J3" s="14" t="s">
+      <c r="I3" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="13" t="str">
+      <c r="K3" s="17" t="str">
         <f>Sheet2!$A$2</f>
         <v>MSK</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="20">
         <v>0.625</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="20">
         <f>$L3+Sheet2!B$1/24</f>
         <v>0.95833333333333326</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="20">
         <f>$L3+Sheet2!B$2/24</f>
         <v>0.75</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P3" s="20">
         <f>$L3+Sheet2!B$3/24</f>
         <v>0.75</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="20">
         <f>$L3+Sheet2!B$4/24</f>
         <v>0.75</v>
       </c>
-      <c r="R3" s="15">
+      <c r="R3" s="20">
         <f>$L3+Sheet2!B$5/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="S3" s="15">
+      <c r="S3" s="20">
         <f>$L3+Sheet2!B$6/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T3" s="15">
+      <c r="T3" s="20">
         <f>$L3+Sheet2!B$7/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="U3" s="15">
+      <c r="U3" s="20">
         <f>$L3+Sheet2!B$8/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="V3" s="15">
+      <c r="V3" s="20">
         <f>$L3+Sheet2!B$9/24</f>
         <v>0.375</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="20">
         <f>$L3+Sheet2!B$10/24</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
@@ -1962,77 +1950,77 @@
       <c r="D4" s="5">
         <v>3</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="J4" s="8" t="s">
+      <c r="I4" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="7" t="str">
+      <c r="K4" s="8" t="str">
         <f>Sheet2!$A$2</f>
         <v>MSK</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="11">
         <v>0.625</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="11">
         <f>$L4+Sheet2!B$1/24</f>
         <v>0.95833333333333326</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="11">
         <f>$L4+Sheet2!B$2/24</f>
         <v>0.75</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="11">
         <f>$L4+Sheet2!B$3/24</f>
         <v>0.75</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="11">
         <f>$L4+Sheet2!B$4/24</f>
         <v>0.75</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="11">
         <f>$L4+Sheet2!B$5/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="11">
         <f>$L4+Sheet2!B$6/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T4" s="9">
+      <c r="T4" s="11">
         <f>$L4+Sheet2!B$7/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="U4" s="9">
+      <c r="U4" s="11">
         <f>$L4+Sheet2!B$8/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="V4" s="9">
+      <c r="V4" s="11">
         <f>$L4+Sheet2!B$9/24</f>
         <v>0.375</v>
       </c>
-      <c r="W4" s="9">
+      <c r="W4" s="11">
         <f>$L4+Sheet2!B$10/24</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="5" t="s">
         <v>72</v>
       </c>
@@ -2042,77 +2030,77 @@
       <c r="D5" s="5">
         <v>4</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" s="18" t="s">
+      <c r="G5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="J5" s="8" t="s">
+      <c r="I5" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="18" t="str">
+      <c r="K5" s="24" t="str">
         <f>Sheet2!$A$2</f>
         <v>MSK</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="11">
         <v>0.625</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="11">
         <f>$L5+Sheet2!B$1/24</f>
         <v>0.95833333333333326</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="11">
         <f>$L5+Sheet2!B$2/24</f>
         <v>0.75</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="11">
         <f>$L5+Sheet2!B$3/24</f>
         <v>0.75</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="11">
         <f>$L5+Sheet2!B$4/24</f>
         <v>0.75</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="11">
         <f>$L5+Sheet2!B$5/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="11">
         <f>$L5+Sheet2!B$6/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T5" s="11">
         <f>$L5+Sheet2!B$7/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="U5" s="9">
+      <c r="U5" s="11">
         <f>$L5+Sheet2!B$8/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="V5" s="9">
+      <c r="V5" s="11">
         <f>$L5+Sheet2!B$9/24</f>
         <v>0.375</v>
       </c>
-      <c r="W5" s="9">
+      <c r="W5" s="11">
         <f>$L5+Sheet2!B$10/24</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="5" t="s">
         <v>76</v>
       </c>
@@ -2122,157 +2110,157 @@
       <c r="D6" s="5">
         <v>4</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="H6" s="19" t="s">
+      <c r="G6" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="J6" s="8" t="s">
+      <c r="I6" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="18" t="str">
+      <c r="K6" s="24" t="str">
         <f>Sheet2!$A$2</f>
         <v>MSK</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="11">
         <v>0.625</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="11">
         <f>$L6+Sheet2!B$1/24</f>
         <v>0.95833333333333326</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="11">
         <f>$L6+Sheet2!B$2/24</f>
         <v>0.75</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="11">
         <f>$L6+Sheet2!B$3/24</f>
         <v>0.75</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="11">
         <f>$L6+Sheet2!B$4/24</f>
         <v>0.75</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="11">
         <f>$L6+Sheet2!B$5/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="11">
         <f>$L6+Sheet2!B$6/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T6" s="9">
+      <c r="T6" s="11">
         <f>$L6+Sheet2!B$7/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="U6" s="9">
+      <c r="U6" s="11">
         <f>$L6+Sheet2!B$8/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="V6" s="9">
+      <c r="V6" s="11">
         <f>$L6+Sheet2!B$9/24</f>
         <v>0.375</v>
       </c>
-      <c r="W6" s="9">
+      <c r="W6" s="11">
         <f>$L6+Sheet2!B$10/24</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="20" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="30">
         <v>4</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="30">
         <v>5</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="H7" s="22" t="s">
+      <c r="G7" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="64" t="s">
-        <v>136</v>
-      </c>
-      <c r="J7" s="23" t="s">
+      <c r="I7" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="J7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="22" t="str">
+      <c r="K7" s="32" t="str">
         <f>Sheet2!$A$3</f>
         <v>TRT</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="35">
         <v>0.66666666666666663</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="M7" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="35">
         <f>$L7+Sheet2!B$1/24</f>
         <v>1</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="35">
         <f>$L7+Sheet2!B$2/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="35">
         <f>$L7+Sheet2!B$3/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="Q7" s="35">
         <f>$L7+Sheet2!B$4/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="R7" s="24">
+      <c r="R7" s="35">
         <f>$L7+Sheet2!B$5/24</f>
         <v>0.75</v>
       </c>
-      <c r="S7" s="24">
+      <c r="S7" s="35">
         <f>$L7+Sheet2!B$6/24</f>
         <v>0.70833333333333326</v>
       </c>
-      <c r="T7" s="24">
+      <c r="T7" s="35">
         <f>$L7+Sheet2!B$7/24</f>
         <v>0.5</v>
       </c>
-      <c r="U7" s="24">
+      <c r="U7" s="35">
         <f>$L7+Sheet2!B$8/24</f>
         <v>0.45833333333333326</v>
       </c>
-      <c r="V7" s="24">
+      <c r="V7" s="35">
         <f>$L7+Sheet2!B$9/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="W7" s="24">
+      <c r="W7" s="35">
         <f>$L7+Sheet2!B$10/24</f>
         <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -2282,157 +2270,157 @@
       <c r="D8" s="5">
         <v>6</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="H8" s="18" t="s">
+      <c r="G8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="I8" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="18" t="str">
+      <c r="K8" s="24" t="str">
         <f>Sheet2!$A$4</f>
         <v>EEST</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="11">
         <v>0.66666666666666663</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="11">
         <f>$L8+Sheet2!B$1/24</f>
         <v>1</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="11">
         <f>$L8+Sheet2!B$2/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="11">
         <f>$L8+Sheet2!B$3/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="11">
         <f>$L8+Sheet2!B$4/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="11">
         <f>$L8+Sheet2!B$5/24</f>
         <v>0.75</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="11">
         <f>$L8+Sheet2!B$6/24</f>
         <v>0.70833333333333326</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T8" s="11">
         <f>$L8+Sheet2!B$7/24</f>
         <v>0.5</v>
       </c>
-      <c r="U8" s="9">
+      <c r="U8" s="11">
         <f>$L8+Sheet2!B$8/24</f>
         <v>0.45833333333333326</v>
       </c>
-      <c r="V8" s="9">
+      <c r="V8" s="11">
         <f>$L8+Sheet2!B$9/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="W8" s="9">
+      <c r="W8" s="11">
         <f>$L8+Sheet2!B$10/24</f>
         <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="30">
         <v>1</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="30">
         <v>7</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="H9" s="27" t="s">
+      <c r="G9" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="J9" s="28" t="s">
+      <c r="I9" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="J9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="27" t="str">
+      <c r="K9" s="38" t="str">
         <f>Sheet2!$A$5</f>
         <v>CEST</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="35">
         <v>0.70833333333333337</v>
       </c>
-      <c r="M9" s="29" t="s">
+      <c r="M9" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="35">
         <f>$L9+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="35">
         <f>$L9+Sheet2!B$2/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="35">
         <f>$L9+Sheet2!B$3/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="Q9" s="35">
         <f>$L9+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R9" s="24">
+      <c r="R9" s="35">
         <f>$L9+Sheet2!B$5/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S9" s="24">
+      <c r="S9" s="35">
         <f>$L9+Sheet2!B$6/24</f>
         <v>0.75</v>
       </c>
-      <c r="T9" s="24">
+      <c r="T9" s="35">
         <f>$L9+Sheet2!B$7/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U9" s="24">
+      <c r="U9" s="35">
         <f>$L9+Sheet2!B$8/24</f>
         <v>0.5</v>
       </c>
-      <c r="V9" s="24">
+      <c r="V9" s="35">
         <f>$L9+Sheet2!B$9/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W9" s="24">
+      <c r="W9" s="35">
         <f>$L9+Sheet2!B$10/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
@@ -2442,77 +2430,77 @@
       <c r="D10" s="5">
         <v>8</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="H10" s="30" t="s">
+      <c r="G10" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="66" t="s">
-        <v>139</v>
-      </c>
-      <c r="J10" s="31" t="s">
+      <c r="I10" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="J10" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="30" t="str">
+      <c r="K10" s="42" t="str">
         <f>Sheet2!$A$5</f>
         <v>CEST</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="11">
         <f>$L10+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="11">
         <f>$L10+Sheet2!B$2/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="11">
         <f>$L10+Sheet2!B$3/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="11">
         <f>$L10+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="11">
         <f>$L10+Sheet2!B$5/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="11">
         <f>$L10+Sheet2!B$6/24</f>
         <v>0.75</v>
       </c>
-      <c r="T10" s="9">
+      <c r="T10" s="11">
         <f>$L10+Sheet2!B$7/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U10" s="9">
+      <c r="U10" s="11">
         <f>$L10+Sheet2!B$8/24</f>
         <v>0.5</v>
       </c>
-      <c r="V10" s="9">
+      <c r="V10" s="11">
         <f>$L10+Sheet2!B$9/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W10" s="9">
+      <c r="W10" s="11">
         <f>$L10+Sheet2!B$10/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
@@ -2522,77 +2510,77 @@
       <c r="D11" s="5">
         <v>9</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" s="30" t="s">
+      <c r="G11" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="J11" s="31" t="s">
+      <c r="I11" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="J11" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="30" t="str">
+      <c r="K11" s="42" t="str">
         <f>Sheet2!$A$5</f>
         <v>CEST</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="M11" s="26" t="s">
+      <c r="M11" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="11">
         <f>$L11+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="11">
         <f>$L11+Sheet2!B$2/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="11">
         <f>$L11+Sheet2!B$3/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="11">
         <f>$L11+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="11">
         <f>$L11+Sheet2!B$5/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S11" s="11">
         <f>$L11+Sheet2!B$6/24</f>
         <v>0.75</v>
       </c>
-      <c r="T11" s="9">
+      <c r="T11" s="11">
         <f>$L11+Sheet2!B$7/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U11" s="9">
+      <c r="U11" s="11">
         <f>$L11+Sheet2!B$8/24</f>
         <v>0.5</v>
       </c>
-      <c r="V11" s="9">
+      <c r="V11" s="11">
         <f>$L11+Sheet2!B$9/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W11" s="9">
+      <c r="W11" s="11">
         <f>$L11+Sheet2!B$10/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="5" t="s">
         <v>58</v>
       </c>
@@ -2602,154 +2590,154 @@
       <c r="D12" s="5">
         <v>11</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="H12" s="30" t="s">
+      <c r="G12" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="66" t="s">
-        <v>141</v>
-      </c>
-      <c r="J12" s="31" t="s">
+      <c r="I12" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="30" t="str">
+      <c r="K12" s="42" t="str">
         <f>Sheet2!$A$5</f>
         <v>CEST</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="M12" s="32" t="s">
+      <c r="M12" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="11">
         <f>$L12+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="11">
         <f>$L12+Sheet2!B$2/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="11">
         <f>$L12+Sheet2!B$3/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="11">
         <f>$L12+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="11">
         <f>$L12+Sheet2!B$5/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="11">
         <f>$L12+Sheet2!B$6/24</f>
         <v>0.75</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="11">
         <f>$L12+Sheet2!B$7/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U12" s="9">
+      <c r="U12" s="11">
         <f>$L12+Sheet2!B$8/24</f>
         <v>0.5</v>
       </c>
-      <c r="V12" s="9">
+      <c r="V12" s="11">
         <f>$L12+Sheet2!B$9/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W12" s="9">
+      <c r="W12" s="11">
         <f>$L12+Sheet2!B$10/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="5" t="s">
         <v>84</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="H13" s="30" t="s">
+      <c r="G13" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="J13" s="31" t="s">
+      <c r="I13" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="30" t="str">
+      <c r="K13" s="42" t="str">
         <f>Sheet2!$A$5</f>
         <v>CEST</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="M13" s="32" t="s">
+      <c r="M13" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="11">
         <f>$L13+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="11">
         <f>$L13+Sheet2!B$2/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="11">
         <f>$L13+Sheet2!B$3/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="Q13" s="11">
         <f>$L13+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="11">
         <f>$L13+Sheet2!B$5/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S13" s="9">
+      <c r="S13" s="11">
         <f>$L13+Sheet2!B$6/24</f>
         <v>0.75</v>
       </c>
-      <c r="T13" s="9">
+      <c r="T13" s="11">
         <f>$L13+Sheet2!B$7/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U13" s="9">
+      <c r="U13" s="11">
         <f>$L13+Sheet2!B$8/24</f>
         <v>0.5</v>
       </c>
-      <c r="V13" s="9">
+      <c r="V13" s="11">
         <f>$L13+Sheet2!B$9/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W13" s="9">
+      <c r="W13" s="11">
         <f>$L13+Sheet2!B$10/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C14" s="5">
@@ -2758,232 +2746,232 @@
       <c r="D14" s="5">
         <v>12</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="H14" s="30" t="s">
+      <c r="G14" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="J14" s="31" t="s">
+      <c r="I14" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="30" t="str">
+      <c r="K14" s="42" t="str">
         <f>Sheet2!$A$5</f>
         <v>CEST</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="M14" s="32" t="s">
+      <c r="M14" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="11">
         <f>$L14+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="11">
         <f>$L14+Sheet2!B$2/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="11">
         <f>$L14+Sheet2!B$3/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q14" s="11">
         <f>$L14+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="11">
         <f>$L14+Sheet2!B$5/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S14" s="11">
         <f>$L14+Sheet2!B$6/24</f>
         <v>0.75</v>
       </c>
-      <c r="T14" s="9">
+      <c r="T14" s="11">
         <f>$L14+Sheet2!B$7/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U14" s="9">
+      <c r="U14" s="11">
         <f>$L14+Sheet2!B$8/24</f>
         <v>0.5</v>
       </c>
-      <c r="V14" s="9">
+      <c r="V14" s="11">
         <f>$L14+Sheet2!B$9/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W14" s="9">
+      <c r="W14" s="11">
         <f>$L14+Sheet2!B$10/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="51" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="7" t="s">
         <v>112</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="G15" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="I15" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="J15" s="52" t="s">
+      <c r="I15" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="30" t="str">
+      <c r="K15" s="42" t="str">
         <f>Sheet2!$A$5</f>
         <v>CEST</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="M15" s="32" t="s">
+      <c r="M15" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="11">
         <f>$L15+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="11">
         <f>$L15+Sheet2!B$2/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="11">
         <f>$L15+Sheet2!B$3/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="11">
         <f>$L15+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="11">
         <f>$L15+Sheet2!B$5/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S15" s="11">
         <f>$L15+Sheet2!B$6/24</f>
         <v>0.75</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T15" s="11">
         <f>$L15+Sheet2!B$7/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U15" s="9">
+      <c r="U15" s="11">
         <f>$L15+Sheet2!B$8/24</f>
         <v>0.5</v>
       </c>
-      <c r="V15" s="9">
+      <c r="V15" s="11">
         <f>$L15+Sheet2!B$9/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W15" s="9">
+      <c r="W15" s="11">
         <f>$L15+Sheet2!B$10/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="46"/>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="48">
         <v>21</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="49">
         <v>13</v>
       </c>
       <c r="E16" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="H16" s="36" t="s">
+      <c r="G16" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="J16" s="37" t="s">
+      <c r="I16" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="36" t="s">
+      <c r="K16" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="L16" s="38">
+      <c r="L16" s="54">
         <v>0.75</v>
       </c>
-      <c r="M16" s="39" t="s">
+      <c r="M16" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="N16" s="38">
+      <c r="N16" s="54">
         <f>$L16+Sheet2!B$1/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="O16" s="38">
+      <c r="O16" s="54">
         <f>$L16+Sheet2!B$2/24</f>
         <v>0.875</v>
       </c>
-      <c r="P16" s="38">
+      <c r="P16" s="54">
         <f>$L16+Sheet2!B$3/24</f>
         <v>0.875</v>
       </c>
-      <c r="Q16" s="38">
+      <c r="Q16" s="54">
         <f>$L16+Sheet2!B$4/24</f>
         <v>0.875</v>
       </c>
-      <c r="R16" s="38">
+      <c r="R16" s="54">
         <f>$L16+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="S16" s="38">
+      <c r="S16" s="54">
         <f>$L16+Sheet2!B$6/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="T16" s="38">
+      <c r="T16" s="54">
         <f>$L16+Sheet2!B$7/24</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="U16" s="38">
+      <c r="U16" s="54">
         <f>$L16+Sheet2!B$8/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="V16" s="38">
+      <c r="V16" s="54">
         <f>$L16+Sheet2!B$9/24</f>
         <v>0.5</v>
       </c>
-      <c r="W16" s="38">
+      <c r="W16" s="54">
         <f>$L16+Sheet2!B$10/24</f>
         <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="56" t="s">
         <v>55</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2995,77 +2983,77 @@
       <c r="D17" s="5">
         <v>14</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="H17" s="30" t="s">
+      <c r="G17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="J17" s="31" t="s">
+      <c r="I17" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="30" t="str">
+      <c r="K17" s="42" t="str">
         <f>Sheet2!$A$7</f>
         <v>EDT</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="11">
         <v>0.91666666666666696</v>
       </c>
-      <c r="M17" s="26" t="s">
+      <c r="M17" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="11">
         <f>$L17+Sheet2!B$1/24</f>
         <v>1.2500000000000002</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="11">
         <f>$L17+Sheet2!B$2/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17" s="11">
         <f>$L17+Sheet2!B$3/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="11">
         <f>$L17+Sheet2!B$4/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R17" s="11">
         <f>$L17+Sheet2!B$5/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="S17" s="9">
+      <c r="S17" s="11">
         <f>$L17+Sheet2!B$6/24</f>
         <v>0.95833333333333359</v>
       </c>
-      <c r="T17" s="9">
+      <c r="T17" s="11">
         <f>$L17+Sheet2!B$7/24</f>
         <v>0.75000000000000033</v>
       </c>
-      <c r="U17" s="9">
+      <c r="U17" s="11">
         <f>$L17+Sheet2!B$8/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="V17" s="9">
+      <c r="V17" s="11">
         <f>$L17+Sheet2!B$9/24</f>
         <v>0.66666666666666696</v>
       </c>
-      <c r="W17" s="9">
+      <c r="W17" s="11">
         <f>$L17+Sheet2!B$10/24</f>
         <v>0.62500000000000022</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="5" t="s">
         <v>33</v>
       </c>
@@ -3075,617 +3063,617 @@
       <c r="D18" s="5">
         <v>16</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="H18" s="30" t="s">
+      <c r="G18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="66" t="s">
-        <v>147</v>
-      </c>
-      <c r="J18" s="31" t="s">
+      <c r="I18" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="30" t="str">
+      <c r="K18" s="42" t="str">
         <f>Sheet2!$A$7</f>
         <v>EDT</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="11">
         <v>0.91666666666666696</v>
       </c>
-      <c r="M18" s="26" t="s">
+      <c r="M18" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="11">
         <f>$L18+Sheet2!B$1/24</f>
         <v>1.2500000000000002</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O18" s="11">
         <f>$L18+Sheet2!B$2/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="P18" s="9">
+      <c r="P18" s="11">
         <f>$L18+Sheet2!B$3/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="Q18" s="11">
         <f>$L18+Sheet2!B$4/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="R18" s="9">
+      <c r="R18" s="11">
         <f>$L18+Sheet2!B$5/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="S18" s="9">
+      <c r="S18" s="11">
         <f>$L18+Sheet2!B$6/24</f>
         <v>0.95833333333333359</v>
       </c>
-      <c r="T18" s="9">
+      <c r="T18" s="11">
         <f>$L18+Sheet2!B$7/24</f>
         <v>0.75000000000000033</v>
       </c>
-      <c r="U18" s="9">
+      <c r="U18" s="11">
         <f>$L18+Sheet2!B$8/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="V18" s="9">
+      <c r="V18" s="11">
         <f>$L18+Sheet2!B$9/24</f>
         <v>0.66666666666666696</v>
       </c>
-      <c r="W18" s="9">
+      <c r="W18" s="11">
         <f>$L18+Sheet2!B$10/24</f>
         <v>0.62500000000000022</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C19" s="5">
         <v>19</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="49">
         <v>17</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="7" t="s">
         <v>67</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H19" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="J19" s="31" t="s">
+      <c r="I19" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="30" t="str">
+      <c r="K19" s="42" t="str">
         <f>Sheet2!$A$7</f>
         <v>EDT</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="11">
         <v>0.91666666666666696</v>
       </c>
-      <c r="M19" s="26" t="s">
+      <c r="M19" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="11">
         <f>$L19+Sheet2!B$1/24</f>
         <v>1.2500000000000002</v>
       </c>
-      <c r="O19" s="9">
+      <c r="O19" s="11">
         <f>$L19+Sheet2!B$2/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="P19" s="9">
+      <c r="P19" s="11">
         <f>$L19+Sheet2!B$3/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="Q19" s="9">
+      <c r="Q19" s="11">
         <f>$L19+Sheet2!B$4/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="R19" s="9">
+      <c r="R19" s="11">
         <f>$L19+Sheet2!B$5/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="S19" s="9">
+      <c r="S19" s="11">
         <f>$L19+Sheet2!B$6/24</f>
         <v>0.95833333333333359</v>
       </c>
-      <c r="T19" s="9">
+      <c r="T19" s="11">
         <f>$L19+Sheet2!B$7/24</f>
         <v>0.75000000000000033</v>
       </c>
-      <c r="U19" s="9">
+      <c r="U19" s="11">
         <f>$L19+Sheet2!B$8/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="V19" s="9">
+      <c r="V19" s="11">
         <f>$L19+Sheet2!B$9/24</f>
         <v>0.66666666666666696</v>
       </c>
-      <c r="W19" s="9">
+      <c r="W19" s="11">
         <f>$L19+Sheet2!B$10/24</f>
         <v>0.62500000000000022</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="57"/>
+      <c r="B20" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="30">
         <v>6</v>
       </c>
       <c r="D20" s="5">
         <v>18</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="H20" s="27" t="s">
+      <c r="G20" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="I20" s="65" t="s">
-        <v>149</v>
-      </c>
-      <c r="J20" s="28" t="s">
+      <c r="I20" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="27" t="str">
+      <c r="K20" s="38" t="str">
         <f>Sheet2!$A$7</f>
         <v>EDT</v>
       </c>
-      <c r="L20" s="24">
+      <c r="L20" s="35">
         <v>0.95833333333333359</v>
       </c>
-      <c r="M20" s="29" t="s">
+      <c r="M20" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="N20" s="24">
+      <c r="N20" s="35">
         <f>$L20+Sheet2!B$1/24</f>
         <v>1.291666666666667</v>
       </c>
-      <c r="O20" s="24">
+      <c r="O20" s="35">
         <f>$L20+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P20" s="24">
+      <c r="P20" s="35">
         <f>$L20+Sheet2!B$3/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q20" s="24">
+      <c r="Q20" s="35">
         <f>$L20+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="R20" s="24">
+      <c r="R20" s="35">
         <f>$L20+Sheet2!B$5/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="S20" s="24">
+      <c r="S20" s="35">
         <f>$L20+Sheet2!B$6/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="T20" s="24">
+      <c r="T20" s="35">
         <f>$L20+Sheet2!B$7/24</f>
         <v>0.79166666666666696</v>
       </c>
-      <c r="U20" s="24">
+      <c r="U20" s="35">
         <f>$L20+Sheet2!B$8/24</f>
         <v>0.75000000000000022</v>
       </c>
-      <c r="V20" s="24">
+      <c r="V20" s="35">
         <f>$L20+Sheet2!B$9/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="W20" s="24">
+      <c r="W20" s="35">
         <f>$L20+Sheet2!B$10/24</f>
         <v>0.66666666666666696</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="5">
         <v>8</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="49">
         <v>19</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H21" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="J21" s="31" t="s">
+      <c r="I21" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="J21" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="30" t="str">
+      <c r="K21" s="42" t="str">
         <f>Sheet2!$A$8</f>
         <v>CDT</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="11">
         <v>0.95833333333333304</v>
       </c>
-      <c r="M21" s="26" t="s">
+      <c r="M21" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="11">
         <f>$L21+Sheet2!B$1/24</f>
         <v>1.2916666666666663</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O21" s="11">
         <f>$L21+Sheet2!B$2/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="P21" s="9">
+      <c r="P21" s="11">
         <f>$L21+Sheet2!B$3/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="Q21" s="11">
         <f>$L21+Sheet2!B$4/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="R21" s="9">
+      <c r="R21" s="11">
         <f>$L21+Sheet2!B$5/24</f>
         <v>1.0416666666666663</v>
       </c>
-      <c r="S21" s="9">
+      <c r="S21" s="11">
         <f>$L21+Sheet2!B$6/24</f>
         <v>0.99999999999999967</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T21" s="11">
         <f>$L21+Sheet2!B$7/24</f>
         <v>0.79166666666666641</v>
       </c>
-      <c r="U21" s="9">
+      <c r="U21" s="11">
         <f>$L21+Sheet2!B$8/24</f>
         <v>0.74999999999999967</v>
       </c>
-      <c r="V21" s="9">
+      <c r="V21" s="11">
         <f>$L21+Sheet2!B$9/24</f>
         <v>0.70833333333333304</v>
       </c>
-      <c r="W21" s="9">
+      <c r="W21" s="11">
         <f>$L21+Sheet2!B$10/24</f>
         <v>0.6666666666666663</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="7" t="s">
         <v>89</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H22" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="I22" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="J22" s="31" t="s">
+      <c r="I22" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="J22" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="30" t="str">
+      <c r="K22" s="42" t="str">
         <f>Sheet2!$A$8</f>
         <v>CDT</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="11">
         <v>0.95833333333333304</v>
       </c>
-      <c r="M22" s="26" t="s">
+      <c r="M22" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="11">
         <f>$L22+Sheet2!B$1/24</f>
         <v>1.2916666666666663</v>
       </c>
-      <c r="O22" s="9">
+      <c r="O22" s="11">
         <f>$L22+Sheet2!B$2/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P22" s="11">
         <f>$L22+Sheet2!B$3/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="Q22" s="9">
+      <c r="Q22" s="11">
         <f>$L22+Sheet2!B$4/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="R22" s="9">
+      <c r="R22" s="11">
         <f>$L22+Sheet2!B$5/24</f>
         <v>1.0416666666666663</v>
       </c>
-      <c r="S22" s="9">
+      <c r="S22" s="11">
         <f>$L22+Sheet2!B$6/24</f>
         <v>0.99999999999999967</v>
       </c>
-      <c r="T22" s="9">
+      <c r="T22" s="11">
         <f>$L22+Sheet2!B$7/24</f>
         <v>0.79166666666666641</v>
       </c>
-      <c r="U22" s="9">
+      <c r="U22" s="11">
         <f>$L22+Sheet2!B$8/24</f>
         <v>0.74999999999999967</v>
       </c>
-      <c r="V22" s="9">
+      <c r="V22" s="11">
         <f>$L22+Sheet2!B$9/24</f>
         <v>0.70833333333333304</v>
       </c>
-      <c r="W22" s="9">
+      <c r="W22" s="11">
         <f>$L22+Sheet2!B$10/24</f>
         <v>0.6666666666666663</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="20" t="s">
+      <c r="A23" s="57"/>
+      <c r="B23" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="30">
         <v>18</v>
       </c>
       <c r="D23" s="5">
         <v>20</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="E23" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="H23" s="27" t="s">
+      <c r="G23" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="I23" s="65" t="s">
-        <v>152</v>
-      </c>
-      <c r="J23" s="28" t="s">
+      <c r="I23" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="J23" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="27" t="s">
+      <c r="K23" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="L23" s="24">
+      <c r="L23" s="35">
         <v>1</v>
       </c>
-      <c r="M23" s="29" t="s">
+      <c r="M23" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="N23" s="24">
+      <c r="N23" s="35">
         <f>$L23+Sheet2!B$1/24</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O23" s="24">
+      <c r="O23" s="35">
         <f>$L23+Sheet2!B$2/24</f>
         <v>1.125</v>
       </c>
-      <c r="P23" s="24">
+      <c r="P23" s="35">
         <f>$L23+Sheet2!B$3/24</f>
         <v>1.125</v>
       </c>
-      <c r="Q23" s="24">
+      <c r="Q23" s="35">
         <f>$L23+Sheet2!B$4/24</f>
         <v>1.125</v>
       </c>
-      <c r="R23" s="24">
+      <c r="R23" s="35">
         <f>$L23+Sheet2!B$5/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="S23" s="24">
+      <c r="S23" s="35">
         <f>$L23+Sheet2!B$6/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="T23" s="24">
+      <c r="T23" s="35">
         <f>$L23+Sheet2!B$7/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="U23" s="24">
+      <c r="U23" s="35">
         <f>$L23+Sheet2!B$8/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="V23" s="24">
+      <c r="V23" s="35">
         <f>$L23+Sheet2!B$9/24</f>
         <v>0.75</v>
       </c>
-      <c r="W23" s="24">
+      <c r="W23" s="35">
         <f>$L23+Sheet2!B$10/24</f>
         <v>0.70833333333333326</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="20" t="s">
+      <c r="A24" s="57"/>
+      <c r="B24" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="30">
         <v>9</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="49">
         <v>21</v>
       </c>
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="H24" s="27" t="s">
+      <c r="G24" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="J24" s="28" t="s">
+      <c r="I24" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="J24" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K24" s="27" t="str">
+      <c r="K24" s="38" t="str">
         <f>Sheet2!$A$10</f>
         <v>PDT</v>
       </c>
-      <c r="L24" s="24">
+      <c r="L24" s="35">
         <v>1.041666666666667</v>
       </c>
-      <c r="M24" s="29" t="s">
+      <c r="M24" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="N24" s="24">
+      <c r="N24" s="35">
         <f>$L24+Sheet2!B$1/24</f>
         <v>1.3750000000000002</v>
       </c>
-      <c r="O24" s="24">
+      <c r="O24" s="35">
         <f>$L24+Sheet2!B$2/24</f>
         <v>1.166666666666667</v>
       </c>
-      <c r="P24" s="24">
+      <c r="P24" s="35">
         <f>$L24+Sheet2!B$3/24</f>
         <v>1.166666666666667</v>
       </c>
-      <c r="Q24" s="24">
+      <c r="Q24" s="35">
         <f>$L24+Sheet2!B$4/24</f>
         <v>1.166666666666667</v>
       </c>
-      <c r="R24" s="24">
+      <c r="R24" s="35">
         <f>$L24+Sheet2!B$5/24</f>
         <v>1.1250000000000002</v>
       </c>
-      <c r="S24" s="24">
+      <c r="S24" s="35">
         <f>$L24+Sheet2!B$6/24</f>
         <v>1.0833333333333337</v>
       </c>
-      <c r="T24" s="24">
+      <c r="T24" s="35">
         <f>$L24+Sheet2!B$7/24</f>
         <v>0.87500000000000033</v>
       </c>
-      <c r="U24" s="24">
+      <c r="U24" s="35">
         <f>$L24+Sheet2!B$8/24</f>
         <v>0.83333333333333359</v>
       </c>
-      <c r="V24" s="24">
+      <c r="V24" s="35">
         <f>$L24+Sheet2!B$9/24</f>
         <v>0.79166666666666696</v>
       </c>
-      <c r="W24" s="24">
+      <c r="W24" s="35">
         <f>$L24+Sheet2!B$10/24</f>
         <v>0.75000000000000022</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="K26" s="40"/>
+      <c r="K26" s="58"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="K28" s="40"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="K28" s="58"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="K29" s="40"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="K29" s="58"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="K30" s="40"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="K30" s="58"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="K31" s="40"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="K31" s="58"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
     </row>
     <row r="33" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
     </row>
     <row r="34" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
     </row>
     <row r="35" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
     </row>
     <row r="36" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3693,17 +3681,17 @@
     <mergeCell ref="A3:A16"/>
   </mergeCells>
   <conditionalFormatting sqref="N2:W5 N7:W14 N16:W24">
-    <cfRule type="expression" dxfId="3" priority="17">
+    <cfRule type="expression" dxfId="24" priority="17">
       <formula>N$1=$K2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:W6">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="23" priority="6">
       <formula>N$1=$K6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:W15">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="22" priority="1">
       <formula>N$1=$K15</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -468,9 +468,6 @@
     <t>&lt;https://swgoh.gg/u/fireguy/&gt;</t>
   </si>
   <si>
-    <t>&lt;https://swgoh.gg/u/lordvader%20reborn%2066/&gt;</t>
-  </si>
-  <si>
     <t>&lt;https://swgoh.gg/u/kahhns/&gt;</t>
   </si>
   <si>
@@ -490,6 +487,9 @@
   </si>
   <si>
     <t>:flag_pl:</t>
+  </si>
+  <si>
+    <t>&lt;https://swgoh.gg/u/lordvader%2066/&gt;</t>
   </si>
 </sst>
 </file>
@@ -749,7 +749,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -850,6 +850,7 @@
     </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1694,9 +1695,9 @@
     <col min="5" max="5" width="24" style="3" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="46.85546875" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="5.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -1730,7 +1731,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>8</v>
@@ -2826,10 +2827,10 @@
         <v>113</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="H15" s="42" t="s">
         <v>114</v>
@@ -3232,11 +3233,11 @@
       <c r="G20" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="H20" s="38" t="s">
+      <c r="H20" s="60" t="s">
         <v>78</v>
       </c>
       <c r="I20" s="39" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="J20" s="40" t="s">
         <v>11</v>
@@ -3316,7 +3317,7 @@
         <v>37</v>
       </c>
       <c r="I21" s="43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J21" s="44" t="s">
         <v>21</v>
@@ -3392,7 +3393,7 @@
         <v>88</v>
       </c>
       <c r="I22" s="43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J22" s="44" t="s">
         <v>14</v>
@@ -3472,7 +3473,7 @@
         <v>62</v>
       </c>
       <c r="I23" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J23" s="40" t="s">
         <v>14</v>
@@ -3551,7 +3552,7 @@
         <v>40</v>
       </c>
       <c r="I24" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J24" s="40" t="s">
         <v>11</v>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janwa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janwa\OneDrive\Documents\SWGoH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,8 +20,8 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -459,7 +459,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,8 +478,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -489,6 +490,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -844,145 +853,186 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1335,2059 +1385,2059 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="42.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28" style="4" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="23" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="42.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28" style="3" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="23" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="84"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="N1" s="3" t="str">
+      <c r="N1" s="2" t="str">
         <f>I3</f>
         <v>CST</v>
       </c>
-      <c r="O1" s="3" t="str">
+      <c r="O1" s="2" t="str">
         <f>I4</f>
         <v>MSK</v>
       </c>
-      <c r="P1" s="3" t="str">
+      <c r="P1" s="2" t="str">
         <f>I8</f>
         <v>TRT</v>
       </c>
-      <c r="Q1" s="3" t="str">
+      <c r="Q1" s="2" t="str">
         <f>I9</f>
         <v>EEST</v>
       </c>
-      <c r="R1" s="3" t="str">
+      <c r="R1" s="2" t="str">
         <f>I10</f>
         <v>CEST</v>
       </c>
-      <c r="S1" s="3" t="str">
+      <c r="S1" s="2" t="str">
         <f>I17</f>
         <v>BST</v>
       </c>
-      <c r="T1" s="3" t="str">
+      <c r="T1" s="2" t="str">
         <f>I18</f>
         <v>EDT</v>
       </c>
-      <c r="U1" s="3" t="str">
+      <c r="U1" s="2" t="str">
         <f>I22</f>
         <v>CDT</v>
       </c>
-      <c r="V1" s="3" t="str">
+      <c r="V1" s="2" t="str">
         <f>I24</f>
         <v>MDT</v>
       </c>
-      <c r="W1" s="3" t="str">
+      <c r="W1" s="2" t="str">
         <f>I25</f>
         <v>PDT</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="52">
         <v>24</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="52">
         <v>1</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="56">
         <v>0.33333333333333331</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="14">
+      <c r="L2" s="69"/>
+      <c r="M2" s="17">
         <f>$J2+Sheet2!B$1/24</f>
         <v>0.75</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="58">
         <f>$J2+Sheet2!B$2/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O2" s="15">
+      <c r="O2" s="58">
         <f>$J2+Sheet2!B$3/24</f>
         <v>0.45833333333333331</v>
       </c>
-      <c r="P2" s="15">
+      <c r="P2" s="58">
         <f>$J2+Sheet2!B$4/24</f>
         <v>0.45833333333333331</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="Q2" s="58">
         <f>$J2+Sheet2!B$5/24</f>
         <v>0.45833333333333331</v>
       </c>
-      <c r="R2" s="15">
+      <c r="R2" s="58">
         <f>$J2+Sheet2!B$6/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="S2" s="15">
+      <c r="S2" s="58">
         <f>$J2+Sheet2!B$7/24</f>
         <v>0.375</v>
       </c>
-      <c r="T2" s="15">
+      <c r="T2" s="58">
         <f>$J2+Sheet2!B$8/24</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="U2" s="15">
+      <c r="U2" s="58">
         <f>$J2+Sheet2!B$9/24</f>
         <v>0.12499999999999997</v>
       </c>
-      <c r="V2" s="15">
+      <c r="V2" s="58">
         <f>$J2+Sheet2!B$10/24</f>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="W2" s="15">
+      <c r="W2" s="58">
         <f>$J2+Sheet2!B$11/24</f>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="41">
         <v>14</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="20" t="str">
+      <c r="I3" s="42" t="str">
         <f>Sheet2!$A$2</f>
         <v>CST</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="5">
         <f>$J3+Sheet2!B$1/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="5">
         <f>$J3+Sheet2!B$2/24</f>
         <v>0.75</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="5">
         <f>$J3+Sheet2!B$3/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="5">
         <f>$J3+Sheet2!B$4/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="Q3" s="5">
         <f>$J3+Sheet2!B$5/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="R3" s="21">
+      <c r="R3" s="5">
         <f>$J3+Sheet2!B$6/24</f>
         <v>0.5</v>
       </c>
-      <c r="S3" s="21">
+      <c r="S3" s="5">
         <f>$J3+Sheet2!B$7/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="T3" s="21">
+      <c r="T3" s="5">
         <f>$J3+Sheet2!B$8/24</f>
         <v>0.25</v>
       </c>
-      <c r="U3" s="21">
+      <c r="U3" s="5">
         <f>$J3+Sheet2!B$9/24</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="V3" s="21">
+      <c r="V3" s="5">
         <f>$J3+Sheet2!B$10/24</f>
         <v>0.16666666666666669</v>
       </c>
-      <c r="W3" s="21">
+      <c r="W3" s="5">
         <f>$J3+Sheet2!B$11/24</f>
         <v>0.125</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="7">
         <v>10</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="7">
         <v>3</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="29" t="str">
+      <c r="I4" s="10" t="str">
         <f>Sheet2!$A$3</f>
         <v>MSK</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="11">
         <v>0.625</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M4" s="80">
         <f>$J4+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="11">
         <f>$J4+Sheet2!B$2/24</f>
         <v>0.95833333333333326</v>
       </c>
-      <c r="O4" s="30">
+      <c r="O4" s="11">
         <f>$J4+Sheet2!B$3/24</f>
         <v>0.75</v>
       </c>
-      <c r="P4" s="30">
+      <c r="P4" s="11">
         <f>$J4+Sheet2!B$4/24</f>
         <v>0.75</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="Q4" s="11">
         <f>$J4+Sheet2!B$5/24</f>
         <v>0.75</v>
       </c>
-      <c r="R4" s="30">
+      <c r="R4" s="11">
         <f>$J4+Sheet2!B$6/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="S4" s="30">
+      <c r="S4" s="11">
         <f>$J4+Sheet2!B$7/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T4" s="30">
+      <c r="T4" s="11">
         <f>$J4+Sheet2!B$8/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="U4" s="30">
+      <c r="U4" s="11">
         <f>$J4+Sheet2!B$9/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="V4" s="30">
+      <c r="V4" s="11">
         <f>$J4+Sheet2!B$10/24</f>
         <v>0.375</v>
       </c>
-      <c r="W4" s="30">
+      <c r="W4" s="11">
         <f>$J4+Sheet2!B$11/24</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="13">
         <v>11</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="13">
         <v>4</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="40" t="str">
+      <c r="I5" s="32" t="str">
         <f>Sheet2!$A$3</f>
         <v>MSK</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="17">
         <v>0.625</v>
       </c>
-      <c r="K5" s="41" t="s">
+      <c r="K5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="L5" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="81">
         <f>$J5+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="17">
         <f>$J5+Sheet2!B$2/24</f>
         <v>0.95833333333333326</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="17">
         <f>$J5+Sheet2!B$3/24</f>
         <v>0.75</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="17">
         <f>$J5+Sheet2!B$4/24</f>
         <v>0.75</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="17">
         <f>$J5+Sheet2!B$5/24</f>
         <v>0.75</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="17">
         <f>$J5+Sheet2!B$6/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="17">
         <f>$J5+Sheet2!B$7/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T5" s="14">
+      <c r="T5" s="17">
         <f>$J5+Sheet2!B$8/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="U5" s="14">
+      <c r="U5" s="17">
         <f>$J5+Sheet2!B$9/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="V5" s="14">
+      <c r="V5" s="17">
         <f>$J5+Sheet2!B$10/24</f>
         <v>0.375</v>
       </c>
-      <c r="W5" s="14">
+      <c r="W5" s="17">
         <f>$J5+Sheet2!B$11/24</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="44" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="19">
         <v>13</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="19">
         <v>5</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="48" t="str">
+      <c r="I6" s="22" t="str">
         <f>Sheet2!$A$3</f>
         <v>MSK</v>
       </c>
-      <c r="J6" s="49">
+      <c r="J6" s="23">
         <v>0.625</v>
       </c>
-      <c r="K6" s="50" t="s">
+      <c r="K6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="51" t="s">
+      <c r="L6" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="58">
         <f>$J6+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N6" s="49">
+      <c r="N6" s="23">
         <f>$J6+Sheet2!B$2/24</f>
         <v>0.95833333333333326</v>
       </c>
-      <c r="O6" s="49">
+      <c r="O6" s="23">
         <f>$J6+Sheet2!B$3/24</f>
         <v>0.75</v>
       </c>
-      <c r="P6" s="49">
+      <c r="P6" s="23">
         <f>$J6+Sheet2!B$4/24</f>
         <v>0.75</v>
       </c>
-      <c r="Q6" s="49">
+      <c r="Q6" s="23">
         <f>$J6+Sheet2!B$5/24</f>
         <v>0.75</v>
       </c>
-      <c r="R6" s="49">
+      <c r="R6" s="23">
         <f>$J6+Sheet2!B$6/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="S6" s="49">
+      <c r="S6" s="23">
         <f>$J6+Sheet2!B$7/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T6" s="49">
+      <c r="T6" s="23">
         <f>$J6+Sheet2!B$8/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="U6" s="49">
+      <c r="U6" s="23">
         <f>$J6+Sheet2!B$9/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="V6" s="49">
+      <c r="V6" s="23">
         <f>$J6+Sheet2!B$10/24</f>
         <v>0.375</v>
       </c>
-      <c r="W6" s="49">
+      <c r="W6" s="23">
         <f>$J6+Sheet2!B$11/24</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="50"/>
+      <c r="B7" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="13">
         <v>20</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="13">
         <v>6</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="40" t="str">
+      <c r="I7" s="32" t="str">
         <f>Sheet2!$A$3</f>
         <v>MSK</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="17">
         <v>0.625</v>
       </c>
-      <c r="K7" s="41" t="s">
+      <c r="K7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="42" t="s">
+      <c r="L7" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="81">
         <f>$J7+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="17">
         <f>$J7+Sheet2!B$2/24</f>
         <v>0.95833333333333326</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="17">
         <f>$J7+Sheet2!B$3/24</f>
         <v>0.75</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="17">
         <f>$J7+Sheet2!B$4/24</f>
         <v>0.75</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="17">
         <f>$J7+Sheet2!B$5/24</f>
         <v>0.75</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="17">
         <f>$J7+Sheet2!B$6/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="S7" s="14">
+      <c r="S7" s="17">
         <f>$J7+Sheet2!B$7/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T7" s="17">
         <f>$J7+Sheet2!B$8/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="U7" s="14">
+      <c r="U7" s="17">
         <f>$J7+Sheet2!B$9/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="V7" s="14">
+      <c r="V7" s="17">
         <f>$J7+Sheet2!B$10/24</f>
         <v>0.375</v>
       </c>
-      <c r="W7" s="14">
+      <c r="W7" s="17">
         <f>$J7+Sheet2!B$11/24</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="53" t="s">
+      <c r="A8" s="50"/>
+      <c r="B8" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="27">
         <v>4</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="27">
         <v>7</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="H8" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="57" t="str">
+      <c r="I8" s="29" t="str">
         <f>Sheet2!$A$4</f>
         <v>TRT</v>
       </c>
-      <c r="J8" s="58">
+      <c r="J8" s="30">
         <v>0.66666666666666663</v>
       </c>
-      <c r="K8" s="59" t="s">
+      <c r="K8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="60" t="s">
+      <c r="L8" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="M8" s="61">
+      <c r="M8" s="82">
         <f>$J8+Sheet2!B$1/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="N8" s="58">
+      <c r="N8" s="30">
         <f>$J8+Sheet2!B$2/24</f>
         <v>1</v>
       </c>
-      <c r="O8" s="58">
+      <c r="O8" s="30">
         <f>$J8+Sheet2!B$3/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="P8" s="58">
+      <c r="P8" s="30">
         <f>$J8+Sheet2!B$4/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="Q8" s="58">
+      <c r="Q8" s="30">
         <f>$J8+Sheet2!B$5/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="R8" s="58">
+      <c r="R8" s="30">
         <f>$J8+Sheet2!B$6/24</f>
         <v>0.75</v>
       </c>
-      <c r="S8" s="58">
+      <c r="S8" s="30">
         <f>$J8+Sheet2!B$7/24</f>
         <v>0.70833333333333326</v>
       </c>
-      <c r="T8" s="58">
+      <c r="T8" s="30">
         <f>$J8+Sheet2!B$8/24</f>
         <v>0.5</v>
       </c>
-      <c r="U8" s="58">
+      <c r="U8" s="30">
         <f>$J8+Sheet2!B$9/24</f>
         <v>0.45833333333333326</v>
       </c>
-      <c r="V8" s="58">
+      <c r="V8" s="30">
         <f>$J8+Sheet2!B$10/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="W8" s="58">
+      <c r="W8" s="30">
         <f>$J8+Sheet2!B$11/24</f>
         <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35" t="s">
+      <c r="A9" s="50"/>
+      <c r="B9" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="13">
         <v>7</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="13">
         <v>8</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="40" t="str">
+      <c r="I9" s="32" t="str">
         <f>Sheet2!$A$5</f>
         <v>EEST</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="17">
         <v>0.66666666666666663</v>
       </c>
-      <c r="K9" s="62" t="s">
+      <c r="K9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="63" t="s">
+      <c r="L9" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="81">
         <f>$J9+Sheet2!B$1/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="17">
         <f>$J9+Sheet2!B$2/24</f>
         <v>1</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="17">
         <f>$J9+Sheet2!B$3/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="17">
         <f>$J9+Sheet2!B$4/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="17">
         <f>$J9+Sheet2!B$5/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="17">
         <f>$J9+Sheet2!B$6/24</f>
         <v>0.75</v>
       </c>
-      <c r="S9" s="14">
+      <c r="S9" s="17">
         <f>$J9+Sheet2!B$7/24</f>
         <v>0.70833333333333326</v>
       </c>
-      <c r="T9" s="14">
+      <c r="T9" s="17">
         <f>$J9+Sheet2!B$8/24</f>
         <v>0.5</v>
       </c>
-      <c r="U9" s="14">
+      <c r="U9" s="17">
         <f>$J9+Sheet2!B$9/24</f>
         <v>0.45833333333333326</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V9" s="17">
         <f>$J9+Sheet2!B$10/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="W9" s="14">
+      <c r="W9" s="17">
         <f>$J9+Sheet2!B$11/24</f>
         <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="53" t="s">
+      <c r="A10" s="50"/>
+      <c r="B10" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="27">
         <v>1</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="27">
         <v>9</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="64" t="s">
+      <c r="H10" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="64" t="str">
+      <c r="I10" s="34" t="str">
         <f>Sheet2!$A$6</f>
         <v>CEST</v>
       </c>
-      <c r="J10" s="58">
+      <c r="J10" s="30">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K10" s="65" t="s">
+      <c r="K10" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="60" t="s">
+      <c r="L10" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="M10" s="61">
+      <c r="M10" s="82">
         <f>$J10+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="N10" s="58">
+      <c r="N10" s="30">
         <f>$J10+Sheet2!B$2/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O10" s="58">
+      <c r="O10" s="30">
         <f>$J10+Sheet2!B$3/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P10" s="58">
+      <c r="P10" s="30">
         <f>$J10+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q10" s="58">
+      <c r="Q10" s="30">
         <f>$J10+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R10" s="58">
+      <c r="R10" s="30">
         <f>$J10+Sheet2!B$6/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S10" s="58">
+      <c r="S10" s="30">
         <f>$J10+Sheet2!B$7/24</f>
         <v>0.75</v>
       </c>
-      <c r="T10" s="58">
+      <c r="T10" s="30">
         <f>$J10+Sheet2!B$8/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U10" s="58">
+      <c r="U10" s="30">
         <f>$J10+Sheet2!B$9/24</f>
         <v>0.5</v>
       </c>
-      <c r="V10" s="58">
+      <c r="V10" s="30">
         <f>$J10+Sheet2!B$10/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W10" s="58">
+      <c r="W10" s="30">
         <f>$J10+Sheet2!B$11/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="50"/>
+      <c r="B11" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="13">
         <v>2</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="13">
         <v>10</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="66" t="s">
+      <c r="H11" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="66" t="str">
+      <c r="I11" s="36" t="str">
         <f>Sheet2!$A$6</f>
         <v>CEST</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="17">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K11" s="62" t="s">
+      <c r="K11" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="63" t="s">
+      <c r="L11" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="81">
         <f>$J11+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="17">
         <f>$J11+Sheet2!B$2/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="17">
         <f>$J11+Sheet2!B$3/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="17">
         <f>$J11+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q11" s="17">
         <f>$J11+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R11" s="17">
         <f>$J11+Sheet2!B$6/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S11" s="14">
+      <c r="S11" s="17">
         <f>$J11+Sheet2!B$7/24</f>
         <v>0.75</v>
       </c>
-      <c r="T11" s="14">
+      <c r="T11" s="17">
         <f>$J11+Sheet2!B$8/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U11" s="14">
+      <c r="U11" s="17">
         <f>$J11+Sheet2!B$9/24</f>
         <v>0.5</v>
       </c>
-      <c r="V11" s="14">
+      <c r="V11" s="17">
         <f>$J11+Sheet2!B$10/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W11" s="14">
+      <c r="W11" s="17">
         <f>$J11+Sheet2!B$11/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="44" t="s">
+      <c r="A12" s="50"/>
+      <c r="B12" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="19">
         <v>5</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="19">
         <v>11</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="67" t="s">
+      <c r="H12" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="67" t="str">
+      <c r="I12" s="37" t="str">
         <f>Sheet2!$A$6</f>
         <v>CEST</v>
       </c>
-      <c r="J12" s="49">
+      <c r="J12" s="23">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K12" s="68" t="s">
+      <c r="K12" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="69" t="s">
+      <c r="L12" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="58">
         <f>$J12+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="N12" s="49">
+      <c r="N12" s="23">
         <f>$J12+Sheet2!B$2/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O12" s="49">
+      <c r="O12" s="23">
         <f>$J12+Sheet2!B$3/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P12" s="49">
+      <c r="P12" s="23">
         <f>$J12+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q12" s="49">
+      <c r="Q12" s="23">
         <f>$J12+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R12" s="49">
+      <c r="R12" s="23">
         <f>$J12+Sheet2!B$6/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S12" s="49">
+      <c r="S12" s="23">
         <f>$J12+Sheet2!B$7/24</f>
         <v>0.75</v>
       </c>
-      <c r="T12" s="49">
+      <c r="T12" s="23">
         <f>$J12+Sheet2!B$8/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U12" s="49">
+      <c r="U12" s="23">
         <f>$J12+Sheet2!B$9/24</f>
         <v>0.5</v>
       </c>
-      <c r="V12" s="49">
+      <c r="V12" s="23">
         <f>$J12+Sheet2!B$10/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W12" s="49">
+      <c r="W12" s="23">
         <f>$J12+Sheet2!B$11/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35" t="s">
+      <c r="A13" s="50"/>
+      <c r="B13" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="13">
         <v>15</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="13">
         <v>12</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="66" t="s">
+      <c r="H13" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="66" t="str">
+      <c r="I13" s="36" t="str">
         <f>Sheet2!$A$6</f>
         <v>CEST</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="17">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K13" s="70" t="s">
+      <c r="K13" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="63" t="s">
+      <c r="L13" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="81">
         <f>$J13+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="17">
         <f>$J13+Sheet2!B$2/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="17">
         <f>$J13+Sheet2!B$3/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="17">
         <f>$J13+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="17">
         <f>$J13+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="17">
         <f>$J13+Sheet2!B$6/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S13" s="14">
+      <c r="S13" s="17">
         <f>$J13+Sheet2!B$7/24</f>
         <v>0.75</v>
       </c>
-      <c r="T13" s="14">
+      <c r="T13" s="17">
         <f>$J13+Sheet2!B$8/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U13" s="14">
+      <c r="U13" s="17">
         <f>$J13+Sheet2!B$9/24</f>
         <v>0.5</v>
       </c>
-      <c r="V13" s="14">
+      <c r="V13" s="17">
         <f>$J13+Sheet2!B$10/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W13" s="14">
+      <c r="W13" s="17">
         <f>$J13+Sheet2!B$11/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="44" t="s">
+      <c r="A14" s="50"/>
+      <c r="B14" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="19">
         <v>18</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="19">
         <v>13</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="67" t="s">
+      <c r="H14" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="67" t="str">
+      <c r="I14" s="37" t="str">
         <f>Sheet2!$A$6</f>
         <v>CEST</v>
       </c>
-      <c r="J14" s="49">
+      <c r="J14" s="23">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K14" s="71" t="s">
+      <c r="K14" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="69" t="s">
+      <c r="L14" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="58">
         <f>$J14+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="N14" s="49">
+      <c r="N14" s="23">
         <f>$J14+Sheet2!B$2/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O14" s="49">
+      <c r="O14" s="23">
         <f>$J14+Sheet2!B$3/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P14" s="49">
+      <c r="P14" s="23">
         <f>$J14+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q14" s="49">
+      <c r="Q14" s="23">
         <f>$J14+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R14" s="49">
+      <c r="R14" s="23">
         <f>$J14+Sheet2!B$6/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S14" s="49">
+      <c r="S14" s="23">
         <f>$J14+Sheet2!B$7/24</f>
         <v>0.75</v>
       </c>
-      <c r="T14" s="49">
+      <c r="T14" s="23">
         <f>$J14+Sheet2!B$8/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U14" s="49">
+      <c r="U14" s="23">
         <f>$J14+Sheet2!B$9/24</f>
         <v>0.5</v>
       </c>
-      <c r="V14" s="49">
+      <c r="V14" s="23">
         <f>$J14+Sheet2!B$10/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W14" s="49">
+      <c r="W14" s="23">
         <f>$J14+Sheet2!B$11/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35" t="s">
+      <c r="A15" s="50"/>
+      <c r="B15" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="13">
         <v>19</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="13">
         <v>14</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="66" t="s">
+      <c r="H15" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="66" t="str">
+      <c r="I15" s="36" t="str">
         <f>Sheet2!$A$6</f>
         <v>CEST</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="17">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K15" s="70" t="s">
+      <c r="K15" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="63" t="s">
+      <c r="L15" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="81">
         <f>$J15+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="17">
         <f>$J15+Sheet2!B$2/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O15" s="17">
         <f>$J15+Sheet2!B$3/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P15" s="17">
         <f>$J15+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="Q15" s="17">
         <f>$J15+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R15" s="17">
         <f>$J15+Sheet2!B$6/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S15" s="14">
+      <c r="S15" s="17">
         <f>$J15+Sheet2!B$7/24</f>
         <v>0.75</v>
       </c>
-      <c r="T15" s="14">
+      <c r="T15" s="17">
         <f>$J15+Sheet2!B$8/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U15" s="14">
+      <c r="U15" s="17">
         <f>$J15+Sheet2!B$9/24</f>
         <v>0.5</v>
       </c>
-      <c r="V15" s="14">
+      <c r="V15" s="17">
         <f>$J15+Sheet2!B$10/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W15" s="14">
+      <c r="W15" s="17">
         <f>$J15+Sheet2!B$11/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="44" t="s">
+      <c r="A16" s="50"/>
+      <c r="B16" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="19">
         <v>23</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="19">
         <v>15</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="67" t="s">
+      <c r="H16" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="I16" s="67" t="str">
+      <c r="I16" s="37" t="str">
         <f>Sheet2!$A$6</f>
         <v>CEST</v>
       </c>
-      <c r="J16" s="49">
+      <c r="J16" s="23">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K16" s="71" t="s">
+      <c r="K16" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="69" t="s">
+      <c r="L16" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="58">
         <f>$J16+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="N16" s="49">
+      <c r="N16" s="23">
         <f>$J16+Sheet2!B$2/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O16" s="49">
+      <c r="O16" s="23">
         <f>$J16+Sheet2!B$3/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P16" s="49">
+      <c r="P16" s="23">
         <f>$J16+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q16" s="49">
+      <c r="Q16" s="23">
         <f>$J16+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R16" s="49">
+      <c r="R16" s="23">
         <f>$J16+Sheet2!B$6/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S16" s="49">
+      <c r="S16" s="23">
         <f>$J16+Sheet2!B$7/24</f>
         <v>0.75</v>
       </c>
-      <c r="T16" s="49">
+      <c r="T16" s="23">
         <f>$J16+Sheet2!B$8/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U16" s="49">
+      <c r="U16" s="23">
         <f>$J16+Sheet2!B$9/24</f>
         <v>0.5</v>
       </c>
-      <c r="V16" s="49">
+      <c r="V16" s="23">
         <f>$J16+Sheet2!B$10/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W16" s="49">
+      <c r="W16" s="23">
         <f>$J16+Sheet2!B$11/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="72"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="41">
         <v>21</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="4">
         <v>16</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="5">
         <v>0.75</v>
       </c>
-      <c r="K17" s="73" t="s">
+      <c r="K17" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="74" t="s">
+      <c r="L17" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="M17" s="75">
+      <c r="M17" s="79">
         <f>$J17+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="N17" s="21">
+      <c r="N17" s="5">
         <f>$J17+Sheet2!B$2/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O17" s="5">
         <f>$J17+Sheet2!B$3/24</f>
         <v>0.875</v>
       </c>
-      <c r="P17" s="21">
+      <c r="P17" s="5">
         <f>$J17+Sheet2!B$4/24</f>
         <v>0.875</v>
       </c>
-      <c r="Q17" s="21">
+      <c r="Q17" s="5">
         <f>$J17+Sheet2!B$5/24</f>
         <v>0.875</v>
       </c>
-      <c r="R17" s="21">
+      <c r="R17" s="5">
         <f>$J17+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="S17" s="21">
+      <c r="S17" s="5">
         <f>$J17+Sheet2!B$7/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="T17" s="21">
+      <c r="T17" s="5">
         <f>$J17+Sheet2!B$8/24</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="U17" s="21">
+      <c r="U17" s="5">
         <f>$J17+Sheet2!B$9/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="V17" s="21">
+      <c r="V17" s="5">
         <f>$J17+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="W17" s="21">
+      <c r="W17" s="5">
         <f>$J17+Sheet2!B$11/24</f>
         <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="19">
         <v>3</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="19">
         <v>17</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="G18" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="67" t="s">
+      <c r="H18" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="I18" s="67" t="str">
+      <c r="I18" s="37" t="str">
         <f>Sheet2!$A$8</f>
         <v>EDT</v>
       </c>
-      <c r="J18" s="49">
+      <c r="J18" s="23">
         <v>0.91666666666666696</v>
       </c>
-      <c r="K18" s="68" t="s">
+      <c r="K18" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="51" t="s">
+      <c r="L18" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="58">
         <f>$J18+Sheet2!B$1/24</f>
         <v>1.3333333333333337</v>
       </c>
-      <c r="N18" s="49">
+      <c r="N18" s="23">
         <f>$J18+Sheet2!B$2/24</f>
         <v>1.2500000000000002</v>
       </c>
-      <c r="O18" s="49">
+      <c r="O18" s="23">
         <f>$J18+Sheet2!B$3/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="P18" s="49">
+      <c r="P18" s="23">
         <f>$J18+Sheet2!B$4/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="Q18" s="49">
+      <c r="Q18" s="23">
         <f>$J18+Sheet2!B$5/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="R18" s="49">
+      <c r="R18" s="23">
         <f>$J18+Sheet2!B$6/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="S18" s="49">
+      <c r="S18" s="23">
         <f>$J18+Sheet2!B$7/24</f>
         <v>0.95833333333333359</v>
       </c>
-      <c r="T18" s="49">
+      <c r="T18" s="23">
         <f>$J18+Sheet2!B$8/24</f>
         <v>0.75000000000000033</v>
       </c>
-      <c r="U18" s="49">
+      <c r="U18" s="23">
         <f>$J18+Sheet2!B$9/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="V18" s="49">
+      <c r="V18" s="23">
         <f>$J18+Sheet2!B$10/24</f>
         <v>0.66666666666666696</v>
       </c>
-      <c r="W18" s="49">
+      <c r="W18" s="23">
         <f>$J18+Sheet2!B$11/24</f>
         <v>0.62500000000000022</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35" t="s">
+      <c r="A19" s="50"/>
+      <c r="B19" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="13">
         <v>12</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="13">
         <v>18</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="H19" s="66" t="s">
+      <c r="H19" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="I19" s="66" t="str">
+      <c r="I19" s="36" t="str">
         <f>Sheet2!$A$8</f>
         <v>EDT</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="17">
         <v>0.91666666666666696</v>
       </c>
-      <c r="K19" s="62" t="s">
+      <c r="K19" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="42" t="s">
+      <c r="L19" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="M19" s="43">
+      <c r="M19" s="81">
         <f>$J19+Sheet2!B$1/24</f>
         <v>1.3333333333333337</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N19" s="17">
         <f>$J19+Sheet2!B$2/24</f>
         <v>1.2500000000000002</v>
       </c>
-      <c r="O19" s="14">
+      <c r="O19" s="17">
         <f>$J19+Sheet2!B$3/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="P19" s="14">
+      <c r="P19" s="17">
         <f>$J19+Sheet2!B$4/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="Q19" s="17">
         <f>$J19+Sheet2!B$5/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="R19" s="14">
+      <c r="R19" s="17">
         <f>$J19+Sheet2!B$6/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="S19" s="14">
+      <c r="S19" s="17">
         <f>$J19+Sheet2!B$7/24</f>
         <v>0.95833333333333359</v>
       </c>
-      <c r="T19" s="14">
+      <c r="T19" s="17">
         <f>$J19+Sheet2!B$8/24</f>
         <v>0.75000000000000033</v>
       </c>
-      <c r="U19" s="14">
+      <c r="U19" s="17">
         <f>$J19+Sheet2!B$9/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="V19" s="14">
+      <c r="V19" s="17">
         <f>$J19+Sheet2!B$10/24</f>
         <v>0.66666666666666696</v>
       </c>
-      <c r="W19" s="14">
+      <c r="W19" s="17">
         <f>$J19+Sheet2!B$11/24</f>
         <v>0.62500000000000022</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="44" t="s">
+      <c r="A20" s="50"/>
+      <c r="B20" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="19">
         <v>17</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="19">
         <v>19</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="47" t="s">
+      <c r="F20" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="45" t="s">
+      <c r="G20" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="H20" s="67" t="s">
+      <c r="H20" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="I20" s="67" t="str">
+      <c r="I20" s="37" t="str">
         <f>Sheet2!$A$8</f>
         <v>EDT</v>
       </c>
-      <c r="J20" s="49">
+      <c r="J20" s="23">
         <v>0.91666666666666696</v>
       </c>
-      <c r="K20" s="68" t="s">
+      <c r="K20" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="51" t="s">
+      <c r="L20" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="M20" s="15">
+      <c r="M20" s="58">
         <f>$J20+Sheet2!B$1/24</f>
         <v>1.3333333333333337</v>
       </c>
-      <c r="N20" s="49">
+      <c r="N20" s="23">
         <f>$J20+Sheet2!B$2/24</f>
         <v>1.2500000000000002</v>
       </c>
-      <c r="O20" s="49">
+      <c r="O20" s="23">
         <f>$J20+Sheet2!B$3/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="P20" s="49">
+      <c r="P20" s="23">
         <f>$J20+Sheet2!B$4/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="Q20" s="49">
+      <c r="Q20" s="23">
         <f>$J20+Sheet2!B$5/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="R20" s="49">
+      <c r="R20" s="23">
         <f>$J20+Sheet2!B$6/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="S20" s="49">
+      <c r="S20" s="23">
         <f>$J20+Sheet2!B$7/24</f>
         <v>0.95833333333333359</v>
       </c>
-      <c r="T20" s="49">
+      <c r="T20" s="23">
         <f>$J20+Sheet2!B$8/24</f>
         <v>0.75000000000000033</v>
       </c>
-      <c r="U20" s="49">
+      <c r="U20" s="23">
         <f>$J20+Sheet2!B$9/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="V20" s="49">
+      <c r="V20" s="23">
         <f>$J20+Sheet2!B$10/24</f>
         <v>0.66666666666666696</v>
       </c>
-      <c r="W20" s="49">
+      <c r="W20" s="23">
         <f>$J20+Sheet2!B$11/24</f>
         <v>0.62500000000000022</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="76" t="s">
+      <c r="A21" s="50"/>
+      <c r="B21" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="77">
+      <c r="C21" s="45">
         <v>6</v>
       </c>
-      <c r="D21" s="78">
+      <c r="D21" s="44">
         <v>20</v>
       </c>
-      <c r="E21" s="78" t="s">
+      <c r="E21" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="78" t="s">
+      <c r="F21" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="77" t="s">
+      <c r="G21" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="H21" s="79" t="s">
+      <c r="H21" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="I21" s="79" t="str">
+      <c r="I21" s="46" t="str">
         <f>Sheet2!$A$8</f>
         <v>EDT</v>
       </c>
-      <c r="J21" s="80">
+      <c r="J21" s="47">
         <v>0.95833333333333359</v>
       </c>
-      <c r="K21" s="81" t="s">
+      <c r="K21" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="23" t="s">
+      <c r="L21" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="M21" s="82">
+      <c r="M21" s="83">
         <f>$J21+Sheet2!B$1/24</f>
         <v>1.3750000000000002</v>
       </c>
-      <c r="N21" s="80">
+      <c r="N21" s="47">
         <f>$J21+Sheet2!B$2/24</f>
         <v>1.291666666666667</v>
       </c>
-      <c r="O21" s="80">
+      <c r="O21" s="47">
         <f>$J21+Sheet2!B$3/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P21" s="80">
+      <c r="P21" s="47">
         <f>$J21+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q21" s="80">
+      <c r="Q21" s="47">
         <f>$J21+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="R21" s="80">
+      <c r="R21" s="47">
         <f>$J21+Sheet2!B$6/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="S21" s="80">
+      <c r="S21" s="47">
         <f>$J21+Sheet2!B$7/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="T21" s="80">
+      <c r="T21" s="47">
         <f>$J21+Sheet2!B$8/24</f>
         <v>0.79166666666666696</v>
       </c>
-      <c r="U21" s="80">
+      <c r="U21" s="47">
         <f>$J21+Sheet2!B$9/24</f>
         <v>0.75000000000000022</v>
       </c>
-      <c r="V21" s="80">
+      <c r="V21" s="47">
         <f>$J21+Sheet2!B$10/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="W21" s="80">
+      <c r="W21" s="47">
         <f>$J21+Sheet2!B$11/24</f>
         <v>0.66666666666666696</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="44" t="s">
+      <c r="A22" s="50"/>
+      <c r="B22" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="19">
         <v>8</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="19">
         <v>21</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="45" t="s">
+      <c r="G22" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="H22" s="67" t="s">
+      <c r="H22" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="I22" s="67" t="str">
+      <c r="I22" s="37" t="str">
         <f>Sheet2!$A$9</f>
         <v>CDT</v>
       </c>
-      <c r="J22" s="49">
+      <c r="J22" s="23">
         <v>0.95833333333333304</v>
       </c>
-      <c r="K22" s="68" t="s">
+      <c r="K22" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="L22" s="51" t="s">
+      <c r="L22" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M22" s="58">
         <f>$J22+Sheet2!B$1/24</f>
         <v>1.3749999999999998</v>
       </c>
-      <c r="N22" s="49">
+      <c r="N22" s="23">
         <f>$J22+Sheet2!B$2/24</f>
         <v>1.2916666666666663</v>
       </c>
-      <c r="O22" s="49">
+      <c r="O22" s="23">
         <f>$J22+Sheet2!B$3/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="P22" s="49">
+      <c r="P22" s="23">
         <f>$J22+Sheet2!B$4/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="Q22" s="49">
+      <c r="Q22" s="23">
         <f>$J22+Sheet2!B$5/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="R22" s="49">
+      <c r="R22" s="23">
         <f>$J22+Sheet2!B$6/24</f>
         <v>1.0416666666666663</v>
       </c>
-      <c r="S22" s="49">
+      <c r="S22" s="23">
         <f>$J22+Sheet2!B$7/24</f>
         <v>0.99999999999999967</v>
       </c>
-      <c r="T22" s="49">
+      <c r="T22" s="23">
         <f>$J22+Sheet2!B$8/24</f>
         <v>0.79166666666666641</v>
       </c>
-      <c r="U22" s="49">
+      <c r="U22" s="23">
         <f>$J22+Sheet2!B$9/24</f>
         <v>0.74999999999999967</v>
       </c>
-      <c r="V22" s="49">
+      <c r="V22" s="23">
         <f>$J22+Sheet2!B$10/24</f>
         <v>0.70833333333333304</v>
       </c>
-      <c r="W22" s="49">
+      <c r="W22" s="23">
         <f>$J22+Sheet2!B$11/24</f>
         <v>0.6666666666666663</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35" t="s">
+      <c r="A23" s="50"/>
+      <c r="B23" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="13">
         <v>22</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="13">
         <v>22</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="H23" s="66" t="s">
+      <c r="H23" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="I23" s="66" t="str">
+      <c r="I23" s="36" t="str">
         <f>Sheet2!$A$9</f>
         <v>CDT</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="17">
         <v>0.95833333333333304</v>
       </c>
-      <c r="K23" s="62" t="s">
+      <c r="K23" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="42" t="s">
+      <c r="L23" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="M23" s="43">
+      <c r="M23" s="81">
         <f>$J23+Sheet2!B$1/24</f>
         <v>1.3749999999999998</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N23" s="17">
         <f>$J23+Sheet2!B$2/24</f>
         <v>1.2916666666666663</v>
       </c>
-      <c r="O23" s="14">
+      <c r="O23" s="17">
         <f>$J23+Sheet2!B$3/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="P23" s="14">
+      <c r="P23" s="17">
         <f>$J23+Sheet2!B$4/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="Q23" s="14">
+      <c r="Q23" s="17">
         <f>$J23+Sheet2!B$5/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="R23" s="14">
+      <c r="R23" s="17">
         <f>$J23+Sheet2!B$6/24</f>
         <v>1.0416666666666663</v>
       </c>
-      <c r="S23" s="14">
+      <c r="S23" s="17">
         <f>$J23+Sheet2!B$7/24</f>
         <v>0.99999999999999967</v>
       </c>
-      <c r="T23" s="14">
+      <c r="T23" s="17">
         <f>$J23+Sheet2!B$8/24</f>
         <v>0.79166666666666641</v>
       </c>
-      <c r="U23" s="14">
+      <c r="U23" s="17">
         <f>$J23+Sheet2!B$9/24</f>
         <v>0.74999999999999967</v>
       </c>
-      <c r="V23" s="14">
+      <c r="V23" s="17">
         <f>$J23+Sheet2!B$10/24</f>
         <v>0.70833333333333304</v>
       </c>
-      <c r="W23" s="14">
+      <c r="W23" s="17">
         <f>$J23+Sheet2!B$11/24</f>
         <v>0.6666666666666663</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="83" t="s">
+      <c r="A24" s="50"/>
+      <c r="B24" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="54">
+      <c r="C24" s="27">
         <v>16</v>
       </c>
-      <c r="D24" s="54">
+      <c r="D24" s="27">
         <v>23</v>
       </c>
-      <c r="E24" s="54" t="s">
+      <c r="E24" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="F24" s="56" t="s">
+      <c r="F24" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="G24" s="54" t="s">
+      <c r="G24" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="H24" s="64" t="s">
+      <c r="H24" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="I24" s="83" t="s">
+      <c r="I24" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="58">
+      <c r="J24" s="30">
         <v>1</v>
       </c>
-      <c r="K24" s="65" t="s">
+      <c r="K24" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="60" t="s">
+      <c r="L24" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="M24" s="61">
+      <c r="M24" s="82">
         <f>$J24+Sheet2!B$1/24</f>
         <v>1.4166666666666667</v>
       </c>
-      <c r="N24" s="58">
+      <c r="N24" s="30">
         <f>$J24+Sheet2!B$2/24</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O24" s="58">
+      <c r="O24" s="30">
         <f>$J24+Sheet2!B$3/24</f>
         <v>1.125</v>
       </c>
-      <c r="P24" s="58">
+      <c r="P24" s="30">
         <f>$J24+Sheet2!B$4/24</f>
         <v>1.125</v>
       </c>
-      <c r="Q24" s="58">
+      <c r="Q24" s="30">
         <f>$J24+Sheet2!B$5/24</f>
         <v>1.125</v>
       </c>
-      <c r="R24" s="58">
+      <c r="R24" s="30">
         <f>$J24+Sheet2!B$6/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="S24" s="58">
+      <c r="S24" s="30">
         <f>$J24+Sheet2!B$7/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="T24" s="58">
+      <c r="T24" s="30">
         <f>$J24+Sheet2!B$8/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="U24" s="58">
+      <c r="U24" s="30">
         <f>$J24+Sheet2!B$9/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="V24" s="58">
+      <c r="V24" s="30">
         <f>$J24+Sheet2!B$10/24</f>
         <v>0.75</v>
       </c>
-      <c r="W24" s="58">
+      <c r="W24" s="30">
         <f>$J24+Sheet2!B$11/24</f>
         <v>0.70833333333333326</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35" t="s">
+      <c r="A25" s="50"/>
+      <c r="B25" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="78">
+      <c r="C25" s="44">
         <v>9</v>
       </c>
-      <c r="D25" s="78">
+      <c r="D25" s="44">
         <v>24</v>
       </c>
-      <c r="E25" s="78" t="s">
+      <c r="E25" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="78" t="s">
+      <c r="F25" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="G25" s="77" t="s">
+      <c r="G25" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="H25" s="79" t="s">
+      <c r="H25" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="I25" s="66" t="str">
+      <c r="I25" s="36" t="str">
         <f>Sheet2!$A$11</f>
         <v>PDT</v>
       </c>
-      <c r="J25" s="80">
+      <c r="J25" s="47">
         <v>1.041666666666667</v>
       </c>
-      <c r="K25" s="81" t="s">
+      <c r="K25" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="23" t="s">
+      <c r="L25" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="M25" s="82">
+      <c r="M25" s="83">
         <f>$J25+Sheet2!B$1/24</f>
         <v>1.4583333333333337</v>
       </c>
-      <c r="N25" s="80">
+      <c r="N25" s="47">
         <f>$J25+Sheet2!B$2/24</f>
         <v>1.3750000000000002</v>
       </c>
-      <c r="O25" s="80">
+      <c r="O25" s="47">
         <f>$J25+Sheet2!B$3/24</f>
         <v>1.166666666666667</v>
       </c>
-      <c r="P25" s="80">
+      <c r="P25" s="47">
         <f>$J25+Sheet2!B$4/24</f>
         <v>1.166666666666667</v>
       </c>
-      <c r="Q25" s="80">
+      <c r="Q25" s="47">
         <f>$J25+Sheet2!B$5/24</f>
         <v>1.166666666666667</v>
       </c>
-      <c r="R25" s="80">
+      <c r="R25" s="47">
         <f>$J25+Sheet2!B$6/24</f>
         <v>1.1250000000000002</v>
       </c>
-      <c r="S25" s="80">
+      <c r="S25" s="47">
         <f>$J25+Sheet2!B$7/24</f>
         <v>1.0833333333333337</v>
       </c>
-      <c r="T25" s="80">
+      <c r="T25" s="47">
         <f>$J25+Sheet2!B$8/24</f>
         <v>0.87500000000000033</v>
       </c>
-      <c r="U25" s="80">
+      <c r="U25" s="47">
         <f>$J25+Sheet2!B$9/24</f>
         <v>0.83333333333333359</v>
       </c>
-      <c r="V25" s="80">
+      <c r="V25" s="47">
         <f>$J25+Sheet2!B$10/24</f>
         <v>0.79166666666666696</v>
       </c>
-      <c r="W25" s="80">
+      <c r="W25" s="47">
         <f>$J25+Sheet2!B$11/24</f>
         <v>0.75000000000000022</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+    <customSheetView guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" hiddenColumns="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" hiddenColumns="1">
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -3397,22 +3447,22 @@
     <mergeCell ref="A2:A3"/>
   </mergeCells>
   <conditionalFormatting sqref="N3:W25 M2">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>M$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:W2">
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>O$1=$J2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M25">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>M$1=$I4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>N$1=$J2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="143">
   <si>
     <t>Name</t>
   </si>
@@ -450,6 +450,18 @@
   </si>
   <si>
     <t>ChST</t>
+  </si>
+  <si>
+    <t>oneCharParrLiesh</t>
+  </si>
+  <si>
+    <t>&lt;@293051323488796672&gt;</t>
+  </si>
+  <si>
+    <t>USA, Virginia</t>
+  </si>
+  <si>
+    <t>&lt;https://swgoh.gg/u/charparrliesh/&gt;</t>
   </si>
 </sst>
 </file>
@@ -536,7 +548,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -585,6 +597,12 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -853,7 +871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -927,15 +945,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -945,20 +954,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -985,54 +986,33 @@
     <xf numFmtId="164" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1383,10 +1363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,7 +1389,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84"/>
+      <c r="A1" s="76"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1443,7 +1423,7 @@
       <c r="L1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="78" t="s">
+      <c r="M1" s="71" t="s">
         <v>138</v>
       </c>
       <c r="N1" s="2" t="str">
@@ -1475,105 +1455,105 @@
         <v>EDT</v>
       </c>
       <c r="U1" s="2" t="str">
-        <f>I22</f>
+        <f>I23</f>
         <v>CDT</v>
       </c>
       <c r="V1" s="2" t="str">
-        <f>I24</f>
+        <f>I25</f>
         <v>MDT</v>
       </c>
       <c r="W1" s="2" t="str">
-        <f>I25</f>
+        <f>I26</f>
         <v>PDT</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="52">
-        <v>24</v>
-      </c>
-      <c r="D2" s="52">
+      <c r="C2" s="49">
+        <v>25</v>
+      </c>
+      <c r="D2" s="49">
         <v>1</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="J2" s="56">
+      <c r="J2" s="53">
         <v>0.33333333333333331</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="K2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="69"/>
+      <c r="L2" s="62"/>
       <c r="M2" s="17">
         <f>$J2+Sheet2!B$1/24</f>
         <v>0.75</v>
       </c>
-      <c r="N2" s="58">
+      <c r="N2" s="55">
         <f>$J2+Sheet2!B$2/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O2" s="58">
+      <c r="O2" s="55">
         <f>$J2+Sheet2!B$3/24</f>
         <v>0.45833333333333331</v>
       </c>
-      <c r="P2" s="58">
+      <c r="P2" s="55">
         <f>$J2+Sheet2!B$4/24</f>
         <v>0.45833333333333331</v>
       </c>
-      <c r="Q2" s="58">
+      <c r="Q2" s="55">
         <f>$J2+Sheet2!B$5/24</f>
         <v>0.45833333333333331</v>
       </c>
-      <c r="R2" s="58">
+      <c r="R2" s="55">
         <f>$J2+Sheet2!B$6/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="S2" s="58">
+      <c r="S2" s="55">
         <f>$J2+Sheet2!B$7/24</f>
         <v>0.375</v>
       </c>
-      <c r="T2" s="58">
+      <c r="T2" s="55">
         <f>$J2+Sheet2!B$8/24</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="U2" s="58">
+      <c r="U2" s="55">
         <f>$J2+Sheet2!B$9/24</f>
         <v>0.12499999999999997</v>
       </c>
-      <c r="V2" s="58">
+      <c r="V2" s="55">
         <f>$J2+Sheet2!B$10/24</f>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="W2" s="58">
+      <c r="W2" s="55">
         <f>$J2+Sheet2!B$11/24</f>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="62" t="s">
+      <c r="A3" s="86"/>
+      <c r="B3" s="57" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4">
         <v>2</v>
@@ -1600,7 +1580,7 @@
       <c r="K3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="70" t="s">
+      <c r="L3" s="63" t="s">
         <v>129</v>
       </c>
       <c r="M3" s="5">
@@ -1649,14 +1629,14 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="58" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
         <v>3</v>
@@ -1683,10 +1663,10 @@
       <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="71" t="s">
+      <c r="L4" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="M4" s="80">
+      <c r="M4" s="73">
         <f>$J4+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
@@ -1732,12 +1712,12 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="83"/>
+      <c r="B5" s="59" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="13">
         <v>4</v>
@@ -1764,10 +1744,10 @@
       <c r="K5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="72" t="s">
+      <c r="L5" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="M5" s="81">
+      <c r="M5" s="74">
         <f>$J5+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
@@ -1813,12 +1793,12 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="65" t="s">
+      <c r="A6" s="83"/>
+      <c r="B6" s="60" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="19">
         <v>5</v>
@@ -1845,10 +1825,10 @@
       <c r="K6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="73" t="s">
+      <c r="L6" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="M6" s="58">
+      <c r="M6" s="55">
         <f>$J6+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
@@ -1894,12 +1874,12 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="64" t="s">
+      <c r="A7" s="83"/>
+      <c r="B7" s="59" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="13">
         <v>6</v>
@@ -1926,10 +1906,10 @@
       <c r="K7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="72" t="s">
+      <c r="L7" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="M7" s="81">
+      <c r="M7" s="74">
         <f>$J7+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
@@ -1975,8 +1955,8 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="66" t="s">
+      <c r="A8" s="83"/>
+      <c r="B8" s="61" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="27">
@@ -2007,10 +1987,10 @@
       <c r="K8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="74" t="s">
+      <c r="L8" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="M8" s="82">
+      <c r="M8" s="75">
         <f>$J8+Sheet2!B$1/24</f>
         <v>1.0833333333333333</v>
       </c>
@@ -2056,8 +2036,8 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="64" t="s">
+      <c r="A9" s="83"/>
+      <c r="B9" s="59" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="13">
@@ -2088,10 +2068,10 @@
       <c r="K9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="75" t="s">
+      <c r="L9" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="M9" s="81">
+      <c r="M9" s="74">
         <f>$J9+Sheet2!B$1/24</f>
         <v>1.0833333333333333</v>
       </c>
@@ -2137,8 +2117,8 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="66" t="s">
+      <c r="A10" s="83"/>
+      <c r="B10" s="61" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="27">
@@ -2169,10 +2149,10 @@
       <c r="K10" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="74" t="s">
+      <c r="L10" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="M10" s="82">
+      <c r="M10" s="75">
         <f>$J10+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
@@ -2218,8 +2198,8 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="64" t="s">
+      <c r="A11" s="83"/>
+      <c r="B11" s="59" t="s">
         <v>52</v>
       </c>
       <c r="C11" s="13">
@@ -2250,10 +2230,10 @@
       <c r="K11" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="75" t="s">
+      <c r="L11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="M11" s="81">
+      <c r="M11" s="74">
         <f>$J11+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
@@ -2299,8 +2279,8 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="65" t="s">
+      <c r="A12" s="83"/>
+      <c r="B12" s="60" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="19">
@@ -2331,10 +2311,10 @@
       <c r="K12" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="76" t="s">
+      <c r="L12" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="M12" s="58">
+      <c r="M12" s="55">
         <f>$J12+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
@@ -2380,12 +2360,12 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="64" t="s">
+      <c r="A13" s="83"/>
+      <c r="B13" s="59" t="s">
         <v>62</v>
       </c>
       <c r="C13" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" s="13">
         <v>12</v>
@@ -2412,10 +2392,10 @@
       <c r="K13" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="75" t="s">
+      <c r="L13" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="M13" s="81">
+      <c r="M13" s="74">
         <f>$J13+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
@@ -2461,12 +2441,12 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="65" t="s">
+      <c r="A14" s="83"/>
+      <c r="B14" s="60" t="s">
         <v>67</v>
       </c>
       <c r="C14" s="19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" s="19">
         <v>13</v>
@@ -2493,10 +2473,10 @@
       <c r="K14" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="76" t="s">
+      <c r="L14" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="M14" s="58">
+      <c r="M14" s="55">
         <f>$J14+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
@@ -2542,12 +2522,12 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="64" t="s">
+      <c r="A15" s="83"/>
+      <c r="B15" s="59" t="s">
         <v>72</v>
       </c>
       <c r="C15" s="13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" s="13">
         <v>14</v>
@@ -2574,10 +2554,10 @@
       <c r="K15" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="75" t="s">
+      <c r="L15" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="M15" s="81">
+      <c r="M15" s="74">
         <f>$J15+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
@@ -2623,12 +2603,12 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="65" t="s">
+      <c r="A16" s="83"/>
+      <c r="B16" s="60" t="s">
         <v>75</v>
       </c>
       <c r="C16" s="19">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" s="19">
         <v>15</v>
@@ -2655,10 +2635,10 @@
       <c r="K16" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="76" t="s">
+      <c r="L16" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="M16" s="58">
+      <c r="M16" s="55">
         <f>$J16+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
@@ -2704,12 +2684,12 @@
       </c>
     </row>
     <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="62" t="s">
+      <c r="A17" s="84"/>
+      <c r="B17" s="57" t="s">
         <v>80</v>
       </c>
       <c r="C17" s="41">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="4">
         <v>16</v>
@@ -2735,10 +2715,10 @@
       <c r="K17" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="77" t="s">
+      <c r="L17" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="M17" s="79">
+      <c r="M17" s="72">
         <f>$J17+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
       </c>
@@ -2784,10 +2764,10 @@
       </c>
     </row>
     <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="60" t="s">
         <v>86</v>
       </c>
       <c r="C18" s="19">
@@ -2818,10 +2798,10 @@
       <c r="K18" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="73" t="s">
+      <c r="L18" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="M18" s="58">
+      <c r="M18" s="55">
         <f>$J18+Sheet2!B$1/24</f>
         <v>1.3333333333333337</v>
       </c>
@@ -2867,27 +2847,27 @@
       </c>
     </row>
     <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="64" t="s">
-        <v>91</v>
+      <c r="A19" s="83"/>
+      <c r="B19" s="59" t="s">
+        <v>139</v>
       </c>
       <c r="C19" s="13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D19" s="13">
         <v>18</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>94</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="I19" s="36" t="str">
         <f>Sheet2!$A$8</f>
@@ -2899,10 +2879,10 @@
       <c r="K19" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="72" t="s">
+      <c r="L19" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="M19" s="81">
+      <c r="M19" s="74">
         <f>$J19+Sheet2!B$1/24</f>
         <v>1.3333333333333337</v>
       </c>
@@ -2948,27 +2928,27 @@
       </c>
     </row>
     <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="65" t="s">
-        <v>96</v>
+      <c r="A20" s="83"/>
+      <c r="B20" s="60" t="s">
+        <v>91</v>
       </c>
       <c r="C20" s="19">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D20" s="19">
         <v>19</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>94</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I20" s="37" t="str">
         <f>Sheet2!$A$8</f>
@@ -2980,10 +2960,10 @@
       <c r="K20" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="73" t="s">
+      <c r="L20" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="M20" s="58">
+      <c r="M20" s="77">
         <f>$J20+Sheet2!B$1/24</f>
         <v>1.3333333333333337</v>
       </c>
@@ -3029,189 +3009,189 @@
       </c>
     </row>
     <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="45">
-        <v>6</v>
-      </c>
-      <c r="D21" s="44">
+      <c r="A21" s="83"/>
+      <c r="B21" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="13">
+        <v>18</v>
+      </c>
+      <c r="D21" s="13">
         <v>20</v>
       </c>
-      <c r="E21" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="45" t="s">
+      <c r="E21" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="H21" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="I21" s="46" t="str">
+      <c r="H21" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="36" t="str">
         <f>Sheet2!$A$8</f>
         <v>EDT</v>
       </c>
-      <c r="J21" s="47">
+      <c r="J21" s="17">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="M21" s="79">
+        <f>$J21+Sheet2!B$1/24</f>
+        <v>1.3333333333333337</v>
+      </c>
+      <c r="N21" s="17">
+        <f>$J21+Sheet2!B$2/24</f>
+        <v>1.2500000000000002</v>
+      </c>
+      <c r="O21" s="17">
+        <f>$J21+Sheet2!B$3/24</f>
+        <v>1.041666666666667</v>
+      </c>
+      <c r="P21" s="17">
+        <f>$J21+Sheet2!B$4/24</f>
+        <v>1.041666666666667</v>
+      </c>
+      <c r="Q21" s="17">
+        <f>$J21+Sheet2!B$5/24</f>
+        <v>1.041666666666667</v>
+      </c>
+      <c r="R21" s="17">
+        <f>$J21+Sheet2!B$6/24</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="S21" s="17">
+        <f>$J21+Sheet2!B$7/24</f>
         <v>0.95833333333333359</v>
       </c>
-      <c r="K21" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="70" t="s">
-        <v>124</v>
-      </c>
-      <c r="M21" s="83">
-        <f>$J21+Sheet2!B$1/24</f>
-        <v>1.3750000000000002</v>
-      </c>
-      <c r="N21" s="47">
-        <f>$J21+Sheet2!B$2/24</f>
-        <v>1.291666666666667</v>
-      </c>
-      <c r="O21" s="47">
-        <f>$J21+Sheet2!B$3/24</f>
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="P21" s="47">
-        <f>$J21+Sheet2!B$4/24</f>
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="Q21" s="47">
-        <f>$J21+Sheet2!B$5/24</f>
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="R21" s="47">
-        <f>$J21+Sheet2!B$6/24</f>
-        <v>1.041666666666667</v>
-      </c>
-      <c r="S21" s="47">
-        <f>$J21+Sheet2!B$7/24</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="T21" s="47">
+      <c r="T21" s="17">
         <f>$J21+Sheet2!B$8/24</f>
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="U21" s="47">
+        <v>0.75000000000000033</v>
+      </c>
+      <c r="U21" s="17">
         <f>$J21+Sheet2!B$9/24</f>
-        <v>0.75000000000000022</v>
-      </c>
-      <c r="V21" s="47">
+        <v>0.70833333333333359</v>
+      </c>
+      <c r="V21" s="17">
         <f>$J21+Sheet2!B$10/24</f>
-        <v>0.70833333333333359</v>
-      </c>
-      <c r="W21" s="47">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="W21" s="17">
         <f>$J21+Sheet2!B$11/24</f>
-        <v>0.66666666666666696</v>
+        <v>0.62500000000000022</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="19">
-        <v>8</v>
-      </c>
-      <c r="D22" s="19">
+      <c r="A22" s="83"/>
+      <c r="B22" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="27">
+        <v>6</v>
+      </c>
+      <c r="D22" s="26">
         <v>21</v>
       </c>
-      <c r="E22" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" s="19" t="s">
+      <c r="E22" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="H22" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="I22" s="37" t="str">
-        <f>Sheet2!$A$9</f>
-        <v>CDT</v>
-      </c>
-      <c r="J22" s="23">
-        <v>0.95833333333333304</v>
-      </c>
-      <c r="K22" s="38" t="s">
+      <c r="H22" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="34" t="str">
+        <f>Sheet2!$A$8</f>
+        <v>EDT</v>
+      </c>
+      <c r="J22" s="30">
+        <v>0.95833333333333359</v>
+      </c>
+      <c r="K22" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="L22" s="73" t="s">
+      <c r="L22" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="M22" s="58">
+      <c r="M22" s="78">
         <f>$J22+Sheet2!B$1/24</f>
-        <v>1.3749999999999998</v>
-      </c>
-      <c r="N22" s="23">
+        <v>1.3750000000000002</v>
+      </c>
+      <c r="N22" s="30">
         <f>$J22+Sheet2!B$2/24</f>
-        <v>1.2916666666666663</v>
-      </c>
-      <c r="O22" s="23">
+        <v>1.291666666666667</v>
+      </c>
+      <c r="O22" s="30">
         <f>$J22+Sheet2!B$3/24</f>
-        <v>1.083333333333333</v>
-      </c>
-      <c r="P22" s="23">
+        <v>1.0833333333333335</v>
+      </c>
+      <c r="P22" s="30">
         <f>$J22+Sheet2!B$4/24</f>
-        <v>1.083333333333333</v>
-      </c>
-      <c r="Q22" s="23">
+        <v>1.0833333333333335</v>
+      </c>
+      <c r="Q22" s="30">
         <f>$J22+Sheet2!B$5/24</f>
-        <v>1.083333333333333</v>
-      </c>
-      <c r="R22" s="23">
+        <v>1.0833333333333335</v>
+      </c>
+      <c r="R22" s="30">
         <f>$J22+Sheet2!B$6/24</f>
-        <v>1.0416666666666663</v>
-      </c>
-      <c r="S22" s="23">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="S22" s="30">
         <f>$J22+Sheet2!B$7/24</f>
-        <v>0.99999999999999967</v>
-      </c>
-      <c r="T22" s="23">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="T22" s="30">
         <f>$J22+Sheet2!B$8/24</f>
-        <v>0.79166666666666641</v>
-      </c>
-      <c r="U22" s="23">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="U22" s="30">
         <f>$J22+Sheet2!B$9/24</f>
-        <v>0.74999999999999967</v>
-      </c>
-      <c r="V22" s="23">
+        <v>0.75000000000000022</v>
+      </c>
+      <c r="V22" s="30">
         <f>$J22+Sheet2!B$10/24</f>
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="W22" s="23">
+        <v>0.70833333333333359</v>
+      </c>
+      <c r="W22" s="30">
         <f>$J22+Sheet2!B$11/24</f>
-        <v>0.6666666666666663</v>
+        <v>0.66666666666666696</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
-      <c r="B23" s="64" t="s">
-        <v>108</v>
+      <c r="A23" s="83"/>
+      <c r="B23" s="59" t="s">
+        <v>104</v>
       </c>
       <c r="C23" s="13">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D23" s="13">
         <v>22</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>94</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I23" s="36" t="str">
         <f>Sheet2!$A$9</f>
@@ -3223,10 +3203,10 @@
       <c r="K23" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="72" t="s">
+      <c r="L23" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="M23" s="81">
+      <c r="M23" s="79">
         <f>$J23+Sheet2!B$1/24</f>
         <v>1.3749999999999998</v>
       </c>
@@ -3272,167 +3252,251 @@
       </c>
     </row>
     <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" s="27">
+      <c r="A24" s="83"/>
+      <c r="B24" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="19">
+        <v>23</v>
+      </c>
+      <c r="D24" s="19">
+        <v>23</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" s="37" t="str">
+        <f>Sheet2!$A$9</f>
+        <v>CDT</v>
+      </c>
+      <c r="J24" s="23">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="K24" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="27">
-        <v>23</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="I24" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="30">
-        <v>1</v>
-      </c>
-      <c r="K24" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="M24" s="82">
+      <c r="L24" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="M24" s="77">
         <f>$J24+Sheet2!B$1/24</f>
-        <v>1.4166666666666667</v>
-      </c>
-      <c r="N24" s="30">
+        <v>1.3749999999999998</v>
+      </c>
+      <c r="N24" s="23">
         <f>$J24+Sheet2!B$2/24</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O24" s="30">
+        <v>1.2916666666666663</v>
+      </c>
+      <c r="O24" s="23">
         <f>$J24+Sheet2!B$3/24</f>
-        <v>1.125</v>
-      </c>
-      <c r="P24" s="30">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="P24" s="23">
         <f>$J24+Sheet2!B$4/24</f>
-        <v>1.125</v>
-      </c>
-      <c r="Q24" s="30">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="Q24" s="23">
         <f>$J24+Sheet2!B$5/24</f>
-        <v>1.125</v>
-      </c>
-      <c r="R24" s="30">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="R24" s="23">
         <f>$J24+Sheet2!B$6/24</f>
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="S24" s="30">
+        <v>1.0416666666666663</v>
+      </c>
+      <c r="S24" s="23">
         <f>$J24+Sheet2!B$7/24</f>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="T24" s="30">
+        <v>0.99999999999999967</v>
+      </c>
+      <c r="T24" s="23">
         <f>$J24+Sheet2!B$8/24</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="U24" s="30">
+        <v>0.79166666666666641</v>
+      </c>
+      <c r="U24" s="23">
         <f>$J24+Sheet2!B$9/24</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="V24" s="30">
+        <v>0.74999999999999967</v>
+      </c>
+      <c r="V24" s="23">
         <f>$J24+Sheet2!B$10/24</f>
-        <v>0.75</v>
-      </c>
-      <c r="W24" s="30">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="W24" s="23">
         <f>$J24+Sheet2!B$11/24</f>
-        <v>0.70833333333333326</v>
+        <v>0.6666666666666663</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" s="44">
-        <v>9</v>
-      </c>
-      <c r="D25" s="44">
+      <c r="A25" s="83"/>
+      <c r="B25" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="45">
+        <v>17</v>
+      </c>
+      <c r="D25" s="45">
         <v>24</v>
       </c>
-      <c r="E25" s="44" t="s">
-        <v>117</v>
+      <c r="E25" s="45" t="s">
+        <v>113</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G25" s="45" t="s">
         <v>94</v>
       </c>
       <c r="H25" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="I25" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="47">
+        <v>1</v>
+      </c>
+      <c r="K25" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="M25" s="81">
+        <f>$J25+Sheet2!B$1/24</f>
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="N25" s="47">
+        <f>$J25+Sheet2!B$2/24</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="O25" s="47">
+        <f>$J25+Sheet2!B$3/24</f>
+        <v>1.125</v>
+      </c>
+      <c r="P25" s="47">
+        <f>$J25+Sheet2!B$4/24</f>
+        <v>1.125</v>
+      </c>
+      <c r="Q25" s="47">
+        <f>$J25+Sheet2!B$5/24</f>
+        <v>1.125</v>
+      </c>
+      <c r="R25" s="47">
+        <f>$J25+Sheet2!B$6/24</f>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="S25" s="47">
+        <f>$J25+Sheet2!B$7/24</f>
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="T25" s="47">
+        <f>$J25+Sheet2!B$8/24</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="U25" s="47">
+        <f>$J25+Sheet2!B$9/24</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="V25" s="47">
+        <f>$J25+Sheet2!B$10/24</f>
+        <v>0.75</v>
+      </c>
+      <c r="W25" s="47">
+        <f>$J25+Sheet2!B$11/24</f>
+        <v>0.70833333333333326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="83"/>
+      <c r="B26" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="26">
+        <v>9</v>
+      </c>
+      <c r="D26" s="26">
+        <v>25</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="I25" s="36" t="str">
+      <c r="I26" s="37" t="str">
         <f>Sheet2!$A$11</f>
         <v>PDT</v>
       </c>
-      <c r="J25" s="47">
+      <c r="J26" s="30">
         <v>1.041666666666667</v>
       </c>
-      <c r="K25" s="48" t="s">
+      <c r="K26" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="70" t="s">
+      <c r="L26" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="M25" s="83">
-        <f>$J25+Sheet2!B$1/24</f>
+      <c r="M26" s="78">
+        <f>$J26+Sheet2!B$1/24</f>
         <v>1.4583333333333337</v>
       </c>
-      <c r="N25" s="47">
-        <f>$J25+Sheet2!B$2/24</f>
+      <c r="N26" s="30">
+        <f>$J26+Sheet2!B$2/24</f>
         <v>1.3750000000000002</v>
       </c>
-      <c r="O25" s="47">
-        <f>$J25+Sheet2!B$3/24</f>
+      <c r="O26" s="30">
+        <f>$J26+Sheet2!B$3/24</f>
         <v>1.166666666666667</v>
       </c>
-      <c r="P25" s="47">
-        <f>$J25+Sheet2!B$4/24</f>
+      <c r="P26" s="30">
+        <f>$J26+Sheet2!B$4/24</f>
         <v>1.166666666666667</v>
       </c>
-      <c r="Q25" s="47">
-        <f>$J25+Sheet2!B$5/24</f>
+      <c r="Q26" s="30">
+        <f>$J26+Sheet2!B$5/24</f>
         <v>1.166666666666667</v>
       </c>
-      <c r="R25" s="47">
-        <f>$J25+Sheet2!B$6/24</f>
+      <c r="R26" s="30">
+        <f>$J26+Sheet2!B$6/24</f>
         <v>1.1250000000000002</v>
       </c>
-      <c r="S25" s="47">
-        <f>$J25+Sheet2!B$7/24</f>
+      <c r="S26" s="30">
+        <f>$J26+Sheet2!B$7/24</f>
         <v>1.0833333333333337</v>
       </c>
-      <c r="T25" s="47">
-        <f>$J25+Sheet2!B$8/24</f>
+      <c r="T26" s="30">
+        <f>$J26+Sheet2!B$8/24</f>
         <v>0.87500000000000033</v>
       </c>
-      <c r="U25" s="47">
-        <f>$J25+Sheet2!B$9/24</f>
+      <c r="U26" s="30">
+        <f>$J26+Sheet2!B$9/24</f>
         <v>0.83333333333333359</v>
       </c>
-      <c r="V25" s="47">
-        <f>$J25+Sheet2!B$10/24</f>
+      <c r="V26" s="30">
+        <f>$J26+Sheet2!B$10/24</f>
         <v>0.79166666666666696</v>
       </c>
-      <c r="W25" s="47">
-        <f>$J25+Sheet2!B$11/24</f>
+      <c r="W26" s="30">
+        <f>$J26+Sheet2!B$11/24</f>
         <v>0.75000000000000022</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B2:W26">
+    <sortCondition ref="D2:D26"/>
+  </sortState>
   <customSheetViews>
     <customSheetView guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" hiddenColumns="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3443,26 +3507,26 @@
   </customSheetViews>
   <mergeCells count="3">
     <mergeCell ref="A4:A17"/>
-    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A18:A26"/>
     <mergeCell ref="A2:A3"/>
   </mergeCells>
-  <conditionalFormatting sqref="N3:W25 M2">
-    <cfRule type="expression" dxfId="5" priority="7">
+  <conditionalFormatting sqref="M2 N3:W26">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>M$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:W2">
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="3" priority="11">
       <formula>O$1=$J2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M25">
-    <cfRule type="expression" dxfId="8" priority="5">
+  <conditionalFormatting sqref="M4:M26">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>M$1=$I4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>N$1=$J2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -20,8 +20,8 @@
   </definedNames>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -314,9 +314,6 @@
     <t>&lt;https://swgoh.gg/u/berniewankensanders/&gt;</t>
   </si>
   <si>
-    <t>RΔsρberry</t>
-  </si>
-  <si>
     <t>USA, Oregon</t>
   </si>
   <si>
@@ -350,9 +347,6 @@
     <t>5/11</t>
   </si>
   <si>
-    <t>Bar Bar Jinks</t>
-  </si>
-  <si>
     <t>Guam</t>
   </si>
   <si>
@@ -396,6 +390,12 @@
   </si>
   <si>
     <t>:flag_jp:</t>
+  </si>
+  <si>
+    <t>Obi Wankin Obi</t>
+  </si>
+  <si>
+    <t>Raspywalker</t>
   </si>
 </sst>
 </file>
@@ -824,7 +824,29 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -833,15 +855,19 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -850,6 +876,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -858,27 +885,23 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -891,115 +914,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1044,166 +965,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1648,10 +1409,10 @@
         <v>8</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M1" s="3" t="str">
         <f>H3</f>
@@ -1702,2203 +1463,2203 @@
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="7">
+        <v>25</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="50">
-        <v>25</v>
-      </c>
-      <c r="D2" s="50">
-        <v>1</v>
-      </c>
-      <c r="E2" s="51" t="s">
+      <c r="G2" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="H2" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" s="53">
+      <c r="I2" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="31">
+      <c r="K2" s="12"/>
+      <c r="L2" s="13">
         <f>$I2+Sheet2!B$1/24</f>
         <v>0.75</v>
       </c>
-      <c r="M2" s="31">
+      <c r="M2" s="13">
         <f>$I2+Sheet2!B$2/24</f>
         <v>0.70833333333333326</v>
       </c>
-      <c r="N2" s="31">
+      <c r="N2" s="13">
         <f>$I2+Sheet2!B$3/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O2" s="31">
+      <c r="O2" s="13">
         <f>$I2+Sheet2!B$4/24</f>
         <v>0.45833333333333331</v>
       </c>
-      <c r="P2" s="31">
+      <c r="P2" s="13">
         <f>$I2+Sheet2!B$5/24</f>
         <v>0.45833333333333331</v>
       </c>
-      <c r="Q2" s="31">
+      <c r="Q2" s="13">
         <f>$I2+Sheet2!B$6/24</f>
         <v>0.45833333333333331</v>
       </c>
-      <c r="R2" s="31">
+      <c r="R2" s="13">
         <f>$I2+Sheet2!B$7/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="S2" s="31">
+      <c r="S2" s="13">
         <f>$I2+Sheet2!B$8/24</f>
         <v>0.375</v>
       </c>
-      <c r="T2" s="31">
+      <c r="T2" s="13">
         <f>$I2+Sheet2!B$9/24</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="U2" s="31">
+      <c r="U2" s="13">
         <f>$I2+Sheet2!B$10/24</f>
         <v>0.12499999999999997</v>
       </c>
-      <c r="V2" s="31">
+      <c r="V2" s="13">
         <f>$I2+Sheet2!B$11/24</f>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="W2" s="31">
+      <c r="W2" s="13">
         <f>$I2+Sheet2!B$12/24</f>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="33">
+      <c r="B3" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="15">
         <v>27</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="15">
         <v>2</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="H3" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="I3" s="36">
+      <c r="G3" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="18">
         <v>0.375</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="36">
+      <c r="K3" s="20"/>
+      <c r="L3" s="18">
         <f>$I3+Sheet2!B$1/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="M3" s="36">
+      <c r="M3" s="18">
         <f>$I3+Sheet2!B$2/24</f>
         <v>0.75</v>
       </c>
-      <c r="N3" s="36">
+      <c r="N3" s="18">
         <f>$I3+Sheet2!B$3/24</f>
         <v>0.70833333333333326</v>
       </c>
-      <c r="O3" s="36">
+      <c r="O3" s="18">
         <f>$I3+Sheet2!B$4/24</f>
         <v>0.5</v>
       </c>
-      <c r="P3" s="36">
+      <c r="P3" s="18">
         <f>$I3+Sheet2!B$5/24</f>
         <v>0.5</v>
       </c>
-      <c r="Q3" s="36">
+      <c r="Q3" s="18">
         <f>$I3+Sheet2!B$6/24</f>
         <v>0.5</v>
       </c>
-      <c r="R3" s="36">
+      <c r="R3" s="18">
         <f>$I3+Sheet2!B$7/24</f>
         <v>0.45833333333333331</v>
       </c>
-      <c r="S3" s="36">
+      <c r="S3" s="18">
         <f>$I3+Sheet2!B$8/24</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="T3" s="36">
+      <c r="T3" s="18">
         <f>$I3+Sheet2!B$9/24</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="U3" s="36">
+      <c r="U3" s="18">
         <f>$I3+Sheet2!B$10/24</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="V3" s="36">
+      <c r="V3" s="18">
         <f>$I3+Sheet2!B$11/24</f>
         <v>0.125</v>
       </c>
-      <c r="W3" s="36">
+      <c r="W3" s="18">
         <f>$I3+Sheet2!B$12/24</f>
         <v>8.3333333333333315E-2</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="23">
         <v>15</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="24">
         <v>3</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="11" t="str">
+      <c r="H4" s="25" t="str">
         <f>Sheet2!$A$3</f>
         <v>CST</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="26">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="12">
+      <c r="K4" s="20"/>
+      <c r="L4" s="26">
         <f>$I4+Sheet2!B$1/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="26">
         <f>$I4+Sheet2!B$2/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="26">
         <f>$I4+Sheet2!B$3/24</f>
         <v>0.75</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="26">
         <f>$I4+Sheet2!B$4/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="26">
         <f>$I4+Sheet2!B$5/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="26">
         <f>$I4+Sheet2!B$6/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="26">
         <f>$I4+Sheet2!B$7/24</f>
         <v>0.5</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="26">
         <f>$I4+Sheet2!B$8/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="T4" s="12">
+      <c r="T4" s="26">
         <f>$I4+Sheet2!B$9/24</f>
         <v>0.25</v>
       </c>
-      <c r="U4" s="12">
+      <c r="U4" s="26">
         <f>$I4+Sheet2!B$10/24</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="V4" s="12">
+      <c r="V4" s="26">
         <f>$I4+Sheet2!B$11/24</f>
         <v>0.16666666666666669</v>
       </c>
-      <c r="W4" s="12">
+      <c r="W4" s="26">
         <f>$I4+Sheet2!B$12/24</f>
         <v>0.125</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="29">
         <v>11</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="29">
         <v>4</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="60" t="str">
+      <c r="H5" s="31" t="str">
         <f>Sheet2!$A$4</f>
         <v>MSK</v>
       </c>
-      <c r="I5" s="61">
+      <c r="I5" s="32">
         <v>0.625</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="L5" s="64">
+      <c r="K5" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" s="35">
         <f>$I5+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="M5" s="61">
+      <c r="M5" s="32">
         <f>$I5+Sheet2!B$2/24</f>
         <v>1</v>
       </c>
-      <c r="N5" s="61">
+      <c r="N5" s="32">
         <f>$I5+Sheet2!B$3/24</f>
         <v>0.95833333333333326</v>
       </c>
-      <c r="O5" s="61">
+      <c r="O5" s="32">
         <f>$I5+Sheet2!B$4/24</f>
         <v>0.75</v>
       </c>
-      <c r="P5" s="61">
+      <c r="P5" s="32">
         <f>$I5+Sheet2!B$5/24</f>
         <v>0.75</v>
       </c>
-      <c r="Q5" s="61">
+      <c r="Q5" s="32">
         <f>$I5+Sheet2!B$6/24</f>
         <v>0.75</v>
       </c>
-      <c r="R5" s="61">
+      <c r="R5" s="32">
         <f>$I5+Sheet2!B$7/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="S5" s="61">
+      <c r="S5" s="32">
         <f>$I5+Sheet2!B$8/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T5" s="61">
+      <c r="T5" s="32">
         <f>$I5+Sheet2!B$9/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="U5" s="61">
+      <c r="U5" s="32">
         <f>$I5+Sheet2!B$10/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="V5" s="61">
+      <c r="V5" s="32">
         <f>$I5+Sheet2!B$11/24</f>
         <v>0.375</v>
       </c>
-      <c r="W5" s="61">
+      <c r="W5" s="32">
         <f>$I5+Sheet2!B$12/24</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="38">
         <v>12</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="38">
         <v>5</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="21" t="str">
+      <c r="H6" s="41" t="str">
         <f>Sheet2!$A$4</f>
         <v>MSK</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="42">
         <v>0.625</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="L6" s="24">
+      <c r="K6" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="45">
         <f>$I6+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="42">
         <f>$I6+Sheet2!B$2/24</f>
         <v>1</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="42">
         <f>$I6+Sheet2!B$3/24</f>
         <v>0.95833333333333326</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="42">
         <f>$I6+Sheet2!B$4/24</f>
         <v>0.75</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="42">
         <f>$I6+Sheet2!B$5/24</f>
         <v>0.75</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="42">
         <f>$I6+Sheet2!B$6/24</f>
         <v>0.75</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="42">
         <f>$I6+Sheet2!B$7/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="42">
         <f>$I6+Sheet2!B$8/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="42">
         <f>$I6+Sheet2!B$9/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="42">
         <f>$I6+Sheet2!B$10/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="V6" s="6">
+      <c r="V6" s="42">
         <f>$I6+Sheet2!B$11/24</f>
         <v>0.375</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="42">
         <f>$I6+Sheet2!B$12/24</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="38">
         <v>14</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="38">
         <v>6</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="21" t="str">
+      <c r="H7" s="41" t="str">
         <f>Sheet2!$A$4</f>
         <v>MSK</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="42">
         <v>0.625</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" s="31">
+      <c r="K7" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="13">
         <f>$I7+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="42">
         <f>$I7+Sheet2!B$2/24</f>
         <v>1</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="42">
         <f>$I7+Sheet2!B$3/24</f>
         <v>0.95833333333333326</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="42">
         <f>$I7+Sheet2!B$4/24</f>
         <v>0.75</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="42">
         <f>$I7+Sheet2!B$5/24</f>
         <v>0.75</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="42">
         <f>$I7+Sheet2!B$6/24</f>
         <v>0.75</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="42">
         <f>$I7+Sheet2!B$7/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="42">
         <f>$I7+Sheet2!B$8/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="42">
         <f>$I7+Sheet2!B$9/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="42">
         <f>$I7+Sheet2!B$10/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V7" s="42">
         <f>$I7+Sheet2!B$11/24</f>
         <v>0.375</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="42">
         <f>$I7+Sheet2!B$12/24</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="38">
         <v>21</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="38">
         <v>7</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="21" t="str">
+      <c r="H8" s="41" t="str">
         <f>Sheet2!$A$4</f>
         <v>MSK</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="42">
         <v>0.625</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="L8" s="24">
+      <c r="K8" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="45">
         <f>$I8+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="42">
         <f>$I8+Sheet2!B$2/24</f>
         <v>1</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="42">
         <f>$I8+Sheet2!B$3/24</f>
         <v>0.95833333333333326</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="42">
         <f>$I8+Sheet2!B$4/24</f>
         <v>0.75</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="42">
         <f>$I8+Sheet2!B$5/24</f>
         <v>0.75</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="42">
         <f>$I8+Sheet2!B$6/24</f>
         <v>0.75</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="42">
         <f>$I8+Sheet2!B$7/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="42">
         <f>$I8+Sheet2!B$8/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="42">
         <f>$I8+Sheet2!B$9/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="42">
         <f>$I8+Sheet2!B$10/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8" s="42">
         <f>$I8+Sheet2!B$11/24</f>
         <v>0.375</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8" s="42">
         <f>$I8+Sheet2!B$12/24</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="47" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="15">
         <v>4</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="15">
         <v>8</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="56" t="str">
+      <c r="H9" s="17" t="str">
         <f>Sheet2!$A$5</f>
         <v>TRT</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="18">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="L9" s="38">
+      <c r="K9" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" s="47">
         <f>$I9+Sheet2!B$1/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="M9" s="36">
+      <c r="M9" s="18">
         <f>$I9+Sheet2!B$2/24</f>
         <v>1.0416666666666665</v>
       </c>
-      <c r="N9" s="36">
+      <c r="N9" s="18">
         <f>$I9+Sheet2!B$3/24</f>
         <v>1</v>
       </c>
-      <c r="O9" s="36">
+      <c r="O9" s="18">
         <f>$I9+Sheet2!B$4/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="P9" s="36">
+      <c r="P9" s="18">
         <f>$I9+Sheet2!B$5/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="Q9" s="36">
+      <c r="Q9" s="18">
         <f>$I9+Sheet2!B$6/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="R9" s="36">
+      <c r="R9" s="18">
         <f>$I9+Sheet2!B$7/24</f>
         <v>0.75</v>
       </c>
-      <c r="S9" s="36">
+      <c r="S9" s="18">
         <f>$I9+Sheet2!B$8/24</f>
         <v>0.70833333333333326</v>
       </c>
-      <c r="T9" s="36">
+      <c r="T9" s="18">
         <f>$I9+Sheet2!B$9/24</f>
         <v>0.5</v>
       </c>
-      <c r="U9" s="36">
+      <c r="U9" s="18">
         <f>$I9+Sheet2!B$10/24</f>
         <v>0.45833333333333326</v>
       </c>
-      <c r="V9" s="36">
+      <c r="V9" s="18">
         <f>$I9+Sheet2!B$11/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="W9" s="36">
+      <c r="W9" s="18">
         <f>$I9+Sheet2!B$12/24</f>
         <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="38">
         <v>7</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="38">
         <v>9</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="21" t="str">
+      <c r="H10" s="41" t="str">
         <f>Sheet2!$A$6</f>
         <v>EEST</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="42">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="L10" s="24">
+      <c r="K10" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="45">
         <f>$I10+Sheet2!B$1/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="42">
         <f>$I10+Sheet2!B$2/24</f>
         <v>1.0416666666666665</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="42">
         <f>$I10+Sheet2!B$3/24</f>
         <v>1</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="42">
         <f>$I10+Sheet2!B$4/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="42">
         <f>$I10+Sheet2!B$5/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="42">
         <f>$I10+Sheet2!B$6/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="42">
         <f>$I10+Sheet2!B$7/24</f>
         <v>0.75</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="42">
         <f>$I10+Sheet2!B$8/24</f>
         <v>0.70833333333333326</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="42">
         <f>$I10+Sheet2!B$9/24</f>
         <v>0.5</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="42">
         <f>$I10+Sheet2!B$10/24</f>
         <v>0.45833333333333326</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10" s="42">
         <f>$I10+Sheet2!B$11/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10" s="42">
         <f>$I10+Sheet2!B$12/24</f>
         <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="47" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="15">
         <v>1</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="15">
         <v>10</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="35" t="str">
+      <c r="H11" s="50" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="18">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="J11" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="L11" s="38">
+      <c r="K11" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" s="47">
         <f>$I11+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="M11" s="36">
+      <c r="M11" s="18">
         <f>$I11+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="N11" s="36">
+      <c r="N11" s="18">
         <f>$I11+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O11" s="36">
+      <c r="O11" s="18">
         <f>$I11+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P11" s="36">
+      <c r="P11" s="18">
         <f>$I11+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q11" s="36">
+      <c r="Q11" s="18">
         <f>$I11+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R11" s="36">
+      <c r="R11" s="18">
         <f>$I11+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S11" s="36">
+      <c r="S11" s="18">
         <f>$I11+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="T11" s="36">
+      <c r="T11" s="18">
         <f>$I11+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U11" s="36">
+      <c r="U11" s="18">
         <f>$I11+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="V11" s="36">
+      <c r="V11" s="18">
         <f>$I11+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W11" s="36">
+      <c r="W11" s="18">
         <f>$I11+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="38">
         <v>2</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="38">
         <v>11</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="28" t="str">
+      <c r="H12" s="52" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="42">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="L12" s="24">
+      <c r="K12" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="L12" s="45">
         <f>$I12+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="42">
         <f>$I12+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="42">
         <f>$I12+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="42">
         <f>$I12+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="42">
         <f>$I12+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="42">
         <f>$I12+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="42">
         <f>$I12+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="42">
         <f>$I12+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="42">
         <f>$I12+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="42">
         <f>$I12+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="V12" s="6">
+      <c r="V12" s="42">
         <f>$I12+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W12" s="6">
+      <c r="W12" s="42">
         <f>$I12+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="38">
         <v>5</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="38">
         <v>12</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="28" t="str">
+      <c r="H13" s="52" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="42">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="L13" s="31">
+      <c r="K13" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="L13" s="13">
         <f>$I13+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="42">
         <f>$I13+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="42">
         <f>$I13+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="42">
         <f>$I13+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="42">
         <f>$I13+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="42">
         <f>$I13+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="42">
         <f>$I13+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="42">
         <f>$I13+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13" s="42">
         <f>$I13+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="42">
         <f>$I13+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="V13" s="6">
+      <c r="V13" s="42">
         <f>$I13+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W13" s="6">
+      <c r="W13" s="42">
         <f>$I13+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="38">
         <v>16</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="38">
         <v>13</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="28" t="str">
+      <c r="H14" s="52" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="42">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="J14" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="L14" s="24">
+      <c r="K14" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="L14" s="45">
         <f>$I14+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="42">
         <f>$I14+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="42">
         <f>$I14+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="42">
         <f>$I14+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="42">
         <f>$I14+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="42">
         <f>$I14+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="42">
         <f>$I14+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="42">
         <f>$I14+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14" s="42">
         <f>$I14+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U14" s="6">
+      <c r="U14" s="42">
         <f>$I14+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="V14" s="6">
+      <c r="V14" s="42">
         <f>$I14+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W14" s="6">
+      <c r="W14" s="42">
         <f>$I14+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="38">
         <v>19</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="38">
         <v>14</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="28" t="str">
+      <c r="H15" s="52" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="42">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="J15" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="L15" s="31">
+      <c r="K15" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="L15" s="13">
         <f>$I15+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="42">
         <f>$I15+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="42">
         <f>$I15+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="42">
         <f>$I15+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="42">
         <f>$I15+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="42">
         <f>$I15+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" s="42">
         <f>$I15+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="42">
         <f>$I15+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15" s="42">
         <f>$I15+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="42">
         <f>$I15+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="V15" s="6">
+      <c r="V15" s="42">
         <f>$I15+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W15" s="6">
+      <c r="W15" s="42">
         <f>$I15+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="38">
         <v>20</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="38">
         <v>15</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="28" t="str">
+      <c r="H16" s="52" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="42">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="J16" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="L16" s="24">
+      <c r="K16" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="L16" s="45">
         <f>$I16+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="42">
         <f>$I16+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="42">
         <f>$I16+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="42">
         <f>$I16+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="42">
         <f>$I16+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="42">
         <f>$I16+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16" s="42">
         <f>$I16+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S16" s="6">
+      <c r="S16" s="42">
         <f>$I16+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="T16" s="6">
+      <c r="T16" s="42">
         <f>$I16+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U16" s="6">
+      <c r="U16" s="42">
         <f>$I16+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="V16" s="6">
+      <c r="V16" s="42">
         <f>$I16+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W16" s="6">
+      <c r="W16" s="42">
         <f>$I16+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="38">
         <v>24</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="38">
         <v>16</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="28" t="str">
+      <c r="H17" s="52" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="42">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J17" s="29" t="s">
+      <c r="J17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="L17" s="31">
+      <c r="K17" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="13">
         <f>$I17+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="42">
         <f>$I17+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="42">
         <f>$I17+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="42">
         <f>$I17+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="42">
         <f>$I17+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17" s="42">
         <f>$I17+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="42">
         <f>$I17+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S17" s="6">
+      <c r="S17" s="42">
         <f>$I17+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="T17" s="6">
+      <c r="T17" s="42">
         <f>$I17+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U17" s="6">
+      <c r="U17" s="42">
         <f>$I17+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="V17" s="6">
+      <c r="V17" s="42">
         <f>$I17+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W17" s="6">
+      <c r="W17" s="42">
         <f>$I17+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="47" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="15">
         <v>22</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="16">
         <v>17</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="35" t="s">
+      <c r="H18" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="18">
         <v>0.75</v>
       </c>
-      <c r="J18" s="37" t="s">
+      <c r="J18" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="L18" s="48">
+      <c r="K18" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="L18" s="54">
         <f>$I18+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="M18" s="36">
+      <c r="M18" s="18">
         <f>$I18+Sheet2!B$2/24</f>
         <v>1.125</v>
       </c>
-      <c r="N18" s="36">
+      <c r="N18" s="18">
         <f>$I18+Sheet2!B$3/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="O18" s="36">
+      <c r="O18" s="18">
         <f>$I18+Sheet2!B$4/24</f>
         <v>0.875</v>
       </c>
-      <c r="P18" s="36">
+      <c r="P18" s="18">
         <f>$I18+Sheet2!B$5/24</f>
         <v>0.875</v>
       </c>
-      <c r="Q18" s="36">
+      <c r="Q18" s="18">
         <f>$I18+Sheet2!B$6/24</f>
         <v>0.875</v>
       </c>
-      <c r="R18" s="36">
+      <c r="R18" s="18">
         <f>$I18+Sheet2!B$7/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="S18" s="36">
+      <c r="S18" s="18">
         <f>$I18+Sheet2!B$8/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="T18" s="36">
+      <c r="T18" s="18">
         <f>$I18+Sheet2!B$9/24</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="U18" s="36">
+      <c r="U18" s="18">
         <f>$I18+Sheet2!B$10/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="V18" s="36">
+      <c r="V18" s="18">
         <f>$I18+Sheet2!B$11/24</f>
         <v>0.5</v>
       </c>
-      <c r="W18" s="36">
+      <c r="W18" s="18">
         <f>$I18+Sheet2!B$12/24</f>
         <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="40">
+      <c r="A19" s="55"/>
+      <c r="B19" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="57">
         <v>26</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="58">
         <v>18</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="42" t="s">
+      <c r="G19" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="43">
+      <c r="I19" s="60">
         <v>0.75</v>
       </c>
-      <c r="J19" s="44" t="s">
+      <c r="J19" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="L19" s="46">
+      <c r="K19" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="L19" s="63">
         <f>$I19+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="M19" s="43">
+      <c r="M19" s="60">
         <f>$I19+Sheet2!B$2/24</f>
         <v>1.125</v>
       </c>
-      <c r="N19" s="43">
+      <c r="N19" s="60">
         <f>$I19+Sheet2!B$3/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="O19" s="43">
+      <c r="O19" s="60">
         <f>$I19+Sheet2!B$4/24</f>
         <v>0.875</v>
       </c>
-      <c r="P19" s="43">
+      <c r="P19" s="60">
         <f>$I19+Sheet2!B$5/24</f>
         <v>0.875</v>
       </c>
-      <c r="Q19" s="43">
+      <c r="Q19" s="60">
         <f>$I19+Sheet2!B$6/24</f>
         <v>0.875</v>
       </c>
-      <c r="R19" s="43">
+      <c r="R19" s="60">
         <f>$I19+Sheet2!B$7/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="S19" s="43">
+      <c r="S19" s="60">
         <f>$I19+Sheet2!B$8/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="T19" s="43">
+      <c r="T19" s="60">
         <f>$I19+Sheet2!B$9/24</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="U19" s="43">
+      <c r="U19" s="60">
         <f>$I19+Sheet2!B$10/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="V19" s="43">
+      <c r="V19" s="60">
         <f>$I19+Sheet2!B$11/24</f>
         <v>0.5</v>
       </c>
-      <c r="W19" s="43">
+      <c r="W19" s="60">
         <f>$I19+Sheet2!B$12/24</f>
         <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="38">
         <v>3</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="38">
         <v>19</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="28" t="str">
+      <c r="H20" s="52" t="str">
         <f>Sheet2!$A$9</f>
         <v>EDT</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="42">
         <v>0.91666666666666696</v>
       </c>
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="L20" s="31">
+      <c r="K20" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="L20" s="13">
         <f>$I20+Sheet2!B$1/24</f>
         <v>1.3333333333333337</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="42">
         <f>$I20+Sheet2!B$2/24</f>
         <v>1.291666666666667</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="42">
         <f>$I20+Sheet2!B$3/24</f>
         <v>1.2500000000000002</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="42">
         <f>$I20+Sheet2!B$4/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="42">
         <f>$I20+Sheet2!B$5/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="Q20" s="42">
         <f>$I20+Sheet2!B$6/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="R20" s="6">
+      <c r="R20" s="42">
         <f>$I20+Sheet2!B$7/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="S20" s="6">
+      <c r="S20" s="42">
         <f>$I20+Sheet2!B$8/24</f>
         <v>0.95833333333333359</v>
       </c>
-      <c r="T20" s="6">
+      <c r="T20" s="42">
         <f>$I20+Sheet2!B$9/24</f>
         <v>0.75000000000000033</v>
       </c>
-      <c r="U20" s="6">
+      <c r="U20" s="42">
         <f>$I20+Sheet2!B$10/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="V20" s="6">
+      <c r="V20" s="42">
         <f>$I20+Sheet2!B$11/24</f>
         <v>0.66666666666666696</v>
       </c>
-      <c r="W20" s="6">
+      <c r="W20" s="42">
         <f>$I20+Sheet2!B$12/24</f>
         <v>0.62500000000000022</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="18">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="38">
         <v>10</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="38">
         <v>20</v>
       </c>
-      <c r="E21" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="18" t="s">
+      <c r="E21" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="H21" s="28" t="str">
+      <c r="G21" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="52" t="str">
         <f>Sheet2!$A$9</f>
         <v>EDT</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="42">
         <v>0.91666666666666696</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="L21" s="24">
+      <c r="K21" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="L21" s="45">
         <f>$I21+Sheet2!B$1/24</f>
         <v>1.3333333333333337</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="42">
         <f>$I21+Sheet2!B$2/24</f>
         <v>1.291666666666667</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="42">
         <f>$I21+Sheet2!B$3/24</f>
         <v>1.2500000000000002</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="42">
         <f>$I21+Sheet2!B$4/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="42">
         <f>$I21+Sheet2!B$5/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21" s="42">
         <f>$I21+Sheet2!B$6/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="42">
         <f>$I21+Sheet2!B$7/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="S21" s="6">
+      <c r="S21" s="42">
         <f>$I21+Sheet2!B$8/24</f>
         <v>0.95833333333333359</v>
       </c>
-      <c r="T21" s="6">
+      <c r="T21" s="42">
         <f>$I21+Sheet2!B$9/24</f>
         <v>0.75000000000000033</v>
       </c>
-      <c r="U21" s="6">
+      <c r="U21" s="42">
         <f>$I21+Sheet2!B$10/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="V21" s="6">
+      <c r="V21" s="42">
         <f>$I21+Sheet2!B$11/24</f>
         <v>0.66666666666666696</v>
       </c>
-      <c r="W21" s="6">
+      <c r="W21" s="42">
         <f>$I21+Sheet2!B$12/24</f>
         <v>0.62500000000000022</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="38">
         <v>13</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="38">
         <v>21</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="H22" s="28" t="str">
+      <c r="H22" s="52" t="str">
         <f>Sheet2!$A$9</f>
         <v>EDT</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="42">
         <v>0.91666666666666696</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="J22" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="L22" s="24">
+      <c r="K22" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" s="45">
         <f>$I22+Sheet2!B$1/24</f>
         <v>1.3333333333333337</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="42">
         <f>$I22+Sheet2!B$2/24</f>
         <v>1.291666666666667</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="42">
         <f>$I22+Sheet2!B$3/24</f>
         <v>1.2500000000000002</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="42">
         <f>$I22+Sheet2!B$4/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22" s="42">
         <f>$I22+Sheet2!B$5/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="Q22" s="42">
         <f>$I22+Sheet2!B$6/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22" s="42">
         <f>$I22+Sheet2!B$7/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="S22" s="6">
+      <c r="S22" s="42">
         <f>$I22+Sheet2!B$8/24</f>
         <v>0.95833333333333359</v>
       </c>
-      <c r="T22" s="6">
+      <c r="T22" s="42">
         <f>$I22+Sheet2!B$9/24</f>
         <v>0.75000000000000033</v>
       </c>
-      <c r="U22" s="6">
+      <c r="U22" s="42">
         <f>$I22+Sheet2!B$10/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="V22" s="6">
+      <c r="V22" s="42">
         <f>$I22+Sheet2!B$11/24</f>
         <v>0.66666666666666696</v>
       </c>
-      <c r="W22" s="6">
+      <c r="W22" s="42">
         <f>$I22+Sheet2!B$12/24</f>
         <v>0.62500000000000022</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="36"/>
+      <c r="B23" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="38">
         <v>18</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="38">
         <v>22</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="28" t="s">
+      <c r="G23" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="28" t="str">
+      <c r="H23" s="52" t="str">
         <f>Sheet2!$A$9</f>
         <v>EDT</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="42">
         <v>0.91666666666666696</v>
       </c>
-      <c r="J23" s="26" t="s">
+      <c r="J23" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K23" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="L23" s="31">
+      <c r="K23" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="L23" s="13">
         <f>$I23+Sheet2!B$1/24</f>
         <v>1.3333333333333337</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="42">
         <f>$I23+Sheet2!B$2/24</f>
         <v>1.291666666666667</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="42">
         <f>$I23+Sheet2!B$3/24</f>
         <v>1.2500000000000002</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="42">
         <f>$I23+Sheet2!B$4/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="P23" s="6">
+      <c r="P23" s="42">
         <f>$I23+Sheet2!B$5/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="Q23" s="42">
         <f>$I23+Sheet2!B$6/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="R23" s="6">
+      <c r="R23" s="42">
         <f>$I23+Sheet2!B$7/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="S23" s="6">
+      <c r="S23" s="42">
         <f>$I23+Sheet2!B$8/24</f>
         <v>0.95833333333333359</v>
       </c>
-      <c r="T23" s="6">
+      <c r="T23" s="42">
         <f>$I23+Sheet2!B$9/24</f>
         <v>0.75000000000000033</v>
       </c>
-      <c r="U23" s="6">
+      <c r="U23" s="42">
         <f>$I23+Sheet2!B$10/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="V23" s="6">
+      <c r="V23" s="42">
         <f>$I23+Sheet2!B$11/24</f>
         <v>0.66666666666666696</v>
       </c>
-      <c r="W23" s="6">
+      <c r="W23" s="42">
         <f>$I23+Sheet2!B$12/24</f>
         <v>0.62500000000000022</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="47" t="s">
+      <c r="A24" s="36"/>
+      <c r="B24" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="15">
         <v>6</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="16">
         <v>23</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="35" t="s">
+      <c r="G24" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="H24" s="35" t="str">
+      <c r="H24" s="50" t="str">
         <f>Sheet2!$A$9</f>
         <v>EDT</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I24" s="18">
         <v>0.95833333333333359</v>
       </c>
-      <c r="J24" s="37" t="s">
+      <c r="J24" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="L24" s="48">
+      <c r="K24" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="L24" s="54">
         <f>$I24+Sheet2!B$1/24</f>
         <v>1.3750000000000002</v>
       </c>
-      <c r="M24" s="36">
+      <c r="M24" s="18">
         <f>$I24+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="N24" s="36">
+      <c r="N24" s="18">
         <f>$I24+Sheet2!B$3/24</f>
         <v>1.291666666666667</v>
       </c>
-      <c r="O24" s="36">
+      <c r="O24" s="18">
         <f>$I24+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P24" s="36">
+      <c r="P24" s="18">
         <f>$I24+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q24" s="36">
+      <c r="Q24" s="18">
         <f>$I24+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="R24" s="36">
+      <c r="R24" s="18">
         <f>$I24+Sheet2!B$7/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="S24" s="36">
+      <c r="S24" s="18">
         <f>$I24+Sheet2!B$8/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="T24" s="36">
+      <c r="T24" s="18">
         <f>$I24+Sheet2!B$9/24</f>
         <v>0.79166666666666696</v>
       </c>
-      <c r="U24" s="36">
+      <c r="U24" s="18">
         <f>$I24+Sheet2!B$10/24</f>
         <v>0.75000000000000022</v>
       </c>
-      <c r="V24" s="36">
+      <c r="V24" s="18">
         <f>$I24+Sheet2!B$11/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="W24" s="36">
+      <c r="W24" s="18">
         <f>$I24+Sheet2!B$12/24</f>
         <v>0.66666666666666696</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17" t="s">
+      <c r="A25" s="36"/>
+      <c r="B25" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="38">
         <v>8</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="38">
         <v>24</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="H25" s="28" t="str">
+      <c r="H25" s="52" t="str">
         <f>Sheet2!$A$10</f>
         <v>CDT</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="42">
         <v>0.95833333333333304</v>
       </c>
-      <c r="J25" s="26" t="s">
+      <c r="J25" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="L25" s="31">
+      <c r="K25" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="L25" s="13">
         <f>$I25+Sheet2!B$1/24</f>
         <v>1.3749999999999998</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="42">
         <f>$I25+Sheet2!B$2/24</f>
         <v>1.333333333333333</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="42">
         <f>$I25+Sheet2!B$3/24</f>
         <v>1.2916666666666663</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="42">
         <f>$I25+Sheet2!B$4/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25" s="42">
         <f>$I25+Sheet2!B$5/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="Q25" s="42">
         <f>$I25+Sheet2!B$6/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="R25" s="6">
+      <c r="R25" s="42">
         <f>$I25+Sheet2!B$7/24</f>
         <v>1.0416666666666663</v>
       </c>
-      <c r="S25" s="6">
+      <c r="S25" s="42">
         <f>$I25+Sheet2!B$8/24</f>
         <v>0.99999999999999967</v>
       </c>
-      <c r="T25" s="6">
+      <c r="T25" s="42">
         <f>$I25+Sheet2!B$9/24</f>
         <v>0.79166666666666641</v>
       </c>
-      <c r="U25" s="6">
+      <c r="U25" s="42">
         <f>$I25+Sheet2!B$10/24</f>
         <v>0.74999999999999967</v>
       </c>
-      <c r="V25" s="6">
+      <c r="V25" s="42">
         <f>$I25+Sheet2!B$11/24</f>
         <v>0.70833333333333304</v>
       </c>
-      <c r="W25" s="6">
+      <c r="W25" s="42">
         <f>$I25+Sheet2!B$12/24</f>
         <v>0.6666666666666663</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17" t="s">
+      <c r="A26" s="36"/>
+      <c r="B26" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="38">
         <v>23</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="38">
         <v>25</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="H26" s="28" t="str">
+      <c r="H26" s="52" t="str">
         <f>Sheet2!$A$10</f>
         <v>CDT</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="42">
         <v>0.95833333333333304</v>
       </c>
-      <c r="J26" s="26" t="s">
+      <c r="J26" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="L26" s="24">
+      <c r="K26" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="L26" s="45">
         <f>$I26+Sheet2!B$1/24</f>
         <v>1.3749999999999998</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="42">
         <f>$I26+Sheet2!B$2/24</f>
         <v>1.333333333333333</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="42">
         <f>$I26+Sheet2!B$3/24</f>
         <v>1.2916666666666663</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="42">
         <f>$I26+Sheet2!B$4/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P26" s="42">
         <f>$I26+Sheet2!B$5/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="Q26" s="42">
         <f>$I26+Sheet2!B$6/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="R26" s="6">
+      <c r="R26" s="42">
         <f>$I26+Sheet2!B$7/24</f>
         <v>1.0416666666666663</v>
       </c>
-      <c r="S26" s="6">
+      <c r="S26" s="42">
         <f>$I26+Sheet2!B$8/24</f>
         <v>0.99999999999999967</v>
       </c>
-      <c r="T26" s="6">
+      <c r="T26" s="42">
         <f>$I26+Sheet2!B$9/24</f>
         <v>0.79166666666666641</v>
       </c>
-      <c r="U26" s="6">
+      <c r="U26" s="42">
         <f>$I26+Sheet2!B$10/24</f>
         <v>0.74999999999999967</v>
       </c>
-      <c r="V26" s="6">
+      <c r="V26" s="42">
         <f>$I26+Sheet2!B$11/24</f>
         <v>0.70833333333333304</v>
       </c>
-      <c r="W26" s="6">
+      <c r="W26" s="42">
         <f>$I26+Sheet2!B$12/24</f>
         <v>0.6666666666666663</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="32" t="s">
+      <c r="A27" s="36"/>
+      <c r="B27" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="15">
         <v>17</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="15">
         <v>26</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="18">
         <v>1</v>
       </c>
-      <c r="J27" s="37" t="s">
+      <c r="J27" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="14"/>
-      <c r="L27" s="38">
+      <c r="K27" s="20"/>
+      <c r="L27" s="47">
         <f>$I27+Sheet2!B$1/24</f>
         <v>1.4166666666666667</v>
       </c>
-      <c r="M27" s="36">
+      <c r="M27" s="18">
         <f>$I27+Sheet2!B$2/24</f>
         <v>1.375</v>
       </c>
-      <c r="N27" s="36">
+      <c r="N27" s="18">
         <f>$I27+Sheet2!B$3/24</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O27" s="36">
+      <c r="O27" s="18">
         <f>$I27+Sheet2!B$4/24</f>
         <v>1.125</v>
       </c>
-      <c r="P27" s="36">
+      <c r="P27" s="18">
         <f>$I27+Sheet2!B$5/24</f>
         <v>1.125</v>
       </c>
-      <c r="Q27" s="36">
+      <c r="Q27" s="18">
         <f>$I27+Sheet2!B$6/24</f>
         <v>1.125</v>
       </c>
-      <c r="R27" s="36">
+      <c r="R27" s="18">
         <f>$I27+Sheet2!B$7/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="S27" s="36">
+      <c r="S27" s="18">
         <f>$I27+Sheet2!B$8/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="T27" s="36">
+      <c r="T27" s="18">
         <f>$I27+Sheet2!B$9/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="U27" s="36">
+      <c r="U27" s="18">
         <f>$I27+Sheet2!B$10/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="V27" s="36">
+      <c r="V27" s="18">
         <f>$I27+Sheet2!B$11/24</f>
         <v>0.75</v>
       </c>
-      <c r="W27" s="36">
+      <c r="W27" s="18">
         <f>$I27+Sheet2!B$12/24</f>
         <v>0.70833333333333326</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17" t="s">
+      <c r="A28" s="36"/>
+      <c r="B28" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="16">
+        <v>9</v>
+      </c>
+      <c r="D28" s="16">
+        <v>27</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="34">
-        <v>9</v>
-      </c>
-      <c r="D28" s="34">
-        <v>27</v>
-      </c>
-      <c r="E28" s="34" t="s">
+      <c r="F28" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="H28" s="28" t="str">
+      <c r="H28" s="52" t="str">
         <f>Sheet2!$A$12</f>
         <v>PDT</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="18">
         <v>1.041666666666667</v>
       </c>
-      <c r="J28" s="37" t="s">
+      <c r="J28" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="14"/>
-      <c r="L28" s="48">
+      <c r="K28" s="20"/>
+      <c r="L28" s="54">
         <f>$I28+Sheet2!B$1/24</f>
         <v>1.4583333333333337</v>
       </c>
-      <c r="M28" s="36">
+      <c r="M28" s="18">
         <f>$I28+Sheet2!B$2/24</f>
         <v>1.416666666666667</v>
       </c>
-      <c r="N28" s="36">
+      <c r="N28" s="18">
         <f>$I28+Sheet2!B$3/24</f>
         <v>1.3750000000000002</v>
       </c>
-      <c r="O28" s="36">
+      <c r="O28" s="18">
         <f>$I28+Sheet2!B$4/24</f>
         <v>1.166666666666667</v>
       </c>
-      <c r="P28" s="36">
+      <c r="P28" s="18">
         <f>$I28+Sheet2!B$5/24</f>
         <v>1.166666666666667</v>
       </c>
-      <c r="Q28" s="36">
+      <c r="Q28" s="18">
         <f>$I28+Sheet2!B$6/24</f>
         <v>1.166666666666667</v>
       </c>
-      <c r="R28" s="36">
+      <c r="R28" s="18">
         <f>$I28+Sheet2!B$7/24</f>
         <v>1.1250000000000002</v>
       </c>
-      <c r="S28" s="36">
+      <c r="S28" s="18">
         <f>$I28+Sheet2!B$8/24</f>
         <v>1.0833333333333337</v>
       </c>
-      <c r="T28" s="36">
+      <c r="T28" s="18">
         <f>$I28+Sheet2!B$9/24</f>
         <v>0.87500000000000033</v>
       </c>
-      <c r="U28" s="36">
+      <c r="U28" s="18">
         <f>$I28+Sheet2!B$10/24</f>
         <v>0.83333333333333359</v>
       </c>
-      <c r="V28" s="36">
+      <c r="V28" s="18">
         <f>$I28+Sheet2!B$11/24</f>
         <v>0.79166666666666696</v>
       </c>
-      <c r="W28" s="36">
+      <c r="W28" s="18">
         <f>$I28+Sheet2!B$12/24</f>
         <v>0.75000000000000022</v>
       </c>
@@ -3908,10 +3669,10 @@
     <sortCondition ref="D2:D28"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" hiddenColumns="1">
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+    <customSheetView guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" hiddenColumns="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -3966,32 +3727,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:W28">
-    <cfRule type="expression" dxfId="0" priority="23">
+    <cfRule type="expression" dxfId="5" priority="23">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>M$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>M$1=$H18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>M$1=$H3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>L$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>L$1=$H3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4017,24 +3778,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1">
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B2">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4045,7 +3806,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4056,7 +3817,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -4068,7 +3829,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -4085,7 +3846,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4101,7 +3862,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4117,7 +3878,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4133,7 +3894,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4149,7 +3910,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4165,7 +3926,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -4181,7 +3942,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -18,10 +18,10 @@
   <definedNames>
     <definedName name="Z_C889AC74_BC82_49E8_BA01_AB64462BFCF2_.wvu.Cols" localSheetId="0" hidden="1">Sheet1!$C:$D,Sheet1!$F:$G,Sheet1!$K:$K</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -278,9 +278,6 @@
     <t>&lt;https://swgoh.gg/u/fireguy/&gt;</t>
   </si>
   <si>
-    <t>LordVader</t>
-  </si>
-  <si>
     <t>USA, Pennsylvania</t>
   </si>
   <si>
@@ -396,6 +393,9 @@
   </si>
   <si>
     <t>Raspywalker</t>
+  </si>
+  <si>
+    <t>LordVader 66</t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -1409,10 +1409,10 @@
         <v>8</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M1" s="3" t="str">
         <f>H3</f>
@@ -1464,7 +1464,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" s="7">
         <v>25</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="I2" s="10">
         <v>0.33333333333333331</v>
@@ -1543,7 +1543,7 @@
     <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" s="15">
         <v>27</v>
@@ -1552,16 +1552,16 @@
         <v>2</v>
       </c>
       <c r="E3" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>117</v>
-      </c>
       <c r="H3" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I3" s="18">
         <v>0.375</v>
@@ -1732,7 +1732,7 @@
         <v>15</v>
       </c>
       <c r="K5" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L5" s="35">
         <f>$I5+Sheet2!B$1/24</f>
@@ -1814,7 +1814,7 @@
         <v>15</v>
       </c>
       <c r="K6" s="44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L6" s="45">
         <f>$I6+Sheet2!B$1/24</f>
@@ -1896,7 +1896,7 @@
         <v>15</v>
       </c>
       <c r="K7" s="44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L7" s="13">
         <f>$I7+Sheet2!B$1/24</f>
@@ -1978,7 +1978,7 @@
         <v>15</v>
       </c>
       <c r="K8" s="44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L8" s="45">
         <f>$I8+Sheet2!B$1/24</f>
@@ -2060,7 +2060,7 @@
         <v>15</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L9" s="47">
         <f>$I9+Sheet2!B$1/24</f>
@@ -2142,7 +2142,7 @@
         <v>15</v>
       </c>
       <c r="K10" s="49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L10" s="45">
         <f>$I10+Sheet2!B$1/24</f>
@@ -2224,7 +2224,7 @@
         <v>15</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L11" s="47">
         <f>$I11+Sheet2!B$1/24</f>
@@ -2306,7 +2306,7 @@
         <v>15</v>
       </c>
       <c r="K12" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L12" s="45">
         <f>$I12+Sheet2!B$1/24</f>
@@ -2388,7 +2388,7 @@
         <v>15</v>
       </c>
       <c r="K13" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L13" s="13">
         <f>$I13+Sheet2!B$1/24</f>
@@ -2470,7 +2470,7 @@
         <v>15</v>
       </c>
       <c r="K14" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L14" s="45">
         <f>$I14+Sheet2!B$1/24</f>
@@ -2552,7 +2552,7 @@
         <v>15</v>
       </c>
       <c r="K15" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L15" s="13">
         <f>$I15+Sheet2!B$1/24</f>
@@ -2634,7 +2634,7 @@
         <v>15</v>
       </c>
       <c r="K16" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L16" s="45">
         <f>$I16+Sheet2!B$1/24</f>
@@ -2716,7 +2716,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L17" s="13">
         <f>$I17+Sheet2!B$1/24</f>
@@ -2797,7 +2797,7 @@
         <v>15</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L18" s="54">
         <f>$I18+Sheet2!B$1/24</f>
@@ -2851,7 +2851,7 @@
     <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55"/>
       <c r="B19" s="56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" s="57">
         <v>26</v>
@@ -2866,7 +2866,7 @@
         <v>67</v>
       </c>
       <c r="G19" s="59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H19" s="59" t="s">
         <v>12</v>
@@ -2878,7 +2878,7 @@
         <v>15</v>
       </c>
       <c r="K19" s="62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L19" s="63">
         <f>$I19+Sheet2!B$1/24</f>
@@ -2962,7 +2962,7 @@
         <v>15</v>
       </c>
       <c r="K20" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L20" s="13">
         <f>$I20+Sheet2!B$1/24</f>
@@ -3016,7 +3016,7 @@
     <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
       <c r="B21" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C21" s="38">
         <v>10</v>
@@ -3025,13 +3025,13 @@
         <v>20</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="38" t="s">
         <v>76</v>
       </c>
       <c r="G21" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H21" s="52" t="str">
         <f>Sheet2!$A$9</f>
@@ -3044,7 +3044,7 @@
         <v>15</v>
       </c>
       <c r="K21" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L21" s="45">
         <f>$I21+Sheet2!B$1/24</f>
@@ -3126,7 +3126,7 @@
         <v>15</v>
       </c>
       <c r="K22" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L22" s="45">
         <f>$I22+Sheet2!B$1/24</f>
@@ -3208,7 +3208,7 @@
         <v>15</v>
       </c>
       <c r="K23" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L23" s="13">
         <f>$I23+Sheet2!B$1/24</f>
@@ -3262,7 +3262,7 @@
     <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
       <c r="B24" s="14" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="C24" s="15">
         <v>6</v>
@@ -3271,13 +3271,13 @@
         <v>23</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G24" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H24" s="50" t="str">
         <f>Sheet2!$A$9</f>
@@ -3290,7 +3290,7 @@
         <v>15</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L24" s="54">
         <f>$I24+Sheet2!B$1/24</f>
@@ -3344,7 +3344,7 @@
     <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
       <c r="B25" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="38">
         <v>8</v>
@@ -3353,13 +3353,13 @@
         <v>24</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F25" s="38" t="s">
         <v>76</v>
       </c>
       <c r="G25" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H25" s="52" t="str">
         <f>Sheet2!$A$10</f>
@@ -3372,7 +3372,7 @@
         <v>15</v>
       </c>
       <c r="K25" s="44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L25" s="13">
         <f>$I25+Sheet2!B$1/24</f>
@@ -3426,7 +3426,7 @@
     <row r="26" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" s="38">
         <v>23</v>
@@ -3435,13 +3435,13 @@
         <v>25</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F26" s="38" t="s">
         <v>76</v>
       </c>
       <c r="G26" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H26" s="52" t="str">
         <f>Sheet2!$A$10</f>
@@ -3454,7 +3454,7 @@
         <v>15</v>
       </c>
       <c r="K26" s="44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L26" s="45">
         <f>$I26+Sheet2!B$1/24</f>
@@ -3508,7 +3508,7 @@
     <row r="27" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="36"/>
       <c r="B27" s="64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C27" s="15">
         <v>17</v>
@@ -3517,13 +3517,13 @@
         <v>26</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G27" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H27" s="64" t="s">
         <v>13</v>
@@ -3587,7 +3587,7 @@
     <row r="28" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C28" s="16">
         <v>9</v>
@@ -3596,13 +3596,13 @@
         <v>27</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F28" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G28" s="50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H28" s="52" t="str">
         <f>Sheet2!$A$12</f>
@@ -3669,10 +3669,10 @@
     <sortCondition ref="D2:D28"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+    <customSheetView guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" hiddenColumns="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" hiddenColumns="1">
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -3778,24 +3778,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1">
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3806,7 +3806,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3817,7 +3817,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -3829,7 +3829,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -3846,7 +3846,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3862,7 +3862,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3878,7 +3878,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3894,7 +3894,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3910,7 +3910,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3926,7 +3926,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3942,7 +3942,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b92275a9bf72c170/Documents/SWGoH/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janwa\OneDrive\Documents\SWGoH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,8 +20,8 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -395,7 +395,7 @@
     <t>Raspywalker</t>
   </si>
   <si>
-    <t>LordVader 66</t>
+    <t>LordVader</t>
   </si>
 </sst>
 </file>
@@ -821,9 +821,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -847,17 +844,11 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -868,9 +859,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -899,9 +887,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -915,6 +900,21 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1460,2206 +1460,2206 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>25</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="9">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13">
+      <c r="K2" s="11"/>
+      <c r="L2" s="12">
         <f>$I2+Sheet2!B$1/24</f>
         <v>0.75</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="12">
         <f>$I2+Sheet2!B$2/24</f>
         <v>0.70833333333333326</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="12">
         <f>$I2+Sheet2!B$3/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="12">
         <f>$I2+Sheet2!B$4/24</f>
         <v>0.45833333333333331</v>
       </c>
-      <c r="P2" s="13">
+      <c r="P2" s="12">
         <f>$I2+Sheet2!B$5/24</f>
         <v>0.45833333333333331</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="Q2" s="12">
         <f>$I2+Sheet2!B$6/24</f>
         <v>0.45833333333333331</v>
       </c>
-      <c r="R2" s="13">
+      <c r="R2" s="12">
         <f>$I2+Sheet2!B$7/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="S2" s="13">
+      <c r="S2" s="12">
         <f>$I2+Sheet2!B$8/24</f>
         <v>0.375</v>
       </c>
-      <c r="T2" s="13">
+      <c r="T2" s="12">
         <f>$I2+Sheet2!B$9/24</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="U2" s="13">
+      <c r="U2" s="12">
         <f>$I2+Sheet2!B$10/24</f>
         <v>0.12499999999999997</v>
       </c>
-      <c r="V2" s="13">
+      <c r="V2" s="12">
         <f>$I2+Sheet2!B$11/24</f>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="W2" s="13">
+      <c r="W2" s="12">
         <f>$I2+Sheet2!B$12/24</f>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>27</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>2</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="17">
         <v>0.375</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="18">
+      <c r="K3" s="19"/>
+      <c r="L3" s="17">
         <f>$I3+Sheet2!B$1/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="17">
         <f>$I3+Sheet2!B$2/24</f>
         <v>0.75</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="17">
         <f>$I3+Sheet2!B$3/24</f>
         <v>0.70833333333333326</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O3" s="17">
         <f>$I3+Sheet2!B$4/24</f>
         <v>0.5</v>
       </c>
-      <c r="P3" s="18">
+      <c r="P3" s="17">
         <f>$I3+Sheet2!B$5/24</f>
         <v>0.5</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="Q3" s="17">
         <f>$I3+Sheet2!B$6/24</f>
         <v>0.5</v>
       </c>
-      <c r="R3" s="18">
+      <c r="R3" s="17">
         <f>$I3+Sheet2!B$7/24</f>
         <v>0.45833333333333331</v>
       </c>
-      <c r="S3" s="18">
+      <c r="S3" s="17">
         <f>$I3+Sheet2!B$8/24</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="T3" s="18">
+      <c r="T3" s="17">
         <f>$I3+Sheet2!B$9/24</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="U3" s="18">
+      <c r="U3" s="17">
         <f>$I3+Sheet2!B$10/24</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="V3" s="18">
+      <c r="V3" s="17">
         <f>$I3+Sheet2!B$11/24</f>
         <v>0.125</v>
       </c>
-      <c r="W3" s="18">
+      <c r="W3" s="17">
         <f>$I3+Sheet2!B$12/24</f>
         <v>8.3333333333333315E-2</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="21">
         <v>15</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="22">
         <v>3</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="25" t="str">
+      <c r="H4" s="23" t="str">
         <f>Sheet2!$A$3</f>
         <v>CST</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="24">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="26">
+      <c r="K4" s="19"/>
+      <c r="L4" s="24">
         <f>$I4+Sheet2!B$1/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="24">
         <f>$I4+Sheet2!B$2/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="24">
         <f>$I4+Sheet2!B$3/24</f>
         <v>0.75</v>
       </c>
-      <c r="O4" s="26">
+      <c r="O4" s="24">
         <f>$I4+Sheet2!B$4/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="24">
         <f>$I4+Sheet2!B$5/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="24">
         <f>$I4+Sheet2!B$6/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="R4" s="26">
+      <c r="R4" s="24">
         <f>$I4+Sheet2!B$7/24</f>
         <v>0.5</v>
       </c>
-      <c r="S4" s="26">
+      <c r="S4" s="24">
         <f>$I4+Sheet2!B$8/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="T4" s="26">
+      <c r="T4" s="24">
         <f>$I4+Sheet2!B$9/24</f>
         <v>0.25</v>
       </c>
-      <c r="U4" s="26">
+      <c r="U4" s="24">
         <f>$I4+Sheet2!B$10/24</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="V4" s="26">
+      <c r="V4" s="24">
         <f>$I4+Sheet2!B$11/24</f>
         <v>0.16666666666666669</v>
       </c>
-      <c r="W4" s="26">
+      <c r="W4" s="24">
         <f>$I4+Sheet2!B$12/24</f>
         <v>0.125</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="26">
         <v>11</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="26">
         <v>4</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="31" t="str">
+      <c r="H5" s="28" t="str">
         <f>Sheet2!$A$4</f>
         <v>MSK</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="29">
         <v>0.625</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="32">
         <f>$I5+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="M5" s="32">
+      <c r="M5" s="29">
         <f>$I5+Sheet2!B$2/24</f>
         <v>1</v>
       </c>
-      <c r="N5" s="32">
+      <c r="N5" s="29">
         <f>$I5+Sheet2!B$3/24</f>
         <v>0.95833333333333326</v>
       </c>
-      <c r="O5" s="32">
+      <c r="O5" s="29">
         <f>$I5+Sheet2!B$4/24</f>
         <v>0.75</v>
       </c>
-      <c r="P5" s="32">
+      <c r="P5" s="29">
         <f>$I5+Sheet2!B$5/24</f>
         <v>0.75</v>
       </c>
-      <c r="Q5" s="32">
+      <c r="Q5" s="29">
         <f>$I5+Sheet2!B$6/24</f>
         <v>0.75</v>
       </c>
-      <c r="R5" s="32">
+      <c r="R5" s="29">
         <f>$I5+Sheet2!B$7/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="S5" s="32">
+      <c r="S5" s="29">
         <f>$I5+Sheet2!B$8/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T5" s="32">
+      <c r="T5" s="29">
         <f>$I5+Sheet2!B$9/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="U5" s="32">
+      <c r="U5" s="29">
         <f>$I5+Sheet2!B$10/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="V5" s="32">
+      <c r="V5" s="29">
         <f>$I5+Sheet2!B$11/24</f>
         <v>0.375</v>
       </c>
-      <c r="W5" s="32">
+      <c r="W5" s="29">
         <f>$I5+Sheet2!B$12/24</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37" t="s">
+      <c r="A6" s="61"/>
+      <c r="B6" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="34">
         <v>12</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="34">
         <v>5</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="41" t="str">
+      <c r="H6" s="37" t="str">
         <f>Sheet2!$A$4</f>
         <v>MSK</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="38">
         <v>0.625</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="44" t="s">
+      <c r="K6" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="45">
+      <c r="L6" s="41">
         <f>$I6+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="M6" s="42">
+      <c r="M6" s="38">
         <f>$I6+Sheet2!B$2/24</f>
         <v>1</v>
       </c>
-      <c r="N6" s="42">
+      <c r="N6" s="38">
         <f>$I6+Sheet2!B$3/24</f>
         <v>0.95833333333333326</v>
       </c>
-      <c r="O6" s="42">
+      <c r="O6" s="38">
         <f>$I6+Sheet2!B$4/24</f>
         <v>0.75</v>
       </c>
-      <c r="P6" s="42">
+      <c r="P6" s="38">
         <f>$I6+Sheet2!B$5/24</f>
         <v>0.75</v>
       </c>
-      <c r="Q6" s="42">
+      <c r="Q6" s="38">
         <f>$I6+Sheet2!B$6/24</f>
         <v>0.75</v>
       </c>
-      <c r="R6" s="42">
+      <c r="R6" s="38">
         <f>$I6+Sheet2!B$7/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="S6" s="42">
+      <c r="S6" s="38">
         <f>$I6+Sheet2!B$8/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T6" s="42">
+      <c r="T6" s="38">
         <f>$I6+Sheet2!B$9/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="U6" s="42">
+      <c r="U6" s="38">
         <f>$I6+Sheet2!B$10/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="V6" s="42">
+      <c r="V6" s="38">
         <f>$I6+Sheet2!B$11/24</f>
         <v>0.375</v>
       </c>
-      <c r="W6" s="42">
+      <c r="W6" s="38">
         <f>$I6+Sheet2!B$12/24</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37" t="s">
+      <c r="A7" s="61"/>
+      <c r="B7" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="34">
         <v>14</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="34">
         <v>6</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="41" t="str">
+      <c r="H7" s="37" t="str">
         <f>Sheet2!$A$4</f>
         <v>MSK</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="38">
         <v>0.625</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="J7" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="44" t="s">
+      <c r="K7" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="12">
         <f>$I7+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="M7" s="42">
+      <c r="M7" s="38">
         <f>$I7+Sheet2!B$2/24</f>
         <v>1</v>
       </c>
-      <c r="N7" s="42">
+      <c r="N7" s="38">
         <f>$I7+Sheet2!B$3/24</f>
         <v>0.95833333333333326</v>
       </c>
-      <c r="O7" s="42">
+      <c r="O7" s="38">
         <f>$I7+Sheet2!B$4/24</f>
         <v>0.75</v>
       </c>
-      <c r="P7" s="42">
+      <c r="P7" s="38">
         <f>$I7+Sheet2!B$5/24</f>
         <v>0.75</v>
       </c>
-      <c r="Q7" s="42">
+      <c r="Q7" s="38">
         <f>$I7+Sheet2!B$6/24</f>
         <v>0.75</v>
       </c>
-      <c r="R7" s="42">
+      <c r="R7" s="38">
         <f>$I7+Sheet2!B$7/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="S7" s="42">
+      <c r="S7" s="38">
         <f>$I7+Sheet2!B$8/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T7" s="42">
+      <c r="T7" s="38">
         <f>$I7+Sheet2!B$9/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="U7" s="42">
+      <c r="U7" s="38">
         <f>$I7+Sheet2!B$10/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="V7" s="42">
+      <c r="V7" s="38">
         <f>$I7+Sheet2!B$11/24</f>
         <v>0.375</v>
       </c>
-      <c r="W7" s="42">
+      <c r="W7" s="38">
         <f>$I7+Sheet2!B$12/24</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="61"/>
+      <c r="B8" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="34">
         <v>21</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="34">
         <v>7</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="41" t="str">
+      <c r="H8" s="37" t="str">
         <f>Sheet2!$A$4</f>
         <v>MSK</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="38">
         <v>0.625</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="44" t="s">
+      <c r="K8" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="L8" s="45">
+      <c r="L8" s="41">
         <f>$I8+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="M8" s="42">
+      <c r="M8" s="38">
         <f>$I8+Sheet2!B$2/24</f>
         <v>1</v>
       </c>
-      <c r="N8" s="42">
+      <c r="N8" s="38">
         <f>$I8+Sheet2!B$3/24</f>
         <v>0.95833333333333326</v>
       </c>
-      <c r="O8" s="42">
+      <c r="O8" s="38">
         <f>$I8+Sheet2!B$4/24</f>
         <v>0.75</v>
       </c>
-      <c r="P8" s="42">
+      <c r="P8" s="38">
         <f>$I8+Sheet2!B$5/24</f>
         <v>0.75</v>
       </c>
-      <c r="Q8" s="42">
+      <c r="Q8" s="38">
         <f>$I8+Sheet2!B$6/24</f>
         <v>0.75</v>
       </c>
-      <c r="R8" s="42">
+      <c r="R8" s="38">
         <f>$I8+Sheet2!B$7/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="S8" s="42">
+      <c r="S8" s="38">
         <f>$I8+Sheet2!B$8/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T8" s="42">
+      <c r="T8" s="38">
         <f>$I8+Sheet2!B$9/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="U8" s="42">
+      <c r="U8" s="38">
         <f>$I8+Sheet2!B$10/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="V8" s="42">
+      <c r="V8" s="38">
         <f>$I8+Sheet2!B$11/24</f>
         <v>0.375</v>
       </c>
-      <c r="W8" s="42">
+      <c r="W8" s="38">
         <f>$I8+Sheet2!B$12/24</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="61"/>
+      <c r="B9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>4</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>8</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="17" t="str">
+      <c r="H9" s="16" t="str">
         <f>Sheet2!$A$5</f>
         <v>TRT</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="17">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="L9" s="47">
+      <c r="L9" s="43">
         <f>$I9+Sheet2!B$1/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="17">
         <f>$I9+Sheet2!B$2/24</f>
         <v>1.0416666666666665</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="17">
         <f>$I9+Sheet2!B$3/24</f>
         <v>1</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="17">
         <f>$I9+Sheet2!B$4/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9" s="17">
         <f>$I9+Sheet2!B$5/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="Q9" s="17">
         <f>$I9+Sheet2!B$6/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="R9" s="18">
+      <c r="R9" s="17">
         <f>$I9+Sheet2!B$7/24</f>
         <v>0.75</v>
       </c>
-      <c r="S9" s="18">
+      <c r="S9" s="17">
         <f>$I9+Sheet2!B$8/24</f>
         <v>0.70833333333333326</v>
       </c>
-      <c r="T9" s="18">
+      <c r="T9" s="17">
         <f>$I9+Sheet2!B$9/24</f>
         <v>0.5</v>
       </c>
-      <c r="U9" s="18">
+      <c r="U9" s="17">
         <f>$I9+Sheet2!B$10/24</f>
         <v>0.45833333333333326</v>
       </c>
-      <c r="V9" s="18">
+      <c r="V9" s="17">
         <f>$I9+Sheet2!B$11/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="W9" s="18">
+      <c r="W9" s="17">
         <f>$I9+Sheet2!B$12/24</f>
         <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="37" t="s">
+      <c r="A10" s="61"/>
+      <c r="B10" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="34">
         <v>7</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="34">
         <v>9</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="41" t="str">
+      <c r="H10" s="37" t="str">
         <f>Sheet2!$A$6</f>
         <v>EEST</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="38">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J10" s="48" t="s">
+      <c r="J10" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="49" t="s">
+      <c r="K10" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="L10" s="45">
+      <c r="L10" s="41">
         <f>$I10+Sheet2!B$1/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="M10" s="42">
+      <c r="M10" s="38">
         <f>$I10+Sheet2!B$2/24</f>
         <v>1.0416666666666665</v>
       </c>
-      <c r="N10" s="42">
+      <c r="N10" s="38">
         <f>$I10+Sheet2!B$3/24</f>
         <v>1</v>
       </c>
-      <c r="O10" s="42">
+      <c r="O10" s="38">
         <f>$I10+Sheet2!B$4/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="P10" s="42">
+      <c r="P10" s="38">
         <f>$I10+Sheet2!B$5/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="Q10" s="42">
+      <c r="Q10" s="38">
         <f>$I10+Sheet2!B$6/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="R10" s="42">
+      <c r="R10" s="38">
         <f>$I10+Sheet2!B$7/24</f>
         <v>0.75</v>
       </c>
-      <c r="S10" s="42">
+      <c r="S10" s="38">
         <f>$I10+Sheet2!B$8/24</f>
         <v>0.70833333333333326</v>
       </c>
-      <c r="T10" s="42">
+      <c r="T10" s="38">
         <f>$I10+Sheet2!B$9/24</f>
         <v>0.5</v>
       </c>
-      <c r="U10" s="42">
+      <c r="U10" s="38">
         <f>$I10+Sheet2!B$10/24</f>
         <v>0.45833333333333326</v>
       </c>
-      <c r="V10" s="42">
+      <c r="V10" s="38">
         <f>$I10+Sheet2!B$11/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="W10" s="42">
+      <c r="W10" s="38">
         <f>$I10+Sheet2!B$12/24</f>
         <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="61"/>
+      <c r="B11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>1</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>10</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="50" t="str">
+      <c r="H11" s="46" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="17">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J11" s="51" t="s">
+      <c r="J11" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="L11" s="47">
+      <c r="L11" s="43">
         <f>$I11+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="17">
         <f>$I11+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="17">
         <f>$I11+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O11" s="17">
         <f>$I11+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P11" s="18">
+      <c r="P11" s="17">
         <f>$I11+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="Q11" s="17">
         <f>$I11+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R11" s="18">
+      <c r="R11" s="17">
         <f>$I11+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S11" s="18">
+      <c r="S11" s="17">
         <f>$I11+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="T11" s="18">
+      <c r="T11" s="17">
         <f>$I11+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U11" s="18">
+      <c r="U11" s="17">
         <f>$I11+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="V11" s="18">
+      <c r="V11" s="17">
         <f>$I11+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W11" s="18">
+      <c r="W11" s="17">
         <f>$I11+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37" t="s">
+      <c r="A12" s="61"/>
+      <c r="B12" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="34">
         <v>2</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="34">
         <v>11</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="52" t="s">
+      <c r="G12" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="52" t="str">
+      <c r="H12" s="48" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="38">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J12" s="48" t="s">
+      <c r="J12" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="L12" s="45">
+      <c r="L12" s="41">
         <f>$I12+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="M12" s="42">
+      <c r="M12" s="38">
         <f>$I12+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="N12" s="42">
+      <c r="N12" s="38">
         <f>$I12+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O12" s="42">
+      <c r="O12" s="38">
         <f>$I12+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P12" s="42">
+      <c r="P12" s="38">
         <f>$I12+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q12" s="42">
+      <c r="Q12" s="38">
         <f>$I12+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R12" s="42">
+      <c r="R12" s="38">
         <f>$I12+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S12" s="42">
+      <c r="S12" s="38">
         <f>$I12+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="T12" s="42">
+      <c r="T12" s="38">
         <f>$I12+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U12" s="42">
+      <c r="U12" s="38">
         <f>$I12+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="V12" s="42">
+      <c r="V12" s="38">
         <f>$I12+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W12" s="42">
+      <c r="W12" s="38">
         <f>$I12+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37" t="s">
+      <c r="A13" s="61"/>
+      <c r="B13" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="34">
         <v>5</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="34">
         <v>12</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="52" t="s">
+      <c r="G13" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="52" t="str">
+      <c r="H13" s="48" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="38">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J13" s="48" t="s">
+      <c r="J13" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="49" t="s">
+      <c r="K13" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="12">
         <f>$I13+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="M13" s="42">
+      <c r="M13" s="38">
         <f>$I13+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="N13" s="42">
+      <c r="N13" s="38">
         <f>$I13+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O13" s="42">
+      <c r="O13" s="38">
         <f>$I13+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P13" s="42">
+      <c r="P13" s="38">
         <f>$I13+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q13" s="42">
+      <c r="Q13" s="38">
         <f>$I13+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R13" s="42">
+      <c r="R13" s="38">
         <f>$I13+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S13" s="42">
+      <c r="S13" s="38">
         <f>$I13+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="T13" s="42">
+      <c r="T13" s="38">
         <f>$I13+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U13" s="42">
+      <c r="U13" s="38">
         <f>$I13+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="V13" s="42">
+      <c r="V13" s="38">
         <f>$I13+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W13" s="42">
+      <c r="W13" s="38">
         <f>$I13+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37" t="s">
+      <c r="A14" s="61"/>
+      <c r="B14" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="34">
         <v>16</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="34">
         <v>13</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="52" t="str">
+      <c r="H14" s="48" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="38">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J14" s="53" t="s">
+      <c r="J14" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="49" t="s">
+      <c r="K14" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="41">
         <f>$I14+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="M14" s="42">
+      <c r="M14" s="38">
         <f>$I14+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="N14" s="42">
+      <c r="N14" s="38">
         <f>$I14+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O14" s="42">
+      <c r="O14" s="38">
         <f>$I14+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P14" s="42">
+      <c r="P14" s="38">
         <f>$I14+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q14" s="42">
+      <c r="Q14" s="38">
         <f>$I14+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R14" s="42">
+      <c r="R14" s="38">
         <f>$I14+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S14" s="42">
+      <c r="S14" s="38">
         <f>$I14+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="T14" s="42">
+      <c r="T14" s="38">
         <f>$I14+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U14" s="42">
+      <c r="U14" s="38">
         <f>$I14+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="V14" s="42">
+      <c r="V14" s="38">
         <f>$I14+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W14" s="42">
+      <c r="W14" s="38">
         <f>$I14+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37" t="s">
+      <c r="A15" s="61"/>
+      <c r="B15" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="34">
         <v>19</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="34">
         <v>14</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="52" t="str">
+      <c r="H15" s="48" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I15" s="38">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J15" s="53" t="s">
+      <c r="J15" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="49" t="s">
+      <c r="K15" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="12">
         <f>$I15+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="M15" s="42">
+      <c r="M15" s="38">
         <f>$I15+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="N15" s="42">
+      <c r="N15" s="38">
         <f>$I15+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O15" s="42">
+      <c r="O15" s="38">
         <f>$I15+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P15" s="42">
+      <c r="P15" s="38">
         <f>$I15+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q15" s="42">
+      <c r="Q15" s="38">
         <f>$I15+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R15" s="42">
+      <c r="R15" s="38">
         <f>$I15+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S15" s="42">
+      <c r="S15" s="38">
         <f>$I15+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="T15" s="42">
+      <c r="T15" s="38">
         <f>$I15+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U15" s="42">
+      <c r="U15" s="38">
         <f>$I15+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="V15" s="42">
+      <c r="V15" s="38">
         <f>$I15+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W15" s="42">
+      <c r="W15" s="38">
         <f>$I15+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="37" t="s">
+      <c r="A16" s="61"/>
+      <c r="B16" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="34">
         <v>20</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="34">
         <v>15</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="52" t="s">
+      <c r="G16" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="52" t="str">
+      <c r="H16" s="48" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
-      <c r="I16" s="42">
+      <c r="I16" s="38">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J16" s="53" t="s">
+      <c r="J16" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="49" t="s">
+      <c r="K16" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="L16" s="45">
+      <c r="L16" s="41">
         <f>$I16+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="M16" s="42">
+      <c r="M16" s="38">
         <f>$I16+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="N16" s="42">
+      <c r="N16" s="38">
         <f>$I16+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O16" s="42">
+      <c r="O16" s="38">
         <f>$I16+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P16" s="42">
+      <c r="P16" s="38">
         <f>$I16+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q16" s="42">
+      <c r="Q16" s="38">
         <f>$I16+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R16" s="42">
+      <c r="R16" s="38">
         <f>$I16+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S16" s="42">
+      <c r="S16" s="38">
         <f>$I16+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="T16" s="42">
+      <c r="T16" s="38">
         <f>$I16+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U16" s="42">
+      <c r="U16" s="38">
         <f>$I16+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="V16" s="42">
+      <c r="V16" s="38">
         <f>$I16+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W16" s="42">
+      <c r="W16" s="38">
         <f>$I16+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37" t="s">
+      <c r="A17" s="61"/>
+      <c r="B17" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="34">
         <v>24</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="34">
         <v>16</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="52" t="s">
+      <c r="G17" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="52" t="str">
+      <c r="H17" s="48" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="38">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J17" s="53" t="s">
+      <c r="J17" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="49" t="s">
+      <c r="K17" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="12">
         <f>$I17+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="M17" s="42">
+      <c r="M17" s="38">
         <f>$I17+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="N17" s="42">
+      <c r="N17" s="38">
         <f>$I17+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O17" s="42">
+      <c r="O17" s="38">
         <f>$I17+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P17" s="42">
+      <c r="P17" s="38">
         <f>$I17+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q17" s="42">
+      <c r="Q17" s="38">
         <f>$I17+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R17" s="42">
+      <c r="R17" s="38">
         <f>$I17+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S17" s="42">
+      <c r="S17" s="38">
         <f>$I17+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="T17" s="42">
+      <c r="T17" s="38">
         <f>$I17+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U17" s="42">
+      <c r="U17" s="38">
         <f>$I17+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="V17" s="42">
+      <c r="V17" s="38">
         <f>$I17+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W17" s="42">
+      <c r="W17" s="38">
         <f>$I17+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="14" t="s">
+      <c r="A18" s="61"/>
+      <c r="B18" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <v>22</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="15">
         <v>17</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="50" t="s">
+      <c r="G18" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="50" t="s">
+      <c r="H18" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="17">
         <v>0.75</v>
       </c>
-      <c r="J18" s="51" t="s">
+      <c r="J18" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="L18" s="54">
+      <c r="L18" s="50">
         <f>$I18+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M18" s="17">
         <f>$I18+Sheet2!B$2/24</f>
         <v>1.125</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="17">
         <f>$I18+Sheet2!B$3/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="O18" s="18">
+      <c r="O18" s="17">
         <f>$I18+Sheet2!B$4/24</f>
         <v>0.875</v>
       </c>
-      <c r="P18" s="18">
+      <c r="P18" s="17">
         <f>$I18+Sheet2!B$5/24</f>
         <v>0.875</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="Q18" s="17">
         <f>$I18+Sheet2!B$6/24</f>
         <v>0.875</v>
       </c>
-      <c r="R18" s="18">
+      <c r="R18" s="17">
         <f>$I18+Sheet2!B$7/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="S18" s="18">
+      <c r="S18" s="17">
         <f>$I18+Sheet2!B$8/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="T18" s="18">
+      <c r="T18" s="17">
         <f>$I18+Sheet2!B$9/24</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="U18" s="18">
+      <c r="U18" s="17">
         <f>$I18+Sheet2!B$10/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="V18" s="18">
+      <c r="V18" s="17">
         <f>$I18+Sheet2!B$11/24</f>
         <v>0.5</v>
       </c>
-      <c r="W18" s="18">
+      <c r="W18" s="17">
         <f>$I18+Sheet2!B$12/24</f>
         <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="56" t="s">
+      <c r="A19" s="62"/>
+      <c r="B19" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="52">
         <v>26</v>
       </c>
-      <c r="D19" s="58">
+      <c r="D19" s="53">
         <v>18</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="59" t="s">
+      <c r="G19" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="H19" s="59" t="s">
+      <c r="H19" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="60">
+      <c r="I19" s="55">
         <v>0.75</v>
       </c>
-      <c r="J19" s="61" t="s">
+      <c r="J19" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="62" t="s">
+      <c r="K19" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="L19" s="63">
+      <c r="L19" s="58">
         <f>$I19+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="M19" s="60">
+      <c r="M19" s="55">
         <f>$I19+Sheet2!B$2/24</f>
         <v>1.125</v>
       </c>
-      <c r="N19" s="60">
+      <c r="N19" s="55">
         <f>$I19+Sheet2!B$3/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="O19" s="60">
+      <c r="O19" s="55">
         <f>$I19+Sheet2!B$4/24</f>
         <v>0.875</v>
       </c>
-      <c r="P19" s="60">
+      <c r="P19" s="55">
         <f>$I19+Sheet2!B$5/24</f>
         <v>0.875</v>
       </c>
-      <c r="Q19" s="60">
+      <c r="Q19" s="55">
         <f>$I19+Sheet2!B$6/24</f>
         <v>0.875</v>
       </c>
-      <c r="R19" s="60">
+      <c r="R19" s="55">
         <f>$I19+Sheet2!B$7/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="S19" s="60">
+      <c r="S19" s="55">
         <f>$I19+Sheet2!B$8/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="T19" s="60">
+      <c r="T19" s="55">
         <f>$I19+Sheet2!B$9/24</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="U19" s="60">
+      <c r="U19" s="55">
         <f>$I19+Sheet2!B$10/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="V19" s="60">
+      <c r="V19" s="55">
         <f>$I19+Sheet2!B$11/24</f>
         <v>0.5</v>
       </c>
-      <c r="W19" s="60">
+      <c r="W19" s="55">
         <f>$I19+Sheet2!B$12/24</f>
         <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="34">
         <v>3</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="34">
         <v>19</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="52" t="s">
+      <c r="G20" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="52" t="str">
+      <c r="H20" s="48" t="str">
         <f>Sheet2!$A$9</f>
         <v>EDT</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="38">
         <v>0.91666666666666696</v>
       </c>
-      <c r="J20" s="48" t="s">
+      <c r="J20" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="44" t="s">
+      <c r="K20" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="12">
         <f>$I20+Sheet2!B$1/24</f>
         <v>1.3333333333333337</v>
       </c>
-      <c r="M20" s="42">
+      <c r="M20" s="38">
         <f>$I20+Sheet2!B$2/24</f>
         <v>1.291666666666667</v>
       </c>
-      <c r="N20" s="42">
+      <c r="N20" s="38">
         <f>$I20+Sheet2!B$3/24</f>
         <v>1.2500000000000002</v>
       </c>
-      <c r="O20" s="42">
+      <c r="O20" s="38">
         <f>$I20+Sheet2!B$4/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="P20" s="42">
+      <c r="P20" s="38">
         <f>$I20+Sheet2!B$5/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="Q20" s="42">
+      <c r="Q20" s="38">
         <f>$I20+Sheet2!B$6/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="R20" s="42">
+      <c r="R20" s="38">
         <f>$I20+Sheet2!B$7/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="S20" s="42">
+      <c r="S20" s="38">
         <f>$I20+Sheet2!B$8/24</f>
         <v>0.95833333333333359</v>
       </c>
-      <c r="T20" s="42">
+      <c r="T20" s="38">
         <f>$I20+Sheet2!B$9/24</f>
         <v>0.75000000000000033</v>
       </c>
-      <c r="U20" s="42">
+      <c r="U20" s="38">
         <f>$I20+Sheet2!B$10/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="V20" s="42">
+      <c r="V20" s="38">
         <f>$I20+Sheet2!B$11/24</f>
         <v>0.66666666666666696</v>
       </c>
-      <c r="W20" s="42">
+      <c r="W20" s="38">
         <f>$I20+Sheet2!B$12/24</f>
         <v>0.62500000000000022</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37" t="s">
+      <c r="A21" s="61"/>
+      <c r="B21" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="34">
         <v>10</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="34">
         <v>20</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="52" t="s">
+      <c r="G21" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="H21" s="52" t="str">
+      <c r="H21" s="48" t="str">
         <f>Sheet2!$A$9</f>
         <v>EDT</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="38">
         <v>0.91666666666666696</v>
       </c>
-      <c r="J21" s="48" t="s">
+      <c r="J21" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="44" t="s">
+      <c r="K21" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="L21" s="45">
+      <c r="L21" s="41">
         <f>$I21+Sheet2!B$1/24</f>
         <v>1.3333333333333337</v>
       </c>
-      <c r="M21" s="42">
+      <c r="M21" s="38">
         <f>$I21+Sheet2!B$2/24</f>
         <v>1.291666666666667</v>
       </c>
-      <c r="N21" s="42">
+      <c r="N21" s="38">
         <f>$I21+Sheet2!B$3/24</f>
         <v>1.2500000000000002</v>
       </c>
-      <c r="O21" s="42">
+      <c r="O21" s="38">
         <f>$I21+Sheet2!B$4/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="P21" s="42">
+      <c r="P21" s="38">
         <f>$I21+Sheet2!B$5/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="Q21" s="42">
+      <c r="Q21" s="38">
         <f>$I21+Sheet2!B$6/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="R21" s="42">
+      <c r="R21" s="38">
         <f>$I21+Sheet2!B$7/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="S21" s="42">
+      <c r="S21" s="38">
         <f>$I21+Sheet2!B$8/24</f>
         <v>0.95833333333333359</v>
       </c>
-      <c r="T21" s="42">
+      <c r="T21" s="38">
         <f>$I21+Sheet2!B$9/24</f>
         <v>0.75000000000000033</v>
       </c>
-      <c r="U21" s="42">
+      <c r="U21" s="38">
         <f>$I21+Sheet2!B$10/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="V21" s="42">
+      <c r="V21" s="38">
         <f>$I21+Sheet2!B$11/24</f>
         <v>0.66666666666666696</v>
       </c>
-      <c r="W21" s="42">
+      <c r="W21" s="38">
         <f>$I21+Sheet2!B$12/24</f>
         <v>0.62500000000000022</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37" t="s">
+      <c r="A22" s="61"/>
+      <c r="B22" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="34">
         <v>13</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="34">
         <v>21</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="H22" s="52" t="str">
+      <c r="H22" s="48" t="str">
         <f>Sheet2!$A$9</f>
         <v>EDT</v>
       </c>
-      <c r="I22" s="42">
+      <c r="I22" s="38">
         <v>0.91666666666666696</v>
       </c>
-      <c r="J22" s="48" t="s">
+      <c r="J22" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="44" t="s">
+      <c r="K22" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="L22" s="45">
+      <c r="L22" s="41">
         <f>$I22+Sheet2!B$1/24</f>
         <v>1.3333333333333337</v>
       </c>
-      <c r="M22" s="42">
+      <c r="M22" s="38">
         <f>$I22+Sheet2!B$2/24</f>
         <v>1.291666666666667</v>
       </c>
-      <c r="N22" s="42">
+      <c r="N22" s="38">
         <f>$I22+Sheet2!B$3/24</f>
         <v>1.2500000000000002</v>
       </c>
-      <c r="O22" s="42">
+      <c r="O22" s="38">
         <f>$I22+Sheet2!B$4/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="P22" s="42">
+      <c r="P22" s="38">
         <f>$I22+Sheet2!B$5/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="Q22" s="42">
+      <c r="Q22" s="38">
         <f>$I22+Sheet2!B$6/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="R22" s="42">
+      <c r="R22" s="38">
         <f>$I22+Sheet2!B$7/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="S22" s="42">
+      <c r="S22" s="38">
         <f>$I22+Sheet2!B$8/24</f>
         <v>0.95833333333333359</v>
       </c>
-      <c r="T22" s="42">
+      <c r="T22" s="38">
         <f>$I22+Sheet2!B$9/24</f>
         <v>0.75000000000000033</v>
       </c>
-      <c r="U22" s="42">
+      <c r="U22" s="38">
         <f>$I22+Sheet2!B$10/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="V22" s="42">
+      <c r="V22" s="38">
         <f>$I22+Sheet2!B$11/24</f>
         <v>0.66666666666666696</v>
       </c>
-      <c r="W22" s="42">
+      <c r="W22" s="38">
         <f>$I22+Sheet2!B$12/24</f>
         <v>0.62500000000000022</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="37" t="s">
+      <c r="A23" s="61"/>
+      <c r="B23" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="34">
         <v>18</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="34">
         <v>22</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="52" t="str">
+      <c r="H23" s="48" t="str">
         <f>Sheet2!$A$9</f>
         <v>EDT</v>
       </c>
-      <c r="I23" s="42">
+      <c r="I23" s="38">
         <v>0.91666666666666696</v>
       </c>
-      <c r="J23" s="48" t="s">
+      <c r="J23" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="K23" s="44" t="s">
+      <c r="K23" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="12">
         <f>$I23+Sheet2!B$1/24</f>
         <v>1.3333333333333337</v>
       </c>
-      <c r="M23" s="42">
+      <c r="M23" s="38">
         <f>$I23+Sheet2!B$2/24</f>
         <v>1.291666666666667</v>
       </c>
-      <c r="N23" s="42">
+      <c r="N23" s="38">
         <f>$I23+Sheet2!B$3/24</f>
         <v>1.2500000000000002</v>
       </c>
-      <c r="O23" s="42">
+      <c r="O23" s="38">
         <f>$I23+Sheet2!B$4/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="P23" s="42">
+      <c r="P23" s="38">
         <f>$I23+Sheet2!B$5/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="Q23" s="42">
+      <c r="Q23" s="38">
         <f>$I23+Sheet2!B$6/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="R23" s="42">
+      <c r="R23" s="38">
         <f>$I23+Sheet2!B$7/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="S23" s="42">
+      <c r="S23" s="38">
         <f>$I23+Sheet2!B$8/24</f>
         <v>0.95833333333333359</v>
       </c>
-      <c r="T23" s="42">
+      <c r="T23" s="38">
         <f>$I23+Sheet2!B$9/24</f>
         <v>0.75000000000000033</v>
       </c>
-      <c r="U23" s="42">
+      <c r="U23" s="38">
         <f>$I23+Sheet2!B$10/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="V23" s="42">
+      <c r="V23" s="38">
         <f>$I23+Sheet2!B$11/24</f>
         <v>0.66666666666666696</v>
       </c>
-      <c r="W23" s="42">
+      <c r="W23" s="38">
         <f>$I23+Sheet2!B$12/24</f>
         <v>0.62500000000000022</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="14" t="s">
+      <c r="A24" s="61"/>
+      <c r="B24" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="14">
         <v>6</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="15">
         <v>23</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="H24" s="50" t="str">
+      <c r="H24" s="46" t="str">
         <f>Sheet2!$A$9</f>
         <v>EDT</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="17">
         <v>0.95833333333333359</v>
       </c>
-      <c r="J24" s="51" t="s">
+      <c r="J24" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="20" t="s">
+      <c r="K24" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="L24" s="54">
+      <c r="L24" s="50">
         <f>$I24+Sheet2!B$1/24</f>
         <v>1.3750000000000002</v>
       </c>
-      <c r="M24" s="18">
+      <c r="M24" s="17">
         <f>$I24+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24" s="17">
         <f>$I24+Sheet2!B$3/24</f>
         <v>1.291666666666667</v>
       </c>
-      <c r="O24" s="18">
+      <c r="O24" s="17">
         <f>$I24+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P24" s="18">
+      <c r="P24" s="17">
         <f>$I24+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="Q24" s="17">
         <f>$I24+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="R24" s="18">
+      <c r="R24" s="17">
         <f>$I24+Sheet2!B$7/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="S24" s="18">
+      <c r="S24" s="17">
         <f>$I24+Sheet2!B$8/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="T24" s="18">
+      <c r="T24" s="17">
         <f>$I24+Sheet2!B$9/24</f>
         <v>0.79166666666666696</v>
       </c>
-      <c r="U24" s="18">
+      <c r="U24" s="17">
         <f>$I24+Sheet2!B$10/24</f>
         <v>0.75000000000000022</v>
       </c>
-      <c r="V24" s="18">
+      <c r="V24" s="17">
         <f>$I24+Sheet2!B$11/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="W24" s="18">
+      <c r="W24" s="17">
         <f>$I24+Sheet2!B$12/24</f>
         <v>0.66666666666666696</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="37" t="s">
+      <c r="A25" s="61"/>
+      <c r="B25" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="34">
         <v>8</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="34">
         <v>24</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="52" t="s">
+      <c r="G25" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="H25" s="52" t="str">
+      <c r="H25" s="48" t="str">
         <f>Sheet2!$A$10</f>
         <v>CDT</v>
       </c>
-      <c r="I25" s="42">
+      <c r="I25" s="38">
         <v>0.95833333333333304</v>
       </c>
-      <c r="J25" s="48" t="s">
+      <c r="J25" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="44" t="s">
+      <c r="K25" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="12">
         <f>$I25+Sheet2!B$1/24</f>
         <v>1.3749999999999998</v>
       </c>
-      <c r="M25" s="42">
+      <c r="M25" s="38">
         <f>$I25+Sheet2!B$2/24</f>
         <v>1.333333333333333</v>
       </c>
-      <c r="N25" s="42">
+      <c r="N25" s="38">
         <f>$I25+Sheet2!B$3/24</f>
         <v>1.2916666666666663</v>
       </c>
-      <c r="O25" s="42">
+      <c r="O25" s="38">
         <f>$I25+Sheet2!B$4/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="P25" s="42">
+      <c r="P25" s="38">
         <f>$I25+Sheet2!B$5/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="Q25" s="42">
+      <c r="Q25" s="38">
         <f>$I25+Sheet2!B$6/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="R25" s="42">
+      <c r="R25" s="38">
         <f>$I25+Sheet2!B$7/24</f>
         <v>1.0416666666666663</v>
       </c>
-      <c r="S25" s="42">
+      <c r="S25" s="38">
         <f>$I25+Sheet2!B$8/24</f>
         <v>0.99999999999999967</v>
       </c>
-      <c r="T25" s="42">
+      <c r="T25" s="38">
         <f>$I25+Sheet2!B$9/24</f>
         <v>0.79166666666666641</v>
       </c>
-      <c r="U25" s="42">
+      <c r="U25" s="38">
         <f>$I25+Sheet2!B$10/24</f>
         <v>0.74999999999999967</v>
       </c>
-      <c r="V25" s="42">
+      <c r="V25" s="38">
         <f>$I25+Sheet2!B$11/24</f>
         <v>0.70833333333333304</v>
       </c>
-      <c r="W25" s="42">
+      <c r="W25" s="38">
         <f>$I25+Sheet2!B$12/24</f>
         <v>0.6666666666666663</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="37" t="s">
+      <c r="A26" s="61"/>
+      <c r="B26" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26" s="34">
         <v>23</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="34">
         <v>25</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="38" t="s">
+      <c r="F26" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="G26" s="52" t="s">
+      <c r="G26" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="H26" s="52" t="str">
+      <c r="H26" s="48" t="str">
         <f>Sheet2!$A$10</f>
         <v>CDT</v>
       </c>
-      <c r="I26" s="42">
+      <c r="I26" s="38">
         <v>0.95833333333333304</v>
       </c>
-      <c r="J26" s="48" t="s">
+      <c r="J26" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="44" t="s">
+      <c r="K26" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="L26" s="45">
+      <c r="L26" s="41">
         <f>$I26+Sheet2!B$1/24</f>
         <v>1.3749999999999998</v>
       </c>
-      <c r="M26" s="42">
+      <c r="M26" s="38">
         <f>$I26+Sheet2!B$2/24</f>
         <v>1.333333333333333</v>
       </c>
-      <c r="N26" s="42">
+      <c r="N26" s="38">
         <f>$I26+Sheet2!B$3/24</f>
         <v>1.2916666666666663</v>
       </c>
-      <c r="O26" s="42">
+      <c r="O26" s="38">
         <f>$I26+Sheet2!B$4/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="P26" s="42">
+      <c r="P26" s="38">
         <f>$I26+Sheet2!B$5/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="Q26" s="42">
+      <c r="Q26" s="38">
         <f>$I26+Sheet2!B$6/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="R26" s="42">
+      <c r="R26" s="38">
         <f>$I26+Sheet2!B$7/24</f>
         <v>1.0416666666666663</v>
       </c>
-      <c r="S26" s="42">
+      <c r="S26" s="38">
         <f>$I26+Sheet2!B$8/24</f>
         <v>0.99999999999999967</v>
       </c>
-      <c r="T26" s="42">
+      <c r="T26" s="38">
         <f>$I26+Sheet2!B$9/24</f>
         <v>0.79166666666666641</v>
       </c>
-      <c r="U26" s="42">
+      <c r="U26" s="38">
         <f>$I26+Sheet2!B$10/24</f>
         <v>0.74999999999999967</v>
       </c>
-      <c r="V26" s="42">
+      <c r="V26" s="38">
         <f>$I26+Sheet2!B$11/24</f>
         <v>0.70833333333333304</v>
       </c>
-      <c r="W26" s="42">
+      <c r="W26" s="38">
         <f>$I26+Sheet2!B$12/24</f>
         <v>0.6666666666666663</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="64" t="s">
+      <c r="A27" s="61"/>
+      <c r="B27" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="14">
         <v>17</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="14">
         <v>26</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="50" t="s">
+      <c r="G27" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="H27" s="64" t="s">
+      <c r="H27" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="17">
         <v>1</v>
       </c>
-      <c r="J27" s="51" t="s">
+      <c r="J27" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="20"/>
-      <c r="L27" s="47">
+      <c r="K27" s="19"/>
+      <c r="L27" s="43">
         <f>$I27+Sheet2!B$1/24</f>
         <v>1.4166666666666667</v>
       </c>
-      <c r="M27" s="18">
+      <c r="M27" s="17">
         <f>$I27+Sheet2!B$2/24</f>
         <v>1.375</v>
       </c>
-      <c r="N27" s="18">
+      <c r="N27" s="17">
         <f>$I27+Sheet2!B$3/24</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O27" s="18">
+      <c r="O27" s="17">
         <f>$I27+Sheet2!B$4/24</f>
         <v>1.125</v>
       </c>
-      <c r="P27" s="18">
+      <c r="P27" s="17">
         <f>$I27+Sheet2!B$5/24</f>
         <v>1.125</v>
       </c>
-      <c r="Q27" s="18">
+      <c r="Q27" s="17">
         <f>$I27+Sheet2!B$6/24</f>
         <v>1.125</v>
       </c>
-      <c r="R27" s="18">
+      <c r="R27" s="17">
         <f>$I27+Sheet2!B$7/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="S27" s="18">
+      <c r="S27" s="17">
         <f>$I27+Sheet2!B$8/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="T27" s="18">
+      <c r="T27" s="17">
         <f>$I27+Sheet2!B$9/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="U27" s="18">
+      <c r="U27" s="17">
         <f>$I27+Sheet2!B$10/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="V27" s="18">
+      <c r="V27" s="17">
         <f>$I27+Sheet2!B$11/24</f>
         <v>0.75</v>
       </c>
-      <c r="W27" s="18">
+      <c r="W27" s="17">
         <f>$I27+Sheet2!B$12/24</f>
         <v>0.70833333333333326</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="37" t="s">
+      <c r="A28" s="61"/>
+      <c r="B28" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="15">
         <v>9</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="15">
         <v>27</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="50" t="s">
+      <c r="G28" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="H28" s="52" t="str">
+      <c r="H28" s="48" t="str">
         <f>Sheet2!$A$12</f>
         <v>PDT</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="17">
         <v>1.041666666666667</v>
       </c>
-      <c r="J28" s="51" t="s">
+      <c r="J28" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="20"/>
-      <c r="L28" s="54">
+      <c r="K28" s="19"/>
+      <c r="L28" s="50">
         <f>$I28+Sheet2!B$1/24</f>
         <v>1.4583333333333337</v>
       </c>
-      <c r="M28" s="18">
+      <c r="M28" s="17">
         <f>$I28+Sheet2!B$2/24</f>
         <v>1.416666666666667</v>
       </c>
-      <c r="N28" s="18">
+      <c r="N28" s="17">
         <f>$I28+Sheet2!B$3/24</f>
         <v>1.3750000000000002</v>
       </c>
-      <c r="O28" s="18">
+      <c r="O28" s="17">
         <f>$I28+Sheet2!B$4/24</f>
         <v>1.166666666666667</v>
       </c>
-      <c r="P28" s="18">
+      <c r="P28" s="17">
         <f>$I28+Sheet2!B$5/24</f>
         <v>1.166666666666667</v>
       </c>
-      <c r="Q28" s="18">
+      <c r="Q28" s="17">
         <f>$I28+Sheet2!B$6/24</f>
         <v>1.166666666666667</v>
       </c>
-      <c r="R28" s="18">
+      <c r="R28" s="17">
         <f>$I28+Sheet2!B$7/24</f>
         <v>1.1250000000000002</v>
       </c>
-      <c r="S28" s="18">
+      <c r="S28" s="17">
         <f>$I28+Sheet2!B$8/24</f>
         <v>1.0833333333333337</v>
       </c>
-      <c r="T28" s="18">
+      <c r="T28" s="17">
         <f>$I28+Sheet2!B$9/24</f>
         <v>0.87500000000000033</v>
       </c>
-      <c r="U28" s="18">
+      <c r="U28" s="17">
         <f>$I28+Sheet2!B$10/24</f>
         <v>0.83333333333333359</v>
       </c>
-      <c r="V28" s="18">
+      <c r="V28" s="17">
         <f>$I28+Sheet2!B$11/24</f>
         <v>0.79166666666666696</v>
       </c>
-      <c r="W28" s="18">
+      <c r="W28" s="17">
         <f>$I28+Sheet2!B$12/24</f>
         <v>0.75000000000000022</v>
       </c>
@@ -3669,10 +3669,10 @@
     <sortCondition ref="D2:D28"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" hiddenColumns="1">
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+    <customSheetView guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" hiddenColumns="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janwa\OneDrive\Documents\SWGoH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b92275a9bf72c170/Documents/SWGoH/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Z_C889AC74_BC82_49E8_BA01_AB64462BFCF2_.wvu.Cols" localSheetId="0" hidden="1">Sheet1!$C:$D,Sheet1!$F:$G,Sheet1!$K:$K</definedName>
+    <definedName name="Z_6B6C704A_4C22_4616_B5BC_59850AE98E27_.wvu.Cols" localSheetId="0" hidden="1">Sheet1!$C:$D,Sheet1!$F:$G</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="111">
   <si>
     <t>Name</t>
   </si>
@@ -95,24 +95,12 @@
     <t>&lt;https://swgoh.gg/u/vk1559/&gt;</t>
   </si>
   <si>
-    <t>Europe</t>
-  </si>
-  <si>
-    <t>жараl4PDAl (Zhara)</t>
-  </si>
-  <si>
     <t>Russia</t>
   </si>
   <si>
     <t>:flag_ru:</t>
   </si>
   <si>
-    <t>&lt;https://swgoh.gg/u/zhara/&gt;</t>
-  </si>
-  <si>
-    <t>Cristiano Ronaldo</t>
-  </si>
-  <si>
     <t>&lt;https://swgoh.gg/u/cristiano/&gt;</t>
   </si>
   <si>
@@ -122,12 +110,6 @@
     <t>&lt;https://swgoh.gg/u/nika/&gt;</t>
   </si>
   <si>
-    <t>TM MaX</t>
-  </si>
-  <si>
-    <t>&lt;https://swgoh.gg/u/tmmax/&gt;</t>
-  </si>
-  <si>
     <t>AbrekV</t>
   </si>
   <si>
@@ -176,9 +158,6 @@
     <t>&lt;https://swgoh.gg/u/stirzla/&gt;</t>
   </si>
   <si>
-    <t>Ceberus Ironhart</t>
-  </si>
-  <si>
     <t>Switzerland</t>
   </si>
   <si>
@@ -218,9 +197,6 @@
     <t>&lt;https://swgoh.gg/u/jayzi/&gt;</t>
   </si>
   <si>
-    <t>LeTempsRetrouve</t>
-  </si>
-  <si>
     <t>Poland</t>
   </si>
   <si>
@@ -317,24 +293,6 @@
     <t>&lt;https://swgoh.gg/u/raspywalker/&gt;</t>
   </si>
   <si>
-    <t>Payout Role</t>
-  </si>
-  <si>
-    <t>&lt;@&amp;321982038775431168&gt;</t>
-  </si>
-  <si>
-    <t>&lt;@&amp;321982088666546176&gt;</t>
-  </si>
-  <si>
-    <t>&lt;@&amp;321982360553914369&gt;</t>
-  </si>
-  <si>
-    <t>&lt;@&amp;321982387338608655&gt;</t>
-  </si>
-  <si>
-    <t>&lt;@&amp;321982132064878593&gt;</t>
-  </si>
-  <si>
     <t>No DST</t>
   </si>
   <si>
@@ -362,9 +320,6 @@
     <t>&lt;https://swgoh.gg/u/charparrliesh/&gt;</t>
   </si>
   <si>
-    <t>CharParrLiesh</t>
-  </si>
-  <si>
     <t>Spider</t>
   </si>
   <si>
@@ -377,9 +332,6 @@
     <t>&lt;https://swgoh.gg/u/spider/&gt;</t>
   </si>
   <si>
-    <t>&lt;@&amp;353180011139956767&gt;</t>
-  </si>
-  <si>
     <t>Japan</t>
   </si>
   <si>
@@ -396,6 +348,24 @@
   </si>
   <si>
     <t>LordVader</t>
+  </si>
+  <si>
+    <t>Cristiano</t>
+  </si>
+  <si>
+    <t>Ceberus</t>
+  </si>
+  <si>
+    <t>LeTemps</t>
+  </si>
+  <si>
+    <t>CharParr</t>
+  </si>
+  <si>
+    <t>Atchoum</t>
+  </si>
+  <si>
+    <t>&lt;https://swgoh.gg/u/atchoum/&gt;</t>
   </si>
 </sst>
 </file>
@@ -405,7 +375,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,14 +428,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -511,7 +473,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -585,30 +547,6 @@
       </right>
       <top style="dashDot">
         <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC00000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC00000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -706,8 +644,19 @@
       <right style="thin">
         <color theme="0"/>
       </right>
-      <top style="thin">
-        <color rgb="FFC00000"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="dashDot">
+        <color theme="0"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -719,49 +668,12 @@
       <right style="thin">
         <color theme="0"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="dashDot">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
       <top style="dashDot">
         <color theme="0"/>
       </top>
       <bottom style="dashDot">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border diagonalDown="1">
@@ -815,51 +727,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -868,99 +776,42 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -986,49 +837,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1355,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,19 +1177,18 @@
     <col min="2" max="2" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="4" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="4.5703125" style="4" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="4" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="42.7109375" style="4" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28" style="4" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="23" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="4"/>
+    <col min="11" max="11" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="22" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1409,141 +1218,137 @@
         <v>8</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="M1" s="3" t="str">
+        <v>92</v>
+      </c>
+      <c r="L1" s="3" t="str">
         <f>H3</f>
         <v>JST</v>
       </c>
-      <c r="N1" s="3" t="str">
+      <c r="M1" s="3" t="str">
         <f>H4</f>
         <v>CST</v>
       </c>
-      <c r="O1" s="3" t="str">
+      <c r="N1" s="3" t="str">
         <f>H5</f>
         <v>MSK</v>
       </c>
+      <c r="O1" s="3" t="str">
+        <f>H7</f>
+        <v>TRT</v>
+      </c>
       <c r="P1" s="3" t="str">
+        <f>H8</f>
+        <v>EEST</v>
+      </c>
+      <c r="Q1" s="3" t="str">
         <f>H9</f>
-        <v>TRT</v>
-      </c>
-      <c r="Q1" s="3" t="str">
-        <f>H10</f>
-        <v>EEST</v>
+        <v>CEST</v>
       </c>
       <c r="R1" s="3" t="str">
-        <f>H11</f>
-        <v>CEST</v>
+        <f>H17</f>
+        <v>BST</v>
       </c>
       <c r="S1" s="3" t="str">
-        <f>H19</f>
-        <v>BST</v>
+        <f>H18</f>
+        <v>EDT</v>
       </c>
       <c r="T1" s="3" t="str">
-        <f>H20</f>
-        <v>EDT</v>
+        <f>H24</f>
+        <v>CDT</v>
       </c>
       <c r="U1" s="3" t="str">
-        <f>H25</f>
-        <v>CDT</v>
+        <f>H26</f>
+        <v>MDT</v>
       </c>
       <c r="V1" s="3" t="str">
         <f>H27</f>
-        <v>MDT</v>
-      </c>
-      <c r="W1" s="3" t="str">
-        <f>H28</f>
         <v>PDT</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="7">
         <v>25</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I2" s="9">
+      <c r="E2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="12">
+      <c r="K2" s="12">
         <f>$I2+Sheet2!B$1/24</f>
         <v>0.75</v>
       </c>
-      <c r="M2" s="12">
+      <c r="L2" s="12">
         <f>$I2+Sheet2!B$2/24</f>
         <v>0.70833333333333326</v>
       </c>
-      <c r="N2" s="12">
+      <c r="M2" s="12">
         <f>$I2+Sheet2!B$3/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O2" s="12">
+      <c r="N2" s="12">
         <f>$I2+Sheet2!B$4/24</f>
         <v>0.45833333333333331</v>
       </c>
-      <c r="P2" s="12">
+      <c r="O2" s="12">
         <f>$I2+Sheet2!B$5/24</f>
         <v>0.45833333333333331</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="P2" s="12">
         <f>$I2+Sheet2!B$6/24</f>
         <v>0.45833333333333331</v>
       </c>
-      <c r="R2" s="12">
+      <c r="Q2" s="12">
         <f>$I2+Sheet2!B$7/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="S2" s="12">
+      <c r="R2" s="12">
         <f>$I2+Sheet2!B$8/24</f>
         <v>0.375</v>
       </c>
-      <c r="T2" s="12">
+      <c r="S2" s="12">
         <f>$I2+Sheet2!B$9/24</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="U2" s="12">
+      <c r="T2" s="12">
         <f>$I2+Sheet2!B$10/24</f>
         <v>0.12499999999999997</v>
       </c>
-      <c r="V2" s="12">
+      <c r="U2" s="12">
         <f>$I2+Sheet2!B$11/24</f>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="W2" s="12">
+      <c r="V2" s="12">
         <f>$I2+Sheet2!B$12/24</f>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
       <c r="B3" s="13" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C3" s="14">
         <v>27</v>
@@ -1552,16 +1357,16 @@
         <v>2</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="I3" s="17">
         <v>0.375</v>
@@ -1569,58 +1374,57 @@
       <c r="J3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="17">
+      <c r="K3" s="17">
         <f>$I3+Sheet2!B$1/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="M3" s="17">
+      <c r="L3" s="17">
         <f>$I3+Sheet2!B$2/24</f>
         <v>0.75</v>
       </c>
-      <c r="N3" s="17">
+      <c r="M3" s="17">
         <f>$I3+Sheet2!B$3/24</f>
         <v>0.70833333333333326</v>
       </c>
-      <c r="O3" s="17">
+      <c r="N3" s="17">
         <f>$I3+Sheet2!B$4/24</f>
         <v>0.5</v>
       </c>
-      <c r="P3" s="17">
+      <c r="O3" s="17">
         <f>$I3+Sheet2!B$5/24</f>
         <v>0.5</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="P3" s="17">
         <f>$I3+Sheet2!B$6/24</f>
         <v>0.5</v>
       </c>
-      <c r="R3" s="17">
+      <c r="Q3" s="17">
         <f>$I3+Sheet2!B$7/24</f>
         <v>0.45833333333333331</v>
       </c>
-      <c r="S3" s="17">
+      <c r="R3" s="17">
         <f>$I3+Sheet2!B$8/24</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="T3" s="17">
+      <c r="S3" s="17">
         <f>$I3+Sheet2!B$9/24</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="U3" s="17">
+      <c r="T3" s="17">
         <f>$I3+Sheet2!B$10/24</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="V3" s="17">
+      <c r="U3" s="17">
         <f>$I3+Sheet2!B$11/24</f>
         <v>0.125</v>
       </c>
-      <c r="W3" s="17">
+      <c r="V3" s="17">
         <f>$I3+Sheet2!B$12/24</f>
         <v>8.3333333333333315E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
       <c r="B4" s="20" t="s">
         <v>16</v>
       </c>
@@ -1649,2111 +1453,1902 @@
       <c r="J4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="24">
+      <c r="K4" s="24">
         <f>$I4+Sheet2!B$1/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="M4" s="24">
+      <c r="L4" s="24">
         <f>$I4+Sheet2!B$2/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="N4" s="24">
+      <c r="M4" s="24">
         <f>$I4+Sheet2!B$3/24</f>
         <v>0.75</v>
       </c>
-      <c r="O4" s="24">
+      <c r="N4" s="24">
         <f>$I4+Sheet2!B$4/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="P4" s="24">
+      <c r="O4" s="24">
         <f>$I4+Sheet2!B$5/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="Q4" s="24">
+      <c r="P4" s="24">
         <f>$I4+Sheet2!B$6/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="R4" s="24">
+      <c r="Q4" s="24">
         <f>$I4+Sheet2!B$7/24</f>
         <v>0.5</v>
       </c>
-      <c r="S4" s="24">
+      <c r="R4" s="24">
         <f>$I4+Sheet2!B$8/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="T4" s="24">
+      <c r="S4" s="24">
         <f>$I4+Sheet2!B$9/24</f>
         <v>0.25</v>
       </c>
-      <c r="U4" s="24">
+      <c r="T4" s="24">
         <f>$I4+Sheet2!B$10/24</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="V4" s="24">
+      <c r="U4" s="24">
         <f>$I4+Sheet2!B$11/24</f>
         <v>0.16666666666666669</v>
       </c>
-      <c r="W4" s="24">
+      <c r="V4" s="24">
         <f>$I4+Sheet2!B$12/24</f>
         <v>0.125</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="28">
+        <v>12</v>
+      </c>
+      <c r="D5" s="28">
+        <v>5</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="F5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="26">
-        <v>11</v>
-      </c>
-      <c r="D5" s="26">
-        <v>4</v>
-      </c>
-      <c r="E5" s="27" t="s">
+      <c r="G5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="28" t="str">
+      <c r="H5" s="31" t="str">
         <f>Sheet2!$A$4</f>
         <v>MSK</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="32">
         <v>0.625</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="L5" s="32">
+      <c r="K5" s="34">
         <f>$I5+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="M5" s="29">
+      <c r="L5" s="32">
         <f>$I5+Sheet2!B$2/24</f>
         <v>1</v>
       </c>
-      <c r="N5" s="29">
+      <c r="M5" s="32">
         <f>$I5+Sheet2!B$3/24</f>
         <v>0.95833333333333326</v>
       </c>
-      <c r="O5" s="29">
+      <c r="N5" s="32">
         <f>$I5+Sheet2!B$4/24</f>
         <v>0.75</v>
       </c>
-      <c r="P5" s="29">
+      <c r="O5" s="32">
         <f>$I5+Sheet2!B$5/24</f>
         <v>0.75</v>
       </c>
-      <c r="Q5" s="29">
+      <c r="P5" s="32">
         <f>$I5+Sheet2!B$6/24</f>
         <v>0.75</v>
       </c>
-      <c r="R5" s="29">
+      <c r="Q5" s="32">
         <f>$I5+Sheet2!B$7/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="S5" s="29">
+      <c r="R5" s="32">
         <f>$I5+Sheet2!B$8/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T5" s="29">
+      <c r="S5" s="32">
         <f>$I5+Sheet2!B$9/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="U5" s="29">
+      <c r="T5" s="32">
         <f>$I5+Sheet2!B$10/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="V5" s="29">
+      <c r="U5" s="32">
         <f>$I5+Sheet2!B$11/24</f>
         <v>0.375</v>
       </c>
-      <c r="W5" s="29">
+      <c r="V5" s="32">
         <f>$I5+Sheet2!B$12/24</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="34">
-        <v>12</v>
-      </c>
-      <c r="D6" s="34">
-        <v>5</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="35" t="s">
+    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="37" t="str">
+      <c r="C6" s="28">
+        <v>14</v>
+      </c>
+      <c r="D6" s="28">
+        <v>6</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="31" t="str">
         <f>Sheet2!$A$4</f>
         <v>MSK</v>
       </c>
-      <c r="I6" s="38">
+      <c r="I6" s="32">
         <v>0.625</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="L6" s="41">
+      <c r="K6" s="12">
         <f>$I6+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="M6" s="38">
+      <c r="L6" s="32">
         <f>$I6+Sheet2!B$2/24</f>
         <v>1</v>
       </c>
-      <c r="N6" s="38">
+      <c r="M6" s="32">
         <f>$I6+Sheet2!B$3/24</f>
         <v>0.95833333333333326</v>
       </c>
-      <c r="O6" s="38">
+      <c r="N6" s="32">
         <f>$I6+Sheet2!B$4/24</f>
         <v>0.75</v>
       </c>
-      <c r="P6" s="38">
+      <c r="O6" s="32">
         <f>$I6+Sheet2!B$5/24</f>
         <v>0.75</v>
       </c>
-      <c r="Q6" s="38">
+      <c r="P6" s="32">
         <f>$I6+Sheet2!B$6/24</f>
         <v>0.75</v>
       </c>
-      <c r="R6" s="38">
+      <c r="Q6" s="32">
         <f>$I6+Sheet2!B$7/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="S6" s="38">
+      <c r="R6" s="32">
         <f>$I6+Sheet2!B$8/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T6" s="38">
+      <c r="S6" s="32">
         <f>$I6+Sheet2!B$9/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="U6" s="38">
+      <c r="T6" s="32">
         <f>$I6+Sheet2!B$10/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="V6" s="38">
+      <c r="U6" s="32">
         <f>$I6+Sheet2!B$11/24</f>
         <v>0.375</v>
       </c>
-      <c r="W6" s="38">
+      <c r="V6" s="32">
         <f>$I6+Sheet2!B$12/24</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
-      <c r="B7" s="33" t="s">
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="14">
+        <v>4</v>
+      </c>
+      <c r="D7" s="14">
+        <v>8</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="34">
-        <v>14</v>
-      </c>
-      <c r="D7" s="34">
-        <v>6</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="37" t="str">
-        <f>Sheet2!$A$4</f>
-        <v>MSK</v>
-      </c>
-      <c r="I7" s="38">
-        <v>0.625</v>
-      </c>
-      <c r="J7" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="L7" s="12">
-        <f>$I7+Sheet2!B$1/24</f>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="M7" s="38">
-        <f>$I7+Sheet2!B$2/24</f>
-        <v>1</v>
-      </c>
-      <c r="N7" s="38">
-        <f>$I7+Sheet2!B$3/24</f>
-        <v>0.95833333333333326</v>
-      </c>
-      <c r="O7" s="38">
-        <f>$I7+Sheet2!B$4/24</f>
-        <v>0.75</v>
-      </c>
-      <c r="P7" s="38">
-        <f>$I7+Sheet2!B$5/24</f>
-        <v>0.75</v>
-      </c>
-      <c r="Q7" s="38">
-        <f>$I7+Sheet2!B$6/24</f>
-        <v>0.75</v>
-      </c>
-      <c r="R7" s="38">
-        <f>$I7+Sheet2!B$7/24</f>
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="S7" s="38">
-        <f>$I7+Sheet2!B$8/24</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="T7" s="38">
-        <f>$I7+Sheet2!B$9/24</f>
-        <v>0.45833333333333337</v>
-      </c>
-      <c r="U7" s="38">
-        <f>$I7+Sheet2!B$10/24</f>
-        <v>0.41666666666666663</v>
-      </c>
-      <c r="V7" s="38">
-        <f>$I7+Sheet2!B$11/24</f>
-        <v>0.375</v>
-      </c>
-      <c r="W7" s="38">
-        <f>$I7+Sheet2!B$12/24</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="34">
-        <v>21</v>
-      </c>
-      <c r="D8" s="34">
-        <v>7</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="37" t="str">
-        <f>Sheet2!$A$4</f>
-        <v>MSK</v>
-      </c>
-      <c r="I8" s="38">
-        <v>0.625</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="L8" s="41">
-        <f>$I8+Sheet2!B$1/24</f>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="M8" s="38">
-        <f>$I8+Sheet2!B$2/24</f>
-        <v>1</v>
-      </c>
-      <c r="N8" s="38">
-        <f>$I8+Sheet2!B$3/24</f>
-        <v>0.95833333333333326</v>
-      </c>
-      <c r="O8" s="38">
-        <f>$I8+Sheet2!B$4/24</f>
-        <v>0.75</v>
-      </c>
-      <c r="P8" s="38">
-        <f>$I8+Sheet2!B$5/24</f>
-        <v>0.75</v>
-      </c>
-      <c r="Q8" s="38">
-        <f>$I8+Sheet2!B$6/24</f>
-        <v>0.75</v>
-      </c>
-      <c r="R8" s="38">
-        <f>$I8+Sheet2!B$7/24</f>
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="S8" s="38">
-        <f>$I8+Sheet2!B$8/24</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="T8" s="38">
-        <f>$I8+Sheet2!B$9/24</f>
-        <v>0.45833333333333337</v>
-      </c>
-      <c r="U8" s="38">
-        <f>$I8+Sheet2!B$10/24</f>
-        <v>0.41666666666666663</v>
-      </c>
-      <c r="V8" s="38">
-        <f>$I8+Sheet2!B$11/24</f>
-        <v>0.375</v>
-      </c>
-      <c r="W8" s="38">
-        <f>$I8+Sheet2!B$12/24</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
-      <c r="B9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="14">
-        <v>4</v>
-      </c>
-      <c r="D9" s="14">
-        <v>8</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="16" t="str">
+      <c r="H7" s="16" t="str">
         <f>Sheet2!$A$5</f>
         <v>TRT</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I7" s="17">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="L9" s="43">
-        <f>$I9+Sheet2!B$1/24</f>
+      <c r="K7" s="35">
+        <f>$I7+Sheet2!B$1/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="M9" s="17">
-        <f>$I9+Sheet2!B$2/24</f>
+      <c r="L7" s="17">
+        <f>$I7+Sheet2!B$2/24</f>
         <v>1.0416666666666665</v>
       </c>
-      <c r="N9" s="17">
-        <f>$I9+Sheet2!B$3/24</f>
+      <c r="M7" s="17">
+        <f>$I7+Sheet2!B$3/24</f>
         <v>1</v>
       </c>
-      <c r="O9" s="17">
-        <f>$I9+Sheet2!B$4/24</f>
+      <c r="N7" s="17">
+        <f>$I7+Sheet2!B$4/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="P9" s="17">
-        <f>$I9+Sheet2!B$5/24</f>
+      <c r="O7" s="17">
+        <f>$I7+Sheet2!B$5/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="Q9" s="17">
-        <f>$I9+Sheet2!B$6/24</f>
+      <c r="P7" s="17">
+        <f>$I7+Sheet2!B$6/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="R9" s="17">
-        <f>$I9+Sheet2!B$7/24</f>
+      <c r="Q7" s="17">
+        <f>$I7+Sheet2!B$7/24</f>
         <v>0.75</v>
       </c>
-      <c r="S9" s="17">
-        <f>$I9+Sheet2!B$8/24</f>
+      <c r="R7" s="17">
+        <f>$I7+Sheet2!B$8/24</f>
         <v>0.70833333333333326</v>
       </c>
-      <c r="T9" s="17">
-        <f>$I9+Sheet2!B$9/24</f>
+      <c r="S7" s="17">
+        <f>$I7+Sheet2!B$9/24</f>
         <v>0.5</v>
       </c>
-      <c r="U9" s="17">
-        <f>$I9+Sheet2!B$10/24</f>
+      <c r="T7" s="17">
+        <f>$I7+Sheet2!B$10/24</f>
         <v>0.45833333333333326</v>
       </c>
-      <c r="V9" s="17">
-        <f>$I9+Sheet2!B$11/24</f>
+      <c r="U7" s="17">
+        <f>$I7+Sheet2!B$11/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="W9" s="17">
-        <f>$I9+Sheet2!B$12/24</f>
+      <c r="V7" s="17">
+        <f>$I7+Sheet2!B$12/24</f>
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
-      <c r="B10" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="34">
+    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="28">
         <v>7</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D8" s="28">
         <v>9</v>
       </c>
-      <c r="E10" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="37" t="str">
+      <c r="E8" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="31" t="str">
         <f>Sheet2!$A$6</f>
         <v>EEST</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I8" s="32">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J10" s="44" t="s">
+      <c r="J8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" s="41">
-        <f>$I10+Sheet2!B$1/24</f>
+      <c r="K8" s="34">
+        <f>$I8+Sheet2!B$1/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="M10" s="38">
-        <f>$I10+Sheet2!B$2/24</f>
+      <c r="L8" s="32">
+        <f>$I8+Sheet2!B$2/24</f>
         <v>1.0416666666666665</v>
       </c>
-      <c r="N10" s="38">
-        <f>$I10+Sheet2!B$3/24</f>
+      <c r="M8" s="32">
+        <f>$I8+Sheet2!B$3/24</f>
         <v>1</v>
       </c>
-      <c r="O10" s="38">
-        <f>$I10+Sheet2!B$4/24</f>
+      <c r="N8" s="32">
+        <f>$I8+Sheet2!B$4/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="P10" s="38">
-        <f>$I10+Sheet2!B$5/24</f>
+      <c r="O8" s="32">
+        <f>$I8+Sheet2!B$5/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="Q10" s="38">
-        <f>$I10+Sheet2!B$6/24</f>
+      <c r="P8" s="32">
+        <f>$I8+Sheet2!B$6/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="R10" s="38">
-        <f>$I10+Sheet2!B$7/24</f>
+      <c r="Q8" s="32">
+        <f>$I8+Sheet2!B$7/24</f>
         <v>0.75</v>
       </c>
-      <c r="S10" s="38">
-        <f>$I10+Sheet2!B$8/24</f>
+      <c r="R8" s="32">
+        <f>$I8+Sheet2!B$8/24</f>
         <v>0.70833333333333326</v>
       </c>
-      <c r="T10" s="38">
-        <f>$I10+Sheet2!B$9/24</f>
+      <c r="S8" s="32">
+        <f>$I8+Sheet2!B$9/24</f>
         <v>0.5</v>
       </c>
-      <c r="U10" s="38">
-        <f>$I10+Sheet2!B$10/24</f>
+      <c r="T8" s="32">
+        <f>$I8+Sheet2!B$10/24</f>
         <v>0.45833333333333326</v>
       </c>
-      <c r="V10" s="38">
-        <f>$I10+Sheet2!B$11/24</f>
+      <c r="U8" s="32">
+        <f>$I8+Sheet2!B$11/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="W10" s="38">
-        <f>$I10+Sheet2!B$12/24</f>
+      <c r="V8" s="32">
+        <f>$I8+Sheet2!B$12/24</f>
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
-      <c r="B11" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="14">
+    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="14">
         <v>1</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D9" s="14">
         <v>10</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="46" t="str">
+      <c r="E9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="37" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I9" s="17">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J11" s="47" t="s">
+      <c r="J9" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="L11" s="43">
+      <c r="K9" s="35">
+        <f>$I9+Sheet2!B$1/24</f>
+        <v>1.125</v>
+      </c>
+      <c r="L9" s="17">
+        <f>$I9+Sheet2!B$2/24</f>
+        <v>1.0833333333333335</v>
+      </c>
+      <c r="M9" s="17">
+        <f>$I9+Sheet2!B$3/24</f>
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="N9" s="17">
+        <f>$I9+Sheet2!B$4/24</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O9" s="17">
+        <f>$I9+Sheet2!B$5/24</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="P9" s="17">
+        <f>$I9+Sheet2!B$6/24</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q9" s="17">
+        <f>$I9+Sheet2!B$7/24</f>
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="R9" s="17">
+        <f>$I9+Sheet2!B$8/24</f>
+        <v>0.75</v>
+      </c>
+      <c r="S9" s="17">
+        <f>$I9+Sheet2!B$9/24</f>
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="T9" s="17">
+        <f>$I9+Sheet2!B$10/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="U9" s="17">
+        <f>$I9+Sheet2!B$11/24</f>
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="V9" s="17">
+        <f>$I9+Sheet2!B$12/24</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="28">
+        <v>2</v>
+      </c>
+      <c r="D10" s="28">
+        <v>11</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="39" t="str">
+        <f>Sheet2!$A$7</f>
+        <v>CEST</v>
+      </c>
+      <c r="I10" s="32">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="34">
+        <f>$I10+Sheet2!B$1/24</f>
+        <v>1.125</v>
+      </c>
+      <c r="L10" s="32">
+        <f>$I10+Sheet2!B$2/24</f>
+        <v>1.0833333333333335</v>
+      </c>
+      <c r="M10" s="32">
+        <f>$I10+Sheet2!B$3/24</f>
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="N10" s="32">
+        <f>$I10+Sheet2!B$4/24</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O10" s="32">
+        <f>$I10+Sheet2!B$5/24</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="P10" s="32">
+        <f>$I10+Sheet2!B$6/24</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q10" s="32">
+        <f>$I10+Sheet2!B$7/24</f>
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="R10" s="32">
+        <f>$I10+Sheet2!B$8/24</f>
+        <v>0.75</v>
+      </c>
+      <c r="S10" s="32">
+        <f>$I10+Sheet2!B$9/24</f>
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="T10" s="32">
+        <f>$I10+Sheet2!B$10/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="U10" s="32">
+        <f>$I10+Sheet2!B$11/24</f>
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="V10" s="32">
+        <f>$I10+Sheet2!B$12/24</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="28">
+        <v>5</v>
+      </c>
+      <c r="D11" s="28">
+        <v>12</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="39" t="str">
+        <f>Sheet2!$A$7</f>
+        <v>CEST</v>
+      </c>
+      <c r="I11" s="32">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="12">
         <f>$I11+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="M11" s="17">
+      <c r="L11" s="32">
         <f>$I11+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="N11" s="17">
+      <c r="M11" s="32">
         <f>$I11+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O11" s="17">
+      <c r="N11" s="32">
         <f>$I11+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P11" s="17">
+      <c r="O11" s="32">
         <f>$I11+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="P11" s="32">
         <f>$I11+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R11" s="17">
+      <c r="Q11" s="32">
         <f>$I11+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S11" s="17">
+      <c r="R11" s="32">
         <f>$I11+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="T11" s="17">
+      <c r="S11" s="32">
         <f>$I11+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U11" s="17">
+      <c r="T11" s="32">
         <f>$I11+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="V11" s="17">
+      <c r="U11" s="32">
         <f>$I11+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W11" s="17">
+      <c r="V11" s="32">
         <f>$I11+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
-      <c r="B12" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="34">
-        <v>2</v>
-      </c>
-      <c r="D12" s="34">
-        <v>11</v>
-      </c>
-      <c r="E12" s="35" t="s">
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="C12" s="28">
+        <v>16</v>
+      </c>
+      <c r="D12" s="28">
+        <v>13</v>
+      </c>
+      <c r="E12" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="48" t="s">
+      <c r="F12" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="48" t="str">
+      <c r="G12" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="39" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="32">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J12" s="44" t="s">
+      <c r="J12" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="L12" s="41">
+      <c r="K12" s="34">
         <f>$I12+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="M12" s="38">
+      <c r="L12" s="32">
         <f>$I12+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="N12" s="38">
+      <c r="M12" s="32">
         <f>$I12+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O12" s="38">
+      <c r="N12" s="32">
         <f>$I12+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P12" s="38">
+      <c r="O12" s="32">
         <f>$I12+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q12" s="38">
+      <c r="P12" s="32">
         <f>$I12+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R12" s="38">
+      <c r="Q12" s="32">
         <f>$I12+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S12" s="38">
+      <c r="R12" s="32">
         <f>$I12+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="T12" s="38">
+      <c r="S12" s="32">
         <f>$I12+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U12" s="38">
+      <c r="T12" s="32">
         <f>$I12+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="V12" s="38">
+      <c r="U12" s="32">
         <f>$I12+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W12" s="38">
+      <c r="V12" s="32">
         <f>$I12+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
-      <c r="B13" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="34">
-        <v>5</v>
-      </c>
-      <c r="D13" s="34">
-        <v>12</v>
-      </c>
-      <c r="E13" s="35" t="s">
+    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="C13" s="28">
+        <v>19</v>
+      </c>
+      <c r="D13" s="28">
+        <v>14</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="48" t="s">
+      <c r="F13" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="48" t="str">
+      <c r="G13" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="39" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
-      <c r="I13" s="38">
+      <c r="I13" s="32">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J13" s="44" t="s">
+      <c r="J13" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="L13" s="12">
+      <c r="K13" s="12">
         <f>$I13+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="M13" s="38">
+      <c r="L13" s="32">
         <f>$I13+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="N13" s="38">
+      <c r="M13" s="32">
         <f>$I13+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O13" s="38">
+      <c r="N13" s="32">
         <f>$I13+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P13" s="38">
+      <c r="O13" s="32">
         <f>$I13+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q13" s="38">
+      <c r="P13" s="32">
         <f>$I13+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R13" s="38">
+      <c r="Q13" s="32">
         <f>$I13+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S13" s="38">
+      <c r="R13" s="32">
         <f>$I13+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="T13" s="38">
+      <c r="S13" s="32">
         <f>$I13+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U13" s="38">
+      <c r="T13" s="32">
         <f>$I13+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="V13" s="38">
+      <c r="U13" s="32">
         <f>$I13+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W13" s="38">
+      <c r="V13" s="32">
         <f>$I13+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
-      <c r="B14" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="34">
-        <v>16</v>
-      </c>
-      <c r="D14" s="34">
-        <v>13</v>
-      </c>
-      <c r="E14" s="35" t="s">
+    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="C14" s="28">
+        <v>20</v>
+      </c>
+      <c r="D14" s="28">
+        <v>15</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="48" t="str">
+      <c r="H14" s="39" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="32">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J14" s="49" t="s">
+      <c r="J14" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="L14" s="41">
+      <c r="K14" s="34">
         <f>$I14+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="M14" s="38">
+      <c r="L14" s="32">
         <f>$I14+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="N14" s="38">
+      <c r="M14" s="32">
         <f>$I14+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O14" s="38">
+      <c r="N14" s="32">
         <f>$I14+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P14" s="38">
+      <c r="O14" s="32">
         <f>$I14+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q14" s="38">
+      <c r="P14" s="32">
         <f>$I14+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R14" s="38">
+      <c r="Q14" s="32">
         <f>$I14+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S14" s="38">
+      <c r="R14" s="32">
         <f>$I14+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="T14" s="38">
+      <c r="S14" s="32">
         <f>$I14+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U14" s="38">
+      <c r="T14" s="32">
         <f>$I14+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="V14" s="38">
+      <c r="U14" s="32">
         <f>$I14+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W14" s="38">
+      <c r="V14" s="32">
         <f>$I14+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
-      <c r="B15" s="33" t="s">
+    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="28">
+        <v>24</v>
+      </c>
+      <c r="D15" s="28">
+        <v>16</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="34">
-        <v>19</v>
-      </c>
-      <c r="D15" s="34">
-        <v>14</v>
-      </c>
-      <c r="E15" s="35" t="s">
+      <c r="G15" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="48" t="str">
+      <c r="H15" s="39" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="32">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J15" s="49" t="s">
+      <c r="J15" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="L15" s="12">
+      <c r="K15" s="12">
         <f>$I15+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="M15" s="38">
+      <c r="L15" s="32">
         <f>$I15+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="N15" s="38">
+      <c r="M15" s="32">
         <f>$I15+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O15" s="38">
+      <c r="N15" s="32">
         <f>$I15+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P15" s="38">
+      <c r="O15" s="32">
         <f>$I15+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q15" s="38">
+      <c r="P15" s="32">
         <f>$I15+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R15" s="38">
+      <c r="Q15" s="32">
         <f>$I15+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="S15" s="38">
+      <c r="R15" s="32">
         <f>$I15+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="T15" s="38">
+      <c r="S15" s="32">
         <f>$I15+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="U15" s="38">
+      <c r="T15" s="32">
         <f>$I15+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="V15" s="38">
+      <c r="U15" s="32">
         <f>$I15+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="W15" s="38">
+      <c r="V15" s="32">
         <f>$I15+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="33" t="s">
+    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="14">
+        <v>22</v>
+      </c>
+      <c r="D16" s="15">
+        <v>17</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="34">
-        <v>20</v>
-      </c>
-      <c r="D16" s="34">
+      <c r="G16" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="J16" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" s="48" t="str">
-        <f>Sheet2!$A$7</f>
-        <v>CEST</v>
-      </c>
-      <c r="I16" s="38">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="J16" s="49" t="s">
+      <c r="K16" s="41">
+        <f>$I16+Sheet2!B$1/24</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="L16" s="17">
+        <f>$I16+Sheet2!B$2/24</f>
+        <v>1.125</v>
+      </c>
+      <c r="M16" s="17">
+        <f>$I16+Sheet2!B$3/24</f>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="N16" s="17">
+        <f>$I16+Sheet2!B$4/24</f>
+        <v>0.875</v>
+      </c>
+      <c r="O16" s="17">
+        <f>$I16+Sheet2!B$5/24</f>
+        <v>0.875</v>
+      </c>
+      <c r="P16" s="17">
+        <f>$I16+Sheet2!B$6/24</f>
+        <v>0.875</v>
+      </c>
+      <c r="Q16" s="17">
+        <f>$I16+Sheet2!B$7/24</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="R16" s="17">
+        <f>$I16+Sheet2!B$8/24</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="S16" s="17">
+        <f>$I16+Sheet2!B$9/24</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T16" s="17">
+        <f>$I16+Sheet2!B$10/24</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="U16" s="17">
+        <f>$I16+Sheet2!B$11/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="V16" s="17">
+        <f>$I16+Sheet2!B$12/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="44">
+        <v>26</v>
+      </c>
+      <c r="D17" s="45">
+        <v>18</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="47">
+        <v>0.75</v>
+      </c>
+      <c r="J17" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="L16" s="41">
-        <f>$I16+Sheet2!B$1/24</f>
+      <c r="K17" s="49">
+        <f>$I17+Sheet2!B$1/24</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="L17" s="47">
+        <f>$I17+Sheet2!B$2/24</f>
         <v>1.125</v>
       </c>
-      <c r="M16" s="38">
-        <f>$I16+Sheet2!B$2/24</f>
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="N16" s="38">
-        <f>$I16+Sheet2!B$3/24</f>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="O16" s="38">
-        <f>$I16+Sheet2!B$4/24</f>
+      <c r="M17" s="47">
+        <f>$I17+Sheet2!B$3/24</f>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="N17" s="47">
+        <f>$I17+Sheet2!B$4/24</f>
+        <v>0.875</v>
+      </c>
+      <c r="O17" s="47">
+        <f>$I17+Sheet2!B$5/24</f>
+        <v>0.875</v>
+      </c>
+      <c r="P17" s="47">
+        <f>$I17+Sheet2!B$6/24</f>
+        <v>0.875</v>
+      </c>
+      <c r="Q17" s="47">
+        <f>$I17+Sheet2!B$7/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P16" s="38">
-        <f>$I16+Sheet2!B$5/24</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="Q16" s="38">
-        <f>$I16+Sheet2!B$6/24</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="R16" s="38">
-        <f>$I16+Sheet2!B$7/24</f>
-        <v>0.79166666666666674</v>
-      </c>
-      <c r="S16" s="38">
-        <f>$I16+Sheet2!B$8/24</f>
-        <v>0.75</v>
-      </c>
-      <c r="T16" s="38">
-        <f>$I16+Sheet2!B$9/24</f>
-        <v>0.54166666666666674</v>
-      </c>
-      <c r="U16" s="38">
-        <f>$I16+Sheet2!B$10/24</f>
+      <c r="R17" s="47">
+        <f>$I17+Sheet2!B$8/24</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="S17" s="47">
+        <f>$I17+Sheet2!B$9/24</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T17" s="47">
+        <f>$I17+Sheet2!B$10/24</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="U17" s="47">
+        <f>$I17+Sheet2!B$11/24</f>
         <v>0.5</v>
       </c>
-      <c r="V16" s="38">
-        <f>$I16+Sheet2!B$11/24</f>
-        <v>0.45833333333333337</v>
-      </c>
-      <c r="W16" s="38">
-        <f>$I16+Sheet2!B$12/24</f>
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="33" t="s">
+      <c r="V17" s="47">
+        <f>$I17+Sheet2!B$12/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="34">
-        <v>24</v>
-      </c>
-      <c r="D17" s="34">
-        <v>16</v>
-      </c>
-      <c r="E17" s="35" t="s">
+      <c r="B18" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="C18" s="28">
+        <v>3</v>
+      </c>
+      <c r="D18" s="28">
+        <v>19</v>
+      </c>
+      <c r="E18" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="48" t="s">
+      <c r="F18" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="48" t="str">
-        <f>Sheet2!$A$7</f>
-        <v>CEST</v>
-      </c>
-      <c r="I17" s="38">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="J17" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="L17" s="12">
-        <f>$I17+Sheet2!B$1/24</f>
-        <v>1.125</v>
-      </c>
-      <c r="M17" s="38">
-        <f>$I17+Sheet2!B$2/24</f>
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="N17" s="38">
-        <f>$I17+Sheet2!B$3/24</f>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="O17" s="38">
-        <f>$I17+Sheet2!B$4/24</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="P17" s="38">
-        <f>$I17+Sheet2!B$5/24</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="Q17" s="38">
-        <f>$I17+Sheet2!B$6/24</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="R17" s="38">
-        <f>$I17+Sheet2!B$7/24</f>
-        <v>0.79166666666666674</v>
-      </c>
-      <c r="S17" s="38">
-        <f>$I17+Sheet2!B$8/24</f>
-        <v>0.75</v>
-      </c>
-      <c r="T17" s="38">
-        <f>$I17+Sheet2!B$9/24</f>
-        <v>0.54166666666666674</v>
-      </c>
-      <c r="U17" s="38">
-        <f>$I17+Sheet2!B$10/24</f>
-        <v>0.5</v>
-      </c>
-      <c r="V17" s="38">
-        <f>$I17+Sheet2!B$11/24</f>
-        <v>0.45833333333333337</v>
-      </c>
-      <c r="W17" s="38">
-        <f>$I17+Sheet2!B$12/24</f>
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="13" t="s">
+      <c r="G18" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="14">
-        <v>22</v>
-      </c>
-      <c r="D18" s="15">
-        <v>17</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="J18" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="L18" s="50">
-        <f>$I18+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="M18" s="17">
-        <f>$I18+Sheet2!B$2/24</f>
-        <v>1.125</v>
-      </c>
-      <c r="N18" s="17">
-        <f>$I18+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="O18" s="17">
-        <f>$I18+Sheet2!B$4/24</f>
-        <v>0.875</v>
-      </c>
-      <c r="P18" s="17">
-        <f>$I18+Sheet2!B$5/24</f>
-        <v>0.875</v>
-      </c>
-      <c r="Q18" s="17">
-        <f>$I18+Sheet2!B$6/24</f>
-        <v>0.875</v>
-      </c>
-      <c r="R18" s="17">
-        <f>$I18+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="S18" s="17">
-        <f>$I18+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="T18" s="17">
-        <f>$I18+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="U18" s="17">
-        <f>$I18+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="V18" s="17">
-        <f>$I18+Sheet2!B$11/24</f>
-        <v>0.5</v>
-      </c>
-      <c r="W18" s="17">
-        <f>$I18+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
-      <c r="B19" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="52">
-        <v>26</v>
-      </c>
-      <c r="D19" s="53">
-        <v>18</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="55">
-        <v>0.75</v>
-      </c>
-      <c r="J19" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="L19" s="58">
-        <f>$I19+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="M19" s="55">
-        <f>$I19+Sheet2!B$2/24</f>
-        <v>1.125</v>
-      </c>
-      <c r="N19" s="55">
-        <f>$I19+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="O19" s="55">
-        <f>$I19+Sheet2!B$4/24</f>
-        <v>0.875</v>
-      </c>
-      <c r="P19" s="55">
-        <f>$I19+Sheet2!B$5/24</f>
-        <v>0.875</v>
-      </c>
-      <c r="Q19" s="55">
-        <f>$I19+Sheet2!B$6/24</f>
-        <v>0.875</v>
-      </c>
-      <c r="R19" s="55">
-        <f>$I19+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="S19" s="55">
-        <f>$I19+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="T19" s="55">
-        <f>$I19+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="U19" s="55">
-        <f>$I19+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="V19" s="55">
-        <f>$I19+Sheet2!B$11/24</f>
-        <v>0.5</v>
-      </c>
-      <c r="W19" s="55">
-        <f>$I19+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="34">
-        <v>3</v>
-      </c>
-      <c r="D20" s="34">
-        <v>19</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="48" t="str">
+      <c r="H18" s="39" t="str">
         <f>Sheet2!$A$9</f>
         <v>EDT</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I18" s="32">
         <v>0.91666666666666696</v>
       </c>
-      <c r="J20" s="44" t="s">
+      <c r="J18" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="L20" s="12">
+      <c r="K18" s="12">
+        <f>$I18+Sheet2!B$1/24</f>
+        <v>1.3333333333333337</v>
+      </c>
+      <c r="L18" s="32">
+        <f>$I18+Sheet2!B$2/24</f>
+        <v>1.291666666666667</v>
+      </c>
+      <c r="M18" s="32">
+        <f>$I18+Sheet2!B$3/24</f>
+        <v>1.2500000000000002</v>
+      </c>
+      <c r="N18" s="32">
+        <f>$I18+Sheet2!B$4/24</f>
+        <v>1.041666666666667</v>
+      </c>
+      <c r="O18" s="32">
+        <f>$I18+Sheet2!B$5/24</f>
+        <v>1.041666666666667</v>
+      </c>
+      <c r="P18" s="32">
+        <f>$I18+Sheet2!B$6/24</f>
+        <v>1.041666666666667</v>
+      </c>
+      <c r="Q18" s="32">
+        <f>$I18+Sheet2!B$7/24</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="R18" s="32">
+        <f>$I18+Sheet2!B$8/24</f>
+        <v>0.95833333333333359</v>
+      </c>
+      <c r="S18" s="32">
+        <f>$I18+Sheet2!B$9/24</f>
+        <v>0.75000000000000033</v>
+      </c>
+      <c r="T18" s="32">
+        <f>$I18+Sheet2!B$10/24</f>
+        <v>0.70833333333333359</v>
+      </c>
+      <c r="U18" s="32">
+        <f>$I18+Sheet2!B$11/24</f>
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="V18" s="32">
+        <f>$I18+Sheet2!B$12/24</f>
+        <v>0.62500000000000022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="28">
+        <v>10</v>
+      </c>
+      <c r="D19" s="28">
+        <v>20</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="39" t="str">
+        <f>Sheet2!$A$9</f>
+        <v>EDT</v>
+      </c>
+      <c r="I19" s="32">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="34">
+        <f>$I19+Sheet2!B$1/24</f>
+        <v>1.3333333333333337</v>
+      </c>
+      <c r="L19" s="32">
+        <f>$I19+Sheet2!B$2/24</f>
+        <v>1.291666666666667</v>
+      </c>
+      <c r="M19" s="32">
+        <f>$I19+Sheet2!B$3/24</f>
+        <v>1.2500000000000002</v>
+      </c>
+      <c r="N19" s="32">
+        <f>$I19+Sheet2!B$4/24</f>
+        <v>1.041666666666667</v>
+      </c>
+      <c r="O19" s="32">
+        <f>$I19+Sheet2!B$5/24</f>
+        <v>1.041666666666667</v>
+      </c>
+      <c r="P19" s="32">
+        <f>$I19+Sheet2!B$6/24</f>
+        <v>1.041666666666667</v>
+      </c>
+      <c r="Q19" s="32">
+        <f>$I19+Sheet2!B$7/24</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="R19" s="32">
+        <f>$I19+Sheet2!B$8/24</f>
+        <v>0.95833333333333359</v>
+      </c>
+      <c r="S19" s="32">
+        <f>$I19+Sheet2!B$9/24</f>
+        <v>0.75000000000000033</v>
+      </c>
+      <c r="T19" s="32">
+        <f>$I19+Sheet2!B$10/24</f>
+        <v>0.70833333333333359</v>
+      </c>
+      <c r="U19" s="32">
+        <f>$I19+Sheet2!B$11/24</f>
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="V19" s="32">
+        <f>$I19+Sheet2!B$12/24</f>
+        <v>0.62500000000000022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+      <c r="B20" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="28">
+        <v>13</v>
+      </c>
+      <c r="D20" s="28">
+        <v>21</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="39" t="str">
+        <f>Sheet2!$A$9</f>
+        <v>EDT</v>
+      </c>
+      <c r="I20" s="32">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="34">
         <f>$I20+Sheet2!B$1/24</f>
         <v>1.3333333333333337</v>
       </c>
-      <c r="M20" s="38">
+      <c r="L20" s="32">
         <f>$I20+Sheet2!B$2/24</f>
         <v>1.291666666666667</v>
       </c>
-      <c r="N20" s="38">
+      <c r="M20" s="32">
         <f>$I20+Sheet2!B$3/24</f>
         <v>1.2500000000000002</v>
       </c>
-      <c r="O20" s="38">
+      <c r="N20" s="32">
         <f>$I20+Sheet2!B$4/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="P20" s="38">
+      <c r="O20" s="32">
         <f>$I20+Sheet2!B$5/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="Q20" s="38">
+      <c r="P20" s="32">
         <f>$I20+Sheet2!B$6/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="R20" s="38">
+      <c r="Q20" s="32">
         <f>$I20+Sheet2!B$7/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="S20" s="38">
+      <c r="R20" s="32">
         <f>$I20+Sheet2!B$8/24</f>
         <v>0.95833333333333359</v>
       </c>
-      <c r="T20" s="38">
+      <c r="S20" s="32">
         <f>$I20+Sheet2!B$9/24</f>
         <v>0.75000000000000033</v>
       </c>
-      <c r="U20" s="38">
+      <c r="T20" s="32">
         <f>$I20+Sheet2!B$10/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="V20" s="38">
+      <c r="U20" s="32">
         <f>$I20+Sheet2!B$11/24</f>
         <v>0.66666666666666696</v>
       </c>
-      <c r="W20" s="38">
+      <c r="V20" s="32">
         <f>$I20+Sheet2!B$12/24</f>
         <v>0.62500000000000022</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
-      <c r="B21" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="34">
-        <v>10</v>
-      </c>
-      <c r="D21" s="34">
-        <v>20</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="48" t="str">
+    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="28">
+        <v>18</v>
+      </c>
+      <c r="D21" s="28">
+        <v>22</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="39" t="str">
         <f>Sheet2!$A$9</f>
         <v>EDT</v>
       </c>
-      <c r="I21" s="38">
+      <c r="I21" s="32">
         <v>0.91666666666666696</v>
       </c>
-      <c r="J21" s="44" t="s">
+      <c r="J21" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="L21" s="41">
+      <c r="K21" s="12">
         <f>$I21+Sheet2!B$1/24</f>
         <v>1.3333333333333337</v>
       </c>
-      <c r="M21" s="38">
+      <c r="L21" s="32">
         <f>$I21+Sheet2!B$2/24</f>
         <v>1.291666666666667</v>
       </c>
-      <c r="N21" s="38">
+      <c r="M21" s="32">
         <f>$I21+Sheet2!B$3/24</f>
         <v>1.2500000000000002</v>
       </c>
-      <c r="O21" s="38">
+      <c r="N21" s="32">
         <f>$I21+Sheet2!B$4/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="P21" s="38">
+      <c r="O21" s="32">
         <f>$I21+Sheet2!B$5/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="Q21" s="38">
+      <c r="P21" s="32">
         <f>$I21+Sheet2!B$6/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="R21" s="38">
+      <c r="Q21" s="32">
         <f>$I21+Sheet2!B$7/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="S21" s="38">
+      <c r="R21" s="32">
         <f>$I21+Sheet2!B$8/24</f>
         <v>0.95833333333333359</v>
       </c>
-      <c r="T21" s="38">
+      <c r="S21" s="32">
         <f>$I21+Sheet2!B$9/24</f>
         <v>0.75000000000000033</v>
       </c>
-      <c r="U21" s="38">
+      <c r="T21" s="32">
         <f>$I21+Sheet2!B$10/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="V21" s="38">
+      <c r="U21" s="32">
         <f>$I21+Sheet2!B$11/24</f>
         <v>0.66666666666666696</v>
       </c>
-      <c r="W21" s="38">
+      <c r="V21" s="32">
         <f>$I21+Sheet2!B$12/24</f>
         <v>0.62500000000000022</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
-      <c r="B22" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="34">
-        <v>13</v>
-      </c>
-      <c r="D22" s="34">
-        <v>21</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="H22" s="48" t="str">
+    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="28">
+        <v>28</v>
+      </c>
+      <c r="D22" s="28">
+        <v>23</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="39" t="str">
         <f>Sheet2!$A$9</f>
         <v>EDT</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I22" s="32">
         <v>0.91666666666666696</v>
       </c>
-      <c r="J22" s="44" t="s">
+      <c r="J22" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="L22" s="41">
+      <c r="K22" s="12">
         <f>$I22+Sheet2!B$1/24</f>
         <v>1.3333333333333337</v>
       </c>
-      <c r="M22" s="38">
+      <c r="L22" s="32">
         <f>$I22+Sheet2!B$2/24</f>
         <v>1.291666666666667</v>
       </c>
-      <c r="N22" s="38">
+      <c r="M22" s="32">
         <f>$I22+Sheet2!B$3/24</f>
         <v>1.2500000000000002</v>
       </c>
-      <c r="O22" s="38">
+      <c r="N22" s="32">
         <f>$I22+Sheet2!B$4/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="P22" s="38">
+      <c r="O22" s="32">
         <f>$I22+Sheet2!B$5/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="Q22" s="38">
+      <c r="P22" s="32">
         <f>$I22+Sheet2!B$6/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="R22" s="38">
+      <c r="Q22" s="32">
         <f>$I22+Sheet2!B$7/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="S22" s="38">
+      <c r="R22" s="32">
         <f>$I22+Sheet2!B$8/24</f>
         <v>0.95833333333333359</v>
       </c>
-      <c r="T22" s="38">
+      <c r="S22" s="32">
         <f>$I22+Sheet2!B$9/24</f>
         <v>0.75000000000000033</v>
       </c>
-      <c r="U22" s="38">
+      <c r="T22" s="32">
         <f>$I22+Sheet2!B$10/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="V22" s="38">
+      <c r="U22" s="32">
         <f>$I22+Sheet2!B$11/24</f>
         <v>0.66666666666666696</v>
       </c>
-      <c r="W22" s="38">
+      <c r="V22" s="32">
         <f>$I22+Sheet2!B$12/24</f>
         <v>0.62500000000000022</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
-      <c r="B23" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="34">
-        <v>18</v>
-      </c>
-      <c r="D23" s="34">
-        <v>22</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="48" t="str">
+    <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="14">
+        <v>6</v>
+      </c>
+      <c r="D23" s="15">
+        <v>24</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="37" t="str">
         <f>Sheet2!$A$9</f>
         <v>EDT</v>
       </c>
-      <c r="I23" s="38">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="J23" s="44" t="s">
+      <c r="I23" s="17">
+        <v>0.95833333333333359</v>
+      </c>
+      <c r="J23" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="K23" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="L23" s="12">
+      <c r="K23" s="41">
         <f>$I23+Sheet2!B$1/24</f>
-        <v>1.3333333333333337</v>
-      </c>
-      <c r="M23" s="38">
+        <v>1.3750000000000002</v>
+      </c>
+      <c r="L23" s="17">
         <f>$I23+Sheet2!B$2/24</f>
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="M23" s="17">
+        <f>$I23+Sheet2!B$3/24</f>
         <v>1.291666666666667</v>
       </c>
-      <c r="N23" s="38">
-        <f>$I23+Sheet2!B$3/24</f>
-        <v>1.2500000000000002</v>
-      </c>
-      <c r="O23" s="38">
+      <c r="N23" s="17">
         <f>$I23+Sheet2!B$4/24</f>
+        <v>1.0833333333333335</v>
+      </c>
+      <c r="O23" s="17">
+        <f>$I23+Sheet2!B$5/24</f>
+        <v>1.0833333333333335</v>
+      </c>
+      <c r="P23" s="17">
+        <f>$I23+Sheet2!B$6/24</f>
+        <v>1.0833333333333335</v>
+      </c>
+      <c r="Q23" s="17">
+        <f>$I23+Sheet2!B$7/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="P23" s="38">
-        <f>$I23+Sheet2!B$5/24</f>
-        <v>1.041666666666667</v>
-      </c>
-      <c r="Q23" s="38">
-        <f>$I23+Sheet2!B$6/24</f>
-        <v>1.041666666666667</v>
-      </c>
-      <c r="R23" s="38">
-        <f>$I23+Sheet2!B$7/24</f>
+      <c r="R23" s="17">
+        <f>$I23+Sheet2!B$8/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="S23" s="38">
-        <f>$I23+Sheet2!B$8/24</f>
-        <v>0.95833333333333359</v>
-      </c>
-      <c r="T23" s="38">
+      <c r="S23" s="17">
         <f>$I23+Sheet2!B$9/24</f>
-        <v>0.75000000000000033</v>
-      </c>
-      <c r="U23" s="38">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="T23" s="17">
         <f>$I23+Sheet2!B$10/24</f>
+        <v>0.75000000000000022</v>
+      </c>
+      <c r="U23" s="17">
+        <f>$I23+Sheet2!B$11/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="V23" s="38">
-        <f>$I23+Sheet2!B$11/24</f>
+      <c r="V23" s="17">
+        <f>$I23+Sheet2!B$12/24</f>
         <v>0.66666666666666696</v>
       </c>
-      <c r="W23" s="38">
-        <f>$I23+Sheet2!B$12/24</f>
-        <v>0.62500000000000022</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
-      <c r="B24" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="14">
-        <v>6</v>
-      </c>
-      <c r="D24" s="15">
-        <v>23</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="14" t="s">
+    </row>
+    <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="28">
+        <v>8</v>
+      </c>
+      <c r="D24" s="28">
+        <v>25</v>
+      </c>
+      <c r="E24" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="H24" s="46" t="str">
-        <f>Sheet2!$A$9</f>
-        <v>EDT</v>
-      </c>
-      <c r="I24" s="17">
-        <v>0.95833333333333359</v>
-      </c>
-      <c r="J24" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="L24" s="50">
-        <f>$I24+Sheet2!B$1/24</f>
-        <v>1.3750000000000002</v>
-      </c>
-      <c r="M24" s="17">
-        <f>$I24+Sheet2!B$2/24</f>
-        <v>1.3333333333333335</v>
-      </c>
-      <c r="N24" s="17">
-        <f>$I24+Sheet2!B$3/24</f>
-        <v>1.291666666666667</v>
-      </c>
-      <c r="O24" s="17">
-        <f>$I24+Sheet2!B$4/24</f>
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="P24" s="17">
-        <f>$I24+Sheet2!B$5/24</f>
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="Q24" s="17">
-        <f>$I24+Sheet2!B$6/24</f>
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="R24" s="17">
-        <f>$I24+Sheet2!B$7/24</f>
-        <v>1.041666666666667</v>
-      </c>
-      <c r="S24" s="17">
-        <f>$I24+Sheet2!B$8/24</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="T24" s="17">
-        <f>$I24+Sheet2!B$9/24</f>
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="U24" s="17">
-        <f>$I24+Sheet2!B$10/24</f>
-        <v>0.75000000000000022</v>
-      </c>
-      <c r="V24" s="17">
-        <f>$I24+Sheet2!B$11/24</f>
-        <v>0.70833333333333359</v>
-      </c>
-      <c r="W24" s="17">
-        <f>$I24+Sheet2!B$12/24</f>
-        <v>0.66666666666666696</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
-      <c r="B25" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="34">
-        <v>8</v>
-      </c>
-      <c r="D25" s="34">
-        <v>24</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="H25" s="48" t="str">
+      <c r="F24" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="39" t="str">
         <f>Sheet2!$A$10</f>
         <v>CDT</v>
       </c>
-      <c r="I25" s="38">
+      <c r="I24" s="32">
         <v>0.95833333333333304</v>
       </c>
-      <c r="J25" s="44" t="s">
+      <c r="J24" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="L25" s="12">
+      <c r="K24" s="12">
+        <f>$I24+Sheet2!B$1/24</f>
+        <v>1.3749999999999998</v>
+      </c>
+      <c r="L24" s="32">
+        <f>$I24+Sheet2!B$2/24</f>
+        <v>1.333333333333333</v>
+      </c>
+      <c r="M24" s="32">
+        <f>$I24+Sheet2!B$3/24</f>
+        <v>1.2916666666666663</v>
+      </c>
+      <c r="N24" s="32">
+        <f>$I24+Sheet2!B$4/24</f>
+        <v>1.083333333333333</v>
+      </c>
+      <c r="O24" s="32">
+        <f>$I24+Sheet2!B$5/24</f>
+        <v>1.083333333333333</v>
+      </c>
+      <c r="P24" s="32">
+        <f>$I24+Sheet2!B$6/24</f>
+        <v>1.083333333333333</v>
+      </c>
+      <c r="Q24" s="32">
+        <f>$I24+Sheet2!B$7/24</f>
+        <v>1.0416666666666663</v>
+      </c>
+      <c r="R24" s="32">
+        <f>$I24+Sheet2!B$8/24</f>
+        <v>0.99999999999999967</v>
+      </c>
+      <c r="S24" s="32">
+        <f>$I24+Sheet2!B$9/24</f>
+        <v>0.79166666666666641</v>
+      </c>
+      <c r="T24" s="32">
+        <f>$I24+Sheet2!B$10/24</f>
+        <v>0.74999999999999967</v>
+      </c>
+      <c r="U24" s="32">
+        <f>$I24+Sheet2!B$11/24</f>
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="V24" s="32">
+        <f>$I24+Sheet2!B$12/24</f>
+        <v>0.6666666666666663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="28">
+        <v>23</v>
+      </c>
+      <c r="D25" s="28">
+        <v>26</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="39" t="str">
+        <f>Sheet2!$A$10</f>
+        <v>CDT</v>
+      </c>
+      <c r="I25" s="32">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="J25" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="34">
         <f>$I25+Sheet2!B$1/24</f>
         <v>1.3749999999999998</v>
       </c>
-      <c r="M25" s="38">
+      <c r="L25" s="32">
         <f>$I25+Sheet2!B$2/24</f>
         <v>1.333333333333333</v>
       </c>
-      <c r="N25" s="38">
+      <c r="M25" s="32">
         <f>$I25+Sheet2!B$3/24</f>
         <v>1.2916666666666663</v>
       </c>
-      <c r="O25" s="38">
+      <c r="N25" s="32">
         <f>$I25+Sheet2!B$4/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="P25" s="38">
+      <c r="O25" s="32">
         <f>$I25+Sheet2!B$5/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="Q25" s="38">
+      <c r="P25" s="32">
         <f>$I25+Sheet2!B$6/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="R25" s="38">
+      <c r="Q25" s="32">
         <f>$I25+Sheet2!B$7/24</f>
         <v>1.0416666666666663</v>
       </c>
-      <c r="S25" s="38">
+      <c r="R25" s="32">
         <f>$I25+Sheet2!B$8/24</f>
         <v>0.99999999999999967</v>
       </c>
-      <c r="T25" s="38">
+      <c r="S25" s="32">
         <f>$I25+Sheet2!B$9/24</f>
         <v>0.79166666666666641</v>
       </c>
-      <c r="U25" s="38">
+      <c r="T25" s="32">
         <f>$I25+Sheet2!B$10/24</f>
         <v>0.74999999999999967</v>
       </c>
-      <c r="V25" s="38">
+      <c r="U25" s="32">
         <f>$I25+Sheet2!B$11/24</f>
         <v>0.70833333333333304</v>
       </c>
-      <c r="W25" s="38">
+      <c r="V25" s="32">
         <f>$I25+Sheet2!B$12/24</f>
         <v>0.6666666666666663</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
-      <c r="B26" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="34">
-        <v>23</v>
-      </c>
-      <c r="D26" s="34">
-        <v>25</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="H26" s="48" t="str">
-        <f>Sheet2!$A$10</f>
-        <v>CDT</v>
-      </c>
-      <c r="I26" s="38">
-        <v>0.95833333333333304</v>
-      </c>
-      <c r="J26" s="44" t="s">
+    <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="14">
+        <v>17</v>
+      </c>
+      <c r="D26" s="14">
+        <v>27</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="17">
+        <v>1</v>
+      </c>
+      <c r="J26" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="L26" s="41">
+      <c r="K26" s="35">
         <f>$I26+Sheet2!B$1/24</f>
-        <v>1.3749999999999998</v>
-      </c>
-      <c r="M26" s="38">
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="L26" s="17">
         <f>$I26+Sheet2!B$2/24</f>
-        <v>1.333333333333333</v>
-      </c>
-      <c r="N26" s="38">
+        <v>1.375</v>
+      </c>
+      <c r="M26" s="17">
         <f>$I26+Sheet2!B$3/24</f>
-        <v>1.2916666666666663</v>
-      </c>
-      <c r="O26" s="38">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="N26" s="17">
         <f>$I26+Sheet2!B$4/24</f>
-        <v>1.083333333333333</v>
-      </c>
-      <c r="P26" s="38">
+        <v>1.125</v>
+      </c>
+      <c r="O26" s="17">
         <f>$I26+Sheet2!B$5/24</f>
-        <v>1.083333333333333</v>
-      </c>
-      <c r="Q26" s="38">
+        <v>1.125</v>
+      </c>
+      <c r="P26" s="17">
         <f>$I26+Sheet2!B$6/24</f>
-        <v>1.083333333333333</v>
-      </c>
-      <c r="R26" s="38">
+        <v>1.125</v>
+      </c>
+      <c r="Q26" s="17">
         <f>$I26+Sheet2!B$7/24</f>
-        <v>1.0416666666666663</v>
-      </c>
-      <c r="S26" s="38">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="R26" s="17">
         <f>$I26+Sheet2!B$8/24</f>
-        <v>0.99999999999999967</v>
-      </c>
-      <c r="T26" s="38">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="S26" s="17">
         <f>$I26+Sheet2!B$9/24</f>
-        <v>0.79166666666666641</v>
-      </c>
-      <c r="U26" s="38">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="T26" s="17">
         <f>$I26+Sheet2!B$10/24</f>
-        <v>0.74999999999999967</v>
-      </c>
-      <c r="V26" s="38">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="U26" s="17">
         <f>$I26+Sheet2!B$11/24</f>
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="W26" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="V26" s="17">
         <f>$I26+Sheet2!B$12/24</f>
-        <v>0.6666666666666663</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
-      <c r="B27" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="14">
-        <v>17</v>
-      </c>
-      <c r="D27" s="14">
-        <v>26</v>
+        <v>0.70833333333333326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="15">
+        <v>9</v>
+      </c>
+      <c r="D27" s="15">
+        <v>28</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="17">
-        <v>1</v>
-      </c>
-      <c r="J27" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" s="19"/>
-      <c r="L27" s="43">
-        <f>$I27+Sheet2!B$1/24</f>
-        <v>1.4166666666666667</v>
-      </c>
-      <c r="M27" s="17">
-        <f>$I27+Sheet2!B$2/24</f>
-        <v>1.375</v>
-      </c>
-      <c r="N27" s="17">
-        <f>$I27+Sheet2!B$3/24</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O27" s="17">
-        <f>$I27+Sheet2!B$4/24</f>
-        <v>1.125</v>
-      </c>
-      <c r="P27" s="17">
-        <f>$I27+Sheet2!B$5/24</f>
-        <v>1.125</v>
-      </c>
-      <c r="Q27" s="17">
-        <f>$I27+Sheet2!B$6/24</f>
-        <v>1.125</v>
-      </c>
-      <c r="R27" s="17">
-        <f>$I27+Sheet2!B$7/24</f>
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="S27" s="17">
-        <f>$I27+Sheet2!B$8/24</f>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="T27" s="17">
-        <f>$I27+Sheet2!B$9/24</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="U27" s="17">
-        <f>$I27+Sheet2!B$10/24</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="V27" s="17">
-        <f>$I27+Sheet2!B$11/24</f>
-        <v>0.75</v>
-      </c>
-      <c r="W27" s="17">
-        <f>$I27+Sheet2!B$12/24</f>
-        <v>0.70833333333333326</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
-      <c r="B28" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="15">
-        <v>9</v>
-      </c>
-      <c r="D28" s="15">
-        <v>27</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="H28" s="48" t="str">
+        <v>68</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="39" t="str">
         <f>Sheet2!$A$12</f>
         <v>PDT</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I27" s="17">
         <v>1.041666666666667</v>
       </c>
-      <c r="J28" s="47" t="s">
+      <c r="J27" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="50">
-        <f>$I28+Sheet2!B$1/24</f>
+      <c r="K27" s="41">
+        <f>$I27+Sheet2!B$1/24</f>
         <v>1.4583333333333337</v>
       </c>
-      <c r="M28" s="17">
-        <f>$I28+Sheet2!B$2/24</f>
+      <c r="L27" s="17">
+        <f>$I27+Sheet2!B$2/24</f>
         <v>1.416666666666667</v>
       </c>
-      <c r="N28" s="17">
-        <f>$I28+Sheet2!B$3/24</f>
+      <c r="M27" s="17">
+        <f>$I27+Sheet2!B$3/24</f>
         <v>1.3750000000000002</v>
       </c>
-      <c r="O28" s="17">
-        <f>$I28+Sheet2!B$4/24</f>
+      <c r="N27" s="17">
+        <f>$I27+Sheet2!B$4/24</f>
         <v>1.166666666666667</v>
       </c>
-      <c r="P28" s="17">
-        <f>$I28+Sheet2!B$5/24</f>
+      <c r="O27" s="17">
+        <f>$I27+Sheet2!B$5/24</f>
         <v>1.166666666666667</v>
       </c>
-      <c r="Q28" s="17">
-        <f>$I28+Sheet2!B$6/24</f>
+      <c r="P27" s="17">
+        <f>$I27+Sheet2!B$6/24</f>
         <v>1.166666666666667</v>
       </c>
-      <c r="R28" s="17">
-        <f>$I28+Sheet2!B$7/24</f>
+      <c r="Q27" s="17">
+        <f>$I27+Sheet2!B$7/24</f>
         <v>1.1250000000000002</v>
       </c>
-      <c r="S28" s="17">
-        <f>$I28+Sheet2!B$8/24</f>
+      <c r="R27" s="17">
+        <f>$I27+Sheet2!B$8/24</f>
         <v>1.0833333333333337</v>
       </c>
-      <c r="T28" s="17">
-        <f>$I28+Sheet2!B$9/24</f>
+      <c r="S27" s="17">
+        <f>$I27+Sheet2!B$9/24</f>
         <v>0.87500000000000033</v>
       </c>
-      <c r="U28" s="17">
-        <f>$I28+Sheet2!B$10/24</f>
+      <c r="T27" s="17">
+        <f>$I27+Sheet2!B$10/24</f>
         <v>0.83333333333333359</v>
       </c>
-      <c r="V28" s="17">
-        <f>$I28+Sheet2!B$11/24</f>
+      <c r="U27" s="17">
+        <f>$I27+Sheet2!B$11/24</f>
         <v>0.79166666666666696</v>
       </c>
-      <c r="W28" s="17">
-        <f>$I28+Sheet2!B$12/24</f>
+      <c r="V27" s="17">
+        <f>$I27+Sheet2!B$12/24</f>
         <v>0.75000000000000022</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:W28">
-    <sortCondition ref="D2:D28"/>
+  <sortState ref="B2:V27">
+    <sortCondition ref="D2:D27"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+    <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
+      <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" hiddenColumns="1">
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
-    <mergeCell ref="A5:A19"/>
-    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="A18:A27"/>
     <mergeCell ref="A2:A4"/>
   </mergeCells>
-  <conditionalFormatting sqref="N4:W17 M3:M28 L2:M2 L3 L19:W28">
-    <cfRule type="expression" dxfId="14" priority="17">
-      <formula>L$1=$H2</formula>
+  <conditionalFormatting sqref="K2:L2 K3:V27">
+    <cfRule type="expression" dxfId="2" priority="17">
+      <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:W2">
-    <cfRule type="expression" dxfId="13" priority="19">
-      <formula>O$1=$I2</formula>
+  <conditionalFormatting sqref="K2:V2">
+    <cfRule type="expression" dxfId="1" priority="19">
+      <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:M17">
-    <cfRule type="expression" dxfId="12" priority="16">
-      <formula>L$1=$H5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2">
-    <cfRule type="expression" dxfId="11" priority="13">
-      <formula>N$1=$I2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4:M4">
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>L$1=$H4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N18:W18">
-    <cfRule type="expression" dxfId="9" priority="11">
-      <formula>N$1=$H18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L18:M18">
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>L$1=$H18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3:W3">
-    <cfRule type="expression" dxfId="7" priority="9">
-      <formula>N$1=$H3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3:M3">
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>L$1=$H3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:W28">
-    <cfRule type="expression" dxfId="5" priority="23">
+  <conditionalFormatting sqref="B2:V27">
+    <cfRule type="expression" dxfId="0" priority="23">
       <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>M$1=$I2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>M$1=$H18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>M$1=$H3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>L$1=$I2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>L$1=$H3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3778,24 +3373,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B1">
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B2">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3806,7 +3401,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3817,7 +3412,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -3829,7 +3424,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -3846,7 +3441,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3862,7 +3457,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3878,7 +3473,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3894,7 +3489,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3910,7 +3505,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3926,7 +3521,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3942,10 +3537,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}">
+      <selection activeCell="A13" sqref="A13"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -20,8 +20,8 @@
   </definedNames>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="112">
   <si>
     <t>Name</t>
   </si>
@@ -366,6 +366,9 @@
   </si>
   <si>
     <t>&lt;https://swgoh.gg/u/atchoum/&gt;</t>
+  </si>
+  <si>
+    <t>Europe</t>
   </si>
 </sst>
 </file>
@@ -761,9 +764,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -802,16 +802,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -824,21 +827,6 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1174,7 +1162,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="4" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="4.5703125" style="4" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" style="4" customWidth="1"/>
@@ -1503,165 +1491,167 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="27">
         <v>12</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="27">
         <v>5</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="31" t="str">
+      <c r="H5" s="30" t="str">
         <f>Sheet2!$A$4</f>
         <v>MSK</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="31">
         <v>0.625</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="33">
         <f>$I5+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="31">
         <f>$I5+Sheet2!B$2/24</f>
         <v>1</v>
       </c>
-      <c r="M5" s="32">
+      <c r="M5" s="31">
         <f>$I5+Sheet2!B$3/24</f>
         <v>0.95833333333333326</v>
       </c>
-      <c r="N5" s="32">
+      <c r="N5" s="31">
         <f>$I5+Sheet2!B$4/24</f>
         <v>0.75</v>
       </c>
-      <c r="O5" s="32">
+      <c r="O5" s="31">
         <f>$I5+Sheet2!B$5/24</f>
         <v>0.75</v>
       </c>
-      <c r="P5" s="32">
+      <c r="P5" s="31">
         <f>$I5+Sheet2!B$6/24</f>
         <v>0.75</v>
       </c>
-      <c r="Q5" s="32">
+      <c r="Q5" s="31">
         <f>$I5+Sheet2!B$7/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="R5" s="32">
+      <c r="R5" s="31">
         <f>$I5+Sheet2!B$8/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="S5" s="32">
+      <c r="S5" s="31">
         <f>$I5+Sheet2!B$9/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="T5" s="32">
+      <c r="T5" s="31">
         <f>$I5+Sheet2!B$10/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="U5" s="32">
+      <c r="U5" s="31">
         <f>$I5+Sheet2!B$11/24</f>
         <v>0.375</v>
       </c>
-      <c r="V5" s="32">
+      <c r="V5" s="31">
         <f>$I5+Sheet2!B$12/24</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="27">
         <v>14</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="27">
         <v>6</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="31" t="str">
+      <c r="H6" s="30" t="str">
         <f>Sheet2!$A$4</f>
         <v>MSK</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="31">
         <v>0.625</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="32" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="12">
         <f>$I6+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="31">
         <f>$I6+Sheet2!B$2/24</f>
         <v>1</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="31">
         <f>$I6+Sheet2!B$3/24</f>
         <v>0.95833333333333326</v>
       </c>
-      <c r="N6" s="32">
+      <c r="N6" s="31">
         <f>$I6+Sheet2!B$4/24</f>
         <v>0.75</v>
       </c>
-      <c r="O6" s="32">
+      <c r="O6" s="31">
         <f>$I6+Sheet2!B$5/24</f>
         <v>0.75</v>
       </c>
-      <c r="P6" s="32">
+      <c r="P6" s="31">
         <f>$I6+Sheet2!B$6/24</f>
         <v>0.75</v>
       </c>
-      <c r="Q6" s="32">
+      <c r="Q6" s="31">
         <f>$I6+Sheet2!B$7/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="R6" s="32">
+      <c r="R6" s="31">
         <f>$I6+Sheet2!B$8/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="S6" s="32">
+      <c r="S6" s="31">
         <f>$I6+Sheet2!B$9/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="T6" s="32">
+      <c r="T6" s="31">
         <f>$I6+Sheet2!B$10/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="U6" s="32">
+      <c r="U6" s="31">
         <f>$I6+Sheet2!B$11/24</f>
         <v>0.375</v>
       </c>
-      <c r="V6" s="32">
+      <c r="V6" s="31">
         <f>$I6+Sheet2!B$12/24</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="13" t="s">
         <v>25</v>
       </c>
@@ -1690,7 +1680,7 @@
       <c r="J7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="34">
         <f>$I7+Sheet2!B$1/24</f>
         <v>1.0833333333333333</v>
       </c>
@@ -1740,86 +1730,86 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="27">
         <v>7</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="27">
         <v>9</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="31" t="str">
+      <c r="H8" s="30" t="str">
         <f>Sheet2!$A$6</f>
         <v>EEST</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="31">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="J8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="33">
         <f>$I8+Sheet2!B$1/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="31">
         <f>$I8+Sheet2!B$2/24</f>
         <v>1.0416666666666665</v>
       </c>
-      <c r="M8" s="32">
+      <c r="M8" s="31">
         <f>$I8+Sheet2!B$3/24</f>
         <v>1</v>
       </c>
-      <c r="N8" s="32">
+      <c r="N8" s="31">
         <f>$I8+Sheet2!B$4/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="O8" s="32">
+      <c r="O8" s="31">
         <f>$I8+Sheet2!B$5/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="P8" s="32">
+      <c r="P8" s="31">
         <f>$I8+Sheet2!B$6/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="Q8" s="32">
+      <c r="Q8" s="31">
         <f>$I8+Sheet2!B$7/24</f>
         <v>0.75</v>
       </c>
-      <c r="R8" s="32">
+      <c r="R8" s="31">
         <f>$I8+Sheet2!B$8/24</f>
         <v>0.70833333333333326</v>
       </c>
-      <c r="S8" s="32">
+      <c r="S8" s="31">
         <f>$I8+Sheet2!B$9/24</f>
         <v>0.5</v>
       </c>
-      <c r="T8" s="32">
+      <c r="T8" s="31">
         <f>$I8+Sheet2!B$10/24</f>
         <v>0.45833333333333326</v>
       </c>
-      <c r="U8" s="32">
+      <c r="U8" s="31">
         <f>$I8+Sheet2!B$11/24</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="V8" s="32">
+      <c r="V8" s="31">
         <f>$I8+Sheet2!B$12/24</f>
         <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="13" t="s">
         <v>33</v>
       </c>
@@ -1835,20 +1825,20 @@
       <c r="F9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="37" t="str">
+      <c r="H9" s="36" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
       <c r="I9" s="17">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="34">
         <f>$I9+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
@@ -1898,481 +1888,481 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="27">
         <v>2</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="27">
         <v>11</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="39" t="str">
+      <c r="H10" s="38" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="31">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="33">
         <f>$I10+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="31">
         <f>$I10+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M10" s="32">
+      <c r="M10" s="31">
         <f>$I10+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N10" s="32">
+      <c r="N10" s="31">
         <f>$I10+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O10" s="32">
+      <c r="O10" s="31">
         <f>$I10+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P10" s="32">
+      <c r="P10" s="31">
         <f>$I10+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q10" s="32">
+      <c r="Q10" s="31">
         <f>$I10+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R10" s="32">
+      <c r="R10" s="31">
         <f>$I10+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S10" s="32">
+      <c r="S10" s="31">
         <f>$I10+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T10" s="32">
+      <c r="T10" s="31">
         <f>$I10+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U10" s="32">
+      <c r="U10" s="31">
         <f>$I10+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V10" s="32">
+      <c r="V10" s="31">
         <f>$I10+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="27">
         <v>5</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="27">
         <v>12</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="39" t="str">
+      <c r="H11" s="38" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="31">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="35" t="s">
         <v>15</v>
       </c>
       <c r="K11" s="12">
         <f>$I11+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="31">
         <f>$I11+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M11" s="32">
+      <c r="M11" s="31">
         <f>$I11+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N11" s="32">
+      <c r="N11" s="31">
         <f>$I11+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O11" s="32">
+      <c r="O11" s="31">
         <f>$I11+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P11" s="32">
+      <c r="P11" s="31">
         <f>$I11+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q11" s="32">
+      <c r="Q11" s="31">
         <f>$I11+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R11" s="32">
+      <c r="R11" s="31">
         <f>$I11+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S11" s="32">
+      <c r="S11" s="31">
         <f>$I11+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T11" s="32">
+      <c r="T11" s="31">
         <f>$I11+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U11" s="32">
+      <c r="U11" s="31">
         <f>$I11+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V11" s="32">
+      <c r="V11" s="31">
         <f>$I11+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="27">
         <v>16</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="27">
         <v>13</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="39" t="str">
+      <c r="H12" s="38" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="31">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J12" s="40" t="s">
+      <c r="J12" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="33">
         <f>$I12+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="31">
         <f>$I12+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M12" s="31">
         <f>$I12+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N12" s="32">
+      <c r="N12" s="31">
         <f>$I12+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O12" s="32">
+      <c r="O12" s="31">
         <f>$I12+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P12" s="32">
+      <c r="P12" s="31">
         <f>$I12+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q12" s="32">
+      <c r="Q12" s="31">
         <f>$I12+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R12" s="32">
+      <c r="R12" s="31">
         <f>$I12+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S12" s="32">
+      <c r="S12" s="31">
         <f>$I12+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T12" s="32">
+      <c r="T12" s="31">
         <f>$I12+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U12" s="32">
+      <c r="U12" s="31">
         <f>$I12+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V12" s="32">
+      <c r="V12" s="31">
         <f>$I12+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="27">
         <v>19</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="27">
         <v>14</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="39" t="str">
+      <c r="H13" s="38" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="31">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J13" s="40" t="s">
+      <c r="J13" s="39" t="s">
         <v>15</v>
       </c>
       <c r="K13" s="12">
         <f>$I13+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L13" s="32">
+      <c r="L13" s="31">
         <f>$I13+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M13" s="32">
+      <c r="M13" s="31">
         <f>$I13+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N13" s="32">
+      <c r="N13" s="31">
         <f>$I13+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O13" s="32">
+      <c r="O13" s="31">
         <f>$I13+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P13" s="32">
+      <c r="P13" s="31">
         <f>$I13+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q13" s="32">
+      <c r="Q13" s="31">
         <f>$I13+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R13" s="32">
+      <c r="R13" s="31">
         <f>$I13+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S13" s="32">
+      <c r="S13" s="31">
         <f>$I13+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T13" s="32">
+      <c r="T13" s="31">
         <f>$I13+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U13" s="32">
+      <c r="U13" s="31">
         <f>$I13+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V13" s="32">
+      <c r="V13" s="31">
         <f>$I13+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="27">
         <v>20</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="27">
         <v>15</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="39" t="str">
+      <c r="H14" s="38" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="31">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J14" s="40" t="s">
+      <c r="J14" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="33">
         <f>$I14+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L14" s="32">
+      <c r="L14" s="31">
         <f>$I14+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M14" s="32">
+      <c r="M14" s="31">
         <f>$I14+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N14" s="32">
+      <c r="N14" s="31">
         <f>$I14+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O14" s="32">
+      <c r="O14" s="31">
         <f>$I14+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P14" s="32">
+      <c r="P14" s="31">
         <f>$I14+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q14" s="32">
+      <c r="Q14" s="31">
         <f>$I14+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R14" s="32">
+      <c r="R14" s="31">
         <f>$I14+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S14" s="32">
+      <c r="S14" s="31">
         <f>$I14+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T14" s="32">
+      <c r="T14" s="31">
         <f>$I14+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U14" s="32">
+      <c r="U14" s="31">
         <f>$I14+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V14" s="32">
+      <c r="V14" s="31">
         <f>$I14+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="27">
         <v>24</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="27">
         <v>16</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="39" t="str">
+      <c r="H15" s="38" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I15" s="31">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J15" s="40" t="s">
+      <c r="J15" s="39" t="s">
         <v>15</v>
       </c>
       <c r="K15" s="12">
         <f>$I15+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L15" s="32">
+      <c r="L15" s="31">
         <f>$I15+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M15" s="32">
+      <c r="M15" s="31">
         <f>$I15+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N15" s="32">
+      <c r="N15" s="31">
         <f>$I15+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O15" s="32">
+      <c r="O15" s="31">
         <f>$I15+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P15" s="32">
+      <c r="P15" s="31">
         <f>$I15+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q15" s="32">
+      <c r="Q15" s="31">
         <f>$I15+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R15" s="32">
+      <c r="R15" s="31">
         <f>$I15+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S15" s="32">
+      <c r="S15" s="31">
         <f>$I15+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T15" s="32">
+      <c r="T15" s="31">
         <f>$I15+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U15" s="32">
+      <c r="U15" s="31">
         <f>$I15+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V15" s="32">
+      <c r="V15" s="31">
         <f>$I15+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="13" t="s">
         <v>57</v>
       </c>
@@ -2388,19 +2378,19 @@
       <c r="F16" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="36" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="17">
         <v>0.75</v>
       </c>
-      <c r="J16" s="38" t="s">
+      <c r="J16" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="41">
+      <c r="K16" s="40">
         <f>$I16+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
       </c>
@@ -2450,482 +2440,482 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="43" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="43">
         <v>26</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="44">
         <v>18</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="46" t="s">
+      <c r="G17" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="46" t="s">
+      <c r="H17" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="47">
+      <c r="I17" s="46">
         <v>0.75</v>
       </c>
-      <c r="J17" s="48" t="s">
+      <c r="J17" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="49">
+      <c r="K17" s="48">
         <f>$I17+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="L17" s="47">
+      <c r="L17" s="46">
         <f>$I17+Sheet2!B$2/24</f>
         <v>1.125</v>
       </c>
-      <c r="M17" s="47">
+      <c r="M17" s="46">
         <f>$I17+Sheet2!B$3/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="N17" s="47">
+      <c r="N17" s="46">
         <f>$I17+Sheet2!B$4/24</f>
         <v>0.875</v>
       </c>
-      <c r="O17" s="47">
+      <c r="O17" s="46">
         <f>$I17+Sheet2!B$5/24</f>
         <v>0.875</v>
       </c>
-      <c r="P17" s="47">
+      <c r="P17" s="46">
         <f>$I17+Sheet2!B$6/24</f>
         <v>0.875</v>
       </c>
-      <c r="Q17" s="47">
+      <c r="Q17" s="46">
         <f>$I17+Sheet2!B$7/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R17" s="47">
+      <c r="R17" s="46">
         <f>$I17+Sheet2!B$8/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="S17" s="47">
+      <c r="S17" s="46">
         <f>$I17+Sheet2!B$9/24</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="T17" s="47">
+      <c r="T17" s="46">
         <f>$I17+Sheet2!B$10/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="U17" s="47">
+      <c r="U17" s="46">
         <f>$I17+Sheet2!B$11/24</f>
         <v>0.5</v>
       </c>
-      <c r="V17" s="47">
+      <c r="V17" s="46">
         <f>$I17+Sheet2!B$12/24</f>
         <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="27">
         <v>3</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="27">
         <v>19</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="39" t="str">
+      <c r="H18" s="38" t="str">
         <f>Sheet2!$A$9</f>
         <v>EDT</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="31">
         <v>0.91666666666666696</v>
       </c>
-      <c r="J18" s="36" t="s">
+      <c r="J18" s="35" t="s">
         <v>15</v>
       </c>
       <c r="K18" s="12">
         <f>$I18+Sheet2!B$1/24</f>
         <v>1.3333333333333337</v>
       </c>
-      <c r="L18" s="32">
+      <c r="L18" s="31">
         <f>$I18+Sheet2!B$2/24</f>
         <v>1.291666666666667</v>
       </c>
-      <c r="M18" s="32">
+      <c r="M18" s="31">
         <f>$I18+Sheet2!B$3/24</f>
         <v>1.2500000000000002</v>
       </c>
-      <c r="N18" s="32">
+      <c r="N18" s="31">
         <f>$I18+Sheet2!B$4/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="O18" s="32">
+      <c r="O18" s="31">
         <f>$I18+Sheet2!B$5/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="P18" s="32">
+      <c r="P18" s="31">
         <f>$I18+Sheet2!B$6/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="Q18" s="32">
+      <c r="Q18" s="31">
         <f>$I18+Sheet2!B$7/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="R18" s="32">
+      <c r="R18" s="31">
         <f>$I18+Sheet2!B$8/24</f>
         <v>0.95833333333333359</v>
       </c>
-      <c r="S18" s="32">
+      <c r="S18" s="31">
         <f>$I18+Sheet2!B$9/24</f>
         <v>0.75000000000000033</v>
       </c>
-      <c r="T18" s="32">
+      <c r="T18" s="31">
         <f>$I18+Sheet2!B$10/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="U18" s="32">
+      <c r="U18" s="31">
         <f>$I18+Sheet2!B$11/24</f>
         <v>0.66666666666666696</v>
       </c>
-      <c r="V18" s="32">
+      <c r="V18" s="31">
         <f>$I18+Sheet2!B$12/24</f>
         <v>0.62500000000000022</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="27">
         <v>10</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="27">
         <v>20</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="H19" s="39" t="str">
+      <c r="H19" s="38" t="str">
         <f>Sheet2!$A$9</f>
         <v>EDT</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="31">
         <v>0.91666666666666696</v>
       </c>
-      <c r="J19" s="36" t="s">
+      <c r="J19" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="33">
         <f>$I19+Sheet2!B$1/24</f>
         <v>1.3333333333333337</v>
       </c>
-      <c r="L19" s="32">
+      <c r="L19" s="31">
         <f>$I19+Sheet2!B$2/24</f>
         <v>1.291666666666667</v>
       </c>
-      <c r="M19" s="32">
+      <c r="M19" s="31">
         <f>$I19+Sheet2!B$3/24</f>
         <v>1.2500000000000002</v>
       </c>
-      <c r="N19" s="32">
+      <c r="N19" s="31">
         <f>$I19+Sheet2!B$4/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="O19" s="32">
+      <c r="O19" s="31">
         <f>$I19+Sheet2!B$5/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="P19" s="32">
+      <c r="P19" s="31">
         <f>$I19+Sheet2!B$6/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="Q19" s="32">
+      <c r="Q19" s="31">
         <f>$I19+Sheet2!B$7/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="R19" s="32">
+      <c r="R19" s="31">
         <f>$I19+Sheet2!B$8/24</f>
         <v>0.95833333333333359</v>
       </c>
-      <c r="S19" s="32">
+      <c r="S19" s="31">
         <f>$I19+Sheet2!B$9/24</f>
         <v>0.75000000000000033</v>
       </c>
-      <c r="T19" s="32">
+      <c r="T19" s="31">
         <f>$I19+Sheet2!B$10/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="U19" s="32">
+      <c r="U19" s="31">
         <f>$I19+Sheet2!B$11/24</f>
         <v>0.66666666666666696</v>
       </c>
-      <c r="V19" s="32">
+      <c r="V19" s="31">
         <f>$I19+Sheet2!B$12/24</f>
         <v>0.62500000000000022</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="27">
         <v>13</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="27">
         <v>21</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="G20" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="39" t="str">
+      <c r="H20" s="38" t="str">
         <f>Sheet2!$A$9</f>
         <v>EDT</v>
       </c>
-      <c r="I20" s="32">
+      <c r="I20" s="31">
         <v>0.91666666666666696</v>
       </c>
-      <c r="J20" s="36" t="s">
+      <c r="J20" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="33">
         <f>$I20+Sheet2!B$1/24</f>
         <v>1.3333333333333337</v>
       </c>
-      <c r="L20" s="32">
+      <c r="L20" s="31">
         <f>$I20+Sheet2!B$2/24</f>
         <v>1.291666666666667</v>
       </c>
-      <c r="M20" s="32">
+      <c r="M20" s="31">
         <f>$I20+Sheet2!B$3/24</f>
         <v>1.2500000000000002</v>
       </c>
-      <c r="N20" s="32">
+      <c r="N20" s="31">
         <f>$I20+Sheet2!B$4/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="O20" s="32">
+      <c r="O20" s="31">
         <f>$I20+Sheet2!B$5/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="P20" s="32">
+      <c r="P20" s="31">
         <f>$I20+Sheet2!B$6/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="Q20" s="32">
+      <c r="Q20" s="31">
         <f>$I20+Sheet2!B$7/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="R20" s="32">
+      <c r="R20" s="31">
         <f>$I20+Sheet2!B$8/24</f>
         <v>0.95833333333333359</v>
       </c>
-      <c r="S20" s="32">
+      <c r="S20" s="31">
         <f>$I20+Sheet2!B$9/24</f>
         <v>0.75000000000000033</v>
       </c>
-      <c r="T20" s="32">
+      <c r="T20" s="31">
         <f>$I20+Sheet2!B$10/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="U20" s="32">
+      <c r="U20" s="31">
         <f>$I20+Sheet2!B$11/24</f>
         <v>0.66666666666666696</v>
       </c>
-      <c r="V20" s="32">
+      <c r="V20" s="31">
         <f>$I20+Sheet2!B$12/24</f>
         <v>0.62500000000000022</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27" t="s">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="27">
         <v>18</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="27">
         <v>22</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H21" s="39" t="str">
+      <c r="H21" s="38" t="str">
         <f>Sheet2!$A$9</f>
         <v>EDT</v>
       </c>
-      <c r="I21" s="32">
+      <c r="I21" s="31">
         <v>0.91666666666666696</v>
       </c>
-      <c r="J21" s="36" t="s">
+      <c r="J21" s="35" t="s">
         <v>15</v>
       </c>
       <c r="K21" s="12">
         <f>$I21+Sheet2!B$1/24</f>
         <v>1.3333333333333337</v>
       </c>
-      <c r="L21" s="32">
+      <c r="L21" s="31">
         <f>$I21+Sheet2!B$2/24</f>
         <v>1.291666666666667</v>
       </c>
-      <c r="M21" s="32">
+      <c r="M21" s="31">
         <f>$I21+Sheet2!B$3/24</f>
         <v>1.2500000000000002</v>
       </c>
-      <c r="N21" s="32">
+      <c r="N21" s="31">
         <f>$I21+Sheet2!B$4/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="O21" s="32">
+      <c r="O21" s="31">
         <f>$I21+Sheet2!B$5/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="P21" s="32">
+      <c r="P21" s="31">
         <f>$I21+Sheet2!B$6/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="Q21" s="32">
+      <c r="Q21" s="31">
         <f>$I21+Sheet2!B$7/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="R21" s="32">
+      <c r="R21" s="31">
         <f>$I21+Sheet2!B$8/24</f>
         <v>0.95833333333333359</v>
       </c>
-      <c r="S21" s="32">
+      <c r="S21" s="31">
         <f>$I21+Sheet2!B$9/24</f>
         <v>0.75000000000000033</v>
       </c>
-      <c r="T21" s="32">
+      <c r="T21" s="31">
         <f>$I21+Sheet2!B$10/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="U21" s="32">
+      <c r="U21" s="31">
         <f>$I21+Sheet2!B$11/24</f>
         <v>0.66666666666666696</v>
       </c>
-      <c r="V21" s="32">
+      <c r="V21" s="31">
         <f>$I21+Sheet2!B$12/24</f>
         <v>0.62500000000000022</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27" t="s">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="27">
         <v>28</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="27">
         <v>23</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="51" t="s">
+      <c r="F22" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="39" t="str">
+      <c r="H22" s="38" t="str">
         <f>Sheet2!$A$9</f>
         <v>EDT</v>
       </c>
-      <c r="I22" s="32">
+      <c r="I22" s="31">
         <v>0.91666666666666696</v>
       </c>
-      <c r="J22" s="36" t="s">
+      <c r="J22" s="35" t="s">
         <v>15</v>
       </c>
       <c r="K22" s="12">
         <f>$I22+Sheet2!B$1/24</f>
         <v>1.3333333333333337</v>
       </c>
-      <c r="L22" s="32">
+      <c r="L22" s="31">
         <f>$I22+Sheet2!B$2/24</f>
         <v>1.291666666666667</v>
       </c>
-      <c r="M22" s="32">
+      <c r="M22" s="31">
         <f>$I22+Sheet2!B$3/24</f>
         <v>1.2500000000000002</v>
       </c>
-      <c r="N22" s="32">
+      <c r="N22" s="31">
         <f>$I22+Sheet2!B$4/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="O22" s="32">
+      <c r="O22" s="31">
         <f>$I22+Sheet2!B$5/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="P22" s="32">
+      <c r="P22" s="31">
         <f>$I22+Sheet2!B$6/24</f>
         <v>1.041666666666667</v>
       </c>
-      <c r="Q22" s="32">
+      <c r="Q22" s="31">
         <f>$I22+Sheet2!B$7/24</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="R22" s="32">
+      <c r="R22" s="31">
         <f>$I22+Sheet2!B$8/24</f>
         <v>0.95833333333333359</v>
       </c>
-      <c r="S22" s="32">
+      <c r="S22" s="31">
         <f>$I22+Sheet2!B$9/24</f>
         <v>0.75000000000000033</v>
       </c>
-      <c r="T22" s="32">
+      <c r="T22" s="31">
         <f>$I22+Sheet2!B$10/24</f>
         <v>0.70833333333333359</v>
       </c>
-      <c r="U22" s="32">
+      <c r="U22" s="31">
         <f>$I22+Sheet2!B$11/24</f>
         <v>0.66666666666666696</v>
       </c>
-      <c r="V22" s="32">
+      <c r="V22" s="31">
         <f>$I22+Sheet2!B$12/24</f>
         <v>0.62500000000000022</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="13" t="s">
         <v>104</v>
       </c>
@@ -2941,20 +2931,20 @@
       <c r="F23" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="H23" s="37" t="str">
+      <c r="H23" s="36" t="str">
         <f>Sheet2!$A$9</f>
         <v>EDT</v>
       </c>
       <c r="I23" s="17">
         <v>0.95833333333333359</v>
       </c>
-      <c r="J23" s="38" t="s">
+      <c r="J23" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="K23" s="41">
+      <c r="K23" s="40">
         <f>$I23+Sheet2!B$1/24</f>
         <v>1.3750000000000002</v>
       </c>
@@ -3004,166 +2994,166 @@
       </c>
     </row>
     <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27" t="s">
+      <c r="A24" s="25"/>
+      <c r="B24" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="27">
         <v>8</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="27">
         <v>25</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="39" t="s">
+      <c r="G24" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="H24" s="39" t="str">
+      <c r="H24" s="38" t="str">
         <f>Sheet2!$A$10</f>
         <v>CDT</v>
       </c>
-      <c r="I24" s="32">
+      <c r="I24" s="31">
         <v>0.95833333333333304</v>
       </c>
-      <c r="J24" s="36" t="s">
+      <c r="J24" s="35" t="s">
         <v>15</v>
       </c>
       <c r="K24" s="12">
         <f>$I24+Sheet2!B$1/24</f>
         <v>1.3749999999999998</v>
       </c>
-      <c r="L24" s="32">
+      <c r="L24" s="31">
         <f>$I24+Sheet2!B$2/24</f>
         <v>1.333333333333333</v>
       </c>
-      <c r="M24" s="32">
+      <c r="M24" s="31">
         <f>$I24+Sheet2!B$3/24</f>
         <v>1.2916666666666663</v>
       </c>
-      <c r="N24" s="32">
+      <c r="N24" s="31">
         <f>$I24+Sheet2!B$4/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="O24" s="32">
+      <c r="O24" s="31">
         <f>$I24+Sheet2!B$5/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="P24" s="32">
+      <c r="P24" s="31">
         <f>$I24+Sheet2!B$6/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="Q24" s="32">
+      <c r="Q24" s="31">
         <f>$I24+Sheet2!B$7/24</f>
         <v>1.0416666666666663</v>
       </c>
-      <c r="R24" s="32">
+      <c r="R24" s="31">
         <f>$I24+Sheet2!B$8/24</f>
         <v>0.99999999999999967</v>
       </c>
-      <c r="S24" s="32">
+      <c r="S24" s="31">
         <f>$I24+Sheet2!B$9/24</f>
         <v>0.79166666666666641</v>
       </c>
-      <c r="T24" s="32">
+      <c r="T24" s="31">
         <f>$I24+Sheet2!B$10/24</f>
         <v>0.74999999999999967</v>
       </c>
-      <c r="U24" s="32">
+      <c r="U24" s="31">
         <f>$I24+Sheet2!B$11/24</f>
         <v>0.70833333333333304</v>
       </c>
-      <c r="V24" s="32">
+      <c r="V24" s="31">
         <f>$I24+Sheet2!B$12/24</f>
         <v>0.6666666666666663</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27" t="s">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="27">
         <v>23</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="27">
         <v>26</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="H25" s="39" t="str">
+      <c r="H25" s="38" t="str">
         <f>Sheet2!$A$10</f>
         <v>CDT</v>
       </c>
-      <c r="I25" s="32">
+      <c r="I25" s="31">
         <v>0.95833333333333304</v>
       </c>
-      <c r="J25" s="36" t="s">
+      <c r="J25" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="34">
+      <c r="K25" s="33">
         <f>$I25+Sheet2!B$1/24</f>
         <v>1.3749999999999998</v>
       </c>
-      <c r="L25" s="32">
+      <c r="L25" s="31">
         <f>$I25+Sheet2!B$2/24</f>
         <v>1.333333333333333</v>
       </c>
-      <c r="M25" s="32">
+      <c r="M25" s="31">
         <f>$I25+Sheet2!B$3/24</f>
         <v>1.2916666666666663</v>
       </c>
-      <c r="N25" s="32">
+      <c r="N25" s="31">
         <f>$I25+Sheet2!B$4/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="O25" s="32">
+      <c r="O25" s="31">
         <f>$I25+Sheet2!B$5/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="P25" s="32">
+      <c r="P25" s="31">
         <f>$I25+Sheet2!B$6/24</f>
         <v>1.083333333333333</v>
       </c>
-      <c r="Q25" s="32">
+      <c r="Q25" s="31">
         <f>$I25+Sheet2!B$7/24</f>
         <v>1.0416666666666663</v>
       </c>
-      <c r="R25" s="32">
+      <c r="R25" s="31">
         <f>$I25+Sheet2!B$8/24</f>
         <v>0.99999999999999967</v>
       </c>
-      <c r="S25" s="32">
+      <c r="S25" s="31">
         <f>$I25+Sheet2!B$9/24</f>
         <v>0.79166666666666641</v>
       </c>
-      <c r="T25" s="32">
+      <c r="T25" s="31">
         <f>$I25+Sheet2!B$10/24</f>
         <v>0.74999999999999967</v>
       </c>
-      <c r="U25" s="32">
+      <c r="U25" s="31">
         <f>$I25+Sheet2!B$11/24</f>
         <v>0.70833333333333304</v>
       </c>
-      <c r="V25" s="32">
+      <c r="V25" s="31">
         <f>$I25+Sheet2!B$12/24</f>
         <v>0.6666666666666663</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="50" t="s">
+      <c r="A26" s="25"/>
+      <c r="B26" s="51" t="s">
         <v>81</v>
       </c>
       <c r="C26" s="14">
@@ -3178,19 +3168,19 @@
       <c r="F26" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="51" t="s">
         <v>13</v>
       </c>
       <c r="I26" s="17">
         <v>1</v>
       </c>
-      <c r="J26" s="38" t="s">
+      <c r="J26" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="35">
+      <c r="K26" s="34">
         <f>$I26+Sheet2!B$1/24</f>
         <v>1.4166666666666667</v>
       </c>
@@ -3240,8 +3230,8 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="27" t="s">
+      <c r="A27" s="25"/>
+      <c r="B27" s="26" t="s">
         <v>103</v>
       </c>
       <c r="C27" s="15">
@@ -3256,20 +3246,20 @@
       <c r="F27" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G27" s="37" t="s">
+      <c r="G27" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="39" t="str">
+      <c r="H27" s="38" t="str">
         <f>Sheet2!$A$12</f>
         <v>PDT</v>
       </c>
       <c r="I27" s="17">
         <v>1.041666666666667</v>
       </c>
-      <c r="J27" s="38" t="s">
+      <c r="J27" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="41">
+      <c r="K27" s="40">
         <f>$I27+Sheet2!B$1/24</f>
         <v>1.4583333333333337</v>
       </c>
@@ -3323,11 +3313,11 @@
     <sortCondition ref="D2:D27"/>
   </sortState>
   <customSheetViews>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
       <selection sqref="A1:XFD1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -20,8 +20,8 @@
   </definedNames>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -209,9 +209,6 @@
     <t>Elnino</t>
   </si>
   <si>
-    <t>UK, England</t>
-  </si>
-  <si>
     <t>:flag_gb:</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>Noe</t>
   </si>
   <si>
-    <t>USA, South Carolina</t>
-  </si>
-  <si>
     <t>:flag_us:</t>
   </si>
   <si>
@@ -248,48 +242,30 @@
     <t>Fire</t>
   </si>
   <si>
-    <t>USA, Ohio</t>
-  </si>
-  <si>
     <t>&lt;https://swgoh.gg/u/fireguy/&gt;</t>
   </si>
   <si>
-    <t>USA, Pennsylvania</t>
-  </si>
-  <si>
     <t>&lt;https://swgoh.gg/u/lordvader%2066/&gt;</t>
   </si>
   <si>
     <t>kahhns</t>
   </si>
   <si>
-    <t>USA, Illinois</t>
-  </si>
-  <si>
     <t>&lt;https://swgoh.gg/u/kahhns/&gt;</t>
   </si>
   <si>
     <t>Phalanx</t>
   </si>
   <si>
-    <t>USA, Minnesota</t>
-  </si>
-  <si>
     <t>&lt;https://swgoh.gg/u/phalanx7452/&gt;</t>
   </si>
   <si>
     <t>Bernie</t>
   </si>
   <si>
-    <t>USA, Colorado</t>
-  </si>
-  <si>
     <t>&lt;https://swgoh.gg/u/berniewankensanders/&gt;</t>
   </si>
   <si>
-    <t>USA, Oregon</t>
-  </si>
-  <si>
     <t>&lt;https://swgoh.gg/u/raspywalker/&gt;</t>
   </si>
   <si>
@@ -314,9 +290,6 @@
     <t>ChST</t>
   </si>
   <si>
-    <t>USA, Virginia</t>
-  </si>
-  <si>
     <t>&lt;https://swgoh.gg/u/charparrliesh/&gt;</t>
   </si>
   <si>
@@ -369,6 +342,24 @@
   </si>
   <si>
     <t>Europe</t>
+  </si>
+  <si>
+    <t>darthweqponx1</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Jefferz</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>&lt;https://swgoh.gg/u/jeffrah/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://swgoh.gg/u/darthweqponx/&gt;</t>
   </si>
 </sst>
 </file>
@@ -1153,19 +1144,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="4" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="4.5703125" style="4" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="4" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="42.7109375" style="4" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
@@ -1206,7 +1197,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>H3</f>
@@ -1233,23 +1224,23 @@
         <v>CEST</v>
       </c>
       <c r="R1" s="3" t="str">
-        <f>H17</f>
+        <f>H18</f>
         <v>BST</v>
       </c>
       <c r="S1" s="3" t="str">
-        <f>H18</f>
+        <f>H19</f>
         <v>EDT</v>
       </c>
       <c r="T1" s="3" t="str">
-        <f>H24</f>
+        <f>H25</f>
         <v>CDT</v>
       </c>
       <c r="U1" s="3" t="str">
-        <f>H26</f>
+        <f>H28</f>
         <v>MDT</v>
       </c>
       <c r="V1" s="3" t="str">
-        <f>H27</f>
+        <f>H29</f>
         <v>PDT</v>
       </c>
     </row>
@@ -1258,7 +1249,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C2" s="7">
         <v>25</v>
@@ -1267,16 +1258,16 @@
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I2" s="10">
         <v>0.33333333333333331</v>
@@ -1336,7 +1327,7 @@
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="13" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C3" s="14">
         <v>27</v>
@@ -1345,16 +1336,16 @@
         <v>2</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I3" s="17">
         <v>0.375</v>
@@ -1492,10 +1483,10 @@
     </row>
     <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C5" s="27">
         <v>12</v>
@@ -1969,7 +1960,7 @@
     <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C11" s="27">
         <v>5</v>
@@ -2285,7 +2276,7 @@
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="26" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C15" s="27">
         <v>24</v>
@@ -2373,13 +2364,13 @@
         <v>17</v>
       </c>
       <c r="E16" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="G16" s="36" t="s">
         <v>59</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>60</v>
       </c>
       <c r="H16" s="36" t="s">
         <v>12</v>
@@ -2440,183 +2431,182 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="43">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="27">
         <v>26</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="28">
         <v>18</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="45" t="s">
+      <c r="G17" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="46">
+      <c r="I17" s="31">
         <v>0.75</v>
       </c>
-      <c r="J17" s="47" t="s">
+      <c r="J17" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="48">
+      <c r="K17" s="33">
         <f>$I17+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="L17" s="46">
+      <c r="L17" s="31">
         <f>$I17+Sheet2!B$2/24</f>
         <v>1.125</v>
       </c>
-      <c r="M17" s="46">
+      <c r="M17" s="31">
         <f>$I17+Sheet2!B$3/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="N17" s="46">
+      <c r="N17" s="31">
         <f>$I17+Sheet2!B$4/24</f>
         <v>0.875</v>
       </c>
-      <c r="O17" s="46">
+      <c r="O17" s="31">
         <f>$I17+Sheet2!B$5/24</f>
         <v>0.875</v>
       </c>
-      <c r="P17" s="46">
+      <c r="P17" s="31">
         <f>$I17+Sheet2!B$6/24</f>
         <v>0.875</v>
       </c>
-      <c r="Q17" s="46">
+      <c r="Q17" s="31">
         <f>$I17+Sheet2!B$7/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R17" s="46">
+      <c r="R17" s="31">
         <f>$I17+Sheet2!B$8/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="S17" s="46">
+      <c r="S17" s="31">
         <f>$I17+Sheet2!B$9/24</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="T17" s="46">
+      <c r="T17" s="31">
         <f>$I17+Sheet2!B$10/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="U17" s="46">
+      <c r="U17" s="31">
         <f>$I17+Sheet2!B$11/24</f>
         <v>0.5</v>
       </c>
-      <c r="V17" s="46">
+      <c r="V17" s="31">
         <f>$I17+Sheet2!B$12/24</f>
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+    <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="43">
+        <v>30</v>
+      </c>
+      <c r="D18" s="44">
+        <v>19</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="46">
+        <v>0.75</v>
+      </c>
+      <c r="J18" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="48">
+        <f>$I18+Sheet2!B$1/24</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="L18" s="46">
+        <f>$I18+Sheet2!B$2/24</f>
+        <v>1.125</v>
+      </c>
+      <c r="M18" s="46">
+        <f>$I18+Sheet2!B$3/24</f>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="N18" s="46">
+        <f>$I18+Sheet2!B$4/24</f>
+        <v>0.875</v>
+      </c>
+      <c r="O18" s="46">
+        <f>$I18+Sheet2!B$5/24</f>
+        <v>0.875</v>
+      </c>
+      <c r="P18" s="46">
+        <f>$I18+Sheet2!B$6/24</f>
+        <v>0.875</v>
+      </c>
+      <c r="Q18" s="46">
+        <f>$I18+Sheet2!B$7/24</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="R18" s="46">
+        <f>$I18+Sheet2!B$8/24</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="S18" s="46">
+        <f>$I18+Sheet2!B$9/24</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T18" s="46">
+        <f>$I18+Sheet2!B$10/24</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="U18" s="46">
+        <f>$I18+Sheet2!B$11/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="V18" s="46">
+        <f>$I18+Sheet2!B$12/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="27">
+      <c r="C19" s="27">
         <v>3</v>
-      </c>
-      <c r="D18" s="27">
-        <v>19</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="38" t="str">
-        <f>Sheet2!$A$9</f>
-        <v>EDT</v>
-      </c>
-      <c r="I18" s="31">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="12">
-        <f>$I18+Sheet2!B$1/24</f>
-        <v>1.3333333333333337</v>
-      </c>
-      <c r="L18" s="31">
-        <f>$I18+Sheet2!B$2/24</f>
-        <v>1.291666666666667</v>
-      </c>
-      <c r="M18" s="31">
-        <f>$I18+Sheet2!B$3/24</f>
-        <v>1.2500000000000002</v>
-      </c>
-      <c r="N18" s="31">
-        <f>$I18+Sheet2!B$4/24</f>
-        <v>1.041666666666667</v>
-      </c>
-      <c r="O18" s="31">
-        <f>$I18+Sheet2!B$5/24</f>
-        <v>1.041666666666667</v>
-      </c>
-      <c r="P18" s="31">
-        <f>$I18+Sheet2!B$6/24</f>
-        <v>1.041666666666667</v>
-      </c>
-      <c r="Q18" s="31">
-        <f>$I18+Sheet2!B$7/24</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="R18" s="31">
-        <f>$I18+Sheet2!B$8/24</f>
-        <v>0.95833333333333359</v>
-      </c>
-      <c r="S18" s="31">
-        <f>$I18+Sheet2!B$9/24</f>
-        <v>0.75000000000000033</v>
-      </c>
-      <c r="T18" s="31">
-        <f>$I18+Sheet2!B$10/24</f>
-        <v>0.70833333333333359</v>
-      </c>
-      <c r="U18" s="31">
-        <f>$I18+Sheet2!B$11/24</f>
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="V18" s="31">
-        <f>$I18+Sheet2!B$12/24</f>
-        <v>0.62500000000000022</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="27">
-        <v>10</v>
       </c>
       <c r="D19" s="27">
         <v>20</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="H19" s="38" t="str">
         <f>Sheet2!$A$9</f>
@@ -2628,7 +2618,7 @@
       <c r="J19" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="12">
         <f>$I19+Sheet2!B$1/24</f>
         <v>1.3333333333333337</v>
       </c>
@@ -2680,22 +2670,22 @@
     <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="26" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C20" s="27">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D20" s="27">
         <v>21</v>
       </c>
-      <c r="E20" s="28" t="s">
-        <v>67</v>
+      <c r="E20" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="H20" s="38" t="str">
         <f>Sheet2!$A$9</f>
@@ -2759,22 +2749,22 @@
     <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="26" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C21" s="27">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D21" s="27">
         <v>22</v>
       </c>
-      <c r="E21" s="28" t="s">
-        <v>71</v>
+      <c r="E21" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H21" s="38" t="str">
         <f>Sheet2!$A$9</f>
@@ -2786,7 +2776,7 @@
       <c r="J21" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="33">
         <f>$I21+Sheet2!B$1/24</f>
         <v>1.3333333333333337</v>
       </c>
@@ -2838,22 +2828,22 @@
     <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="26" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C22" s="27">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D22" s="27">
         <v>23</v>
       </c>
-      <c r="E22" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="50" t="s">
-        <v>64</v>
+      <c r="E22" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>66</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="H22" s="38" t="str">
         <f>Sheet2!$A$9</f>
@@ -2916,181 +2906,181 @@
     </row>
     <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
-      <c r="B23" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="14">
-        <v>6</v>
-      </c>
-      <c r="D23" s="15">
+      <c r="B23" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="27">
+        <v>28</v>
+      </c>
+      <c r="D23" s="27">
         <v>24</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" s="36" t="str">
+      <c r="E23" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="38" t="str">
         <f>Sheet2!$A$9</f>
         <v>EDT</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="31">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="J23" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="12">
+        <f>$I23+Sheet2!B$1/24</f>
+        <v>1.3333333333333337</v>
+      </c>
+      <c r="L23" s="31">
+        <f>$I23+Sheet2!B$2/24</f>
+        <v>1.291666666666667</v>
+      </c>
+      <c r="M23" s="31">
+        <f>$I23+Sheet2!B$3/24</f>
+        <v>1.2500000000000002</v>
+      </c>
+      <c r="N23" s="31">
+        <f>$I23+Sheet2!B$4/24</f>
+        <v>1.041666666666667</v>
+      </c>
+      <c r="O23" s="31">
+        <f>$I23+Sheet2!B$5/24</f>
+        <v>1.041666666666667</v>
+      </c>
+      <c r="P23" s="31">
+        <f>$I23+Sheet2!B$6/24</f>
+        <v>1.041666666666667</v>
+      </c>
+      <c r="Q23" s="31">
+        <f>$I23+Sheet2!B$7/24</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="R23" s="31">
+        <f>$I23+Sheet2!B$8/24</f>
         <v>0.95833333333333359</v>
       </c>
-      <c r="J23" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="40">
-        <f>$I23+Sheet2!B$1/24</f>
-        <v>1.3750000000000002</v>
-      </c>
-      <c r="L23" s="17">
-        <f>$I23+Sheet2!B$2/24</f>
-        <v>1.3333333333333335</v>
-      </c>
-      <c r="M23" s="17">
-        <f>$I23+Sheet2!B$3/24</f>
-        <v>1.291666666666667</v>
-      </c>
-      <c r="N23" s="17">
-        <f>$I23+Sheet2!B$4/24</f>
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="O23" s="17">
-        <f>$I23+Sheet2!B$5/24</f>
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="P23" s="17">
-        <f>$I23+Sheet2!B$6/24</f>
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="Q23" s="17">
-        <f>$I23+Sheet2!B$7/24</f>
-        <v>1.041666666666667</v>
-      </c>
-      <c r="R23" s="17">
-        <f>$I23+Sheet2!B$8/24</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="S23" s="17">
+      <c r="S23" s="31">
         <f>$I23+Sheet2!B$9/24</f>
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="T23" s="17">
+        <v>0.75000000000000033</v>
+      </c>
+      <c r="T23" s="31">
         <f>$I23+Sheet2!B$10/24</f>
-        <v>0.75000000000000022</v>
-      </c>
-      <c r="U23" s="17">
+        <v>0.70833333333333359</v>
+      </c>
+      <c r="U23" s="31">
         <f>$I23+Sheet2!B$11/24</f>
-        <v>0.70833333333333359</v>
-      </c>
-      <c r="V23" s="17">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="V23" s="31">
         <f>$I23+Sheet2!B$12/24</f>
-        <v>0.66666666666666696</v>
+        <v>0.62500000000000022</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
-      <c r="B24" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="27">
-        <v>8</v>
-      </c>
-      <c r="D24" s="27">
+      <c r="B24" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="14">
+        <v>6</v>
+      </c>
+      <c r="D24" s="15">
         <v>25</v>
       </c>
-      <c r="E24" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="38" t="str">
-        <f>Sheet2!$A$10</f>
-        <v>CDT</v>
-      </c>
-      <c r="I24" s="31">
-        <v>0.95833333333333304</v>
-      </c>
-      <c r="J24" s="35" t="s">
+      <c r="E24" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="36" t="str">
+        <f>Sheet2!$A$9</f>
+        <v>EDT</v>
+      </c>
+      <c r="I24" s="17">
+        <v>0.95833333333333359</v>
+      </c>
+      <c r="J24" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="40">
         <f>$I24+Sheet2!B$1/24</f>
-        <v>1.3749999999999998</v>
-      </c>
-      <c r="L24" s="31">
+        <v>1.3750000000000002</v>
+      </c>
+      <c r="L24" s="17">
         <f>$I24+Sheet2!B$2/24</f>
-        <v>1.333333333333333</v>
-      </c>
-      <c r="M24" s="31">
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="M24" s="17">
         <f>$I24+Sheet2!B$3/24</f>
-        <v>1.2916666666666663</v>
-      </c>
-      <c r="N24" s="31">
+        <v>1.291666666666667</v>
+      </c>
+      <c r="N24" s="17">
         <f>$I24+Sheet2!B$4/24</f>
-        <v>1.083333333333333</v>
-      </c>
-      <c r="O24" s="31">
+        <v>1.0833333333333335</v>
+      </c>
+      <c r="O24" s="17">
         <f>$I24+Sheet2!B$5/24</f>
-        <v>1.083333333333333</v>
-      </c>
-      <c r="P24" s="31">
+        <v>1.0833333333333335</v>
+      </c>
+      <c r="P24" s="17">
         <f>$I24+Sheet2!B$6/24</f>
-        <v>1.083333333333333</v>
-      </c>
-      <c r="Q24" s="31">
+        <v>1.0833333333333335</v>
+      </c>
+      <c r="Q24" s="17">
         <f>$I24+Sheet2!B$7/24</f>
-        <v>1.0416666666666663</v>
-      </c>
-      <c r="R24" s="31">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="R24" s="17">
         <f>$I24+Sheet2!B$8/24</f>
-        <v>0.99999999999999967</v>
-      </c>
-      <c r="S24" s="31">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="S24" s="17">
         <f>$I24+Sheet2!B$9/24</f>
-        <v>0.79166666666666641</v>
-      </c>
-      <c r="T24" s="31">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="T24" s="17">
         <f>$I24+Sheet2!B$10/24</f>
-        <v>0.74999999999999967</v>
-      </c>
-      <c r="U24" s="31">
+        <v>0.75000000000000022</v>
+      </c>
+      <c r="U24" s="17">
         <f>$I24+Sheet2!B$11/24</f>
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="V24" s="31">
+        <v>0.70833333333333359</v>
+      </c>
+      <c r="V24" s="17">
         <f>$I24+Sheet2!B$12/24</f>
-        <v>0.6666666666666663</v>
+        <v>0.66666666666666696</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="26" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C25" s="27">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D25" s="27">
         <v>26</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H25" s="38" t="str">
         <f>Sheet2!$A$10</f>
@@ -3102,7 +3092,7 @@
       <c r="J25" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="12">
         <f>$I25+Sheet2!B$1/24</f>
         <v>1.3749999999999998</v>
       </c>
@@ -3153,80 +3143,81 @@
     </row>
     <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
-      <c r="B26" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="14">
-        <v>17</v>
-      </c>
-      <c r="D26" s="14">
+      <c r="B26" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="27">
+        <v>23</v>
+      </c>
+      <c r="D26" s="27">
         <v>27</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="H26" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="17">
-        <v>1</v>
-      </c>
-      <c r="J26" s="37" t="s">
+      <c r="E26" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="38" t="str">
+        <f>Sheet2!$A$10</f>
+        <v>CDT</v>
+      </c>
+      <c r="I26" s="31">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="J26" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="34">
+      <c r="K26" s="33">
         <f>$I26+Sheet2!B$1/24</f>
-        <v>1.4166666666666667</v>
-      </c>
-      <c r="L26" s="17">
+        <v>1.3749999999999998</v>
+      </c>
+      <c r="L26" s="31">
         <f>$I26+Sheet2!B$2/24</f>
-        <v>1.375</v>
-      </c>
-      <c r="M26" s="17">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="M26" s="31">
         <f>$I26+Sheet2!B$3/24</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="N26" s="17">
+        <v>1.2916666666666663</v>
+      </c>
+      <c r="N26" s="31">
         <f>$I26+Sheet2!B$4/24</f>
-        <v>1.125</v>
-      </c>
-      <c r="O26" s="17">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="O26" s="31">
         <f>$I26+Sheet2!B$5/24</f>
-        <v>1.125</v>
-      </c>
-      <c r="P26" s="17">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="P26" s="31">
         <f>$I26+Sheet2!B$6/24</f>
-        <v>1.125</v>
-      </c>
-      <c r="Q26" s="17">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="Q26" s="31">
         <f>$I26+Sheet2!B$7/24</f>
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="R26" s="17">
+        <v>1.0416666666666663</v>
+      </c>
+      <c r="R26" s="31">
         <f>$I26+Sheet2!B$8/24</f>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="S26" s="17">
+        <v>0.99999999999999967</v>
+      </c>
+      <c r="S26" s="31">
         <f>$I26+Sheet2!B$9/24</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="T26" s="17">
+        <v>0.79166666666666641</v>
+      </c>
+      <c r="T26" s="31">
         <f>$I26+Sheet2!B$10/24</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="U26" s="17">
+        <v>0.74999999999999967</v>
+      </c>
+      <c r="U26" s="31">
         <f>$I26+Sheet2!B$11/24</f>
-        <v>0.75</v>
-      </c>
-      <c r="V26" s="17">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="V26" s="31">
         <f>$I26+Sheet2!B$12/24</f>
-        <v>0.70833333333333326</v>
+        <v>0.6666666666666663</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -3234,109 +3225,266 @@
       <c r="B27" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="27">
+        <v>29</v>
+      </c>
+      <c r="D27" s="27">
+        <v>28</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="38" t="str">
+        <f>Sheet2!$A$10</f>
+        <v>CDT</v>
+      </c>
+      <c r="I27" s="31">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="J27" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="33">
+        <f>$I27+Sheet2!B$1/24</f>
+        <v>1.3749999999999998</v>
+      </c>
+      <c r="L27" s="31">
+        <f>$I27+Sheet2!B$2/24</f>
+        <v>1.333333333333333</v>
+      </c>
+      <c r="M27" s="31">
+        <f>$I27+Sheet2!B$3/24</f>
+        <v>1.2916666666666663</v>
+      </c>
+      <c r="N27" s="31">
+        <f>$I27+Sheet2!B$4/24</f>
+        <v>1.083333333333333</v>
+      </c>
+      <c r="O27" s="31">
+        <f>$I27+Sheet2!B$5/24</f>
+        <v>1.083333333333333</v>
+      </c>
+      <c r="P27" s="31">
+        <f>$I27+Sheet2!B$6/24</f>
+        <v>1.083333333333333</v>
+      </c>
+      <c r="Q27" s="31">
+        <f>$I27+Sheet2!B$7/24</f>
+        <v>1.0416666666666663</v>
+      </c>
+      <c r="R27" s="31">
+        <f>$I27+Sheet2!B$8/24</f>
+        <v>0.99999999999999967</v>
+      </c>
+      <c r="S27" s="31">
+        <f>$I27+Sheet2!B$9/24</f>
+        <v>0.79166666666666641</v>
+      </c>
+      <c r="T27" s="31">
+        <f>$I27+Sheet2!B$10/24</f>
+        <v>0.74999999999999967</v>
+      </c>
+      <c r="U27" s="31">
+        <f>$I27+Sheet2!B$11/24</f>
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="V27" s="31">
+        <f>$I27+Sheet2!B$12/24</f>
+        <v>0.6666666666666663</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="14">
+        <v>17</v>
+      </c>
+      <c r="D28" s="14">
+        <v>29</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="17">
+        <v>1</v>
+      </c>
+      <c r="J28" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="34">
+        <f>$I28+Sheet2!B$1/24</f>
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="L28" s="17">
+        <f>$I28+Sheet2!B$2/24</f>
+        <v>1.375</v>
+      </c>
+      <c r="M28" s="17">
+        <f>$I28+Sheet2!B$3/24</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="N28" s="17">
+        <f>$I28+Sheet2!B$4/24</f>
+        <v>1.125</v>
+      </c>
+      <c r="O28" s="17">
+        <f>$I28+Sheet2!B$5/24</f>
+        <v>1.125</v>
+      </c>
+      <c r="P28" s="17">
+        <f>$I28+Sheet2!B$6/24</f>
+        <v>1.125</v>
+      </c>
+      <c r="Q28" s="17">
+        <f>$I28+Sheet2!B$7/24</f>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="R28" s="17">
+        <f>$I28+Sheet2!B$8/24</f>
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="S28" s="17">
+        <f>$I28+Sheet2!B$9/24</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="T28" s="17">
+        <f>$I28+Sheet2!B$10/24</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="U28" s="17">
+        <f>$I28+Sheet2!B$11/24</f>
+        <v>0.75</v>
+      </c>
+      <c r="V28" s="17">
+        <f>$I28+Sheet2!B$12/24</f>
+        <v>0.70833333333333326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="15">
         <v>9</v>
       </c>
-      <c r="D27" s="15">
-        <v>28</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="H27" s="38" t="str">
+      <c r="D29" s="15">
+        <v>30</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="38" t="str">
         <f>Sheet2!$A$12</f>
         <v>PDT</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I29" s="17">
         <v>1.041666666666667</v>
       </c>
-      <c r="J27" s="37" t="s">
+      <c r="J29" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="40">
-        <f>$I27+Sheet2!B$1/24</f>
+      <c r="K29" s="40">
+        <f>$I29+Sheet2!B$1/24</f>
         <v>1.4583333333333337</v>
       </c>
-      <c r="L27" s="17">
-        <f>$I27+Sheet2!B$2/24</f>
+      <c r="L29" s="17">
+        <f>$I29+Sheet2!B$2/24</f>
         <v>1.416666666666667</v>
       </c>
-      <c r="M27" s="17">
-        <f>$I27+Sheet2!B$3/24</f>
+      <c r="M29" s="17">
+        <f>$I29+Sheet2!B$3/24</f>
         <v>1.3750000000000002</v>
       </c>
-      <c r="N27" s="17">
-        <f>$I27+Sheet2!B$4/24</f>
+      <c r="N29" s="17">
+        <f>$I29+Sheet2!B$4/24</f>
         <v>1.166666666666667</v>
       </c>
-      <c r="O27" s="17">
-        <f>$I27+Sheet2!B$5/24</f>
+      <c r="O29" s="17">
+        <f>$I29+Sheet2!B$5/24</f>
         <v>1.166666666666667</v>
       </c>
-      <c r="P27" s="17">
-        <f>$I27+Sheet2!B$6/24</f>
+      <c r="P29" s="17">
+        <f>$I29+Sheet2!B$6/24</f>
         <v>1.166666666666667</v>
       </c>
-      <c r="Q27" s="17">
-        <f>$I27+Sheet2!B$7/24</f>
+      <c r="Q29" s="17">
+        <f>$I29+Sheet2!B$7/24</f>
         <v>1.1250000000000002</v>
       </c>
-      <c r="R27" s="17">
-        <f>$I27+Sheet2!B$8/24</f>
+      <c r="R29" s="17">
+        <f>$I29+Sheet2!B$8/24</f>
         <v>1.0833333333333337</v>
       </c>
-      <c r="S27" s="17">
-        <f>$I27+Sheet2!B$9/24</f>
+      <c r="S29" s="17">
+        <f>$I29+Sheet2!B$9/24</f>
         <v>0.87500000000000033</v>
       </c>
-      <c r="T27" s="17">
-        <f>$I27+Sheet2!B$10/24</f>
+      <c r="T29" s="17">
+        <f>$I29+Sheet2!B$10/24</f>
         <v>0.83333333333333359</v>
       </c>
-      <c r="U27" s="17">
-        <f>$I27+Sheet2!B$11/24</f>
+      <c r="U29" s="17">
+        <f>$I29+Sheet2!B$11/24</f>
         <v>0.79166666666666696</v>
       </c>
-      <c r="V27" s="17">
-        <f>$I27+Sheet2!B$12/24</f>
+      <c r="V29" s="17">
+        <f>$I29+Sheet2!B$12/24</f>
         <v>0.75000000000000022</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:V27">
-    <sortCondition ref="D2:D27"/>
+  <sortState ref="B2:V29">
+    <sortCondition ref="D2:D29"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
       <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
-    <mergeCell ref="A5:A17"/>
-    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="A5:A18"/>
+    <mergeCell ref="A19:A29"/>
     <mergeCell ref="A2:A4"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L2 K3:V27">
-    <cfRule type="expression" dxfId="2" priority="17">
+  <conditionalFormatting sqref="K2:L2 K3:V29">
+    <cfRule type="expression" dxfId="1" priority="17">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:V2">
-    <cfRule type="expression" dxfId="1" priority="19">
+    <cfRule type="expression" dxfId="2" priority="19">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:V27">
+  <conditionalFormatting sqref="B2:V29">
     <cfRule type="expression" dxfId="0" priority="23">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -3363,24 +3511,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B1">
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B2">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3391,7 +3539,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3402,7 +3550,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -3414,7 +3562,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -3431,7 +3579,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3447,7 +3595,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3463,7 +3611,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3479,7 +3627,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3495,7 +3643,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3511,7 +3659,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3527,7 +3675,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
